--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8520DE-BC9D-4439-AA44-07B5A58DC91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ED5A6D-008C-44FD-8486-DE8A639399FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -934,6 +934,38 @@
   </si>
   <si>
     <t>400갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1367,11 +1399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J216"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G214" sqref="G214"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8292,6 +8324,262 @@
         <v>0</v>
       </c>
       <c r="J216" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="3">
+        <v>6.9999999999999997E+90</v>
+      </c>
+      <c r="C217" t="s">
+        <v>225</v>
+      </c>
+      <c r="D217" s="1">
+        <v>20</v>
+      </c>
+      <c r="E217" s="1">
+        <v>20500000</v>
+      </c>
+      <c r="F217" s="1">
+        <v>2</v>
+      </c>
+      <c r="G217" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="H217" s="1">
+        <v>23</v>
+      </c>
+      <c r="I217" s="1">
+        <v>0</v>
+      </c>
+      <c r="J217" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1.0000000000000001E+91</v>
+      </c>
+      <c r="C218" t="s">
+        <v>226</v>
+      </c>
+      <c r="D218" s="1">
+        <v>20</v>
+      </c>
+      <c r="E218" s="1">
+        <v>20600000</v>
+      </c>
+      <c r="F218" s="1">
+        <v>2</v>
+      </c>
+      <c r="G218" s="1">
+        <v>0.1704</v>
+      </c>
+      <c r="H218" s="1">
+        <v>23</v>
+      </c>
+      <c r="I218" s="1">
+        <v>0</v>
+      </c>
+      <c r="J218" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="3">
+        <v>2.0000000000000002E+91</v>
+      </c>
+      <c r="C219" t="s">
+        <v>227</v>
+      </c>
+      <c r="D219" s="1">
+        <v>20</v>
+      </c>
+      <c r="E219" s="1">
+        <v>20700000</v>
+      </c>
+      <c r="F219" s="1">
+        <v>2</v>
+      </c>
+      <c r="G219" s="1">
+        <v>0.17080000000000001</v>
+      </c>
+      <c r="H219" s="1">
+        <v>23</v>
+      </c>
+      <c r="I219" s="1">
+        <v>0</v>
+      </c>
+      <c r="J219" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="3">
+        <v>5.0000000000000002E+91</v>
+      </c>
+      <c r="C220" t="s">
+        <v>228</v>
+      </c>
+      <c r="D220" s="1">
+        <v>20</v>
+      </c>
+      <c r="E220" s="1">
+        <v>20800000</v>
+      </c>
+      <c r="F220" s="1">
+        <v>2</v>
+      </c>
+      <c r="G220" s="1">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="H220" s="1">
+        <v>23</v>
+      </c>
+      <c r="I220" s="1">
+        <v>0</v>
+      </c>
+      <c r="J220" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="3">
+        <v>1E+92</v>
+      </c>
+      <c r="C221" t="s">
+        <v>229</v>
+      </c>
+      <c r="D221" s="1">
+        <v>20</v>
+      </c>
+      <c r="E221" s="1">
+        <v>20900000</v>
+      </c>
+      <c r="F221" s="1">
+        <v>2</v>
+      </c>
+      <c r="G221" s="1">
+        <v>0.1716</v>
+      </c>
+      <c r="H221" s="1">
+        <v>23</v>
+      </c>
+      <c r="I221" s="1">
+        <v>0</v>
+      </c>
+      <c r="J221" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="3">
+        <v>2.0000000000000001E+92</v>
+      </c>
+      <c r="C222" t="s">
+        <v>230</v>
+      </c>
+      <c r="D222" s="1">
+        <v>20</v>
+      </c>
+      <c r="E222" s="1">
+        <v>21000000</v>
+      </c>
+      <c r="F222" s="1">
+        <v>2</v>
+      </c>
+      <c r="G222" s="1">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H222" s="1">
+        <v>23</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0</v>
+      </c>
+      <c r="J222" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="3">
+        <v>5.0000000000000002E+92</v>
+      </c>
+      <c r="C223" t="s">
+        <v>231</v>
+      </c>
+      <c r="D223" s="1">
+        <v>20</v>
+      </c>
+      <c r="E223" s="1">
+        <v>21100000</v>
+      </c>
+      <c r="F223" s="1">
+        <v>2</v>
+      </c>
+      <c r="G223" s="1">
+        <v>0.1724</v>
+      </c>
+      <c r="H223" s="1">
+        <v>23</v>
+      </c>
+      <c r="I223" s="1">
+        <v>0</v>
+      </c>
+      <c r="J223" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="3">
+        <v>1E+93</v>
+      </c>
+      <c r="C224" t="s">
+        <v>232</v>
+      </c>
+      <c r="D224" s="1">
+        <v>20</v>
+      </c>
+      <c r="E224" s="1">
+        <v>21200000</v>
+      </c>
+      <c r="F224" s="1">
+        <v>2</v>
+      </c>
+      <c r="G224" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H224" s="1">
+        <v>23</v>
+      </c>
+      <c r="I224" s="1">
+        <v>0</v>
+      </c>
+      <c r="J224" s="1">
         <v>60</v>
       </c>
     </row>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ED5A6D-008C-44FD-8486-DE8A639399FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989DF8C8-B8D0-4E8F-A803-74C414417ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="241">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,6 +966,38 @@
   </si>
   <si>
     <t>10라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1399,11 +1431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G223" sqref="G223"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8580,6 +8612,262 @@
         <v>0</v>
       </c>
       <c r="J224" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="3">
+        <v>2.0000000000000001E+93</v>
+      </c>
+      <c r="C225" t="s">
+        <v>233</v>
+      </c>
+      <c r="D225" s="1">
+        <v>20</v>
+      </c>
+      <c r="E225" s="1">
+        <v>21300000</v>
+      </c>
+      <c r="F225" s="1">
+        <v>2</v>
+      </c>
+      <c r="G225" s="1">
+        <v>0.1804</v>
+      </c>
+      <c r="H225" s="1">
+        <v>23</v>
+      </c>
+      <c r="I225" s="1">
+        <v>0</v>
+      </c>
+      <c r="J225" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="3">
+        <v>5.0000000000000001E+93</v>
+      </c>
+      <c r="C226" t="s">
+        <v>234</v>
+      </c>
+      <c r="D226" s="1">
+        <v>20</v>
+      </c>
+      <c r="E226" s="1">
+        <v>21400000</v>
+      </c>
+      <c r="F226" s="1">
+        <v>2</v>
+      </c>
+      <c r="G226" s="1">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="H226" s="1">
+        <v>23</v>
+      </c>
+      <c r="I226" s="1">
+        <v>0</v>
+      </c>
+      <c r="J226" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="3">
+        <v>1E+94</v>
+      </c>
+      <c r="C227" t="s">
+        <v>235</v>
+      </c>
+      <c r="D227" s="1">
+        <v>20</v>
+      </c>
+      <c r="E227" s="1">
+        <v>21500000</v>
+      </c>
+      <c r="F227" s="1">
+        <v>2</v>
+      </c>
+      <c r="G227" s="1">
+        <v>0.1812</v>
+      </c>
+      <c r="H227" s="1">
+        <v>23</v>
+      </c>
+      <c r="I227" s="1">
+        <v>0</v>
+      </c>
+      <c r="J227" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="3">
+        <v>2E+94</v>
+      </c>
+      <c r="C228" t="s">
+        <v>236</v>
+      </c>
+      <c r="D228" s="1">
+        <v>20</v>
+      </c>
+      <c r="E228" s="1">
+        <v>21600000</v>
+      </c>
+      <c r="F228" s="1">
+        <v>2</v>
+      </c>
+      <c r="G228" s="1">
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="H228" s="1">
+        <v>23</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+      <c r="J228" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="3">
+        <v>5.0000000000000001E+94</v>
+      </c>
+      <c r="C229" t="s">
+        <v>237</v>
+      </c>
+      <c r="D229" s="1">
+        <v>20</v>
+      </c>
+      <c r="E229" s="1">
+        <v>21700000</v>
+      </c>
+      <c r="F229" s="1">
+        <v>2</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="H229" s="1">
+        <v>23</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+      <c r="J229" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="3">
+        <v>1E+95</v>
+      </c>
+      <c r="C230" t="s">
+        <v>238</v>
+      </c>
+      <c r="D230" s="1">
+        <v>20</v>
+      </c>
+      <c r="E230" s="1">
+        <v>21800000</v>
+      </c>
+      <c r="F230" s="1">
+        <v>2</v>
+      </c>
+      <c r="G230" s="1">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="H230" s="1">
+        <v>23</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+      <c r="J230" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="3">
+        <v>2E+95</v>
+      </c>
+      <c r="C231" t="s">
+        <v>239</v>
+      </c>
+      <c r="D231" s="1">
+        <v>20</v>
+      </c>
+      <c r="E231" s="1">
+        <v>21900000</v>
+      </c>
+      <c r="F231" s="1">
+        <v>2</v>
+      </c>
+      <c r="G231" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H231" s="1">
+        <v>23</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0</v>
+      </c>
+      <c r="J231" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="3">
+        <v>5.0000000000000002E+95</v>
+      </c>
+      <c r="C232" t="s">
+        <v>240</v>
+      </c>
+      <c r="D232" s="1">
+        <v>20</v>
+      </c>
+      <c r="E232" s="1">
+        <v>22000000</v>
+      </c>
+      <c r="F232" s="1">
+        <v>2</v>
+      </c>
+      <c r="G232" s="1">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="H232" s="1">
+        <v>23</v>
+      </c>
+      <c r="I232" s="1">
+        <v>0</v>
+      </c>
+      <c r="J232" s="1">
         <v>60</v>
       </c>
     </row>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989DF8C8-B8D0-4E8F-A803-74C414417ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B0480-4559-4D89-8A76-C09DDA31C291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="245">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -998,6 +998,22 @@
   </si>
   <si>
     <t>5000라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,11 +1447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:J236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8868,6 +8884,134 @@
         <v>0</v>
       </c>
       <c r="J232" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="3">
+        <v>1E+96</v>
+      </c>
+      <c r="C233" t="s">
+        <v>241</v>
+      </c>
+      <c r="D233" s="1">
+        <v>20</v>
+      </c>
+      <c r="E233" s="1">
+        <v>22100000</v>
+      </c>
+      <c r="F233" s="1">
+        <v>2</v>
+      </c>
+      <c r="G233" s="1">
+        <v>0.1908</v>
+      </c>
+      <c r="H233" s="1">
+        <v>23</v>
+      </c>
+      <c r="I233" s="1">
+        <v>0</v>
+      </c>
+      <c r="J233" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="3">
+        <v>2.0000000000000001E+96</v>
+      </c>
+      <c r="C234" t="s">
+        <v>242</v>
+      </c>
+      <c r="D234" s="1">
+        <v>20</v>
+      </c>
+      <c r="E234" s="1">
+        <v>22200000</v>
+      </c>
+      <c r="F234" s="1">
+        <v>2</v>
+      </c>
+      <c r="G234" s="1">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="H234" s="1">
+        <v>23</v>
+      </c>
+      <c r="I234" s="1">
+        <v>0</v>
+      </c>
+      <c r="J234" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="3">
+        <v>5.0000000000000004E+96</v>
+      </c>
+      <c r="C235" t="s">
+        <v>243</v>
+      </c>
+      <c r="D235" s="1">
+        <v>20</v>
+      </c>
+      <c r="E235" s="1">
+        <v>22300000</v>
+      </c>
+      <c r="F235" s="1">
+        <v>2</v>
+      </c>
+      <c r="G235" s="1">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="H235" s="1">
+        <v>23</v>
+      </c>
+      <c r="I235" s="1">
+        <v>0</v>
+      </c>
+      <c r="J235" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="3">
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="C236" t="s">
+        <v>244</v>
+      </c>
+      <c r="D236" s="1">
+        <v>20</v>
+      </c>
+      <c r="E236" s="1">
+        <v>22400000</v>
+      </c>
+      <c r="F236" s="1">
+        <v>2</v>
+      </c>
+      <c r="G236" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="H236" s="1">
+        <v>23</v>
+      </c>
+      <c r="I236" s="1">
+        <v>0</v>
+      </c>
+      <c r="J236" s="1">
         <v>60</v>
       </c>
     </row>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B0480-4559-4D89-8A76-C09DDA31C291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E8CF8-4449-49CA-9B60-ED0A09EEC226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="UnitChange" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="292">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1013,7 +1014,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>복붙용(해당 칼럼에 맞게 복붙, 복사 후 ctr+alt+v -&gt; alt+v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 환산 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 환산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilType0</t>
+  </si>
+  <si>
+    <t>abilValue0</t>
+  </si>
+  <si>
+    <t>abilType1</t>
+  </si>
+  <si>
+    <t>abilValue1</t>
+  </si>
+  <si>
+    <t>abilType2</t>
+  </si>
+  <si>
+    <t>abilValue2</t>
+  </si>
+  <si>
+    <t>buffSec</t>
+  </si>
+  <si>
+    <t>ScoreDescription</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
     <t>10가</t>
+  </si>
+  <si>
+    <t>20가</t>
+  </si>
+  <si>
+    <t>50가</t>
+  </si>
+  <si>
+    <t>100가</t>
+  </si>
+  <si>
+    <t>150가</t>
+  </si>
+  <si>
+    <t>200가</t>
+  </si>
+  <si>
+    <t>300가</t>
+  </si>
+  <si>
+    <t>여기만 입력하면 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,8 +1234,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1084,13 +1265,52 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1108,7 +1328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,6 +1349,51 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1447,11 +1712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:J242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B237" sqref="B237"/>
+      <selection pane="bottomLeft" activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8991,7 +9256,7 @@
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="C236" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="D236" s="1">
         <v>20</v>
@@ -9012,6 +9277,198 @@
         <v>0</v>
       </c>
       <c r="J236" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="3">
+        <v>2.0000000000000001E+97</v>
+      </c>
+      <c r="C237" t="s">
+        <v>285</v>
+      </c>
+      <c r="D237" s="1">
+        <v>20</v>
+      </c>
+      <c r="E237" s="1">
+        <v>22500000</v>
+      </c>
+      <c r="F237" s="1">
+        <v>2</v>
+      </c>
+      <c r="G237" s="1">
+        <v>0.19240000000000002</v>
+      </c>
+      <c r="H237" s="1">
+        <v>23</v>
+      </c>
+      <c r="I237" s="1">
+        <v>0</v>
+      </c>
+      <c r="J237" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="3">
+        <v>5E+97</v>
+      </c>
+      <c r="C238" t="s">
+        <v>286</v>
+      </c>
+      <c r="D238" s="1">
+        <v>20</v>
+      </c>
+      <c r="E238" s="1">
+        <v>22600000</v>
+      </c>
+      <c r="F238" s="1">
+        <v>2</v>
+      </c>
+      <c r="G238" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H238" s="1">
+        <v>23</v>
+      </c>
+      <c r="I238" s="1">
+        <v>0</v>
+      </c>
+      <c r="J238" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="3">
+        <v>1E+98</v>
+      </c>
+      <c r="C239" t="s">
+        <v>287</v>
+      </c>
+      <c r="D239" s="1">
+        <v>20</v>
+      </c>
+      <c r="E239" s="1">
+        <v>22700000</v>
+      </c>
+      <c r="F239" s="1">
+        <v>2</v>
+      </c>
+      <c r="G239" s="1">
+        <v>0.20040000000000002</v>
+      </c>
+      <c r="H239" s="1">
+        <v>23</v>
+      </c>
+      <c r="I239" s="1">
+        <v>0</v>
+      </c>
+      <c r="J239" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="3">
+        <v>1.5000000000000001E+98</v>
+      </c>
+      <c r="C240" t="s">
+        <v>288</v>
+      </c>
+      <c r="D240" s="1">
+        <v>20</v>
+      </c>
+      <c r="E240" s="1">
+        <v>22800000</v>
+      </c>
+      <c r="F240" s="1">
+        <v>2</v>
+      </c>
+      <c r="G240" s="1">
+        <v>0.20080000000000003</v>
+      </c>
+      <c r="H240" s="1">
+        <v>23</v>
+      </c>
+      <c r="I240" s="1">
+        <v>0</v>
+      </c>
+      <c r="J240" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="3">
+        <v>2E+98</v>
+      </c>
+      <c r="C241" t="s">
+        <v>289</v>
+      </c>
+      <c r="D241" s="1">
+        <v>20</v>
+      </c>
+      <c r="E241" s="1">
+        <v>22900000</v>
+      </c>
+      <c r="F241" s="1">
+        <v>2</v>
+      </c>
+      <c r="G241" s="1">
+        <v>0.20120000000000005</v>
+      </c>
+      <c r="H241" s="1">
+        <v>23</v>
+      </c>
+      <c r="I241" s="1">
+        <v>0</v>
+      </c>
+      <c r="J241" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="3">
+        <v>3.0000000000000001E+98</v>
+      </c>
+      <c r="C242" t="s">
+        <v>290</v>
+      </c>
+      <c r="D242" s="1">
+        <v>20</v>
+      </c>
+      <c r="E242" s="1">
+        <v>23000000</v>
+      </c>
+      <c r="F242" s="1">
+        <v>2</v>
+      </c>
+      <c r="G242" s="1">
+        <v>0.20160000000000006</v>
+      </c>
+      <c r="H242" s="1">
+        <v>23</v>
+      </c>
+      <c r="I242" s="1">
+        <v>0</v>
+      </c>
+      <c r="J242" s="1">
         <v>60</v>
       </c>
     </row>
@@ -9026,8 +9483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5F40D-1684-4728-AC3D-71132164ECDA}">
   <dimension ref="B1:B195"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B195"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10011,4 +10468,2543 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
+  <dimension ref="B1:AB64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="15"/>
+    <col min="3" max="3" width="11.875" style="14" customWidth="1"/>
+    <col min="4" max="11" width="10.25" style="15" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="17" customWidth="1"/>
+    <col min="14" max="14" width="19.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.25" style="8" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="8" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="2:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="12"/>
+      <c r="P6" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>4</v>
+      </c>
+      <c r="R6" s="13">
+        <f>POWER(10,Q6)</f>
+        <v>10000</v>
+      </c>
+      <c r="S6" s="13" t="str">
+        <f>RIGHT(R6,Q6)</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="21">
+        <v>234</v>
+      </c>
+      <c r="C7" s="16">
+        <f>L7*N7</f>
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="D7" s="16" t="str">
+        <f>L7&amp;M7</f>
+        <v>10가</v>
+      </c>
+      <c r="E7" s="16">
+        <v>20</v>
+      </c>
+      <c r="F7" s="16">
+        <v>22400000</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.192</v>
+      </c>
+      <c r="I7" s="16">
+        <v>23</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>60</v>
+      </c>
+      <c r="L7" s="20">
+        <v>10</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f>VLOOKUP(M7,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>8</v>
+      </c>
+      <c r="R7" s="13">
+        <f t="shared" ref="R7:R29" si="0">POWER(10,Q7)</f>
+        <v>100000000</v>
+      </c>
+      <c r="S7" s="13" t="str">
+        <f t="shared" ref="S7:S29" si="1">RIGHT(R7,Q7)</f>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="21">
+        <v>235</v>
+      </c>
+      <c r="C8" s="16">
+        <f>L8*N8</f>
+        <v>2.0000000000000001E+97</v>
+      </c>
+      <c r="D8" s="16" t="str">
+        <f>L8&amp;M8</f>
+        <v>20가</v>
+      </c>
+      <c r="E8" s="16">
+        <v>20</v>
+      </c>
+      <c r="F8" s="16">
+        <v>22500000</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16">
+        <f>IF(RIGHT(H7,2)="24",H7+0.0076,H7+0.0004)</f>
+        <v>0.19240000000000002</v>
+      </c>
+      <c r="I8" s="16">
+        <v>23</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>60</v>
+      </c>
+      <c r="L8" s="20">
+        <v>20</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f>VLOOKUP(M8,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>12</v>
+      </c>
+      <c r="R8" s="13">
+        <f t="shared" si="0"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="S8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="21">
+        <v>236</v>
+      </c>
+      <c r="C9" s="16">
+        <f>L9*N9</f>
+        <v>5E+97</v>
+      </c>
+      <c r="D9" s="16" t="str">
+        <f>L9&amp;M9</f>
+        <v>50가</v>
+      </c>
+      <c r="E9" s="16">
+        <v>20</v>
+      </c>
+      <c r="F9" s="16">
+        <v>22600000</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
+        <f>IF(RIGHT(H8,2)="24",H8+0.0076,H8+0.0004)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="16">
+        <v>23</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>60</v>
+      </c>
+      <c r="L9" s="20">
+        <v>50</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f>VLOOKUP(M9,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>16</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="0"/>
+        <v>1E+16</v>
+      </c>
+      <c r="S9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="21">
+        <v>237</v>
+      </c>
+      <c r="C10" s="16">
+        <f>L10*N10</f>
+        <v>1E+98</v>
+      </c>
+      <c r="D10" s="16" t="str">
+        <f>L10&amp;M10</f>
+        <v>100가</v>
+      </c>
+      <c r="E10" s="16">
+        <v>20</v>
+      </c>
+      <c r="F10" s="16">
+        <v>22700000</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" ref="H10:H37" si="2">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
+        <v>0.20040000000000002</v>
+      </c>
+      <c r="I10" s="16">
+        <v>23</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>60</v>
+      </c>
+      <c r="L10" s="20">
+        <v>100</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N10" s="12" t="str">
+        <f>VLOOKUP(M10,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>20</v>
+      </c>
+      <c r="R10" s="13">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="S10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="21">
+        <v>238</v>
+      </c>
+      <c r="C11" s="16">
+        <f>L11*N11</f>
+        <v>1.5000000000000001E+98</v>
+      </c>
+      <c r="D11" s="16" t="str">
+        <f>L11&amp;M11</f>
+        <v>150가</v>
+      </c>
+      <c r="E11" s="16">
+        <v>20</v>
+      </c>
+      <c r="F11" s="16">
+        <v>22800000</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="2"/>
+        <v>0.20080000000000003</v>
+      </c>
+      <c r="I11" s="16">
+        <v>23</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>60</v>
+      </c>
+      <c r="L11" s="20">
+        <v>150</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N11" s="12" t="str">
+        <f>VLOOKUP(M11,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>24</v>
+      </c>
+      <c r="R11" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999998E+23</v>
+      </c>
+      <c r="S11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="21">
+        <v>239</v>
+      </c>
+      <c r="C12" s="16">
+        <f>L12*N12</f>
+        <v>2E+98</v>
+      </c>
+      <c r="D12" s="16" t="str">
+        <f>L12&amp;M12</f>
+        <v>200가</v>
+      </c>
+      <c r="E12" s="16">
+        <v>20</v>
+      </c>
+      <c r="F12" s="16">
+        <v>22900000</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="2"/>
+        <v>0.20120000000000005</v>
+      </c>
+      <c r="I12" s="16">
+        <v>23</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>60</v>
+      </c>
+      <c r="L12" s="20">
+        <v>200</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N12" s="12" t="str">
+        <f>VLOOKUP(M12,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>28</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999996E+27</v>
+      </c>
+      <c r="S12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="21">
+        <v>240</v>
+      </c>
+      <c r="C13" s="16">
+        <f>L13*N13</f>
+        <v>3.0000000000000001E+98</v>
+      </c>
+      <c r="D13" s="16" t="str">
+        <f>L13&amp;M13</f>
+        <v>300가</v>
+      </c>
+      <c r="E13" s="16">
+        <v>20</v>
+      </c>
+      <c r="F13" s="16">
+        <v>23000000</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="2"/>
+        <v>0.20160000000000006</v>
+      </c>
+      <c r="I13" s="16">
+        <v>23</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>60</v>
+      </c>
+      <c r="L13" s="20">
+        <v>300</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N13" s="12" t="str">
+        <f>VLOOKUP(M13,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>32</v>
+      </c>
+      <c r="R13" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+32</v>
+      </c>
+      <c r="S13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="21">
+        <v>241</v>
+      </c>
+      <c r="C14" s="16">
+        <f>L14*N14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="16" t="str">
+        <f>L14&amp;M14</f>
+        <v>가</v>
+      </c>
+      <c r="E14" s="16">
+        <v>20</v>
+      </c>
+      <c r="F14" s="16">
+        <v>23100000</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="2"/>
+        <v>0.20200000000000007</v>
+      </c>
+      <c r="I14" s="16">
+        <v>23</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>60</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N14" s="12" t="str">
+        <f>VLOOKUP(M14,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>36</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="0"/>
+        <v>1E+36</v>
+      </c>
+      <c r="S14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="21">
+        <v>242</v>
+      </c>
+      <c r="C15" s="16">
+        <f>L15*N15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="16" t="str">
+        <f>L15&amp;M15</f>
+        <v>가</v>
+      </c>
+      <c r="E15" s="16">
+        <v>20</v>
+      </c>
+      <c r="F15" s="16">
+        <v>23200000</v>
+      </c>
+      <c r="G15" s="16">
+        <v>2</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.20240000000000008</v>
+      </c>
+      <c r="I15" s="16">
+        <v>23</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>60</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N15" s="12" t="str">
+        <f>VLOOKUP(M15,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>40</v>
+      </c>
+      <c r="R15" s="13">
+        <f t="shared" si="0"/>
+        <v>1E+40</v>
+      </c>
+      <c r="S15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="21">
+        <v>243</v>
+      </c>
+      <c r="C16" s="16">
+        <f>L16*N16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="16" t="str">
+        <f>L16&amp;M16</f>
+        <v>가</v>
+      </c>
+      <c r="E16" s="16">
+        <v>20</v>
+      </c>
+      <c r="F16" s="16">
+        <v>23300000</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000008</v>
+      </c>
+      <c r="I16" s="16">
+        <v>23</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>60</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N16" s="12" t="str">
+        <f>VLOOKUP(M16,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>44</v>
+      </c>
+      <c r="R16" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+44</v>
+      </c>
+      <c r="S16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B17" s="21">
+        <v>244</v>
+      </c>
+      <c r="C17" s="16">
+        <f>L17*N17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="16" t="str">
+        <f>L17&amp;M17</f>
+        <v>가</v>
+      </c>
+      <c r="E17" s="16">
+        <v>20</v>
+      </c>
+      <c r="F17" s="16">
+        <v>23400000</v>
+      </c>
+      <c r="G17" s="16">
+        <v>2</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="2"/>
+        <v>0.21040000000000009</v>
+      </c>
+      <c r="I17" s="16">
+        <v>23</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>60</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N17" s="12" t="str">
+        <f>VLOOKUP(M17,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>48</v>
+      </c>
+      <c r="R17" s="13">
+        <f t="shared" si="0"/>
+        <v>1E+48</v>
+      </c>
+      <c r="S17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B18" s="21">
+        <v>245</v>
+      </c>
+      <c r="C18" s="16">
+        <f>L18*N18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="16" t="str">
+        <f>L18&amp;M18</f>
+        <v>가</v>
+      </c>
+      <c r="E18" s="16">
+        <v>20</v>
+      </c>
+      <c r="F18" s="16">
+        <v>23500000</v>
+      </c>
+      <c r="G18" s="16">
+        <v>2</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2108000000000001</v>
+      </c>
+      <c r="I18" s="16">
+        <v>23</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>60</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N18" s="12" t="str">
+        <f>VLOOKUP(M18,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>52</v>
+      </c>
+      <c r="R18" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999999E+51</v>
+      </c>
+      <c r="S18" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B19" s="21">
+        <v>246</v>
+      </c>
+      <c r="C19" s="16">
+        <f>L19*N19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="16" t="str">
+        <f>L19&amp;M19</f>
+        <v>가</v>
+      </c>
+      <c r="E19" s="16">
+        <v>20</v>
+      </c>
+      <c r="F19" s="16">
+        <v>23600000</v>
+      </c>
+      <c r="G19" s="16">
+        <v>2</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="2"/>
+        <v>0.21120000000000011</v>
+      </c>
+      <c r="I19" s="16">
+        <v>23</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>60</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N19" s="12" t="str">
+        <f>VLOOKUP(M19,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>56</v>
+      </c>
+      <c r="R19" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+56</v>
+      </c>
+      <c r="S19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B20" s="21">
+        <v>247</v>
+      </c>
+      <c r="C20" s="16">
+        <f>L20*N20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="16" t="str">
+        <f>L20&amp;M20</f>
+        <v>가</v>
+      </c>
+      <c r="E20" s="16">
+        <v>20</v>
+      </c>
+      <c r="F20" s="16">
+        <v>23700000</v>
+      </c>
+      <c r="G20" s="16">
+        <v>2</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="2"/>
+        <v>0.21160000000000012</v>
+      </c>
+      <c r="I20" s="16">
+        <v>23</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>60</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N20" s="12" t="str">
+        <f>VLOOKUP(M20,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>60</v>
+      </c>
+      <c r="R20" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+59</v>
+      </c>
+      <c r="S20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B21" s="21">
+        <v>248</v>
+      </c>
+      <c r="C21" s="16">
+        <f>L21*N21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f>L21&amp;M21</f>
+        <v>가</v>
+      </c>
+      <c r="E21" s="16">
+        <v>20</v>
+      </c>
+      <c r="F21" s="16">
+        <v>23800000</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="2"/>
+        <v>0.21200000000000013</v>
+      </c>
+      <c r="I21" s="16">
+        <v>23</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>60</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N21" s="12" t="str">
+        <f>VLOOKUP(M21,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>64</v>
+      </c>
+      <c r="R21" s="13">
+        <f t="shared" si="0"/>
+        <v>1E+64</v>
+      </c>
+      <c r="S21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B22" s="21">
+        <v>249</v>
+      </c>
+      <c r="C22" s="16">
+        <f>L22*N22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f>L22&amp;M22</f>
+        <v>가</v>
+      </c>
+      <c r="E22" s="16">
+        <v>20</v>
+      </c>
+      <c r="F22" s="16">
+        <v>23900000</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="2"/>
+        <v>0.21240000000000014</v>
+      </c>
+      <c r="I22" s="16">
+        <v>23</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>60</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N22" s="12" t="str">
+        <f>VLOOKUP(M22,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>68</v>
+      </c>
+      <c r="R22" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="S22" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B23" s="21">
+        <v>250</v>
+      </c>
+      <c r="C23" s="16">
+        <f>L23*N23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="16" t="str">
+        <f>L23&amp;M23</f>
+        <v>가</v>
+      </c>
+      <c r="E23" s="16">
+        <v>20</v>
+      </c>
+      <c r="F23" s="16">
+        <v>24000000</v>
+      </c>
+      <c r="G23" s="16">
+        <v>2</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.22000000000000014</v>
+      </c>
+      <c r="I23" s="16">
+        <v>23</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>60</v>
+      </c>
+      <c r="L23" s="20"/>
+      <c r="M23" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N23" s="12" t="str">
+        <f>VLOOKUP(M23,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>72</v>
+      </c>
+      <c r="R23" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="S23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B24" s="21">
+        <v>251</v>
+      </c>
+      <c r="C24" s="16">
+        <f>L24*N24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="16" t="str">
+        <f>L24&amp;M24</f>
+        <v>가</v>
+      </c>
+      <c r="E24" s="16">
+        <v>20</v>
+      </c>
+      <c r="F24" s="16">
+        <v>24100000</v>
+      </c>
+      <c r="G24" s="16">
+        <v>2</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.22040000000000015</v>
+      </c>
+      <c r="I24" s="16">
+        <v>23</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>60</v>
+      </c>
+      <c r="L24" s="20"/>
+      <c r="M24" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N24" s="12" t="str">
+        <f>VLOOKUP(M24,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>76</v>
+      </c>
+      <c r="R24" s="13">
+        <f t="shared" si="0"/>
+        <v>1E+76</v>
+      </c>
+      <c r="S24" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B25" s="21">
+        <v>252</v>
+      </c>
+      <c r="C25" s="16">
+        <f>L25*N25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="16" t="str">
+        <f>L25&amp;M25</f>
+        <v>가</v>
+      </c>
+      <c r="E25" s="16">
+        <v>20</v>
+      </c>
+      <c r="F25" s="16">
+        <v>24200000</v>
+      </c>
+      <c r="G25" s="16">
+        <v>2</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.22080000000000016</v>
+      </c>
+      <c r="I25" s="16">
+        <v>23</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
+        <v>60</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N25" s="12" t="str">
+        <f>VLOOKUP(M25,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>80</v>
+      </c>
+      <c r="R25" s="13">
+        <f t="shared" si="0"/>
+        <v>1E+80</v>
+      </c>
+      <c r="S25" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B26" s="21">
+        <v>253</v>
+      </c>
+      <c r="C26" s="16">
+        <f>L26*N26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="16" t="str">
+        <f>L26&amp;M26</f>
+        <v>가</v>
+      </c>
+      <c r="E26" s="16">
+        <v>20</v>
+      </c>
+      <c r="F26" s="16">
+        <v>24300000</v>
+      </c>
+      <c r="G26" s="16">
+        <v>2</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.22120000000000017</v>
+      </c>
+      <c r="I26" s="16">
+        <v>23</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>60</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N26" s="12" t="str">
+        <f>VLOOKUP(M26,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>84</v>
+      </c>
+      <c r="R26" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="S26" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B27" s="21">
+        <v>254</v>
+      </c>
+      <c r="C27" s="16">
+        <f>L27*N27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="16" t="str">
+        <f>L27&amp;M27</f>
+        <v>가</v>
+      </c>
+      <c r="E27" s="16">
+        <v>20</v>
+      </c>
+      <c r="F27" s="16">
+        <v>24400000</v>
+      </c>
+      <c r="G27" s="16">
+        <v>2</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.22160000000000019</v>
+      </c>
+      <c r="I27" s="16">
+        <v>23</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>60</v>
+      </c>
+      <c r="L27" s="20"/>
+      <c r="M27" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N27" s="12" t="str">
+        <f>VLOOKUP(M27,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>88</v>
+      </c>
+      <c r="R27" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="S27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B28" s="21">
+        <v>255</v>
+      </c>
+      <c r="C28" s="16">
+        <f>L28*N28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="16" t="str">
+        <f>L28&amp;M28</f>
+        <v>가</v>
+      </c>
+      <c r="E28" s="16">
+        <v>20</v>
+      </c>
+      <c r="F28" s="16">
+        <v>24500000</v>
+      </c>
+      <c r="G28" s="16">
+        <v>2</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2220000000000002</v>
+      </c>
+      <c r="I28" s="16">
+        <v>23</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>60</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N28" s="12" t="str">
+        <f>VLOOKUP(M28,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>92</v>
+      </c>
+      <c r="R28" s="13">
+        <f t="shared" si="0"/>
+        <v>1E+92</v>
+      </c>
+      <c r="S28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B29" s="21">
+        <v>256</v>
+      </c>
+      <c r="C29" s="16">
+        <f>L29*N29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="16" t="str">
+        <f>L29&amp;M29</f>
+        <v>가</v>
+      </c>
+      <c r="E29" s="16">
+        <v>20</v>
+      </c>
+      <c r="F29" s="16">
+        <v>24600000</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="2"/>
+        <v>0.22240000000000021</v>
+      </c>
+      <c r="I29" s="16">
+        <v>23</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>60</v>
+      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N29" s="12" t="str">
+        <f>VLOOKUP(M29,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>96</v>
+      </c>
+      <c r="R29" s="13">
+        <f t="shared" si="0"/>
+        <v>1E+96</v>
+      </c>
+      <c r="S29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B30" s="21">
+        <v>257</v>
+      </c>
+      <c r="C30" s="16">
+        <f>L30*N30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="16" t="str">
+        <f>L30&amp;M30</f>
+        <v>가</v>
+      </c>
+      <c r="E30" s="16">
+        <v>20</v>
+      </c>
+      <c r="F30" s="16">
+        <v>24700000</v>
+      </c>
+      <c r="G30" s="16">
+        <v>2</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2300000000000002</v>
+      </c>
+      <c r="I30" s="16">
+        <v>23</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>60</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N30" s="12" t="str">
+        <f>VLOOKUP(M30,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B31" s="21">
+        <v>258</v>
+      </c>
+      <c r="C31" s="16">
+        <f>L31*N31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="16" t="str">
+        <f>L31&amp;M31</f>
+        <v>가</v>
+      </c>
+      <c r="E31" s="16">
+        <v>20</v>
+      </c>
+      <c r="F31" s="16">
+        <v>24800000</v>
+      </c>
+      <c r="G31" s="16">
+        <v>2</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="2"/>
+        <v>0.23040000000000022</v>
+      </c>
+      <c r="I31" s="16">
+        <v>23</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>60</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N31" s="12" t="str">
+        <f>VLOOKUP(M31,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B32" s="21">
+        <v>259</v>
+      </c>
+      <c r="C32" s="16">
+        <f>L32*N32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="16" t="str">
+        <f>L32&amp;M32</f>
+        <v>가</v>
+      </c>
+      <c r="E32" s="16">
+        <v>20</v>
+      </c>
+      <c r="F32" s="16">
+        <v>24900000</v>
+      </c>
+      <c r="G32" s="16">
+        <v>2</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="2"/>
+        <v>0.23080000000000023</v>
+      </c>
+      <c r="I32" s="16">
+        <v>23</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>60</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N32" s="12" t="str">
+        <f>VLOOKUP(M32,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B33" s="21">
+        <v>260</v>
+      </c>
+      <c r="C33" s="16">
+        <f>L33*N33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="16" t="str">
+        <f>L33&amp;M33</f>
+        <v>가</v>
+      </c>
+      <c r="E33" s="16">
+        <v>20</v>
+      </c>
+      <c r="F33" s="16">
+        <v>25000000</v>
+      </c>
+      <c r="G33" s="16">
+        <v>2</v>
+      </c>
+      <c r="H33" s="16">
+        <f t="shared" si="2"/>
+        <v>0.23120000000000024</v>
+      </c>
+      <c r="I33" s="16">
+        <v>23</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>60</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="M33" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N33" s="12" t="str">
+        <f>VLOOKUP(M33,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B34" s="21">
+        <v>261</v>
+      </c>
+      <c r="C34" s="16">
+        <f>L34*N34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="16" t="str">
+        <f>L34&amp;M34</f>
+        <v>가</v>
+      </c>
+      <c r="E34" s="16">
+        <v>20</v>
+      </c>
+      <c r="F34" s="16">
+        <v>25100000</v>
+      </c>
+      <c r="G34" s="16">
+        <v>2</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="2"/>
+        <v>0.23160000000000025</v>
+      </c>
+      <c r="I34" s="16">
+        <v>23</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>60</v>
+      </c>
+      <c r="L34" s="20"/>
+      <c r="M34" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N34" s="12" t="str">
+        <f>VLOOKUP(M34,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B35" s="21">
+        <v>262</v>
+      </c>
+      <c r="C35" s="16">
+        <f>L35*N35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="16" t="str">
+        <f>L35&amp;M35</f>
+        <v>가</v>
+      </c>
+      <c r="E35" s="16">
+        <v>20</v>
+      </c>
+      <c r="F35" s="16">
+        <v>25200000</v>
+      </c>
+      <c r="G35" s="16">
+        <v>2</v>
+      </c>
+      <c r="H35" s="16">
+        <f t="shared" si="2"/>
+        <v>0.23200000000000026</v>
+      </c>
+      <c r="I35" s="16">
+        <v>23</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>60</v>
+      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N35" s="12" t="str">
+        <f>VLOOKUP(M35,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B36" s="21">
+        <v>263</v>
+      </c>
+      <c r="C36" s="16">
+        <f>L36*N36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="16" t="str">
+        <f>L36&amp;M36</f>
+        <v>가</v>
+      </c>
+      <c r="E36" s="16">
+        <v>20</v>
+      </c>
+      <c r="F36" s="16">
+        <v>25300000</v>
+      </c>
+      <c r="G36" s="16">
+        <v>2</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="2"/>
+        <v>0.23240000000000027</v>
+      </c>
+      <c r="I36" s="16">
+        <v>23</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>60</v>
+      </c>
+      <c r="L36" s="20"/>
+      <c r="M36" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N36" s="12" t="str">
+        <f>VLOOKUP(M36,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B37" s="21">
+        <v>264</v>
+      </c>
+      <c r="C37" s="16">
+        <f>L37*N37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="16" t="str">
+        <f>L37&amp;M37</f>
+        <v>가</v>
+      </c>
+      <c r="E37" s="16">
+        <v>20</v>
+      </c>
+      <c r="F37" s="16">
+        <v>25400000</v>
+      </c>
+      <c r="G37" s="16">
+        <v>2</v>
+      </c>
+      <c r="H37" s="16">
+        <f t="shared" si="2"/>
+        <v>0.24000000000000027</v>
+      </c>
+      <c r="I37" s="16">
+        <v>23</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>60</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N37" s="12" t="str">
+        <f>VLOOKUP(M37,P:S,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="12"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B39" s="21"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="12"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B40" s="21"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="12"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B41" s="21"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="12"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B42" s="21"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="12"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B43" s="21"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="12"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B44" s="21"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="12"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B45" s="21"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="12"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B46" s="21"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="12"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B47" s="21"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="12"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B48" s="21"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="12"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B49" s="21"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="12"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B50" s="21"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="12"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B51" s="21"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="12"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B52" s="21"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="12"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B53" s="21"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="12"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B54" s="21"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="12"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B55" s="21"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="12"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B56" s="21"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="12"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E8CF8-4449-49CA-9B60-ED0A09EEC226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6204A0B-BCDD-4FB9-A0E4-D76DC9BAF063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="295">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1187,6 +1187,18 @@
   </si>
   <si>
     <t>여기만 입력하면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1712,11 +1724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J242"/>
+  <dimension ref="A1:J245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B245" sqref="B245"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E248" sqref="E248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9469,6 +9481,102 @@
         <v>0</v>
       </c>
       <c r="J242" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="3">
+        <v>4.9999999999999998E+98</v>
+      </c>
+      <c r="C243" t="s">
+        <v>292</v>
+      </c>
+      <c r="D243" s="1">
+        <v>20</v>
+      </c>
+      <c r="E243" s="1">
+        <v>23100000</v>
+      </c>
+      <c r="F243" s="1">
+        <v>2</v>
+      </c>
+      <c r="G243" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H243" s="1">
+        <v>23</v>
+      </c>
+      <c r="I243" s="1">
+        <v>0</v>
+      </c>
+      <c r="J243" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="3">
+        <v>8E+98</v>
+      </c>
+      <c r="C244" t="s">
+        <v>294</v>
+      </c>
+      <c r="D244" s="1">
+        <v>20</v>
+      </c>
+      <c r="E244" s="1">
+        <v>23200000</v>
+      </c>
+      <c r="F244" s="1">
+        <v>2</v>
+      </c>
+      <c r="G244" s="1">
+        <v>0.2024</v>
+      </c>
+      <c r="H244" s="1">
+        <v>23</v>
+      </c>
+      <c r="I244" s="1">
+        <v>0</v>
+      </c>
+      <c r="J244" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="3">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C245" t="s">
+        <v>293</v>
+      </c>
+      <c r="D245" s="1">
+        <v>20</v>
+      </c>
+      <c r="E245" s="1">
+        <v>23300000</v>
+      </c>
+      <c r="F245" s="1">
+        <v>2</v>
+      </c>
+      <c r="G245" s="1">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="H245" s="1">
+        <v>23</v>
+      </c>
+      <c r="I245" s="1">
+        <v>0</v>
+      </c>
+      <c r="J245" s="1">
         <v>60</v>
       </c>
     </row>
@@ -10475,7 +10583,7 @@
   <dimension ref="B1:AB64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10639,11 +10747,11 @@
         <v>234</v>
       </c>
       <c r="C7" s="16">
-        <f>L7*N7</f>
+        <f t="shared" ref="C7:C37" si="0">L7*N7</f>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="D7" s="16" t="str">
-        <f>L7&amp;M7</f>
+        <f t="shared" ref="D7:D37" si="1">L7&amp;M7</f>
         <v>10가</v>
       </c>
       <c r="E7" s="16">
@@ -10674,7 +10782,7 @@
         <v>274</v>
       </c>
       <c r="N7" s="12" t="str">
-        <f>VLOOKUP(M7,P:S,4,FALSE)</f>
+        <f t="shared" ref="N7:N37" si="2">VLOOKUP(M7,P:S,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="P7" s="12" t="s">
@@ -10684,11 +10792,11 @@
         <v>8</v>
       </c>
       <c r="R7" s="13">
-        <f t="shared" ref="R7:R29" si="0">POWER(10,Q7)</f>
+        <f t="shared" ref="R7:R29" si="3">POWER(10,Q7)</f>
         <v>100000000</v>
       </c>
       <c r="S7" s="13" t="str">
-        <f t="shared" ref="S7:S29" si="1">RIGHT(R7,Q7)</f>
+        <f t="shared" ref="S7:S29" si="4">RIGHT(R7,Q7)</f>
         <v>00000000</v>
       </c>
     </row>
@@ -10697,11 +10805,11 @@
         <v>235</v>
       </c>
       <c r="C8" s="16">
-        <f>L8*N8</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000000001E+97</v>
       </c>
       <c r="D8" s="16" t="str">
-        <f>L8&amp;M8</f>
+        <f t="shared" si="1"/>
         <v>20가</v>
       </c>
       <c r="E8" s="16">
@@ -10733,7 +10841,7 @@
         <v>274</v>
       </c>
       <c r="N8" s="12" t="str">
-        <f>VLOOKUP(M8,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P8" s="12" t="s">
@@ -10743,11 +10851,11 @@
         <v>12</v>
       </c>
       <c r="R8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000000000</v>
       </c>
       <c r="S8" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>000000000000</v>
       </c>
     </row>
@@ -10756,11 +10864,11 @@
         <v>236</v>
       </c>
       <c r="C9" s="16">
-        <f>L9*N9</f>
+        <f t="shared" si="0"/>
         <v>5E+97</v>
       </c>
       <c r="D9" s="16" t="str">
-        <f>L9&amp;M9</f>
+        <f t="shared" si="1"/>
         <v>50가</v>
       </c>
       <c r="E9" s="16">
@@ -10792,7 +10900,7 @@
         <v>274</v>
       </c>
       <c r="N9" s="12" t="str">
-        <f>VLOOKUP(M9,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P9" s="12" t="s">
@@ -10802,11 +10910,11 @@
         <v>16</v>
       </c>
       <c r="R9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+16</v>
       </c>
       <c r="S9" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0000000000000000</v>
       </c>
     </row>
@@ -10815,11 +10923,11 @@
         <v>237</v>
       </c>
       <c r="C10" s="16">
-        <f>L10*N10</f>
+        <f t="shared" si="0"/>
         <v>1E+98</v>
       </c>
       <c r="D10" s="16" t="str">
-        <f>L10&amp;M10</f>
+        <f t="shared" si="1"/>
         <v>100가</v>
       </c>
       <c r="E10" s="16">
@@ -10832,7 +10940,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" ref="H10:H37" si="2">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
+        <f t="shared" ref="H10:H37" si="5">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
         <v>0.20040000000000002</v>
       </c>
       <c r="I10" s="16">
@@ -10851,7 +10959,7 @@
         <v>274</v>
       </c>
       <c r="N10" s="12" t="str">
-        <f>VLOOKUP(M10,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P10" s="12" t="s">
@@ -10861,11 +10969,11 @@
         <v>20</v>
       </c>
       <c r="R10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+20</v>
       </c>
       <c r="S10" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+20</v>
       </c>
     </row>
@@ -10874,11 +10982,11 @@
         <v>238</v>
       </c>
       <c r="C11" s="16">
-        <f>L11*N11</f>
+        <f t="shared" si="0"/>
         <v>1.5000000000000001E+98</v>
       </c>
       <c r="D11" s="16" t="str">
-        <f>L11&amp;M11</f>
+        <f t="shared" si="1"/>
         <v>150가</v>
       </c>
       <c r="E11" s="16">
@@ -10891,7 +10999,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20080000000000003</v>
       </c>
       <c r="I11" s="16">
@@ -10910,7 +11018,7 @@
         <v>274</v>
       </c>
       <c r="N11" s="12" t="str">
-        <f>VLOOKUP(M11,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P11" s="12" t="s">
@@ -10920,11 +11028,11 @@
         <v>24</v>
       </c>
       <c r="R11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="S11" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -10933,11 +11041,11 @@
         <v>239</v>
       </c>
       <c r="C12" s="16">
-        <f>L12*N12</f>
+        <f t="shared" si="0"/>
         <v>2E+98</v>
       </c>
       <c r="D12" s="16" t="str">
-        <f>L12&amp;M12</f>
+        <f t="shared" si="1"/>
         <v>200가</v>
       </c>
       <c r="E12" s="16">
@@ -10950,7 +11058,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20120000000000005</v>
       </c>
       <c r="I12" s="16">
@@ -10969,7 +11077,7 @@
         <v>274</v>
       </c>
       <c r="N12" s="12" t="str">
-        <f>VLOOKUP(M12,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P12" s="12" t="s">
@@ -10979,11 +11087,11 @@
         <v>28</v>
       </c>
       <c r="R12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="S12" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -10992,11 +11100,11 @@
         <v>240</v>
       </c>
       <c r="C13" s="16">
-        <f>L13*N13</f>
+        <f t="shared" si="0"/>
         <v>3.0000000000000001E+98</v>
       </c>
       <c r="D13" s="16" t="str">
-        <f>L13&amp;M13</f>
+        <f t="shared" si="1"/>
         <v>300가</v>
       </c>
       <c r="E13" s="16">
@@ -11009,7 +11117,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20160000000000006</v>
       </c>
       <c r="I13" s="16">
@@ -11028,7 +11136,7 @@
         <v>274</v>
       </c>
       <c r="N13" s="12" t="str">
-        <f>VLOOKUP(M13,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P13" s="12" t="s">
@@ -11038,11 +11146,11 @@
         <v>32</v>
       </c>
       <c r="R13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="S13" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -11051,11 +11159,11 @@
         <v>241</v>
       </c>
       <c r="C14" s="16">
-        <f>L14*N14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" s="16" t="str">
-        <f>L14&amp;M14</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E14" s="16">
@@ -11068,7 +11176,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20200000000000007</v>
       </c>
       <c r="I14" s="16">
@@ -11085,7 +11193,7 @@
         <v>274</v>
       </c>
       <c r="N14" s="12" t="str">
-        <f>VLOOKUP(M14,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P14" s="12" t="s">
@@ -11095,11 +11203,11 @@
         <v>36</v>
       </c>
       <c r="R14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+36</v>
       </c>
       <c r="S14" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -11108,11 +11216,11 @@
         <v>242</v>
       </c>
       <c r="C15" s="16">
-        <f>L15*N15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="16" t="str">
-        <f>L15&amp;M15</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E15" s="16">
@@ -11125,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.20240000000000008</v>
       </c>
       <c r="I15" s="16">
@@ -11142,7 +11250,7 @@
         <v>274</v>
       </c>
       <c r="N15" s="12" t="str">
-        <f>VLOOKUP(M15,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P15" s="12" t="s">
@@ -11152,11 +11260,11 @@
         <v>40</v>
       </c>
       <c r="R15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+40</v>
       </c>
       <c r="S15" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -11165,11 +11273,11 @@
         <v>243</v>
       </c>
       <c r="C16" s="16">
-        <f>L16*N16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="16" t="str">
-        <f>L16&amp;M16</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E16" s="16">
@@ -11182,7 +11290,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21000000000000008</v>
       </c>
       <c r="I16" s="16">
@@ -11199,7 +11307,7 @@
         <v>274</v>
       </c>
       <c r="N16" s="12" t="str">
-        <f>VLOOKUP(M16,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P16" s="12" t="s">
@@ -11209,11 +11317,11 @@
         <v>44</v>
       </c>
       <c r="R16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="S16" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -11222,11 +11330,11 @@
         <v>244</v>
       </c>
       <c r="C17" s="16">
-        <f>L17*N17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="16" t="str">
-        <f>L17&amp;M17</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E17" s="16">
@@ -11239,7 +11347,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21040000000000009</v>
       </c>
       <c r="I17" s="16">
@@ -11256,7 +11364,7 @@
         <v>274</v>
       </c>
       <c r="N17" s="12" t="str">
-        <f>VLOOKUP(M17,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P17" s="12" t="s">
@@ -11266,11 +11374,11 @@
         <v>48</v>
       </c>
       <c r="R17" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+48</v>
       </c>
       <c r="S17" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -11279,11 +11387,11 @@
         <v>245</v>
       </c>
       <c r="C18" s="16">
-        <f>L18*N18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="16" t="str">
-        <f>L18&amp;M18</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E18" s="16">
@@ -11296,7 +11404,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2108000000000001</v>
       </c>
       <c r="I18" s="16">
@@ -11313,7 +11421,7 @@
         <v>274</v>
       </c>
       <c r="N18" s="12" t="str">
-        <f>VLOOKUP(M18,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P18" s="12" t="s">
@@ -11323,11 +11431,11 @@
         <v>52</v>
       </c>
       <c r="R18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="S18" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -11336,11 +11444,11 @@
         <v>246</v>
       </c>
       <c r="C19" s="16">
-        <f>L19*N19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="16" t="str">
-        <f>L19&amp;M19</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E19" s="16">
@@ -11353,7 +11461,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21120000000000011</v>
       </c>
       <c r="I19" s="16">
@@ -11370,7 +11478,7 @@
         <v>274</v>
       </c>
       <c r="N19" s="12" t="str">
-        <f>VLOOKUP(M19,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P19" s="12" t="s">
@@ -11380,11 +11488,11 @@
         <v>56</v>
       </c>
       <c r="R19" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="S19" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -11393,11 +11501,11 @@
         <v>247</v>
       </c>
       <c r="C20" s="16">
-        <f>L20*N20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20" s="16" t="str">
-        <f>L20&amp;M20</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E20" s="16">
@@ -11410,7 +11518,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21160000000000012</v>
       </c>
       <c r="I20" s="16">
@@ -11427,7 +11535,7 @@
         <v>274</v>
       </c>
       <c r="N20" s="12" t="str">
-        <f>VLOOKUP(M20,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P20" s="12" t="s">
@@ -11437,11 +11545,11 @@
         <v>60</v>
       </c>
       <c r="R20" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="S20" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -11450,11 +11558,11 @@
         <v>248</v>
       </c>
       <c r="C21" s="16">
-        <f>L21*N21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="16" t="str">
-        <f>L21&amp;M21</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E21" s="16">
@@ -11467,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21200000000000013</v>
       </c>
       <c r="I21" s="16">
@@ -11484,7 +11592,7 @@
         <v>274</v>
       </c>
       <c r="N21" s="12" t="str">
-        <f>VLOOKUP(M21,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P21" s="12" t="s">
@@ -11494,11 +11602,11 @@
         <v>64</v>
       </c>
       <c r="R21" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+64</v>
       </c>
       <c r="S21" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -11507,11 +11615,11 @@
         <v>249</v>
       </c>
       <c r="C22" s="16">
-        <f>L22*N22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22" s="16" t="str">
-        <f>L22&amp;M22</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E22" s="16">
@@ -11524,7 +11632,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21240000000000014</v>
       </c>
       <c r="I22" s="16">
@@ -11541,7 +11649,7 @@
         <v>274</v>
       </c>
       <c r="N22" s="12" t="str">
-        <f>VLOOKUP(M22,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P22" s="12" t="s">
@@ -11551,11 +11659,11 @@
         <v>68</v>
       </c>
       <c r="R22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="S22" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -11564,11 +11672,11 @@
         <v>250</v>
       </c>
       <c r="C23" s="16">
-        <f>L23*N23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="16" t="str">
-        <f>L23&amp;M23</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E23" s="16">
@@ -11581,7 +11689,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22000000000000014</v>
       </c>
       <c r="I23" s="16">
@@ -11598,7 +11706,7 @@
         <v>274</v>
       </c>
       <c r="N23" s="12" t="str">
-        <f>VLOOKUP(M23,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P23" s="12" t="s">
@@ -11608,11 +11716,11 @@
         <v>72</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="S23" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -11621,11 +11729,11 @@
         <v>251</v>
       </c>
       <c r="C24" s="16">
-        <f>L24*N24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24" s="16" t="str">
-        <f>L24&amp;M24</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E24" s="16">
@@ -11638,7 +11746,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22040000000000015</v>
       </c>
       <c r="I24" s="16">
@@ -11655,7 +11763,7 @@
         <v>274</v>
       </c>
       <c r="N24" s="12" t="str">
-        <f>VLOOKUP(M24,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P24" s="12" t="s">
@@ -11665,11 +11773,11 @@
         <v>76</v>
       </c>
       <c r="R24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+76</v>
       </c>
       <c r="S24" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -11678,11 +11786,11 @@
         <v>252</v>
       </c>
       <c r="C25" s="16">
-        <f>L25*N25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25" s="16" t="str">
-        <f>L25&amp;M25</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E25" s="16">
@@ -11695,7 +11803,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22080000000000016</v>
       </c>
       <c r="I25" s="16">
@@ -11712,7 +11820,7 @@
         <v>274</v>
       </c>
       <c r="N25" s="12" t="str">
-        <f>VLOOKUP(M25,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P25" s="12" t="s">
@@ -11722,11 +11830,11 @@
         <v>80</v>
       </c>
       <c r="R25" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+80</v>
       </c>
       <c r="S25" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -11735,11 +11843,11 @@
         <v>253</v>
       </c>
       <c r="C26" s="16">
-        <f>L26*N26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D26" s="16" t="str">
-        <f>L26&amp;M26</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E26" s="16">
@@ -11752,7 +11860,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22120000000000017</v>
       </c>
       <c r="I26" s="16">
@@ -11769,7 +11877,7 @@
         <v>274</v>
       </c>
       <c r="N26" s="12" t="str">
-        <f>VLOOKUP(M26,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P26" s="12" t="s">
@@ -11779,11 +11887,11 @@
         <v>84</v>
       </c>
       <c r="R26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="S26" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -11792,11 +11900,11 @@
         <v>254</v>
       </c>
       <c r="C27" s="16">
-        <f>L27*N27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="16" t="str">
-        <f>L27&amp;M27</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E27" s="16">
@@ -11809,7 +11917,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22160000000000019</v>
       </c>
       <c r="I27" s="16">
@@ -11826,7 +11934,7 @@
         <v>274</v>
       </c>
       <c r="N27" s="12" t="str">
-        <f>VLOOKUP(M27,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P27" s="12" t="s">
@@ -11836,11 +11944,11 @@
         <v>88</v>
       </c>
       <c r="R27" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="S27" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -11849,11 +11957,11 @@
         <v>255</v>
       </c>
       <c r="C28" s="16">
-        <f>L28*N28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28" s="16" t="str">
-        <f>L28&amp;M28</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E28" s="16">
@@ -11866,7 +11974,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2220000000000002</v>
       </c>
       <c r="I28" s="16">
@@ -11883,7 +11991,7 @@
         <v>274</v>
       </c>
       <c r="N28" s="12" t="str">
-        <f>VLOOKUP(M28,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P28" s="12" t="s">
@@ -11893,11 +12001,11 @@
         <v>92</v>
       </c>
       <c r="R28" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+92</v>
       </c>
       <c r="S28" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -11906,11 +12014,11 @@
         <v>256</v>
       </c>
       <c r="C29" s="16">
-        <f>L29*N29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="16" t="str">
-        <f>L29&amp;M29</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E29" s="16">
@@ -11923,7 +12031,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.22240000000000021</v>
       </c>
       <c r="I29" s="16">
@@ -11940,7 +12048,7 @@
         <v>274</v>
       </c>
       <c r="N29" s="12" t="str">
-        <f>VLOOKUP(M29,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P29" s="12" t="s">
@@ -11950,11 +12058,11 @@
         <v>96</v>
       </c>
       <c r="R29" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1E+96</v>
       </c>
       <c r="S29" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -11963,11 +12071,11 @@
         <v>257</v>
       </c>
       <c r="C30" s="16">
-        <f>L30*N30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="16" t="str">
-        <f>L30&amp;M30</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E30" s="16">
@@ -11980,7 +12088,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2300000000000002</v>
       </c>
       <c r="I30" s="16">
@@ -11997,7 +12105,7 @@
         <v>274</v>
       </c>
       <c r="N30" s="12" t="str">
-        <f>VLOOKUP(M30,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="O30" s="12"/>
@@ -12011,11 +12119,11 @@
         <v>258</v>
       </c>
       <c r="C31" s="16">
-        <f>L31*N31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="16" t="str">
-        <f>L31&amp;M31</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E31" s="16">
@@ -12028,7 +12136,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23040000000000022</v>
       </c>
       <c r="I31" s="16">
@@ -12045,7 +12153,7 @@
         <v>274</v>
       </c>
       <c r="N31" s="12" t="str">
-        <f>VLOOKUP(M31,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="O31" s="10"/>
@@ -12068,11 +12176,11 @@
         <v>259</v>
       </c>
       <c r="C32" s="16">
-        <f>L32*N32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32" s="16" t="str">
-        <f>L32&amp;M32</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E32" s="16">
@@ -12085,7 +12193,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23080000000000023</v>
       </c>
       <c r="I32" s="16">
@@ -12102,7 +12210,7 @@
         <v>274</v>
       </c>
       <c r="N32" s="12" t="str">
-        <f>VLOOKUP(M32,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="O32" s="10"/>
@@ -12125,11 +12233,11 @@
         <v>260</v>
       </c>
       <c r="C33" s="16">
-        <f>L33*N33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="16" t="str">
-        <f>L33&amp;M33</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E33" s="16">
@@ -12142,7 +12250,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23120000000000024</v>
       </c>
       <c r="I33" s="16">
@@ -12159,7 +12267,7 @@
         <v>274</v>
       </c>
       <c r="N33" s="12" t="str">
-        <f>VLOOKUP(M33,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="O33" s="10"/>
@@ -12182,11 +12290,11 @@
         <v>261</v>
       </c>
       <c r="C34" s="16">
-        <f>L34*N34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D34" s="16" t="str">
-        <f>L34&amp;M34</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E34" s="16">
@@ -12199,7 +12307,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23160000000000025</v>
       </c>
       <c r="I34" s="16">
@@ -12216,7 +12324,7 @@
         <v>274</v>
       </c>
       <c r="N34" s="12" t="str">
-        <f>VLOOKUP(M34,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="O34" s="10"/>
@@ -12239,11 +12347,11 @@
         <v>262</v>
       </c>
       <c r="C35" s="16">
-        <f>L35*N35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="16" t="str">
-        <f>L35&amp;M35</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E35" s="16">
@@ -12256,7 +12364,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23200000000000026</v>
       </c>
       <c r="I35" s="16">
@@ -12273,7 +12381,7 @@
         <v>274</v>
       </c>
       <c r="N35" s="12" t="str">
-        <f>VLOOKUP(M35,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="O35" s="10"/>
@@ -12296,11 +12404,11 @@
         <v>263</v>
       </c>
       <c r="C36" s="16">
-        <f>L36*N36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D36" s="16" t="str">
-        <f>L36&amp;M36</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E36" s="16">
@@ -12313,7 +12421,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23240000000000027</v>
       </c>
       <c r="I36" s="16">
@@ -12330,7 +12438,7 @@
         <v>274</v>
       </c>
       <c r="N36" s="12" t="str">
-        <f>VLOOKUP(M36,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="O36" s="10"/>
@@ -12353,11 +12461,11 @@
         <v>264</v>
       </c>
       <c r="C37" s="16">
-        <f>L37*N37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D37" s="16" t="str">
-        <f>L37&amp;M37</f>
+        <f t="shared" si="1"/>
         <v>가</v>
       </c>
       <c r="E37" s="16">
@@ -12370,7 +12478,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24000000000000027</v>
       </c>
       <c r="I37" s="16">
@@ -12387,7 +12495,7 @@
         <v>274</v>
       </c>
       <c r="N37" s="12" t="str">
-        <f>VLOOKUP(M37,P:S,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="O37" s="10"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6204A0B-BCDD-4FB9-A0E4-D76DC9BAF063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC9D2A1-63EA-40B6-9DB5-30CC46BEC18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="304">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1199,6 +1199,42 @@
   </si>
   <si>
     <t>800가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50언</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1724,11 +1760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J245"/>
+  <dimension ref="A1:J254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E248" sqref="E248"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C247" sqref="C247:C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9577,6 +9613,294 @@
         <v>0</v>
       </c>
       <c r="J245" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="3">
+        <v>1.9999999999999999E+99</v>
+      </c>
+      <c r="C246" t="s">
+        <v>295</v>
+      </c>
+      <c r="D246" s="1">
+        <v>20</v>
+      </c>
+      <c r="E246" s="1">
+        <v>23400000</v>
+      </c>
+      <c r="F246" s="1">
+        <v>2</v>
+      </c>
+      <c r="G246" s="1">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="H246" s="1">
+        <v>23</v>
+      </c>
+      <c r="I246" s="1">
+        <v>0</v>
+      </c>
+      <c r="J246" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="3">
+        <v>5.0000000000000001E+99</v>
+      </c>
+      <c r="C247" t="s">
+        <v>296</v>
+      </c>
+      <c r="D247" s="1">
+        <v>20</v>
+      </c>
+      <c r="E247" s="1">
+        <v>23500000</v>
+      </c>
+      <c r="F247" s="1">
+        <v>2</v>
+      </c>
+      <c r="G247" s="1">
+        <v>0.2036</v>
+      </c>
+      <c r="H247" s="1">
+        <v>23</v>
+      </c>
+      <c r="I247" s="1">
+        <v>0</v>
+      </c>
+      <c r="J247" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="3">
+        <v>1E+100</v>
+      </c>
+      <c r="C248" t="s">
+        <v>297</v>
+      </c>
+      <c r="D248" s="1">
+        <v>20</v>
+      </c>
+      <c r="E248" s="1">
+        <v>23600000</v>
+      </c>
+      <c r="F248" s="1">
+        <v>2</v>
+      </c>
+      <c r="G248" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H248" s="1">
+        <v>23</v>
+      </c>
+      <c r="I248" s="1">
+        <v>0</v>
+      </c>
+      <c r="J248" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="3">
+        <v>2E+100</v>
+      </c>
+      <c r="C249" t="s">
+        <v>298</v>
+      </c>
+      <c r="D249" s="1">
+        <v>20</v>
+      </c>
+      <c r="E249" s="1">
+        <v>23700000</v>
+      </c>
+      <c r="F249" s="1">
+        <v>2</v>
+      </c>
+      <c r="G249" s="1">
+        <v>0.2044</v>
+      </c>
+      <c r="H249" s="1">
+        <v>23</v>
+      </c>
+      <c r="I249" s="1">
+        <v>0</v>
+      </c>
+      <c r="J249" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="3">
+        <v>4.9999999999999999E+100</v>
+      </c>
+      <c r="C250" t="s">
+        <v>299</v>
+      </c>
+      <c r="D250" s="1">
+        <v>20</v>
+      </c>
+      <c r="E250" s="1">
+        <v>23800000</v>
+      </c>
+      <c r="F250" s="1">
+        <v>2</v>
+      </c>
+      <c r="G250" s="1">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="H250" s="1">
+        <v>23</v>
+      </c>
+      <c r="I250" s="1">
+        <v>0</v>
+      </c>
+      <c r="J250" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="3">
+        <v>9.9999999999999998E+100</v>
+      </c>
+      <c r="C251" t="s">
+        <v>300</v>
+      </c>
+      <c r="D251" s="1">
+        <v>20</v>
+      </c>
+      <c r="E251" s="1">
+        <v>23900000</v>
+      </c>
+      <c r="F251" s="1">
+        <v>2</v>
+      </c>
+      <c r="G251" s="1">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="H251" s="1">
+        <v>23</v>
+      </c>
+      <c r="I251" s="1">
+        <v>0</v>
+      </c>
+      <c r="J251" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="3">
+        <v>2E+101</v>
+      </c>
+      <c r="C252" t="s">
+        <v>301</v>
+      </c>
+      <c r="D252" s="1">
+        <v>20</v>
+      </c>
+      <c r="E252" s="1">
+        <v>24000000</v>
+      </c>
+      <c r="F252" s="1">
+        <v>2</v>
+      </c>
+      <c r="G252" s="1">
+        <v>0.2056</v>
+      </c>
+      <c r="H252" s="1">
+        <v>23</v>
+      </c>
+      <c r="I252" s="1">
+        <v>0</v>
+      </c>
+      <c r="J252" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="3">
+        <v>4.9999999999999999E+101</v>
+      </c>
+      <c r="C253" t="s">
+        <v>303</v>
+      </c>
+      <c r="D253" s="1">
+        <v>20</v>
+      </c>
+      <c r="E253" s="1">
+        <v>24100000</v>
+      </c>
+      <c r="F253" s="1">
+        <v>2</v>
+      </c>
+      <c r="G253" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H253" s="1">
+        <v>23</v>
+      </c>
+      <c r="I253" s="1">
+        <v>0</v>
+      </c>
+      <c r="J253" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="3">
+        <v>9.9999999999999998E+101</v>
+      </c>
+      <c r="C254" t="s">
+        <v>302</v>
+      </c>
+      <c r="D254" s="1">
+        <v>20</v>
+      </c>
+      <c r="E254" s="1">
+        <v>24200000</v>
+      </c>
+      <c r="F254" s="1">
+        <v>2</v>
+      </c>
+      <c r="G254" s="1">
+        <v>0.2064</v>
+      </c>
+      <c r="H254" s="1">
+        <v>23</v>
+      </c>
+      <c r="I254" s="1">
+        <v>0</v>
+      </c>
+      <c r="J254" s="1">
         <v>60</v>
       </c>
     </row>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC9D2A1-63EA-40B6-9DB5-30CC46BEC18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA97303-64B7-49A7-BF80-BCC87B465CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="322">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1236,6 +1236,64 @@
   <si>
     <t>50언</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zibaeUpValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150언</t>
+  </si>
+  <si>
+    <t>200언</t>
+  </si>
+  <si>
+    <t>300언</t>
+  </si>
+  <si>
+    <t>500언</t>
+  </si>
+  <si>
+    <t>800언</t>
+  </si>
+  <si>
+    <t>1000언</t>
+  </si>
+  <si>
+    <t>2000언</t>
+  </si>
+  <si>
+    <t>5000언</t>
+  </si>
+  <si>
+    <t>1승</t>
+  </si>
+  <si>
+    <t>2승</t>
+  </si>
+  <si>
+    <t>5승</t>
+  </si>
+  <si>
+    <t>10승</t>
+  </si>
+  <si>
+    <t>20승</t>
+  </si>
+  <si>
+    <t>50승</t>
   </si>
 </sst>
 </file>
@@ -1760,11 +1818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J254"/>
+  <dimension ref="A1:K268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C247" sqref="C247:C254"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1776,7 +1834,7 @@
     <col min="8" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1807,8 +1865,11 @@
       <c r="J1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1839,8 +1900,11 @@
       <c r="J2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1871,8 +1935,11 @@
       <c r="J3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1903,8 +1970,11 @@
       <c r="J4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1935,8 +2005,11 @@
       <c r="J5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1967,8 +2040,11 @@
       <c r="J6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1999,8 +2075,11 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2031,8 +2110,11 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2063,8 +2145,11 @@
       <c r="J9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2095,8 +2180,11 @@
       <c r="J10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2127,8 +2215,11 @@
       <c r="J11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2159,8 +2250,11 @@
       <c r="J12" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2191,8 +2285,11 @@
       <c r="J13" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2223,8 +2320,11 @@
       <c r="J14" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2255,8 +2355,11 @@
       <c r="J15" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2287,8 +2390,11 @@
       <c r="J16" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2319,8 +2425,11 @@
       <c r="J17" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2351,8 +2460,11 @@
       <c r="J18" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2383,8 +2495,11 @@
       <c r="J19" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2415,8 +2530,11 @@
       <c r="J20" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2447,8 +2565,11 @@
       <c r="J21" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2479,8 +2600,11 @@
       <c r="J22" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2511,8 +2635,11 @@
       <c r="J23" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2543,8 +2670,11 @@
       <c r="J24" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2575,8 +2705,11 @@
       <c r="J25" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2607,8 +2740,11 @@
       <c r="J26" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2639,8 +2775,11 @@
       <c r="J27" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2671,8 +2810,11 @@
       <c r="J28" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2703,8 +2845,11 @@
       <c r="J29" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="J30" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2767,8 +2915,11 @@
       <c r="J31" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2799,8 +2950,11 @@
       <c r="J32" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2831,8 +2985,11 @@
       <c r="J33" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2863,8 +3020,11 @@
       <c r="J34" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2895,8 +3055,11 @@
       <c r="J35" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2927,8 +3090,11 @@
       <c r="J36" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2959,8 +3125,11 @@
       <c r="J37" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2991,8 +3160,11 @@
       <c r="J38" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3023,8 +3195,11 @@
       <c r="J39" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3055,8 +3230,11 @@
       <c r="J40" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3087,8 +3265,11 @@
       <c r="J41" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3119,8 +3300,11 @@
       <c r="J42" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3151,8 +3335,11 @@
       <c r="J43" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3183,8 +3370,11 @@
       <c r="J44" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3215,8 +3405,11 @@
       <c r="J45" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3247,8 +3440,11 @@
       <c r="J46" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3279,8 +3475,11 @@
       <c r="J47" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3311,8 +3510,11 @@
       <c r="J48" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3343,8 +3545,11 @@
       <c r="J49" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3375,8 +3580,11 @@
       <c r="J50" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3407,8 +3615,11 @@
       <c r="J51" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3439,8 +3650,11 @@
       <c r="J52" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3471,8 +3685,11 @@
       <c r="J53" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3503,8 +3720,11 @@
       <c r="J54" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3535,8 +3755,11 @@
       <c r="J55" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3567,8 +3790,11 @@
       <c r="J56" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="1">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3599,8 +3825,11 @@
       <c r="J57" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="1">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3631,8 +3860,11 @@
       <c r="J58" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="1">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3663,8 +3895,11 @@
       <c r="J59" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="1">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3695,8 +3930,11 @@
       <c r="J60" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="1">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3727,8 +3965,11 @@
       <c r="J61" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="1">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3759,8 +4000,11 @@
       <c r="J62" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3791,8 +4035,11 @@
       <c r="J63" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="1">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3823,8 +4070,11 @@
       <c r="J64" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="1">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3855,8 +4105,11 @@
       <c r="J65" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="1">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3887,8 +4140,11 @@
       <c r="J66" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="1">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3919,8 +4175,11 @@
       <c r="J67" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="1">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3951,8 +4210,11 @@
       <c r="J68" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3983,8 +4245,11 @@
       <c r="J69" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4015,8 +4280,11 @@
       <c r="J70" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4047,8 +4315,11 @@
       <c r="J71" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4079,8 +4350,11 @@
       <c r="J72" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4111,8 +4385,11 @@
       <c r="J73" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="1">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4143,8 +4420,11 @@
       <c r="J74" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="1">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4175,8 +4455,11 @@
       <c r="J75" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="1">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4207,8 +4490,11 @@
       <c r="J76" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="1">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4239,8 +4525,11 @@
       <c r="J77" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4271,8 +4560,11 @@
       <c r="J78" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="1">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4303,8 +4595,11 @@
       <c r="J79" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="1">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4335,8 +4630,11 @@
       <c r="J80" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4367,8 +4665,11 @@
       <c r="J81" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="1">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4399,8 +4700,11 @@
       <c r="J82" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4431,8 +4735,11 @@
       <c r="J83" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4463,8 +4770,11 @@
       <c r="J84" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4495,8 +4805,11 @@
       <c r="J85" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="1">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4527,8 +4840,11 @@
       <c r="J86" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4559,8 +4875,11 @@
       <c r="J87" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="1">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4591,8 +4910,11 @@
       <c r="J88" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4623,8 +4945,11 @@
       <c r="J89" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4655,8 +4980,11 @@
       <c r="J90" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4687,8 +5015,11 @@
       <c r="J91" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4719,8 +5050,11 @@
       <c r="J92" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4751,8 +5085,11 @@
       <c r="J93" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4783,8 +5120,11 @@
       <c r="J94" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4815,8 +5155,11 @@
       <c r="J95" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4847,8 +5190,11 @@
       <c r="J96" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96" s="1">
+        <v>0.14399999999999899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4879,8 +5225,11 @@
       <c r="J97" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97" s="1">
+        <v>0.14499999999999899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4911,8 +5260,11 @@
       <c r="J98" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98" s="1">
+        <v>0.14599999999999899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4943,8 +5295,11 @@
       <c r="J99" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99" s="1">
+        <v>0.14699999999999899</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4975,8 +5330,11 @@
       <c r="J100" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100" s="1">
+        <v>0.14799999999999899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5007,8 +5365,11 @@
       <c r="J101" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101" s="1">
+        <v>0.14899999999999899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5039,8 +5400,11 @@
       <c r="J102" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K102" s="1">
+        <v>0.149999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5071,8 +5435,11 @@
       <c r="J103" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103" s="1">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5103,8 +5470,11 @@
       <c r="J104" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104" s="1">
+        <v>0.154000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5135,8 +5505,11 @@
       <c r="J105" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105" s="1">
+        <v>0.156000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5167,8 +5540,11 @@
       <c r="J106" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K106" s="1">
+        <v>0.158000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5199,8 +5575,11 @@
       <c r="J107" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107" s="1">
+        <v>0.160000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5231,8 +5610,11 @@
       <c r="J108" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K108" s="1">
+        <v>0.162000000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5263,8 +5645,11 @@
       <c r="J109" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109" s="1">
+        <v>0.164000000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5295,8 +5680,11 @@
       <c r="J110" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110" s="1">
+        <v>0.166000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5327,8 +5715,11 @@
       <c r="J111" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111" s="1">
+        <v>0.168000000000008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5359,8 +5750,11 @@
       <c r="J112" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112" s="1">
+        <v>0.17000000000000901</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5391,8 +5785,11 @@
       <c r="J113" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K113" s="1">
+        <v>0.17200000000001001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5423,8 +5820,11 @@
       <c r="J114" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114" s="1">
+        <v>0.17400000000001101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5455,8 +5855,11 @@
       <c r="J115" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115" s="1">
+        <v>0.17600000000001201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5487,8 +5890,11 @@
       <c r="J116" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K116" s="1">
+        <v>0.17800000000001301</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5519,8 +5925,11 @@
       <c r="J117" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K117" s="1">
+        <v>0.18000000000001401</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5551,8 +5960,11 @@
       <c r="J118" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118" s="1">
+        <v>0.18200000000001501</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5583,8 +5995,11 @@
       <c r="J119" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K119" s="1">
+        <v>0.18400000000001601</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5615,8 +6030,11 @@
       <c r="J120" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K120" s="1">
+        <v>0.18600000000001701</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5647,8 +6065,11 @@
       <c r="J121" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K121" s="1">
+        <v>0.18800000000001801</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5679,8 +6100,11 @@
       <c r="J122" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K122" s="1">
+        <v>0.19000000000001899</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5711,8 +6135,11 @@
       <c r="J123" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K123" s="1">
+        <v>0.19200000000001999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5743,8 +6170,11 @@
       <c r="J124" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K124" s="1">
+        <v>0.19400000000002099</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5775,8 +6205,11 @@
       <c r="J125" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K125" s="1">
+        <v>0.19600000000002199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5807,8 +6240,11 @@
       <c r="J126" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K126" s="1">
+        <v>0.19800000000002299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5839,8 +6275,11 @@
       <c r="J127" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K127" s="1">
+        <v>0.20000000000002399</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5871,8 +6310,11 @@
       <c r="J128" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K128" s="1">
+        <v>0.20200000000002499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5903,8 +6345,11 @@
       <c r="J129" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K129" s="1">
+        <v>0.20400000000002599</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5935,8 +6380,11 @@
       <c r="J130" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K130" s="1">
+        <v>0.20600000000002699</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5967,8 +6415,11 @@
       <c r="J131" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K131" s="1">
+        <v>0.208000000000028</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5999,8 +6450,11 @@
       <c r="J132" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K132" s="1">
+        <v>0.210000000000029</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6031,8 +6485,11 @@
       <c r="J133" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K133" s="1">
+        <v>0.21200000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6063,8 +6520,11 @@
       <c r="J134" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K134" s="1">
+        <v>0.214000000000031</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6095,8 +6555,11 @@
       <c r="J135" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K135" s="1">
+        <v>0.216000000000032</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6127,8 +6590,11 @@
       <c r="J136" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K136" s="1">
+        <v>0.218000000000033</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6159,8 +6625,11 @@
       <c r="J137" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K137" s="1">
+        <v>0.220000000000034</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6191,8 +6660,11 @@
       <c r="J138" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K138" s="1">
+        <v>0.222000000000035</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6223,8 +6695,11 @@
       <c r="J139" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K139" s="1">
+        <v>0.224000000000036</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6255,8 +6730,11 @@
       <c r="J140" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K140" s="1">
+        <v>0.226000000000037</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6287,8 +6765,11 @@
       <c r="J141" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K141" s="1">
+        <v>0.22800000000003801</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6319,8 +6800,11 @@
       <c r="J142" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K142" s="1">
+        <v>0.23000000000003901</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6351,8 +6835,11 @@
       <c r="J143" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K143" s="1">
+        <v>0.23200000000004001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6383,8 +6870,11 @@
       <c r="J144" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K144" s="1">
+        <v>0.23400000000004101</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6415,8 +6905,11 @@
       <c r="J145" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K145" s="1">
+        <v>0.23600000000004201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6447,8 +6940,11 @@
       <c r="J146" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K146" s="1">
+        <v>0.23800000000004301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6479,8 +6975,11 @@
       <c r="J147" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K147" s="1">
+        <v>0.24000000000004401</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6511,8 +7010,11 @@
       <c r="J148" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K148" s="1">
+        <v>0.24200000000004501</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6543,8 +7045,11 @@
       <c r="J149" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K149" s="1">
+        <v>0.24400000000004601</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6575,8 +7080,11 @@
       <c r="J150" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K150" s="1">
+        <v>0.24600000000004699</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6607,8 +7115,11 @@
       <c r="J151" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K151" s="1">
+        <v>0.24800000000004799</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6639,8 +7150,11 @@
       <c r="J152" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K152" s="1">
+        <v>0.25000000000004902</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6671,8 +7185,11 @@
       <c r="J153" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K153" s="1">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6703,8 +7220,11 @@
       <c r="J154" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K154" s="1">
+        <v>0.25599999999995099</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6735,8 +7255,11 @@
       <c r="J155" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K155" s="1">
+        <v>0.25899999999990198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6767,8 +7290,11 @@
       <c r="J156" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K156" s="1">
+        <v>0.26199999999985302</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6799,8 +7325,11 @@
       <c r="J157" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K157" s="1">
+        <v>0.264999999999804</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6831,8 +7360,11 @@
       <c r="J158" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K158" s="1">
+        <v>0.26799999999975499</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6863,8 +7395,11 @@
       <c r="J159" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K159" s="1">
+        <v>0.27099999999970598</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6895,8 +7430,11 @@
       <c r="J160" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K160" s="1">
+        <v>0.27399999999965702</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6927,8 +7465,11 @@
       <c r="J161" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K161" s="1">
+        <v>0.276999999999608</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6959,8 +7500,11 @@
       <c r="J162" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K162" s="1">
+        <v>0.27999999999955899</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6991,8 +7535,11 @@
       <c r="J163" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K163" s="1">
+        <v>0.28299999999950998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7023,8 +7570,11 @@
       <c r="J164" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K164" s="1">
+        <v>0.28599999999946102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7055,8 +7605,11 @@
       <c r="J165" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K165" s="1">
+        <v>0.28899999999941201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7087,8 +7640,11 @@
       <c r="J166" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K166" s="1">
+        <v>0.29199999999936299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7119,8 +7675,11 @@
       <c r="J167" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K167" s="1">
+        <v>0.29499999999931398</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7151,8 +7710,11 @@
       <c r="J168" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K168" s="1">
+        <v>0.29799999999926502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7183,8 +7745,11 @@
       <c r="J169" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K169" s="1">
+        <v>0.30099999999921601</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7215,8 +7780,11 @@
       <c r="J170" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K170" s="1">
+        <v>0.30399999999916699</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7247,8 +7815,11 @@
       <c r="J171" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K171" s="1">
+        <v>0.30699999999911798</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7279,8 +7850,11 @@
       <c r="J172" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K172" s="1">
+        <v>0.30999999999906902</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7311,8 +7885,11 @@
       <c r="J173" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K173" s="1">
+        <v>0.31299999999902001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7343,8 +7920,11 @@
       <c r="J174" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K174" s="1">
+        <v>0.31599999999897099</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7375,8 +7955,11 @@
       <c r="J175" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K175" s="1">
+        <v>0.31899999999892198</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7407,8 +7990,11 @@
       <c r="J176" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K176" s="1">
+        <v>0.32199999999887302</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7439,8 +8025,11 @@
       <c r="J177" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K177" s="1">
+        <v>0.32499999999882401</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7471,8 +8060,11 @@
       <c r="J178" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K178" s="1">
+        <v>0.32799999999877499</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7503,8 +8095,11 @@
       <c r="J179" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K179" s="1">
+        <v>0.33099999999872598</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7535,8 +8130,11 @@
       <c r="J180" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K180" s="1">
+        <v>0.33399999999867702</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -7567,8 +8165,11 @@
       <c r="J181" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K181" s="1">
+        <v>0.33699999999862801</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7599,8 +8200,11 @@
       <c r="J182" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K182" s="1">
+        <v>0.33999999999857899</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7631,8 +8235,11 @@
       <c r="J183" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K183" s="1">
+        <v>0.34299999999852998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -7663,8 +8270,11 @@
       <c r="J184" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K184" s="1">
+        <v>0.34599999999848102</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -7695,8 +8305,11 @@
       <c r="J185" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K185" s="1">
+        <v>0.34899999999843201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -7727,8 +8340,11 @@
       <c r="J186" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K186" s="1">
+        <v>0.351999999998383</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -7759,8 +8375,11 @@
       <c r="J187" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K187" s="1">
+        <v>0.35499999999833398</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -7791,8 +8410,11 @@
       <c r="J188" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K188" s="1">
+        <v>0.35799999999828502</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -7823,8 +8445,11 @@
       <c r="J189" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K189" s="1">
+        <v>0.36099999999823501</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7855,8 +8480,11 @@
       <c r="J190" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K190" s="1">
+        <v>0.363999999998186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7887,8 +8515,11 @@
       <c r="J191" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K191" s="1">
+        <v>0.36699999999813698</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -7919,8 +8550,11 @@
       <c r="J192" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K192" s="1">
+        <v>0.36999999999808802</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7951,8 +8585,11 @@
       <c r="J193" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K193" s="1">
+        <v>0.37299999999803901</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -7983,8 +8620,11 @@
       <c r="J194" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K194" s="1">
+        <v>0.37599999999799</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8015,8 +8655,11 @@
       <c r="J195" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K195" s="1">
+        <v>0.37899999999794098</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8047,8 +8690,11 @@
       <c r="J196" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K196" s="1">
+        <v>0.38199999999789203</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8079,8 +8725,11 @@
       <c r="J197" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K197" s="1">
+        <v>0.38499999999784301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8111,8 +8760,11 @@
       <c r="J198" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K198" s="1">
+        <v>0.387999999997794</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8143,8 +8795,11 @@
       <c r="J199" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K199" s="1">
+        <v>0.39099999999774498</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8175,8 +8830,11 @@
       <c r="J200" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K200" s="1">
+        <v>0.39399999999769603</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8207,8 +8865,11 @@
       <c r="J201" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K201" s="1">
+        <v>0.39699999999764701</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8239,8 +8900,11 @@
       <c r="J202" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K202" s="1">
+        <v>0.399999999997598</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8271,8 +8935,11 @@
       <c r="J203" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K203" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8303,8 +8970,11 @@
       <c r="J204" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K204" s="1">
+        <v>0.408000000002402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8335,8 +9005,11 @@
       <c r="J205" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K205" s="1">
+        <v>0.41200000000480402</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8367,8 +9040,11 @@
       <c r="J206" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K206" s="1">
+        <v>0.41600000000720599</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8399,8 +9075,11 @@
       <c r="J207" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K207" s="1">
+        <v>0.42000000000960802</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8431,8 +9110,11 @@
       <c r="J208" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K208" s="1">
+        <v>0.42400000001200999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -8463,8 +9145,11 @@
       <c r="J209" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K209" s="1">
+        <v>0.42800000001441202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -8495,8 +9180,11 @@
       <c r="J210" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K210" s="1">
+        <v>0.43200000001681399</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -8527,8 +9215,11 @@
       <c r="J211" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K211" s="1">
+        <v>0.43600000001921602</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -8559,8 +9250,11 @@
       <c r="J212" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K212" s="1">
+        <v>0.44000000002161799</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8591,8 +9285,11 @@
       <c r="J213" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K213" s="1">
+        <v>0.44400000002402001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -8623,8 +9320,11 @@
       <c r="J214" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K214" s="1">
+        <v>0.44800000002642199</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -8655,8 +9355,11 @@
       <c r="J215" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K215" s="1">
+        <v>0.45200000002882401</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -8687,8 +9390,11 @@
       <c r="J216" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K216" s="1">
+        <v>0.45600000003122598</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -8719,8 +9425,11 @@
       <c r="J217" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K217" s="1">
+        <v>0.46000000003362801</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -8751,8 +9460,11 @@
       <c r="J218" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K218" s="1">
+        <v>0.46400000003602998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -8783,8 +9495,11 @@
       <c r="J219" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K219" s="1">
+        <v>0.46800000003843301</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8815,8 +9530,11 @@
       <c r="J220" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K220" s="1">
+        <v>0.47200000004083498</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -8847,8 +9565,11 @@
       <c r="J221" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K221" s="1">
+        <v>0.476000000043237</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -8879,8 +9600,11 @@
       <c r="J222" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K222" s="1">
+        <v>0.48000000004563798</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -8911,8 +9635,11 @@
       <c r="J223" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K223" s="1">
+        <v>0.484000000048041</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -8943,8 +9670,11 @@
       <c r="J224" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K224" s="1">
+        <v>0.48800000005044297</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -8975,8 +9705,11 @@
       <c r="J225" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K225" s="1">
+        <v>0.492000000052845</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -9007,8 +9740,11 @@
       <c r="J226" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K226" s="1">
+        <v>0.49600000005524703</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -9039,8 +9775,11 @@
       <c r="J227" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K227" s="1">
+        <v>0.500000000057649</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -9071,8 +9810,11 @@
       <c r="J228" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K228" s="1">
+        <v>0.50400000006005097</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -9103,8 +9845,11 @@
       <c r="J229" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K229" s="1">
+        <v>0.50800000006245305</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -9135,8 +9880,11 @@
       <c r="J230" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K230" s="1">
+        <v>0.51200000006485502</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -9167,8 +9915,11 @@
       <c r="J231" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K231" s="1">
+        <v>0.51600000006725699</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -9199,8 +9950,11 @@
       <c r="J232" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K232" s="1">
+        <v>0.52000000006965896</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -9231,8 +9985,11 @@
       <c r="J233" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K233" s="1">
+        <v>0.52400000007206105</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -9263,8 +10020,11 @@
       <c r="J234" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K234" s="1">
+        <v>0.52800000007446302</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -9295,8 +10055,11 @@
       <c r="J235" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K235" s="1">
+        <v>0.53200000007686499</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -9327,8 +10090,11 @@
       <c r="J236" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K236" s="1">
+        <v>0.53600000007926696</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -9359,8 +10125,11 @@
       <c r="J237" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K237" s="1">
+        <v>0.54000000008166904</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -9391,8 +10160,11 @@
       <c r="J238" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K238" s="1">
+        <v>0.54400000008407101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -9423,8 +10195,11 @@
       <c r="J239" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K239" s="1">
+        <v>0.54800000008647298</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -9455,8 +10230,11 @@
       <c r="J240" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K240" s="1">
+        <v>0.55200000008887495</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -9487,8 +10265,11 @@
       <c r="J241" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K241" s="1">
+        <v>0.55600000009127704</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -9519,8 +10300,11 @@
       <c r="J242" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K242" s="1">
+        <v>0.56000000009367901</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -9551,8 +10335,11 @@
       <c r="J243" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K243" s="1">
+        <v>0.56400000009608098</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -9583,8 +10370,11 @@
       <c r="J244" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K244" s="1">
+        <v>0.56800000009848295</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -9615,8 +10405,11 @@
       <c r="J245" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K245" s="1">
+        <v>0.57200000010088503</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -9647,8 +10440,11 @@
       <c r="J246" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K246" s="1">
+        <v>0.576000000103287</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -9679,8 +10475,11 @@
       <c r="J247" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K247" s="1">
+        <v>0.58000000010568897</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -9711,8 +10510,11 @@
       <c r="J248" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K248" s="1">
+        <v>0.58400000010809106</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -9743,8 +10545,11 @@
       <c r="J249" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K249" s="1">
+        <v>0.58800000011049303</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -9775,8 +10580,11 @@
       <c r="J250" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K250" s="1">
+        <v>0.592000000112895</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -9807,8 +10615,11 @@
       <c r="J251" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K251" s="1">
+        <v>0.59600000011529697</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -9839,8 +10650,11 @@
       <c r="J252" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K252" s="1">
+        <v>0.60000000011769905</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -9871,8 +10685,11 @@
       <c r="J253" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K253" s="1">
+        <v>0.60400000012010102</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -9902,6 +10719,499 @@
       </c>
       <c r="J254" s="1">
         <v>60</v>
+      </c>
+      <c r="K254" s="1">
+        <v>0.60800000012250299</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>1.4999999999999999E+102</v>
+      </c>
+      <c r="C255" t="s">
+        <v>308</v>
+      </c>
+      <c r="D255">
+        <v>20</v>
+      </c>
+      <c r="E255" s="1">
+        <v>24300000</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255">
+        <v>0.20680000000000001</v>
+      </c>
+      <c r="H255">
+        <v>23</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>60</v>
+      </c>
+      <c r="K255" s="1">
+        <v>0.61200000012490496</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>2E+102</v>
+      </c>
+      <c r="C256" t="s">
+        <v>309</v>
+      </c>
+      <c r="D256">
+        <v>20</v>
+      </c>
+      <c r="E256" s="1">
+        <v>24400000</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>0.20720000000000002</v>
+      </c>
+      <c r="H256">
+        <v>23</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>60</v>
+      </c>
+      <c r="K256" s="1">
+        <v>0.61600000012730705</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>2.9999999999999998E+102</v>
+      </c>
+      <c r="C257" t="s">
+        <v>310</v>
+      </c>
+      <c r="D257">
+        <v>20</v>
+      </c>
+      <c r="E257" s="1">
+        <v>24500000</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257">
+        <v>0.20760000000000003</v>
+      </c>
+      <c r="H257">
+        <v>23</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>60</v>
+      </c>
+      <c r="K257" s="1">
+        <v>0.62000000012970902</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>5E+102</v>
+      </c>
+      <c r="C258" t="s">
+        <v>311</v>
+      </c>
+      <c r="D258">
+        <v>20</v>
+      </c>
+      <c r="E258" s="1">
+        <v>24600000</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>0.20800000000000005</v>
+      </c>
+      <c r="H258">
+        <v>23</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>60</v>
+      </c>
+      <c r="K258" s="1">
+        <v>0.62400000013211099</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>7.9999999999999998E+102</v>
+      </c>
+      <c r="C259" t="s">
+        <v>312</v>
+      </c>
+      <c r="D259">
+        <v>20</v>
+      </c>
+      <c r="E259" s="1">
+        <v>24700000</v>
+      </c>
+      <c r="F259">
+        <v>2</v>
+      </c>
+      <c r="G259">
+        <v>0.20840000000000006</v>
+      </c>
+      <c r="H259">
+        <v>23</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>60</v>
+      </c>
+      <c r="K259" s="1">
+        <v>0.62800000013451296</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>1E+103</v>
+      </c>
+      <c r="C260" t="s">
+        <v>313</v>
+      </c>
+      <c r="D260">
+        <v>20</v>
+      </c>
+      <c r="E260" s="1">
+        <v>24800000</v>
+      </c>
+      <c r="F260">
+        <v>2</v>
+      </c>
+      <c r="G260">
+        <v>0.20880000000000007</v>
+      </c>
+      <c r="H260">
+        <v>23</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>60</v>
+      </c>
+      <c r="K260" s="1">
+        <v>0.63200000013691504</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>2E+103</v>
+      </c>
+      <c r="C261" t="s">
+        <v>314</v>
+      </c>
+      <c r="D261">
+        <v>20</v>
+      </c>
+      <c r="E261" s="1">
+        <v>24900000</v>
+      </c>
+      <c r="F261">
+        <v>2</v>
+      </c>
+      <c r="G261">
+        <v>0.20920000000000008</v>
+      </c>
+      <c r="H261">
+        <v>23</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>60</v>
+      </c>
+      <c r="K261" s="1">
+        <v>0.63600000013931701</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>5E+103</v>
+      </c>
+      <c r="C262" t="s">
+        <v>315</v>
+      </c>
+      <c r="D262">
+        <v>20</v>
+      </c>
+      <c r="E262" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="F262">
+        <v>2</v>
+      </c>
+      <c r="G262">
+        <v>0.20960000000000009</v>
+      </c>
+      <c r="H262">
+        <v>23</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>60</v>
+      </c>
+      <c r="K262" s="1">
+        <v>0.64000000014171898</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>1E+104</v>
+      </c>
+      <c r="C263" t="s">
+        <v>316</v>
+      </c>
+      <c r="D263">
+        <v>20</v>
+      </c>
+      <c r="E263" s="1">
+        <v>25100000</v>
+      </c>
+      <c r="F263">
+        <v>2</v>
+      </c>
+      <c r="G263">
+        <v>0.2100000000000001</v>
+      </c>
+      <c r="H263">
+        <v>23</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>60</v>
+      </c>
+      <c r="K263" s="1">
+        <v>0.64400000014412095</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>2E+104</v>
+      </c>
+      <c r="C264" t="s">
+        <v>317</v>
+      </c>
+      <c r="D264">
+        <v>20</v>
+      </c>
+      <c r="E264" s="1">
+        <v>25200000</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+      <c r="G264">
+        <v>0.21040000000000011</v>
+      </c>
+      <c r="H264">
+        <v>23</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>60</v>
+      </c>
+      <c r="K264" s="1">
+        <v>0.64800000014652304</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>4.9999999999999997E+104</v>
+      </c>
+      <c r="C265" t="s">
+        <v>318</v>
+      </c>
+      <c r="D265">
+        <v>20</v>
+      </c>
+      <c r="E265" s="1">
+        <v>25300000</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <v>0.21080000000000013</v>
+      </c>
+      <c r="H265">
+        <v>23</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>60</v>
+      </c>
+      <c r="K265" s="1">
+        <v>0.65200000014892501</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>9.9999999999999994E+104</v>
+      </c>
+      <c r="C266" t="s">
+        <v>319</v>
+      </c>
+      <c r="D266">
+        <v>20</v>
+      </c>
+      <c r="E266" s="1">
+        <v>25400000</v>
+      </c>
+      <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="G266">
+        <v>0.21120000000000014</v>
+      </c>
+      <c r="H266">
+        <v>23</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>60</v>
+      </c>
+      <c r="K266" s="1">
+        <v>0.65600000015132698</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>1.9999999999999999E+105</v>
+      </c>
+      <c r="C267" t="s">
+        <v>320</v>
+      </c>
+      <c r="D267">
+        <v>20</v>
+      </c>
+      <c r="E267" s="1">
+        <v>25500000</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="G267">
+        <v>0.21160000000000015</v>
+      </c>
+      <c r="H267">
+        <v>23</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>60</v>
+      </c>
+      <c r="K267" s="1">
+        <v>0.66000000015372895</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>5.0000000000000005E+105</v>
+      </c>
+      <c r="C268" t="s">
+        <v>321</v>
+      </c>
+      <c r="D268">
+        <v>20</v>
+      </c>
+      <c r="E268" s="1">
+        <v>25600000</v>
+      </c>
+      <c r="F268">
+        <v>2</v>
+      </c>
+      <c r="G268">
+        <v>0.21200000000000016</v>
+      </c>
+      <c r="H268">
+        <v>23</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>60</v>
+      </c>
+      <c r="K268" s="1">
+        <v>0.66400000015613103</v>
       </c>
     </row>
   </sheetData>
@@ -10907,7 +12217,7 @@
   <dimension ref="B1:AB64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11068,27 +12378,27 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="21">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C7" s="16">
-        <f t="shared" ref="C7:C37" si="0">L7*N7</f>
-        <v>1.0000000000000001E+97</v>
+        <f t="shared" ref="C7:C19" si="0">L7*N7</f>
+        <v>1.4999999999999999E+102</v>
       </c>
       <c r="D7" s="16" t="str">
-        <f t="shared" ref="D7:D37" si="1">L7&amp;M7</f>
-        <v>10가</v>
+        <f t="shared" ref="D7:D19" si="1">L7&amp;M7</f>
+        <v>150언</v>
       </c>
       <c r="E7" s="16">
         <v>20</v>
       </c>
       <c r="F7" s="16">
-        <v>22400000</v>
+        <v>24300000</v>
       </c>
       <c r="G7" s="16">
         <v>2</v>
       </c>
       <c r="H7" s="16">
-        <v>0.192</v>
+        <v>0.20680000000000001</v>
       </c>
       <c r="I7" s="16">
         <v>23</v>
@@ -11100,14 +12410,17 @@
         <v>60</v>
       </c>
       <c r="L7" s="20">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="N7" s="12" t="str">
-        <f t="shared" ref="N7:N37" si="2">VLOOKUP(M7,P:S,4,FALSE)</f>
-        <v>1E+96</v>
+        <f t="shared" ref="N7:N19" si="2">VLOOKUP(M7,P:S,4,FALSE)</f>
+        <v>1E+100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>288</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>253</v>
@@ -11126,28 +12439,28 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="21">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C8" s="16">
         <f t="shared" si="0"/>
-        <v>2.0000000000000001E+97</v>
+        <v>2E+102</v>
       </c>
       <c r="D8" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>20가</v>
+        <v>200언</v>
       </c>
       <c r="E8" s="16">
         <v>20</v>
       </c>
       <c r="F8" s="16">
-        <v>22500000</v>
+        <v>24400000</v>
       </c>
       <c r="G8" s="16">
         <v>2</v>
       </c>
       <c r="H8" s="16">
         <f>IF(RIGHT(H7,2)="24",H7+0.0076,H7+0.0004)</f>
-        <v>0.19240000000000002</v>
+        <v>0.20720000000000002</v>
       </c>
       <c r="I8" s="16">
         <v>23</v>
@@ -11159,14 +12472,17 @@
         <v>60</v>
       </c>
       <c r="L8" s="20">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="N8" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>289</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>254</v>
@@ -11185,28 +12501,28 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="21">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" si="0"/>
-        <v>5E+97</v>
+        <v>2.9999999999999998E+102</v>
       </c>
       <c r="D9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>50가</v>
+        <v>300언</v>
       </c>
       <c r="E9" s="16">
         <v>20</v>
       </c>
       <c r="F9" s="16">
-        <v>22600000</v>
+        <v>24500000</v>
       </c>
       <c r="G9" s="16">
         <v>2</v>
       </c>
       <c r="H9" s="16">
         <f>IF(RIGHT(H8,2)="24",H8+0.0076,H8+0.0004)</f>
-        <v>0.2</v>
+        <v>0.20760000000000003</v>
       </c>
       <c r="I9" s="16">
         <v>23</v>
@@ -11218,14 +12534,17 @@
         <v>60</v>
       </c>
       <c r="L9" s="20">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="N9" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>290</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>255</v>
@@ -11244,28 +12563,28 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C10" s="16">
         <f t="shared" si="0"/>
-        <v>1E+98</v>
+        <v>5E+102</v>
       </c>
       <c r="D10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>100가</v>
+        <v>500언</v>
       </c>
       <c r="E10" s="16">
         <v>20</v>
       </c>
       <c r="F10" s="16">
-        <v>22700000</v>
+        <v>24600000</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" ref="H10:H37" si="5">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
-        <v>0.20040000000000002</v>
+        <f t="shared" ref="H10:H20" si="5">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
+        <v>0.20800000000000005</v>
       </c>
       <c r="I10" s="16">
         <v>23</v>
@@ -11277,14 +12596,17 @@
         <v>60</v>
       </c>
       <c r="L10" s="20">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="N10" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>292</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>256</v>
@@ -11303,28 +12625,28 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C11" s="16">
         <f t="shared" si="0"/>
-        <v>1.5000000000000001E+98</v>
+        <v>7.9999999999999998E+102</v>
       </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>150가</v>
+        <v>800언</v>
       </c>
       <c r="E11" s="16">
         <v>20</v>
       </c>
       <c r="F11" s="16">
-        <v>22800000</v>
+        <v>24700000</v>
       </c>
       <c r="G11" s="16">
         <v>2</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" si="5"/>
-        <v>0.20080000000000003</v>
+        <v>0.20840000000000006</v>
       </c>
       <c r="I11" s="16">
         <v>23</v>
@@ -11336,14 +12658,17 @@
         <v>60</v>
       </c>
       <c r="L11" s="20">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="N11" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>294</v>
       </c>
       <c r="P11" s="12" t="s">
         <v>257</v>
@@ -11362,28 +12687,28 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C12" s="16">
         <f t="shared" si="0"/>
-        <v>2E+98</v>
+        <v>1E+103</v>
       </c>
       <c r="D12" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>200가</v>
+        <v>1000언</v>
       </c>
       <c r="E12" s="16">
         <v>20</v>
       </c>
       <c r="F12" s="16">
-        <v>22900000</v>
+        <v>24800000</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" si="5"/>
-        <v>0.20120000000000005</v>
+        <v>0.20880000000000007</v>
       </c>
       <c r="I12" s="16">
         <v>23</v>
@@ -11395,14 +12720,17 @@
         <v>60</v>
       </c>
       <c r="L12" s="20">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="N12" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>293</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>258</v>
@@ -11421,28 +12749,28 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E+98</v>
+        <v>2E+103</v>
       </c>
       <c r="D13" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>300가</v>
+        <v>2000언</v>
       </c>
       <c r="E13" s="16">
         <v>20</v>
       </c>
       <c r="F13" s="16">
-        <v>23000000</v>
+        <v>24900000</v>
       </c>
       <c r="G13" s="16">
         <v>2</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="5"/>
-        <v>0.20160000000000006</v>
+        <v>0.20920000000000008</v>
       </c>
       <c r="I13" s="16">
         <v>23</v>
@@ -11454,14 +12782,17 @@
         <v>60</v>
       </c>
       <c r="L13" s="20">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="N13" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>295</v>
       </c>
       <c r="P13" s="12" t="s">
         <v>259</v>
@@ -11480,28 +12811,28 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="21">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C14" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5E+103</v>
       </c>
       <c r="D14" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>가</v>
+        <v>5000언</v>
       </c>
       <c r="E14" s="16">
         <v>20</v>
       </c>
       <c r="F14" s="16">
-        <v>23100000</v>
+        <v>25000000</v>
       </c>
       <c r="G14" s="16">
         <v>2</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" si="5"/>
-        <v>0.20200000000000007</v>
+        <v>0.20960000000000009</v>
       </c>
       <c r="I14" s="16">
         <v>23</v>
@@ -11512,13 +12843,18 @@
       <c r="K14" s="16">
         <v>60</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="20">
+        <v>5000</v>
+      </c>
       <c r="M14" s="19" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="N14" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+100</v>
+      </c>
+      <c r="O14" t="s">
+        <v>296</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>260</v>
@@ -11537,28 +12873,28 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="21">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1E+104</v>
       </c>
       <c r="D15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>가</v>
+        <v>1승</v>
       </c>
       <c r="E15" s="16">
         <v>20</v>
       </c>
       <c r="F15" s="16">
-        <v>23200000</v>
+        <v>25100000</v>
       </c>
       <c r="G15" s="16">
         <v>2</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" si="5"/>
-        <v>0.20240000000000008</v>
+        <v>0.2100000000000001</v>
       </c>
       <c r="I15" s="16">
         <v>23</v>
@@ -11569,13 +12905,15 @@
       <c r="K15" s="16">
         <v>60</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="20">
+        <v>1</v>
+      </c>
       <c r="M15" s="19" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="N15" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+104</v>
       </c>
       <c r="P15" s="12" t="s">
         <v>261</v>
@@ -11594,28 +12932,28 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="21">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2E+104</v>
       </c>
       <c r="D16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>가</v>
+        <v>2승</v>
       </c>
       <c r="E16" s="16">
         <v>20</v>
       </c>
       <c r="F16" s="16">
-        <v>23300000</v>
+        <v>25200000</v>
       </c>
       <c r="G16" s="16">
         <v>2</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" si="5"/>
-        <v>0.21000000000000008</v>
+        <v>0.21040000000000011</v>
       </c>
       <c r="I16" s="16">
         <v>23</v>
@@ -11626,13 +12964,15 @@
       <c r="K16" s="16">
         <v>60</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="20">
+        <v>2</v>
+      </c>
       <c r="M16" s="19" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="N16" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+104</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>262</v>
@@ -11651,28 +12991,28 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9999999999999997E+104</v>
       </c>
       <c r="D17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>가</v>
+        <v>5승</v>
       </c>
       <c r="E17" s="16">
         <v>20</v>
       </c>
       <c r="F17" s="16">
-        <v>23400000</v>
+        <v>25300000</v>
       </c>
       <c r="G17" s="16">
         <v>2</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" si="5"/>
-        <v>0.21040000000000009</v>
+        <v>0.21080000000000013</v>
       </c>
       <c r="I17" s="16">
         <v>23</v>
@@ -11683,13 +13023,15 @@
       <c r="K17" s="16">
         <v>60</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="20">
+        <v>5</v>
+      </c>
       <c r="M17" s="19" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="N17" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+104</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>263</v>
@@ -11708,28 +13050,28 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="21">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9999999999999994E+104</v>
       </c>
       <c r="D18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>가</v>
+        <v>10승</v>
       </c>
       <c r="E18" s="16">
         <v>20</v>
       </c>
       <c r="F18" s="16">
-        <v>23500000</v>
+        <v>25400000</v>
       </c>
       <c r="G18" s="16">
         <v>2</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" si="5"/>
-        <v>0.2108000000000001</v>
+        <v>0.21120000000000014</v>
       </c>
       <c r="I18" s="16">
         <v>23</v>
@@ -11740,13 +13082,15 @@
       <c r="K18" s="16">
         <v>60</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="20">
+        <v>10</v>
+      </c>
       <c r="M18" s="19" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="N18" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+104</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>265</v>
@@ -11765,28 +13109,28 @@
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="21">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C19" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9999999999999999E+105</v>
       </c>
       <c r="D19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>가</v>
+        <v>20승</v>
       </c>
       <c r="E19" s="16">
         <v>20</v>
       </c>
       <c r="F19" s="16">
-        <v>23600000</v>
+        <v>25500000</v>
       </c>
       <c r="G19" s="16">
         <v>2</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" si="5"/>
-        <v>0.21120000000000011</v>
+        <v>0.21160000000000015</v>
       </c>
       <c r="I19" s="16">
         <v>23</v>
@@ -11797,13 +13141,15 @@
       <c r="K19" s="16">
         <v>60</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="20">
+        <v>20</v>
+      </c>
       <c r="M19" s="19" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="N19" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <v>1E+104</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>266</v>
@@ -11822,28 +13168,28 @@
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="21">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="C20" si="6">L20*N20</f>
+        <v>5.0000000000000005E+105</v>
       </c>
       <c r="D20" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
+        <f t="shared" ref="D20" si="7">L20&amp;M20</f>
+        <v>50승</v>
       </c>
       <c r="E20" s="16">
         <v>20</v>
       </c>
       <c r="F20" s="16">
-        <v>23700000</v>
+        <v>25600000</v>
       </c>
       <c r="G20" s="16">
         <v>2</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" si="5"/>
-        <v>0.21160000000000012</v>
+        <v>0.21200000000000016</v>
       </c>
       <c r="I20" s="16">
         <v>23</v>
@@ -11854,13 +13200,15 @@
       <c r="K20" s="16">
         <v>60</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="20">
+        <v>50</v>
+      </c>
       <c r="M20" s="19" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="N20" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
+        <f t="shared" ref="N20" si="8">VLOOKUP(M20,P:S,4,FALSE)</f>
+        <v>1E+104</v>
       </c>
       <c r="P20" s="12" t="s">
         <v>267</v>
@@ -11878,47 +13226,19 @@
       </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B21" s="21">
-        <v>248</v>
-      </c>
-      <c r="C21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E21" s="16">
-        <v>20</v>
-      </c>
-      <c r="F21" s="16">
-        <v>23800000</v>
-      </c>
-      <c r="G21" s="16">
-        <v>2</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="5"/>
-        <v>0.21200000000000013</v>
-      </c>
-      <c r="I21" s="16">
-        <v>23</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
-        <v>60</v>
-      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N21" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="12"/>
       <c r="P21" s="12" t="s">
         <v>268</v>
       </c>
@@ -11935,47 +13255,19 @@
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B22" s="21">
-        <v>249</v>
-      </c>
-      <c r="C22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E22" s="16">
-        <v>20</v>
-      </c>
-      <c r="F22" s="16">
-        <v>23900000</v>
-      </c>
-      <c r="G22" s="16">
-        <v>2</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" si="5"/>
-        <v>0.21240000000000014</v>
-      </c>
-      <c r="I22" s="16">
-        <v>23</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <v>60</v>
-      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N22" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M22" s="19"/>
+      <c r="N22" s="12"/>
       <c r="P22" s="12" t="s">
         <v>269</v>
       </c>
@@ -11992,47 +13284,19 @@
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B23" s="21">
-        <v>250</v>
-      </c>
-      <c r="C23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E23" s="16">
-        <v>20</v>
-      </c>
-      <c r="F23" s="16">
-        <v>24000000</v>
-      </c>
-      <c r="G23" s="16">
-        <v>2</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="5"/>
-        <v>0.22000000000000014</v>
-      </c>
-      <c r="I23" s="16">
-        <v>23</v>
-      </c>
-      <c r="J23" s="16">
-        <v>0</v>
-      </c>
-      <c r="K23" s="16">
-        <v>60</v>
-      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N23" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="12"/>
       <c r="P23" s="12" t="s">
         <v>270</v>
       </c>
@@ -12049,47 +13313,19 @@
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B24" s="21">
-        <v>251</v>
-      </c>
-      <c r="C24" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E24" s="16">
-        <v>20</v>
-      </c>
-      <c r="F24" s="16">
-        <v>24100000</v>
-      </c>
-      <c r="G24" s="16">
-        <v>2</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="5"/>
-        <v>0.22040000000000015</v>
-      </c>
-      <c r="I24" s="16">
-        <v>23</v>
-      </c>
-      <c r="J24" s="16">
-        <v>0</v>
-      </c>
-      <c r="K24" s="16">
-        <v>60</v>
-      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N24" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="12"/>
       <c r="P24" s="12" t="s">
         <v>271</v>
       </c>
@@ -12106,47 +13342,19 @@
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B25" s="21">
-        <v>252</v>
-      </c>
-      <c r="C25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E25" s="16">
-        <v>20</v>
-      </c>
-      <c r="F25" s="16">
-        <v>24200000</v>
-      </c>
-      <c r="G25" s="16">
-        <v>2</v>
-      </c>
-      <c r="H25" s="16">
-        <f t="shared" si="5"/>
-        <v>0.22080000000000016</v>
-      </c>
-      <c r="I25" s="16">
-        <v>23</v>
-      </c>
-      <c r="J25" s="16">
-        <v>0</v>
-      </c>
-      <c r="K25" s="16">
-        <v>60</v>
-      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N25" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="12"/>
       <c r="P25" s="12" t="s">
         <v>272</v>
       </c>
@@ -12163,47 +13371,19 @@
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B26" s="21">
-        <v>253</v>
-      </c>
-      <c r="C26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E26" s="16">
-        <v>20</v>
-      </c>
-      <c r="F26" s="16">
-        <v>24300000</v>
-      </c>
-      <c r="G26" s="16">
-        <v>2</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="5"/>
-        <v>0.22120000000000017</v>
-      </c>
-      <c r="I26" s="16">
-        <v>23</v>
-      </c>
-      <c r="J26" s="16">
-        <v>0</v>
-      </c>
-      <c r="K26" s="16">
-        <v>60</v>
-      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N26" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="12"/>
       <c r="P26" s="12" t="s">
         <v>273</v>
       </c>
@@ -12220,47 +13400,19 @@
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B27" s="21">
-        <v>254</v>
-      </c>
-      <c r="C27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E27" s="16">
-        <v>20</v>
-      </c>
-      <c r="F27" s="16">
-        <v>24400000</v>
-      </c>
-      <c r="G27" s="16">
-        <v>2</v>
-      </c>
-      <c r="H27" s="16">
-        <f t="shared" si="5"/>
-        <v>0.22160000000000019</v>
-      </c>
-      <c r="I27" s="16">
-        <v>23</v>
-      </c>
-      <c r="J27" s="16">
-        <v>0</v>
-      </c>
-      <c r="K27" s="16">
-        <v>60</v>
-      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N27" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="12"/>
       <c r="P27" s="12" t="s">
         <v>252</v>
       </c>
@@ -12277,47 +13429,19 @@
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B28" s="21">
-        <v>255</v>
-      </c>
-      <c r="C28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E28" s="16">
-        <v>20</v>
-      </c>
-      <c r="F28" s="16">
-        <v>24500000</v>
-      </c>
-      <c r="G28" s="16">
-        <v>2</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="5"/>
-        <v>0.2220000000000002</v>
-      </c>
-      <c r="I28" s="16">
-        <v>23</v>
-      </c>
-      <c r="J28" s="16">
-        <v>0</v>
-      </c>
-      <c r="K28" s="16">
-        <v>60</v>
-      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="20"/>
-      <c r="M28" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N28" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="12"/>
       <c r="P28" s="12" t="s">
         <v>264</v>
       </c>
@@ -12334,47 +13458,19 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B29" s="21">
-        <v>256</v>
-      </c>
-      <c r="C29" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E29" s="16">
-        <v>20</v>
-      </c>
-      <c r="F29" s="16">
-        <v>24600000</v>
-      </c>
-      <c r="G29" s="16">
-        <v>2</v>
-      </c>
-      <c r="H29" s="16">
-        <f t="shared" si="5"/>
-        <v>0.22240000000000021</v>
-      </c>
-      <c r="I29" s="16">
-        <v>23</v>
-      </c>
-      <c r="J29" s="16">
-        <v>0</v>
-      </c>
-      <c r="K29" s="16">
-        <v>60</v>
-      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="20"/>
-      <c r="M29" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N29" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="12"/>
       <c r="P29" s="12" t="s">
         <v>274</v>
       </c>
@@ -12391,100 +13487,64 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="21">
-        <v>257</v>
-      </c>
-      <c r="C30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E30" s="16">
-        <v>20</v>
-      </c>
-      <c r="F30" s="16">
-        <v>24700000</v>
-      </c>
-      <c r="G30" s="16">
-        <v>2</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" si="5"/>
-        <v>0.2300000000000002</v>
-      </c>
-      <c r="I30" s="16">
-        <v>23</v>
-      </c>
-      <c r="J30" s="16">
-        <v>0</v>
-      </c>
-      <c r="K30" s="16">
-        <v>60</v>
-      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="20"/>
-      <c r="M30" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N30" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="12"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
+      <c r="P30" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>100</v>
+      </c>
+      <c r="R30" s="13">
+        <f t="shared" ref="R30:R32" si="9">POWER(10,Q30)</f>
+        <v>1E+100</v>
+      </c>
+      <c r="S30" s="13" t="str">
+        <f t="shared" ref="S30:S32" si="10">RIGHT(R30,Q30)</f>
+        <v>1E+100</v>
+      </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B31" s="21">
-        <v>258</v>
-      </c>
-      <c r="C31" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E31" s="16">
-        <v>20</v>
-      </c>
-      <c r="F31" s="16">
-        <v>24800000</v>
-      </c>
-      <c r="G31" s="16">
-        <v>2</v>
-      </c>
-      <c r="H31" s="16">
-        <f t="shared" si="5"/>
-        <v>0.23040000000000022</v>
-      </c>
-      <c r="I31" s="16">
-        <v>23</v>
-      </c>
-      <c r="J31" s="16">
-        <v>0</v>
-      </c>
-      <c r="K31" s="16">
-        <v>60</v>
-      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="20"/>
-      <c r="M31" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N31" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="12"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
+      <c r="P31" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>104</v>
+      </c>
+      <c r="R31" s="13">
+        <f t="shared" si="9"/>
+        <v>1E+104</v>
+      </c>
+      <c r="S31" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1E+104</v>
+      </c>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -12496,52 +13556,34 @@
       <c r="AB31" s="8"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B32" s="21">
-        <v>259</v>
-      </c>
-      <c r="C32" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E32" s="16">
-        <v>20</v>
-      </c>
-      <c r="F32" s="16">
-        <v>24900000</v>
-      </c>
-      <c r="G32" s="16">
-        <v>2</v>
-      </c>
-      <c r="H32" s="16">
-        <f t="shared" si="5"/>
-        <v>0.23080000000000023</v>
-      </c>
-      <c r="I32" s="16">
-        <v>23</v>
-      </c>
-      <c r="J32" s="16">
-        <v>0</v>
-      </c>
-      <c r="K32" s="16">
-        <v>60</v>
-      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="20"/>
-      <c r="M32" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N32" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="12"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="P32" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>108</v>
+      </c>
+      <c r="R32" s="13">
+        <f t="shared" si="9"/>
+        <v>1E+108</v>
+      </c>
+      <c r="S32" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1E+108</v>
+      </c>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -12553,47 +13595,19 @@
       <c r="AB32" s="8"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B33" s="21">
-        <v>260</v>
-      </c>
-      <c r="C33" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E33" s="16">
-        <v>20</v>
-      </c>
-      <c r="F33" s="16">
-        <v>25000000</v>
-      </c>
-      <c r="G33" s="16">
-        <v>2</v>
-      </c>
-      <c r="H33" s="16">
-        <f t="shared" si="5"/>
-        <v>0.23120000000000024</v>
-      </c>
-      <c r="I33" s="16">
-        <v>23</v>
-      </c>
-      <c r="J33" s="16">
-        <v>0</v>
-      </c>
-      <c r="K33" s="16">
-        <v>60</v>
-      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="20"/>
-      <c r="M33" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N33" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="12"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
@@ -12610,47 +13624,19 @@
       <c r="AB33" s="8"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B34" s="21">
-        <v>261</v>
-      </c>
-      <c r="C34" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E34" s="16">
-        <v>20</v>
-      </c>
-      <c r="F34" s="16">
-        <v>25100000</v>
-      </c>
-      <c r="G34" s="16">
-        <v>2</v>
-      </c>
-      <c r="H34" s="16">
-        <f t="shared" si="5"/>
-        <v>0.23160000000000025</v>
-      </c>
-      <c r="I34" s="16">
-        <v>23</v>
-      </c>
-      <c r="J34" s="16">
-        <v>0</v>
-      </c>
-      <c r="K34" s="16">
-        <v>60</v>
-      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="20"/>
-      <c r="M34" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N34" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="12"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
@@ -12667,47 +13653,19 @@
       <c r="AB34" s="8"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B35" s="21">
-        <v>262</v>
-      </c>
-      <c r="C35" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E35" s="16">
-        <v>20</v>
-      </c>
-      <c r="F35" s="16">
-        <v>25200000</v>
-      </c>
-      <c r="G35" s="16">
-        <v>2</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="5"/>
-        <v>0.23200000000000026</v>
-      </c>
-      <c r="I35" s="16">
-        <v>23</v>
-      </c>
-      <c r="J35" s="16">
-        <v>0</v>
-      </c>
-      <c r="K35" s="16">
-        <v>60</v>
-      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N35" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="12"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
@@ -12724,47 +13682,19 @@
       <c r="AB35" s="8"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B36" s="21">
-        <v>263</v>
-      </c>
-      <c r="C36" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E36" s="16">
-        <v>20</v>
-      </c>
-      <c r="F36" s="16">
-        <v>25300000</v>
-      </c>
-      <c r="G36" s="16">
-        <v>2</v>
-      </c>
-      <c r="H36" s="16">
-        <f t="shared" si="5"/>
-        <v>0.23240000000000027</v>
-      </c>
-      <c r="I36" s="16">
-        <v>23</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0</v>
-      </c>
-      <c r="K36" s="16">
-        <v>60</v>
-      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N36" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="12"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
@@ -12781,47 +13711,19 @@
       <c r="AB36" s="8"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B37" s="21">
-        <v>264</v>
-      </c>
-      <c r="C37" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>가</v>
-      </c>
-      <c r="E37" s="16">
-        <v>20</v>
-      </c>
-      <c r="F37" s="16">
-        <v>25400000</v>
-      </c>
-      <c r="G37" s="16">
-        <v>2</v>
-      </c>
-      <c r="H37" s="16">
-        <f t="shared" si="5"/>
-        <v>0.24000000000000027</v>
-      </c>
-      <c r="I37" s="16">
-        <v>23</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0</v>
-      </c>
-      <c r="K37" s="16">
-        <v>60</v>
-      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="N37" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+96</v>
-      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="12"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA97303-64B7-49A7-BF80-BCC87B465CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D956BAFA-A4CA-4F8C-A11E-81017E52671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="344">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1294,6 +1294,72 @@
   </si>
   <si>
     <t>50승</t>
+  </si>
+  <si>
+    <t>100승</t>
+  </si>
+  <si>
+    <t>150승</t>
+  </si>
+  <si>
+    <t>200승</t>
+  </si>
+  <si>
+    <t>300승</t>
+  </si>
+  <si>
+    <t>500승</t>
+  </si>
+  <si>
+    <t>800승</t>
+  </si>
+  <si>
+    <t>1000승</t>
+  </si>
+  <si>
+    <t>2000승</t>
+  </si>
+  <si>
+    <t>5000승</t>
+  </si>
+  <si>
+    <t>1마</t>
+  </si>
+  <si>
+    <t>2마</t>
+  </si>
+  <si>
+    <t>5마</t>
+  </si>
+  <si>
+    <t>10마</t>
+  </si>
+  <si>
+    <t>20마</t>
+  </si>
+  <si>
+    <t>50마</t>
+  </si>
+  <si>
+    <t>100마</t>
+  </si>
+  <si>
+    <t>150마</t>
+  </si>
+  <si>
+    <t>200마</t>
+  </si>
+  <si>
+    <t>300마</t>
+  </si>
+  <si>
+    <t>500마</t>
+  </si>
+  <si>
+    <t>800마</t>
+  </si>
+  <si>
+    <t>1000마</t>
   </si>
 </sst>
 </file>
@@ -1818,11 +1884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K268"/>
+  <dimension ref="A1:K290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G269" sqref="G269"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L281" sqref="L281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11212,6 +11278,776 @@
       </c>
       <c r="K268" s="1">
         <v>0.66400000015613103</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>1.0000000000000001E+106</v>
+      </c>
+      <c r="C269" t="s">
+        <v>322</v>
+      </c>
+      <c r="D269">
+        <v>20</v>
+      </c>
+      <c r="E269">
+        <v>25700000</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>0.21240000000000017</v>
+      </c>
+      <c r="H269">
+        <v>23</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>60</v>
+      </c>
+      <c r="K269" s="1">
+        <v>0.668000000158533</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>1.5E+106</v>
+      </c>
+      <c r="C270" t="s">
+        <v>323</v>
+      </c>
+      <c r="D270">
+        <v>20</v>
+      </c>
+      <c r="E270">
+        <v>25800000</v>
+      </c>
+      <c r="F270">
+        <v>2</v>
+      </c>
+      <c r="G270">
+        <v>0.22000000000000017</v>
+      </c>
+      <c r="H270">
+        <v>23</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>60</v>
+      </c>
+      <c r="K270" s="1">
+        <v>0.67200000016093497</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>2.0000000000000002E+106</v>
+      </c>
+      <c r="C271" t="s">
+        <v>324</v>
+      </c>
+      <c r="D271">
+        <v>20</v>
+      </c>
+      <c r="E271">
+        <v>25900000</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="G271">
+        <v>0.22040000000000018</v>
+      </c>
+      <c r="H271">
+        <v>23</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>60</v>
+      </c>
+      <c r="K271" s="1">
+        <v>0.67600000016333694</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>3.0000000000000001E+106</v>
+      </c>
+      <c r="C272" t="s">
+        <v>325</v>
+      </c>
+      <c r="D272">
+        <v>20</v>
+      </c>
+      <c r="E272">
+        <v>26000000</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
+      </c>
+      <c r="G272">
+        <v>0.22080000000000019</v>
+      </c>
+      <c r="H272">
+        <v>23</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>60</v>
+      </c>
+      <c r="K272" s="1">
+        <v>0.68000000016573903</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>4.9999999999999998E+106</v>
+      </c>
+      <c r="C273" t="s">
+        <v>326</v>
+      </c>
+      <c r="D273">
+        <v>20</v>
+      </c>
+      <c r="E273">
+        <v>26100000</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="G273">
+        <v>0.2212000000000002</v>
+      </c>
+      <c r="H273">
+        <v>23</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>60</v>
+      </c>
+      <c r="K273" s="1">
+        <v>0.684000000168141</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>8.0000000000000007E+106</v>
+      </c>
+      <c r="C274" t="s">
+        <v>327</v>
+      </c>
+      <c r="D274">
+        <v>20</v>
+      </c>
+      <c r="E274">
+        <v>26200000</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+      <c r="G274">
+        <v>0.22160000000000021</v>
+      </c>
+      <c r="H274">
+        <v>23</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>60</v>
+      </c>
+      <c r="K274" s="1">
+        <v>0.68800000017054397</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>9.9999999999999997E+106</v>
+      </c>
+      <c r="C275" t="s">
+        <v>328</v>
+      </c>
+      <c r="D275">
+        <v>20</v>
+      </c>
+      <c r="E275">
+        <v>26300000</v>
+      </c>
+      <c r="F275">
+        <v>2</v>
+      </c>
+      <c r="G275">
+        <v>0.22200000000000022</v>
+      </c>
+      <c r="H275">
+        <v>23</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>60</v>
+      </c>
+      <c r="K275" s="1">
+        <v>0.69200000017294605</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>1.9999999999999999E+107</v>
+      </c>
+      <c r="C276" t="s">
+        <v>329</v>
+      </c>
+      <c r="D276">
+        <v>20</v>
+      </c>
+      <c r="E276">
+        <v>26400000</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="G276">
+        <v>0.22240000000000024</v>
+      </c>
+      <c r="H276">
+        <v>23</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>60</v>
+      </c>
+      <c r="K276" s="1">
+        <v>0.69600000017534802</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>5.0000000000000002E+107</v>
+      </c>
+      <c r="C277" t="s">
+        <v>330</v>
+      </c>
+      <c r="D277">
+        <v>20</v>
+      </c>
+      <c r="E277">
+        <v>26500000</v>
+      </c>
+      <c r="F277">
+        <v>2</v>
+      </c>
+      <c r="G277">
+        <v>0.23000000000000023</v>
+      </c>
+      <c r="H277">
+        <v>23</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>60</v>
+      </c>
+      <c r="K277" s="1">
+        <v>0.70000000017774999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>1E+108</v>
+      </c>
+      <c r="C278" t="s">
+        <v>331</v>
+      </c>
+      <c r="D278">
+        <v>20</v>
+      </c>
+      <c r="E278">
+        <v>26600000</v>
+      </c>
+      <c r="F278">
+        <v>2</v>
+      </c>
+      <c r="G278">
+        <v>0.23040000000000024</v>
+      </c>
+      <c r="H278">
+        <v>23</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>60</v>
+      </c>
+      <c r="K278" s="1">
+        <v>0.70400000018015196</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>2.0000000000000001E+108</v>
+      </c>
+      <c r="C279" t="s">
+        <v>332</v>
+      </c>
+      <c r="D279">
+        <v>20</v>
+      </c>
+      <c r="E279">
+        <v>26700000</v>
+      </c>
+      <c r="F279">
+        <v>2</v>
+      </c>
+      <c r="G279">
+        <v>0.23080000000000025</v>
+      </c>
+      <c r="H279">
+        <v>23</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>60</v>
+      </c>
+      <c r="K279" s="1">
+        <v>0.70800000018255405</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>4.9999999999999999E+108</v>
+      </c>
+      <c r="C280" t="s">
+        <v>333</v>
+      </c>
+      <c r="D280">
+        <v>20</v>
+      </c>
+      <c r="E280">
+        <v>26800000</v>
+      </c>
+      <c r="F280">
+        <v>2</v>
+      </c>
+      <c r="G280">
+        <v>0.23120000000000027</v>
+      </c>
+      <c r="H280">
+        <v>23</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>60</v>
+      </c>
+      <c r="K280" s="1">
+        <v>0.71200000018495602</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="C281" t="s">
+        <v>334</v>
+      </c>
+      <c r="D281">
+        <v>20</v>
+      </c>
+      <c r="E281">
+        <v>26900000</v>
+      </c>
+      <c r="F281">
+        <v>2</v>
+      </c>
+      <c r="G281">
+        <v>0.23160000000000028</v>
+      </c>
+      <c r="H281">
+        <v>23</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>60</v>
+      </c>
+      <c r="K281" s="1">
+        <v>0.71600000018735799</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>2E+109</v>
+      </c>
+      <c r="C282" t="s">
+        <v>335</v>
+      </c>
+      <c r="D282">
+        <v>20</v>
+      </c>
+      <c r="E282">
+        <v>27000000</v>
+      </c>
+      <c r="F282">
+        <v>2</v>
+      </c>
+      <c r="G282">
+        <v>0.23200000000000029</v>
+      </c>
+      <c r="H282">
+        <v>23</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>60</v>
+      </c>
+      <c r="K282" s="1">
+        <v>0.72000000018975996</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="C283" t="s">
+        <v>336</v>
+      </c>
+      <c r="D283">
+        <v>20</v>
+      </c>
+      <c r="E283">
+        <v>27100000</v>
+      </c>
+      <c r="F283">
+        <v>2</v>
+      </c>
+      <c r="G283">
+        <v>0.2324000000000003</v>
+      </c>
+      <c r="H283">
+        <v>23</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>60</v>
+      </c>
+      <c r="K283" s="1">
+        <v>0.72400000019216204</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>1E+110</v>
+      </c>
+      <c r="C284" t="s">
+        <v>337</v>
+      </c>
+      <c r="D284">
+        <v>20</v>
+      </c>
+      <c r="E284">
+        <v>27200000</v>
+      </c>
+      <c r="F284">
+        <v>2</v>
+      </c>
+      <c r="G284">
+        <v>0.2400000000000003</v>
+      </c>
+      <c r="H284">
+        <v>23</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>60</v>
+      </c>
+      <c r="K284" s="1">
+        <v>0.72800000019456401</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>1.5E+110</v>
+      </c>
+      <c r="C285" t="s">
+        <v>338</v>
+      </c>
+      <c r="D285">
+        <v>20</v>
+      </c>
+      <c r="E285">
+        <v>27300000</v>
+      </c>
+      <c r="F285">
+        <v>2</v>
+      </c>
+      <c r="G285">
+        <v>0.24760000000000029</v>
+      </c>
+      <c r="H285">
+        <v>23</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>60</v>
+      </c>
+      <c r="K285" s="1">
+        <v>0.73200000019696598</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>2E+110</v>
+      </c>
+      <c r="C286" t="s">
+        <v>339</v>
+      </c>
+      <c r="D286">
+        <v>20</v>
+      </c>
+      <c r="E286">
+        <v>27400000</v>
+      </c>
+      <c r="F286">
+        <v>2</v>
+      </c>
+      <c r="G286">
+        <v>0.2480000000000003</v>
+      </c>
+      <c r="H286">
+        <v>23</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>60</v>
+      </c>
+      <c r="K286" s="1">
+        <v>0.73600000019936895</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>3.0000000000000001E+110</v>
+      </c>
+      <c r="C287" t="s">
+        <v>340</v>
+      </c>
+      <c r="D287">
+        <v>20</v>
+      </c>
+      <c r="E287">
+        <v>27500000</v>
+      </c>
+      <c r="F287">
+        <v>2</v>
+      </c>
+      <c r="G287">
+        <v>0.24840000000000031</v>
+      </c>
+      <c r="H287">
+        <v>23</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>60</v>
+      </c>
+      <c r="K287" s="1">
+        <v>0.74000000020177104</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>5.0000000000000005E+110</v>
+      </c>
+      <c r="C288" t="s">
+        <v>341</v>
+      </c>
+      <c r="D288">
+        <v>20</v>
+      </c>
+      <c r="E288">
+        <v>27600000</v>
+      </c>
+      <c r="F288">
+        <v>2</v>
+      </c>
+      <c r="G288">
+        <v>0.24880000000000033</v>
+      </c>
+      <c r="H288">
+        <v>23</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>60</v>
+      </c>
+      <c r="K288" s="1">
+        <v>0.74400000020417301</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>8.0000000000000002E+110</v>
+      </c>
+      <c r="C289" t="s">
+        <v>342</v>
+      </c>
+      <c r="D289">
+        <v>20</v>
+      </c>
+      <c r="E289">
+        <v>27700000</v>
+      </c>
+      <c r="F289">
+        <v>2</v>
+      </c>
+      <c r="G289">
+        <v>0.24920000000000034</v>
+      </c>
+      <c r="H289">
+        <v>23</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>60</v>
+      </c>
+      <c r="K289" s="1">
+        <v>0.74800000020657498</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="C290" t="s">
+        <v>343</v>
+      </c>
+      <c r="D290">
+        <v>20</v>
+      </c>
+      <c r="E290">
+        <v>27800000</v>
+      </c>
+      <c r="F290">
+        <v>2</v>
+      </c>
+      <c r="G290">
+        <v>0.24960000000000035</v>
+      </c>
+      <c r="H290">
+        <v>23</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>60</v>
+      </c>
+      <c r="K290" s="1">
+        <v>0.75200000020897695</v>
       </c>
     </row>
   </sheetData>
@@ -12217,7 +13053,7 @@
   <dimension ref="B1:AB64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B21" sqref="B21:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12583,7 +13419,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" ref="H10:H20" si="5">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
+        <f t="shared" ref="H10:H44" si="5">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
         <v>0.20800000000000005</v>
       </c>
       <c r="I10" s="16">
@@ -13171,11 +14007,11 @@
         <v>266</v>
       </c>
       <c r="C20" s="16">
-        <f t="shared" ref="C20" si="6">L20*N20</f>
+        <f t="shared" ref="C20:C21" si="6">L20*N20</f>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="D20" s="16" t="str">
-        <f t="shared" ref="D20" si="7">L20&amp;M20</f>
+        <f t="shared" ref="D20:D21" si="7">L20&amp;M20</f>
         <v>50승</v>
       </c>
       <c r="E20" s="16">
@@ -13207,7 +14043,7 @@
         <v>305</v>
       </c>
       <c r="N20" s="12" t="str">
-        <f t="shared" ref="N20" si="8">VLOOKUP(M20,P:S,4,FALSE)</f>
+        <f t="shared" ref="N20:N21" si="8">VLOOKUP(M20,P:S,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="P20" s="12" t="s">
@@ -13226,19 +14062,49 @@
       </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="12"/>
+      <c r="B21" s="21">
+        <v>267</v>
+      </c>
+      <c r="C21" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000001E+106</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>100승</v>
+      </c>
+      <c r="E21" s="16">
+        <v>20</v>
+      </c>
+      <c r="F21" s="16">
+        <v>25700000</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="5"/>
+        <v>0.21240000000000017</v>
+      </c>
+      <c r="I21" s="16">
+        <v>23</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>60</v>
+      </c>
+      <c r="L21" s="20">
+        <v>100</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="N21" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>1E+104</v>
+      </c>
       <c r="P21" s="12" t="s">
         <v>268</v>
       </c>
@@ -13255,19 +14121,49 @@
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="12"/>
+      <c r="B22" s="21">
+        <v>268</v>
+      </c>
+      <c r="C22" s="16">
+        <f t="shared" ref="C22:C40" si="9">L22*N22</f>
+        <v>1.5E+106</v>
+      </c>
+      <c r="D22" s="16" t="str">
+        <f t="shared" ref="D22:D40" si="10">L22&amp;M22</f>
+        <v>150승</v>
+      </c>
+      <c r="E22" s="16">
+        <v>20</v>
+      </c>
+      <c r="F22" s="16">
+        <v>25800000</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22000000000000017</v>
+      </c>
+      <c r="I22" s="16">
+        <v>23</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>60</v>
+      </c>
+      <c r="L22" s="20">
+        <v>150</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="N22" s="12" t="str">
+        <f t="shared" ref="N22:N40" si="11">VLOOKUP(M22,P:S,4,FALSE)</f>
+        <v>1E+104</v>
+      </c>
       <c r="P22" s="12" t="s">
         <v>269</v>
       </c>
@@ -13284,19 +14180,49 @@
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="12"/>
+      <c r="B23" s="21">
+        <v>269</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" si="9"/>
+        <v>2.0000000000000002E+106</v>
+      </c>
+      <c r="D23" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>200승</v>
+      </c>
+      <c r="E23" s="16">
+        <v>20</v>
+      </c>
+      <c r="F23" s="16">
+        <v>25900000</v>
+      </c>
+      <c r="G23" s="16">
+        <v>2</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22040000000000018</v>
+      </c>
+      <c r="I23" s="16">
+        <v>23</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>60</v>
+      </c>
+      <c r="L23" s="20">
+        <v>200</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="N23" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+104</v>
+      </c>
       <c r="P23" s="12" t="s">
         <v>270</v>
       </c>
@@ -13313,19 +14239,49 @@
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="12"/>
+      <c r="B24" s="21">
+        <v>270</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000001E+106</v>
+      </c>
+      <c r="D24" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>300승</v>
+      </c>
+      <c r="E24" s="16">
+        <v>20</v>
+      </c>
+      <c r="F24" s="16">
+        <v>26000000</v>
+      </c>
+      <c r="G24" s="16">
+        <v>2</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22080000000000019</v>
+      </c>
+      <c r="I24" s="16">
+        <v>23</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>60</v>
+      </c>
+      <c r="L24" s="20">
+        <v>300</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="N24" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+104</v>
+      </c>
       <c r="P24" s="12" t="s">
         <v>271</v>
       </c>
@@ -13342,19 +14298,49 @@
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="12"/>
+      <c r="B25" s="21">
+        <v>271</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="9"/>
+        <v>4.9999999999999998E+106</v>
+      </c>
+      <c r="D25" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>500승</v>
+      </c>
+      <c r="E25" s="16">
+        <v>20</v>
+      </c>
+      <c r="F25" s="16">
+        <v>26100000</v>
+      </c>
+      <c r="G25" s="16">
+        <v>2</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="5"/>
+        <v>0.2212000000000002</v>
+      </c>
+      <c r="I25" s="16">
+        <v>23</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
+        <v>60</v>
+      </c>
+      <c r="L25" s="20">
+        <v>500</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="N25" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+104</v>
+      </c>
       <c r="P25" s="12" t="s">
         <v>272</v>
       </c>
@@ -13371,19 +14357,49 @@
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="12"/>
+      <c r="B26" s="21">
+        <v>272</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="9"/>
+        <v>8.0000000000000007E+106</v>
+      </c>
+      <c r="D26" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>800승</v>
+      </c>
+      <c r="E26" s="16">
+        <v>20</v>
+      </c>
+      <c r="F26" s="16">
+        <v>26200000</v>
+      </c>
+      <c r="G26" s="16">
+        <v>2</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22160000000000021</v>
+      </c>
+      <c r="I26" s="16">
+        <v>23</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>60</v>
+      </c>
+      <c r="L26" s="20">
+        <v>800</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="N26" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+104</v>
+      </c>
       <c r="P26" s="12" t="s">
         <v>273</v>
       </c>
@@ -13400,19 +14416,49 @@
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="12"/>
+      <c r="B27" s="21">
+        <v>273</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999997E+106</v>
+      </c>
+      <c r="D27" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>1000승</v>
+      </c>
+      <c r="E27" s="16">
+        <v>20</v>
+      </c>
+      <c r="F27" s="16">
+        <v>26300000</v>
+      </c>
+      <c r="G27" s="16">
+        <v>2</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22200000000000022</v>
+      </c>
+      <c r="I27" s="16">
+        <v>23</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>60</v>
+      </c>
+      <c r="L27" s="20">
+        <v>1000</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="N27" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+104</v>
+      </c>
       <c r="P27" s="12" t="s">
         <v>252</v>
       </c>
@@ -13429,19 +14475,49 @@
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="12"/>
+      <c r="B28" s="21">
+        <v>274</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="9"/>
+        <v>1.9999999999999999E+107</v>
+      </c>
+      <c r="D28" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>2000승</v>
+      </c>
+      <c r="E28" s="16">
+        <v>20</v>
+      </c>
+      <c r="F28" s="16">
+        <v>26400000</v>
+      </c>
+      <c r="G28" s="16">
+        <v>2</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22240000000000024</v>
+      </c>
+      <c r="I28" s="16">
+        <v>23</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>60</v>
+      </c>
+      <c r="L28" s="20">
+        <v>2000</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="N28" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+104</v>
+      </c>
       <c r="P28" s="12" t="s">
         <v>264</v>
       </c>
@@ -13458,19 +14534,49 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="12"/>
+      <c r="B29" s="21">
+        <v>275</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000002E+107</v>
+      </c>
+      <c r="D29" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>5000승</v>
+      </c>
+      <c r="E29" s="16">
+        <v>20</v>
+      </c>
+      <c r="F29" s="16">
+        <v>26500000</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.23000000000000023</v>
+      </c>
+      <c r="I29" s="16">
+        <v>23</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>60</v>
+      </c>
+      <c r="L29" s="20">
+        <v>5000</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="N29" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+104</v>
+      </c>
       <c r="P29" s="12" t="s">
         <v>274</v>
       </c>
@@ -13487,19 +14593,49 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="12"/>
+      <c r="B30" s="21">
+        <v>276</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" si="9"/>
+        <v>1E+108</v>
+      </c>
+      <c r="D30" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>1마</v>
+      </c>
+      <c r="E30" s="16">
+        <v>20</v>
+      </c>
+      <c r="F30" s="16">
+        <v>26600000</v>
+      </c>
+      <c r="G30" s="16">
+        <v>2</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="5"/>
+        <v>0.23040000000000024</v>
+      </c>
+      <c r="I30" s="16">
+        <v>23</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>60</v>
+      </c>
+      <c r="L30" s="20">
+        <v>1</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N30" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="O30" s="12"/>
       <c r="P30" s="12" t="s">
         <v>306</v>
@@ -13508,28 +14644,58 @@
         <v>100</v>
       </c>
       <c r="R30" s="13">
-        <f t="shared" ref="R30:R32" si="9">POWER(10,Q30)</f>
+        <f t="shared" ref="R30:R32" si="12">POWER(10,Q30)</f>
         <v>1E+100</v>
       </c>
       <c r="S30" s="13" t="str">
-        <f t="shared" ref="S30:S32" si="10">RIGHT(R30,Q30)</f>
+        <f t="shared" ref="S30:S32" si="13">RIGHT(R30,Q30)</f>
         <v>1E+100</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="12"/>
+      <c r="B31" s="21">
+        <v>277</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" si="9"/>
+        <v>2.0000000000000001E+108</v>
+      </c>
+      <c r="D31" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>2마</v>
+      </c>
+      <c r="E31" s="16">
+        <v>20</v>
+      </c>
+      <c r="F31" s="16">
+        <v>26700000</v>
+      </c>
+      <c r="G31" s="16">
+        <v>2</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="5"/>
+        <v>0.23080000000000025</v>
+      </c>
+      <c r="I31" s="16">
+        <v>23</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>60</v>
+      </c>
+      <c r="L31" s="20">
+        <v>2</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N31" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="O31" s="10"/>
       <c r="P31" s="10" t="s">
         <v>305</v>
@@ -13538,11 +14704,11 @@
         <v>104</v>
       </c>
       <c r="R31" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
       <c r="S31" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1E+104</v>
       </c>
       <c r="T31" s="8"/>
@@ -13556,19 +14722,49 @@
       <c r="AB31" s="8"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B32" s="21"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="12"/>
+      <c r="B32" s="21">
+        <v>278</v>
+      </c>
+      <c r="C32" s="16">
+        <f t="shared" si="9"/>
+        <v>4.9999999999999999E+108</v>
+      </c>
+      <c r="D32" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>5마</v>
+      </c>
+      <c r="E32" s="16">
+        <v>20</v>
+      </c>
+      <c r="F32" s="16">
+        <v>26800000</v>
+      </c>
+      <c r="G32" s="16">
+        <v>2</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="5"/>
+        <v>0.23120000000000027</v>
+      </c>
+      <c r="I32" s="16">
+        <v>23</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>60</v>
+      </c>
+      <c r="L32" s="20">
+        <v>5</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N32" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="O32" s="10"/>
       <c r="P32" s="10" t="s">
         <v>307</v>
@@ -13577,11 +14773,11 @@
         <v>108</v>
       </c>
       <c r="R32" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1E+108</v>
       </c>
       <c r="S32" s="13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1E+108</v>
       </c>
       <c r="T32" s="8"/>
@@ -13595,19 +14791,49 @@
       <c r="AB32" s="8"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B33" s="21"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="12"/>
+      <c r="B33" s="21">
+        <v>279</v>
+      </c>
+      <c r="C33" s="16">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="D33" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>10마</v>
+      </c>
+      <c r="E33" s="16">
+        <v>20</v>
+      </c>
+      <c r="F33" s="16">
+        <v>26900000</v>
+      </c>
+      <c r="G33" s="16">
+        <v>2</v>
+      </c>
+      <c r="H33" s="16">
+        <f t="shared" si="5"/>
+        <v>0.23160000000000028</v>
+      </c>
+      <c r="I33" s="16">
+        <v>23</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>60</v>
+      </c>
+      <c r="L33" s="20">
+        <v>10</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N33" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
@@ -13624,19 +14850,49 @@
       <c r="AB33" s="8"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="12"/>
+      <c r="B34" s="21">
+        <v>280</v>
+      </c>
+      <c r="C34" s="16">
+        <f t="shared" si="9"/>
+        <v>2E+109</v>
+      </c>
+      <c r="D34" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>20마</v>
+      </c>
+      <c r="E34" s="16">
+        <v>20</v>
+      </c>
+      <c r="F34" s="16">
+        <v>27000000</v>
+      </c>
+      <c r="G34" s="16">
+        <v>2</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="5"/>
+        <v>0.23200000000000029</v>
+      </c>
+      <c r="I34" s="16">
+        <v>23</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>60</v>
+      </c>
+      <c r="L34" s="20">
+        <v>20</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N34" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
@@ -13653,19 +14909,49 @@
       <c r="AB34" s="8"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B35" s="21"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="12"/>
+      <c r="B35" s="21">
+        <v>281</v>
+      </c>
+      <c r="C35" s="16">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="D35" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>50마</v>
+      </c>
+      <c r="E35" s="16">
+        <v>20</v>
+      </c>
+      <c r="F35" s="16">
+        <v>27100000</v>
+      </c>
+      <c r="G35" s="16">
+        <v>2</v>
+      </c>
+      <c r="H35" s="16">
+        <f t="shared" si="5"/>
+        <v>0.2324000000000003</v>
+      </c>
+      <c r="I35" s="16">
+        <v>23</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>60</v>
+      </c>
+      <c r="L35" s="20">
+        <v>50</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N35" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
@@ -13682,19 +14968,49 @@
       <c r="AB35" s="8"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B36" s="21"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="12"/>
+      <c r="B36" s="21">
+        <v>282</v>
+      </c>
+      <c r="C36" s="16">
+        <f t="shared" si="9"/>
+        <v>1E+110</v>
+      </c>
+      <c r="D36" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>100마</v>
+      </c>
+      <c r="E36" s="16">
+        <v>20</v>
+      </c>
+      <c r="F36" s="16">
+        <v>27200000</v>
+      </c>
+      <c r="G36" s="16">
+        <v>2</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="5"/>
+        <v>0.2400000000000003</v>
+      </c>
+      <c r="I36" s="16">
+        <v>23</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>60</v>
+      </c>
+      <c r="L36" s="20">
+        <v>100</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N36" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
@@ -13711,19 +15027,49 @@
       <c r="AB36" s="8"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="12"/>
+      <c r="B37" s="21">
+        <v>283</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" si="9"/>
+        <v>1.5E+110</v>
+      </c>
+      <c r="D37" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>150마</v>
+      </c>
+      <c r="E37" s="16">
+        <v>20</v>
+      </c>
+      <c r="F37" s="16">
+        <v>27300000</v>
+      </c>
+      <c r="G37" s="16">
+        <v>2</v>
+      </c>
+      <c r="H37" s="16">
+        <f t="shared" si="5"/>
+        <v>0.24760000000000029</v>
+      </c>
+      <c r="I37" s="16">
+        <v>23</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>60</v>
+      </c>
+      <c r="L37" s="20">
+        <v>150</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N37" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
@@ -13740,19 +15086,49 @@
       <c r="AB37" s="8"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="12"/>
+      <c r="B38" s="21">
+        <v>284</v>
+      </c>
+      <c r="C38" s="16">
+        <f t="shared" si="9"/>
+        <v>2E+110</v>
+      </c>
+      <c r="D38" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>200마</v>
+      </c>
+      <c r="E38" s="16">
+        <v>20</v>
+      </c>
+      <c r="F38" s="16">
+        <v>27400000</v>
+      </c>
+      <c r="G38" s="16">
+        <v>2</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" si="5"/>
+        <v>0.2480000000000003</v>
+      </c>
+      <c r="I38" s="16">
+        <v>23</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <v>60</v>
+      </c>
+      <c r="L38" s="20">
+        <v>200</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N38" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
@@ -13766,19 +15142,49 @@
       <c r="AB38" s="8"/>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B39" s="21"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="12"/>
+      <c r="B39" s="21">
+        <v>285</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000001E+110</v>
+      </c>
+      <c r="D39" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>300마</v>
+      </c>
+      <c r="E39" s="16">
+        <v>20</v>
+      </c>
+      <c r="F39" s="16">
+        <v>27500000</v>
+      </c>
+      <c r="G39" s="16">
+        <v>2</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="5"/>
+        <v>0.24840000000000031</v>
+      </c>
+      <c r="I39" s="16">
+        <v>23</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
+        <v>60</v>
+      </c>
+      <c r="L39" s="20">
+        <v>300</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N39" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
@@ -13792,19 +15198,49 @@
       <c r="AB39" s="8"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B40" s="21"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="12"/>
+      <c r="B40" s="21">
+        <v>286</v>
+      </c>
+      <c r="C40" s="16">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000005E+110</v>
+      </c>
+      <c r="D40" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>500마</v>
+      </c>
+      <c r="E40" s="16">
+        <v>20</v>
+      </c>
+      <c r="F40" s="16">
+        <v>27600000</v>
+      </c>
+      <c r="G40" s="16">
+        <v>2</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="5"/>
+        <v>0.24880000000000033</v>
+      </c>
+      <c r="I40" s="16">
+        <v>23</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <v>60</v>
+      </c>
+      <c r="L40" s="20">
+        <v>500</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N40" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
@@ -13818,19 +15254,49 @@
       <c r="AB40" s="8"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="12"/>
+      <c r="B41" s="21">
+        <v>287</v>
+      </c>
+      <c r="C41" s="16">
+        <f t="shared" ref="C41:C44" si="14">L41*N41</f>
+        <v>8.0000000000000002E+110</v>
+      </c>
+      <c r="D41" s="16" t="str">
+        <f t="shared" ref="D41:D44" si="15">L41&amp;M41</f>
+        <v>800마</v>
+      </c>
+      <c r="E41" s="16">
+        <v>20</v>
+      </c>
+      <c r="F41" s="16">
+        <v>27700000</v>
+      </c>
+      <c r="G41" s="16">
+        <v>2</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="5"/>
+        <v>0.24920000000000034</v>
+      </c>
+      <c r="I41" s="16">
+        <v>23</v>
+      </c>
+      <c r="J41" s="16">
+        <v>0</v>
+      </c>
+      <c r="K41" s="16">
+        <v>60</v>
+      </c>
+      <c r="L41" s="20">
+        <v>800</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N41" s="12" t="str">
+        <f t="shared" ref="N41:N44" si="16">VLOOKUP(M41,P:S,4,FALSE)</f>
+        <v>1E+108</v>
+      </c>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
@@ -13844,19 +15310,49 @@
       <c r="AB41" s="8"/>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B42" s="21"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="12"/>
+      <c r="B42" s="21">
+        <v>288</v>
+      </c>
+      <c r="C42" s="16">
+        <f t="shared" si="14"/>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="D42" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>1000마</v>
+      </c>
+      <c r="E42" s="16">
+        <v>20</v>
+      </c>
+      <c r="F42" s="16">
+        <v>27800000</v>
+      </c>
+      <c r="G42" s="16">
+        <v>2</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="5"/>
+        <v>0.24960000000000035</v>
+      </c>
+      <c r="I42" s="16">
+        <v>23</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K42" s="16">
+        <v>60</v>
+      </c>
+      <c r="L42" s="20">
+        <v>1000</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N42" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
@@ -13870,19 +15366,49 @@
       <c r="AB42" s="8"/>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="12"/>
+      <c r="B43" s="21">
+        <v>289</v>
+      </c>
+      <c r="C43" s="16">
+        <f t="shared" si="14"/>
+        <v>2.0000000000000002E+111</v>
+      </c>
+      <c r="D43" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>2000마</v>
+      </c>
+      <c r="E43" s="16">
+        <v>20</v>
+      </c>
+      <c r="F43" s="16">
+        <v>27900000</v>
+      </c>
+      <c r="G43" s="16">
+        <v>2</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="5"/>
+        <v>0.25000000000000033</v>
+      </c>
+      <c r="I43" s="16">
+        <v>23</v>
+      </c>
+      <c r="J43" s="16">
+        <v>0</v>
+      </c>
+      <c r="K43" s="16">
+        <v>60</v>
+      </c>
+      <c r="L43" s="20">
+        <v>2000</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N43" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
@@ -13896,19 +15422,49 @@
       <c r="AB43" s="8"/>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="12"/>
+      <c r="B44" s="21">
+        <v>290</v>
+      </c>
+      <c r="C44" s="16">
+        <f t="shared" si="14"/>
+        <v>4.9999999999999997E+111</v>
+      </c>
+      <c r="D44" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>5000마</v>
+      </c>
+      <c r="E44" s="16">
+        <v>20</v>
+      </c>
+      <c r="F44" s="16">
+        <v>28000000</v>
+      </c>
+      <c r="G44" s="16">
+        <v>2</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="5"/>
+        <v>0.25040000000000034</v>
+      </c>
+      <c r="I44" s="16">
+        <v>23</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <v>60</v>
+      </c>
+      <c r="L44" s="20">
+        <v>5000</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="N44" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+108</v>
+      </c>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D956BAFA-A4CA-4F8C-A11E-81017E52671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26506064-4DF8-46A6-951E-77ACCB5AE2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="UnitChange" sheetId="3" r:id="rId3"/>
+    <sheet name="UnitChange" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="333">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1323,43 +1322,12 @@
     <t>5000승</t>
   </si>
   <si>
-    <t>1마</t>
-  </si>
-  <si>
-    <t>2마</t>
-  </si>
-  <si>
-    <t>5마</t>
-  </si>
-  <si>
-    <t>10마</t>
-  </si>
-  <si>
-    <t>20마</t>
-  </si>
-  <si>
-    <t>50마</t>
-  </si>
-  <si>
-    <t>100마</t>
-  </si>
-  <si>
-    <t>150마</t>
-  </si>
-  <si>
-    <t>200마</t>
-  </si>
-  <si>
-    <t>300마</t>
-  </si>
-  <si>
-    <t>500마</t>
-  </si>
-  <si>
-    <t>800마</t>
-  </si>
-  <si>
-    <t>1000마</t>
+    <t>살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1884,11 +1852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K290"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L281" sqref="L281"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11600,34 +11568,44 @@
         <v>276</v>
       </c>
       <c r="B278">
+        <f>VLOOKUP(A278,UnitChange!B:K,2,FALSE)</f>
         <v>1E+108</v>
       </c>
-      <c r="C278" t="s">
-        <v>331</v>
+      <c r="C278" t="str">
+        <f>VLOOKUP(A278,UnitChange!B:K,3,FALSE)</f>
+        <v>1마</v>
       </c>
       <c r="D278">
+        <f>VLOOKUP(A278,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E278">
+        <f>VLOOKUP(A278,UnitChange!B:K,5,FALSE)</f>
         <v>26600000</v>
       </c>
       <c r="F278">
+        <f>VLOOKUP(A278,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G278">
+        <f>VLOOKUP(A278,UnitChange!B:K,7,FALSE)</f>
         <v>0.23040000000000024</v>
       </c>
       <c r="H278">
+        <f>VLOOKUP(A278,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I278">
+        <f>VLOOKUP(A278,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J278">
+        <f>VLOOKUP(A278,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K278" s="1">
-        <v>0.70400000018015196</v>
+        <f>VLOOKUP(A278,UnitChange!B:L,11,FALSE)</f>
+        <v>0.70400000000000007</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
@@ -11635,34 +11613,44 @@
         <v>277</v>
       </c>
       <c r="B279">
+        <f>VLOOKUP(A279,UnitChange!B:K,2,FALSE)</f>
         <v>2.0000000000000001E+108</v>
       </c>
-      <c r="C279" t="s">
-        <v>332</v>
+      <c r="C279" t="str">
+        <f>VLOOKUP(A279,UnitChange!B:K,3,FALSE)</f>
+        <v>2마</v>
       </c>
       <c r="D279">
+        <f>VLOOKUP(A279,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E279">
+        <f>VLOOKUP(A279,UnitChange!B:K,5,FALSE)</f>
         <v>26700000</v>
       </c>
       <c r="F279">
+        <f>VLOOKUP(A279,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G279">
+        <f>VLOOKUP(A279,UnitChange!B:K,7,FALSE)</f>
         <v>0.23080000000000025</v>
       </c>
       <c r="H279">
+        <f>VLOOKUP(A279,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I279">
+        <f>VLOOKUP(A279,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J279">
+        <f>VLOOKUP(A279,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K279" s="1">
-        <v>0.70800000018255405</v>
+        <f>VLOOKUP(A279,UnitChange!B:L,11,FALSE)</f>
+        <v>0.70800000000000007</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
@@ -11670,34 +11658,44 @@
         <v>278</v>
       </c>
       <c r="B280">
+        <f>VLOOKUP(A280,UnitChange!B:K,2,FALSE)</f>
         <v>4.9999999999999999E+108</v>
       </c>
-      <c r="C280" t="s">
-        <v>333</v>
+      <c r="C280" t="str">
+        <f>VLOOKUP(A280,UnitChange!B:K,3,FALSE)</f>
+        <v>5마</v>
       </c>
       <c r="D280">
+        <f>VLOOKUP(A280,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E280">
+        <f>VLOOKUP(A280,UnitChange!B:K,5,FALSE)</f>
         <v>26800000</v>
       </c>
       <c r="F280">
+        <f>VLOOKUP(A280,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G280">
+        <f>VLOOKUP(A280,UnitChange!B:K,7,FALSE)</f>
         <v>0.23120000000000027</v>
       </c>
       <c r="H280">
+        <f>VLOOKUP(A280,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I280">
+        <f>VLOOKUP(A280,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J280">
+        <f>VLOOKUP(A280,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K280" s="1">
-        <v>0.71200000018495602</v>
+        <f>VLOOKUP(A280,UnitChange!B:L,11,FALSE)</f>
+        <v>0.71200000000000008</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
@@ -11705,34 +11703,44 @@
         <v>279</v>
       </c>
       <c r="B281">
+        <f>VLOOKUP(A281,UnitChange!B:K,2,FALSE)</f>
         <v>9.9999999999999998E+108</v>
       </c>
-      <c r="C281" t="s">
-        <v>334</v>
+      <c r="C281" t="str">
+        <f>VLOOKUP(A281,UnitChange!B:K,3,FALSE)</f>
+        <v>10마</v>
       </c>
       <c r="D281">
+        <f>VLOOKUP(A281,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E281">
+        <f>VLOOKUP(A281,UnitChange!B:K,5,FALSE)</f>
         <v>26900000</v>
       </c>
       <c r="F281">
+        <f>VLOOKUP(A281,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G281">
+        <f>VLOOKUP(A281,UnitChange!B:K,7,FALSE)</f>
         <v>0.23160000000000028</v>
       </c>
       <c r="H281">
+        <f>VLOOKUP(A281,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I281">
+        <f>VLOOKUP(A281,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J281">
+        <f>VLOOKUP(A281,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K281" s="1">
-        <v>0.71600000018735799</v>
+        <f>VLOOKUP(A281,UnitChange!B:L,11,FALSE)</f>
+        <v>0.71600000000000008</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
@@ -11740,34 +11748,44 @@
         <v>280</v>
       </c>
       <c r="B282">
+        <f>VLOOKUP(A282,UnitChange!B:K,2,FALSE)</f>
         <v>2E+109</v>
       </c>
-      <c r="C282" t="s">
-        <v>335</v>
+      <c r="C282" t="str">
+        <f>VLOOKUP(A282,UnitChange!B:K,3,FALSE)</f>
+        <v>20마</v>
       </c>
       <c r="D282">
+        <f>VLOOKUP(A282,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E282">
+        <f>VLOOKUP(A282,UnitChange!B:K,5,FALSE)</f>
         <v>27000000</v>
       </c>
       <c r="F282">
+        <f>VLOOKUP(A282,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G282">
+        <f>VLOOKUP(A282,UnitChange!B:K,7,FALSE)</f>
         <v>0.23200000000000029</v>
       </c>
       <c r="H282">
+        <f>VLOOKUP(A282,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I282">
+        <f>VLOOKUP(A282,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J282">
+        <f>VLOOKUP(A282,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K282" s="1">
-        <v>0.72000000018975996</v>
+        <f>VLOOKUP(A282,UnitChange!B:L,11,FALSE)</f>
+        <v>0.72000000000000008</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
@@ -11775,34 +11793,44 @@
         <v>281</v>
       </c>
       <c r="B283">
+        <f>VLOOKUP(A283,UnitChange!B:K,2,FALSE)</f>
         <v>5.0000000000000001E+109</v>
       </c>
-      <c r="C283" t="s">
-        <v>336</v>
+      <c r="C283" t="str">
+        <f>VLOOKUP(A283,UnitChange!B:K,3,FALSE)</f>
+        <v>50마</v>
       </c>
       <c r="D283">
+        <f>VLOOKUP(A283,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E283">
+        <f>VLOOKUP(A283,UnitChange!B:K,5,FALSE)</f>
         <v>27100000</v>
       </c>
       <c r="F283">
+        <f>VLOOKUP(A283,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G283">
+        <f>VLOOKUP(A283,UnitChange!B:K,7,FALSE)</f>
         <v>0.2324000000000003</v>
       </c>
       <c r="H283">
+        <f>VLOOKUP(A283,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I283">
+        <f>VLOOKUP(A283,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J283">
+        <f>VLOOKUP(A283,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K283" s="1">
-        <v>0.72400000019216204</v>
+        <f>VLOOKUP(A283,UnitChange!B:L,11,FALSE)</f>
+        <v>0.72400000000000009</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
@@ -11810,34 +11838,44 @@
         <v>282</v>
       </c>
       <c r="B284">
+        <f>VLOOKUP(A284,UnitChange!B:K,2,FALSE)</f>
         <v>1E+110</v>
       </c>
-      <c r="C284" t="s">
-        <v>337</v>
+      <c r="C284" t="str">
+        <f>VLOOKUP(A284,UnitChange!B:K,3,FALSE)</f>
+        <v>100마</v>
       </c>
       <c r="D284">
+        <f>VLOOKUP(A284,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E284">
+        <f>VLOOKUP(A284,UnitChange!B:K,5,FALSE)</f>
         <v>27200000</v>
       </c>
       <c r="F284">
+        <f>VLOOKUP(A284,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G284">
+        <f>VLOOKUP(A284,UnitChange!B:K,7,FALSE)</f>
         <v>0.2400000000000003</v>
       </c>
       <c r="H284">
+        <f>VLOOKUP(A284,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I284">
+        <f>VLOOKUP(A284,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J284">
+        <f>VLOOKUP(A284,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K284" s="1">
-        <v>0.72800000019456401</v>
+        <f>VLOOKUP(A284,UnitChange!B:L,11,FALSE)</f>
+        <v>0.72800000000000009</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
@@ -11845,34 +11883,44 @@
         <v>283</v>
       </c>
       <c r="B285">
+        <f>VLOOKUP(A285,UnitChange!B:K,2,FALSE)</f>
         <v>1.5E+110</v>
       </c>
-      <c r="C285" t="s">
-        <v>338</v>
+      <c r="C285" t="str">
+        <f>VLOOKUP(A285,UnitChange!B:K,3,FALSE)</f>
+        <v>150마</v>
       </c>
       <c r="D285">
+        <f>VLOOKUP(A285,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E285">
+        <f>VLOOKUP(A285,UnitChange!B:K,5,FALSE)</f>
         <v>27300000</v>
       </c>
       <c r="F285">
+        <f>VLOOKUP(A285,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G285">
+        <f>VLOOKUP(A285,UnitChange!B:K,7,FALSE)</f>
         <v>0.24760000000000029</v>
       </c>
       <c r="H285">
+        <f>VLOOKUP(A285,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I285">
+        <f>VLOOKUP(A285,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J285">
+        <f>VLOOKUP(A285,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K285" s="1">
-        <v>0.73200000019696598</v>
+        <f>VLOOKUP(A285,UnitChange!B:L,11,FALSE)</f>
+        <v>0.7320000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
@@ -11880,34 +11928,44 @@
         <v>284</v>
       </c>
       <c r="B286">
+        <f>VLOOKUP(A286,UnitChange!B:K,2,FALSE)</f>
         <v>2E+110</v>
       </c>
-      <c r="C286" t="s">
-        <v>339</v>
+      <c r="C286" t="str">
+        <f>VLOOKUP(A286,UnitChange!B:K,3,FALSE)</f>
+        <v>200마</v>
       </c>
       <c r="D286">
+        <f>VLOOKUP(A286,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E286">
+        <f>VLOOKUP(A286,UnitChange!B:K,5,FALSE)</f>
         <v>27400000</v>
       </c>
       <c r="F286">
+        <f>VLOOKUP(A286,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G286">
+        <f>VLOOKUP(A286,UnitChange!B:K,7,FALSE)</f>
         <v>0.2480000000000003</v>
       </c>
       <c r="H286">
+        <f>VLOOKUP(A286,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I286">
+        <f>VLOOKUP(A286,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J286">
+        <f>VLOOKUP(A286,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K286" s="1">
-        <v>0.73600000019936895</v>
+        <f>VLOOKUP(A286,UnitChange!B:L,11,FALSE)</f>
+        <v>0.7360000000000001</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
@@ -11915,34 +11973,44 @@
         <v>285</v>
       </c>
       <c r="B287">
+        <f>VLOOKUP(A287,UnitChange!B:K,2,FALSE)</f>
         <v>3.0000000000000001E+110</v>
       </c>
-      <c r="C287" t="s">
-        <v>340</v>
+      <c r="C287" t="str">
+        <f>VLOOKUP(A287,UnitChange!B:K,3,FALSE)</f>
+        <v>300마</v>
       </c>
       <c r="D287">
+        <f>VLOOKUP(A287,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E287">
+        <f>VLOOKUP(A287,UnitChange!B:K,5,FALSE)</f>
         <v>27500000</v>
       </c>
       <c r="F287">
+        <f>VLOOKUP(A287,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G287">
+        <f>VLOOKUP(A287,UnitChange!B:K,7,FALSE)</f>
         <v>0.24840000000000031</v>
       </c>
       <c r="H287">
+        <f>VLOOKUP(A287,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I287">
+        <f>VLOOKUP(A287,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J287">
+        <f>VLOOKUP(A287,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K287" s="1">
-        <v>0.74000000020177104</v>
+        <f>VLOOKUP(A287,UnitChange!B:L,11,FALSE)</f>
+        <v>0.7400000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
@@ -11950,34 +12018,44 @@
         <v>286</v>
       </c>
       <c r="B288">
+        <f>VLOOKUP(A288,UnitChange!B:K,2,FALSE)</f>
         <v>5.0000000000000005E+110</v>
       </c>
-      <c r="C288" t="s">
-        <v>341</v>
+      <c r="C288" t="str">
+        <f>VLOOKUP(A288,UnitChange!B:K,3,FALSE)</f>
+        <v>500마</v>
       </c>
       <c r="D288">
+        <f>VLOOKUP(A288,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E288">
+        <f>VLOOKUP(A288,UnitChange!B:K,5,FALSE)</f>
         <v>27600000</v>
       </c>
       <c r="F288">
+        <f>VLOOKUP(A288,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G288">
+        <f>VLOOKUP(A288,UnitChange!B:K,7,FALSE)</f>
         <v>0.24880000000000033</v>
       </c>
       <c r="H288">
+        <f>VLOOKUP(A288,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I288">
+        <f>VLOOKUP(A288,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J288">
+        <f>VLOOKUP(A288,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K288" s="1">
-        <v>0.74400000020417301</v>
+        <f>VLOOKUP(A288,UnitChange!B:L,11,FALSE)</f>
+        <v>0.74400000000000011</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
@@ -11985,34 +12063,44 @@
         <v>287</v>
       </c>
       <c r="B289">
+        <f>VLOOKUP(A289,UnitChange!B:K,2,FALSE)</f>
         <v>8.0000000000000002E+110</v>
       </c>
-      <c r="C289" t="s">
-        <v>342</v>
+      <c r="C289" t="str">
+        <f>VLOOKUP(A289,UnitChange!B:K,3,FALSE)</f>
+        <v>800마</v>
       </c>
       <c r="D289">
+        <f>VLOOKUP(A289,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E289">
+        <f>VLOOKUP(A289,UnitChange!B:K,5,FALSE)</f>
         <v>27700000</v>
       </c>
       <c r="F289">
+        <f>VLOOKUP(A289,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G289">
+        <f>VLOOKUP(A289,UnitChange!B:K,7,FALSE)</f>
         <v>0.24920000000000034</v>
       </c>
       <c r="H289">
+        <f>VLOOKUP(A289,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I289">
+        <f>VLOOKUP(A289,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J289">
+        <f>VLOOKUP(A289,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K289" s="1">
-        <v>0.74800000020657498</v>
+        <f>VLOOKUP(A289,UnitChange!B:L,11,FALSE)</f>
+        <v>0.74800000000000011</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
@@ -12020,34 +12108,719 @@
         <v>288</v>
       </c>
       <c r="B290">
+        <f>VLOOKUP(A290,UnitChange!B:K,2,FALSE)</f>
         <v>1.0000000000000001E+111</v>
       </c>
-      <c r="C290" t="s">
-        <v>343</v>
+      <c r="C290" t="str">
+        <f>VLOOKUP(A290,UnitChange!B:K,3,FALSE)</f>
+        <v>1000마</v>
       </c>
       <c r="D290">
+        <f>VLOOKUP(A290,UnitChange!B:K,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="E290">
+        <f>VLOOKUP(A290,UnitChange!B:K,5,FALSE)</f>
         <v>27800000</v>
       </c>
       <c r="F290">
+        <f>VLOOKUP(A290,UnitChange!B:K,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G290">
+        <f>VLOOKUP(A290,UnitChange!B:K,7,FALSE)</f>
         <v>0.24960000000000035</v>
       </c>
       <c r="H290">
+        <f>VLOOKUP(A290,UnitChange!B:K,8,FALSE)</f>
         <v>23</v>
       </c>
       <c r="I290">
+        <f>VLOOKUP(A290,UnitChange!B:K,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J290">
+        <f>VLOOKUP(A290,UnitChange!B:K,10,FALSE)</f>
         <v>60</v>
       </c>
       <c r="K290" s="1">
-        <v>0.75200000020897695</v>
+        <f>VLOOKUP(A290,UnitChange!B:L,11,FALSE)</f>
+        <v>0.75200000000000011</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <f>VLOOKUP(A291,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000002E+111</v>
+      </c>
+      <c r="C291" t="str">
+        <f>VLOOKUP(A291,UnitChange!B:K,3,FALSE)</f>
+        <v>2000마</v>
+      </c>
+      <c r="D291">
+        <f>VLOOKUP(A291,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E291">
+        <f>VLOOKUP(A291,UnitChange!B:K,5,FALSE)</f>
+        <v>27900000</v>
+      </c>
+      <c r="F291">
+        <f>VLOOKUP(A291,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G291">
+        <f>VLOOKUP(A291,UnitChange!B:K,7,FALSE)</f>
+        <v>0.25000000000000033</v>
+      </c>
+      <c r="H291">
+        <f>VLOOKUP(A291,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I291">
+        <f>VLOOKUP(A291,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <f>VLOOKUP(A291,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K291" s="1">
+        <f>VLOOKUP(A291,UnitChange!B:L,11,FALSE)</f>
+        <v>0.75600000000000012</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <f>VLOOKUP(A292,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999997E+111</v>
+      </c>
+      <c r="C292" t="str">
+        <f>VLOOKUP(A292,UnitChange!B:K,3,FALSE)</f>
+        <v>5000마</v>
+      </c>
+      <c r="D292">
+        <f>VLOOKUP(A292,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E292">
+        <f>VLOOKUP(A292,UnitChange!B:K,5,FALSE)</f>
+        <v>28000000</v>
+      </c>
+      <c r="F292">
+        <f>VLOOKUP(A292,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G292">
+        <f>VLOOKUP(A292,UnitChange!B:K,7,FALSE)</f>
+        <v>0.25040000000000034</v>
+      </c>
+      <c r="H292">
+        <f>VLOOKUP(A292,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I292">
+        <f>VLOOKUP(A292,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <f>VLOOKUP(A292,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K292" s="1">
+        <f>VLOOKUP(A292,UnitChange!B:L,11,FALSE)</f>
+        <v>0.76000000000000012</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <f>VLOOKUP(A293,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="C293" t="str">
+        <f>VLOOKUP(A293,UnitChange!B:K,3,FALSE)</f>
+        <v>1살</v>
+      </c>
+      <c r="D293">
+        <f>VLOOKUP(A293,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E293">
+        <f>VLOOKUP(A293,UnitChange!B:K,5,FALSE)</f>
+        <v>28100000</v>
+      </c>
+      <c r="F293">
+        <f>VLOOKUP(A293,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G293">
+        <f>VLOOKUP(A293,UnitChange!B:K,7,FALSE)</f>
+        <v>0.25080000000000036</v>
+      </c>
+      <c r="H293">
+        <f>VLOOKUP(A293,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I293">
+        <f>VLOOKUP(A293,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <f>VLOOKUP(A293,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K293" s="1">
+        <f>VLOOKUP(A293,UnitChange!B:L,11,FALSE)</f>
+        <v>0.76400000000000012</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <f>VLOOKUP(A294,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999999E+112</v>
+      </c>
+      <c r="C294" t="str">
+        <f>VLOOKUP(A294,UnitChange!B:K,3,FALSE)</f>
+        <v>2살</v>
+      </c>
+      <c r="D294">
+        <f>VLOOKUP(A294,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E294">
+        <f>VLOOKUP(A294,UnitChange!B:K,5,FALSE)</f>
+        <v>28200000</v>
+      </c>
+      <c r="F294">
+        <f>VLOOKUP(A294,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <f>VLOOKUP(A294,UnitChange!B:K,7,FALSE)</f>
+        <v>0.25120000000000037</v>
+      </c>
+      <c r="H294">
+        <f>VLOOKUP(A294,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I294">
+        <f>VLOOKUP(A294,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <f>VLOOKUP(A294,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K294" s="1">
+        <f>VLOOKUP(A294,UnitChange!B:L,11,FALSE)</f>
+        <v>0.76800000000000013</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <f>VLOOKUP(A295,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000001E+112</v>
+      </c>
+      <c r="C295" t="str">
+        <f>VLOOKUP(A295,UnitChange!B:K,3,FALSE)</f>
+        <v>5살</v>
+      </c>
+      <c r="D295">
+        <f>VLOOKUP(A295,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E295">
+        <f>VLOOKUP(A295,UnitChange!B:K,5,FALSE)</f>
+        <v>28300000</v>
+      </c>
+      <c r="F295">
+        <f>VLOOKUP(A295,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G295">
+        <f>VLOOKUP(A295,UnitChange!B:K,7,FALSE)</f>
+        <v>0.25160000000000038</v>
+      </c>
+      <c r="H295">
+        <f>VLOOKUP(A295,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I295">
+        <f>VLOOKUP(A295,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <f>VLOOKUP(A295,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K295" s="1">
+        <f>VLOOKUP(A295,UnitChange!B:L,11,FALSE)</f>
+        <v>0.77200000000000013</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <f>VLOOKUP(A296,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+113</v>
+      </c>
+      <c r="C296" t="str">
+        <f>VLOOKUP(A296,UnitChange!B:K,3,FALSE)</f>
+        <v>10살</v>
+      </c>
+      <c r="D296">
+        <f>VLOOKUP(A296,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E296">
+        <f>VLOOKUP(A296,UnitChange!B:K,5,FALSE)</f>
+        <v>28400000</v>
+      </c>
+      <c r="F296">
+        <f>VLOOKUP(A296,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G296">
+        <f>VLOOKUP(A296,UnitChange!B:K,7,FALSE)</f>
+        <v>0.25200000000000039</v>
+      </c>
+      <c r="H296">
+        <f>VLOOKUP(A296,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I296">
+        <f>VLOOKUP(A296,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <f>VLOOKUP(A296,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K296" s="1">
+        <f>VLOOKUP(A296,UnitChange!B:L,11,FALSE)</f>
+        <v>0.77600000000000013</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <f>VLOOKUP(A297,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+113</v>
+      </c>
+      <c r="C297" t="str">
+        <f>VLOOKUP(A297,UnitChange!B:K,3,FALSE)</f>
+        <v>20살</v>
+      </c>
+      <c r="D297">
+        <f>VLOOKUP(A297,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E297">
+        <f>VLOOKUP(A297,UnitChange!B:K,5,FALSE)</f>
+        <v>28500000</v>
+      </c>
+      <c r="F297">
+        <f>VLOOKUP(A297,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G297">
+        <f>VLOOKUP(A297,UnitChange!B:K,7,FALSE)</f>
+        <v>0.2524000000000004</v>
+      </c>
+      <c r="H297">
+        <f>VLOOKUP(A297,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I297">
+        <f>VLOOKUP(A297,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <f>VLOOKUP(A297,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K297" s="1">
+        <f>VLOOKUP(A297,UnitChange!B:L,11,FALSE)</f>
+        <v>0.78000000000000014</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <f>VLOOKUP(A298,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999994E+113</v>
+      </c>
+      <c r="C298" t="str">
+        <f>VLOOKUP(A298,UnitChange!B:K,3,FALSE)</f>
+        <v>50살</v>
+      </c>
+      <c r="D298">
+        <f>VLOOKUP(A298,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E298">
+        <f>VLOOKUP(A298,UnitChange!B:K,5,FALSE)</f>
+        <v>28600000</v>
+      </c>
+      <c r="F298">
+        <f>VLOOKUP(A298,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G298">
+        <f>VLOOKUP(A298,UnitChange!B:K,7,FALSE)</f>
+        <v>0.2600000000000004</v>
+      </c>
+      <c r="H298">
+        <f>VLOOKUP(A298,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I298">
+        <f>VLOOKUP(A298,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <f>VLOOKUP(A298,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K298" s="1">
+        <f>VLOOKUP(A298,UnitChange!B:L,11,FALSE)</f>
+        <v>0.78400000000000014</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <f>VLOOKUP(A299,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999988E+113</v>
+      </c>
+      <c r="C299" t="str">
+        <f>VLOOKUP(A299,UnitChange!B:K,3,FALSE)</f>
+        <v>100살</v>
+      </c>
+      <c r="D299">
+        <f>VLOOKUP(A299,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E299">
+        <f>VLOOKUP(A299,UnitChange!B:K,5,FALSE)</f>
+        <v>28700000</v>
+      </c>
+      <c r="F299">
+        <f>VLOOKUP(A299,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G299">
+        <f>VLOOKUP(A299,UnitChange!B:K,7,FALSE)</f>
+        <v>0.26040000000000041</v>
+      </c>
+      <c r="H299">
+        <f>VLOOKUP(A299,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I299">
+        <f>VLOOKUP(A299,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <f>VLOOKUP(A299,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K299" s="1">
+        <f>VLOOKUP(A299,UnitChange!B:L,11,FALSE)</f>
+        <v>0.78800000000000014</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <f>VLOOKUP(A300,UnitChange!B:K,2,FALSE)</f>
+        <v>1.5E+114</v>
+      </c>
+      <c r="C300" t="str">
+        <f>VLOOKUP(A300,UnitChange!B:K,3,FALSE)</f>
+        <v>150살</v>
+      </c>
+      <c r="D300">
+        <f>VLOOKUP(A300,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E300">
+        <f>VLOOKUP(A300,UnitChange!B:K,5,FALSE)</f>
+        <v>28800000</v>
+      </c>
+      <c r="F300">
+        <f>VLOOKUP(A300,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G300">
+        <f>VLOOKUP(A300,UnitChange!B:K,7,FALSE)</f>
+        <v>0.26080000000000042</v>
+      </c>
+      <c r="H300">
+        <f>VLOOKUP(A300,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I300">
+        <f>VLOOKUP(A300,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <f>VLOOKUP(A300,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K300" s="1">
+        <f>VLOOKUP(A300,UnitChange!B:L,11,FALSE)</f>
+        <v>0.79200000000000015</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <f>VLOOKUP(A301,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999998E+114</v>
+      </c>
+      <c r="C301" t="str">
+        <f>VLOOKUP(A301,UnitChange!B:K,3,FALSE)</f>
+        <v>200살</v>
+      </c>
+      <c r="D301">
+        <f>VLOOKUP(A301,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E301">
+        <f>VLOOKUP(A301,UnitChange!B:K,5,FALSE)</f>
+        <v>28900000</v>
+      </c>
+      <c r="F301">
+        <f>VLOOKUP(A301,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G301">
+        <f>VLOOKUP(A301,UnitChange!B:K,7,FALSE)</f>
+        <v>0.26120000000000043</v>
+      </c>
+      <c r="H301">
+        <f>VLOOKUP(A301,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I301">
+        <f>VLOOKUP(A301,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <f>VLOOKUP(A301,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K301" s="1">
+        <f>VLOOKUP(A301,UnitChange!B:L,11,FALSE)</f>
+        <v>0.79600000000000015</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <f>VLOOKUP(A302,UnitChange!B:K,2,FALSE)</f>
+        <v>3E+114</v>
+      </c>
+      <c r="C302" t="str">
+        <f>VLOOKUP(A302,UnitChange!B:K,3,FALSE)</f>
+        <v>300살</v>
+      </c>
+      <c r="D302">
+        <f>VLOOKUP(A302,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E302">
+        <f>VLOOKUP(A302,UnitChange!B:K,5,FALSE)</f>
+        <v>29000000</v>
+      </c>
+      <c r="F302">
+        <f>VLOOKUP(A302,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G302">
+        <f>VLOOKUP(A302,UnitChange!B:K,7,FALSE)</f>
+        <v>0.26160000000000044</v>
+      </c>
+      <c r="H302">
+        <f>VLOOKUP(A302,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I302">
+        <f>VLOOKUP(A302,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <f>VLOOKUP(A302,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K302" s="1">
+        <f>VLOOKUP(A302,UnitChange!B:L,11,FALSE)</f>
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <f>VLOOKUP(A303,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000001E+114</v>
+      </c>
+      <c r="C303" t="str">
+        <f>VLOOKUP(A303,UnitChange!B:K,3,FALSE)</f>
+        <v>500살</v>
+      </c>
+      <c r="D303">
+        <f>VLOOKUP(A303,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E303">
+        <f>VLOOKUP(A303,UnitChange!B:K,5,FALSE)</f>
+        <v>29100000</v>
+      </c>
+      <c r="F303">
+        <f>VLOOKUP(A303,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G303">
+        <f>VLOOKUP(A303,UnitChange!B:K,7,FALSE)</f>
+        <v>0.26200000000000045</v>
+      </c>
+      <c r="H303">
+        <f>VLOOKUP(A303,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I303">
+        <f>VLOOKUP(A303,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <f>VLOOKUP(A303,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K303" s="1">
+        <f>VLOOKUP(A303,UnitChange!B:L,11,FALSE)</f>
+        <v>0.80400000000000016</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <f>VLOOKUP(A304,UnitChange!B:K,2,FALSE)</f>
+        <v>7.999999999999999E+114</v>
+      </c>
+      <c r="C304" t="str">
+        <f>VLOOKUP(A304,UnitChange!B:K,3,FALSE)</f>
+        <v>800살</v>
+      </c>
+      <c r="D304">
+        <f>VLOOKUP(A304,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E304">
+        <f>VLOOKUP(A304,UnitChange!B:K,5,FALSE)</f>
+        <v>29200000</v>
+      </c>
+      <c r="F304">
+        <f>VLOOKUP(A304,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G304">
+        <f>VLOOKUP(A304,UnitChange!B:K,7,FALSE)</f>
+        <v>0.26240000000000047</v>
+      </c>
+      <c r="H304">
+        <f>VLOOKUP(A304,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I304">
+        <f>VLOOKUP(A304,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <f>VLOOKUP(A304,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K304" s="1">
+        <f>VLOOKUP(A304,UnitChange!B:L,11,FALSE)</f>
+        <v>0.80800000000000016</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <f>VLOOKUP(A305,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+115</v>
+      </c>
+      <c r="C305" t="str">
+        <f>VLOOKUP(A305,UnitChange!B:K,3,FALSE)</f>
+        <v>1000살</v>
+      </c>
+      <c r="D305">
+        <f>VLOOKUP(A305,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E305">
+        <f>VLOOKUP(A305,UnitChange!B:K,5,FALSE)</f>
+        <v>29300000</v>
+      </c>
+      <c r="F305">
+        <f>VLOOKUP(A305,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G305">
+        <f>VLOOKUP(A305,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27000000000000046</v>
+      </c>
+      <c r="H305">
+        <f>VLOOKUP(A305,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I305">
+        <f>VLOOKUP(A305,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <f>VLOOKUP(A305,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K305" s="1">
+        <f>VLOOKUP(A305,UnitChange!B:L,11,FALSE)</f>
+        <v>0.81200000000000017</v>
       </c>
     </row>
   </sheetData>
@@ -12058,1002 +12831,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5F40D-1684-4728-AC3D-71132164ECDA}">
-  <dimension ref="B1:B195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
+  <dimension ref="B1:AC75"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>1.2999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>1.4E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>1.9E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>2.8E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <v>3.2000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>3.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>3.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>4.1999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>5.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>5.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
-        <v>6.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
-        <v>6.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
-        <v>8.3999999999999995E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
-        <v>8.8000000000000005E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="1">
-        <v>9.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="1">
-        <v>9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="1">
-        <v>1.04E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="1">
-        <v>1.0800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="1">
-        <v>1.12E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="1">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="1">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="1">
-        <v>1.24E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="1">
-        <v>1.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="1">
-        <v>1.32E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="1">
-        <v>1.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="1">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="1">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="1">
-        <v>1.4800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="1">
-        <v>1.52E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="1">
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="1">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="1">
-        <v>1.6400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="1">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="1">
-        <v>1.72E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="1">
-        <v>1.7600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="1">
-        <v>1.84E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="1">
-        <v>1.8800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="1">
-        <v>1.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="1">
-        <v>1.9599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="1">
-        <v>2.0400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="1">
-        <v>2.0799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="1">
-        <v>2.12E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="1">
-        <v>2.1600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="1">
-        <v>2.24E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="1">
-        <v>2.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="1">
-        <v>2.3199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="1">
-        <v>2.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="1">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="1">
-        <v>2.4400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="1">
-        <v>2.4799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="1">
-        <v>2.52E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="1">
-        <v>2.5600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="1">
-        <v>2.64E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="1">
-        <v>2.6800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="1">
-        <v>2.7199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="1">
-        <v>2.76E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="1">
-        <v>2.8400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="1">
-        <v>2.8799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="1">
-        <v>2.92E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="1">
-        <v>2.9600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="1">
-        <v>3.04E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="1">
-        <v>3.0800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="1">
-        <v>3.1199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="1">
-        <v>3.1600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="1">
-        <v>3.2399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="1">
-        <v>3.2800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="1">
-        <v>3.32E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="1">
-        <v>3.3599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="1">
-        <v>3.44E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="1">
-        <v>3.4799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="1">
-        <v>3.5200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="1">
-        <v>3.56E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="1">
-        <v>3.6400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="1">
-        <v>3.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="1">
-        <v>3.7600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="1">
-        <v>3.8399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="1">
-        <v>3.8800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" s="1">
-        <v>3.9199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="1">
-        <v>3.9600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="1">
-        <v>4.0399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="1">
-        <v>4.0800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="1">
-        <v>4.1200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="1">
-        <v>4.1599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" s="1">
-        <v>4.24E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="1">
-        <v>4.2799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" s="1">
-        <v>4.3200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="1">
-        <v>4.36E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="1">
-        <v>4.4400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="1">
-        <v>4.48E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="1">
-        <v>4.5199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="1">
-        <v>4.5600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="1">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="1">
-        <v>4.6399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" s="1">
-        <v>4.6800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="1">
-        <v>4.7199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="1">
-        <v>4.7600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="1">
-        <v>4.8399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="1">
-        <v>4.8800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="1">
-        <v>4.9200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="1">
-        <v>4.9599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="1">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="1">
-        <v>5.0799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="1">
-        <v>5.1200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="1">
-        <v>5.16E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="1">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="1">
-        <v>5.2400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="1">
-        <v>5.28E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="1">
-        <v>5.3199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="1">
-        <v>5.3600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="1">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B156" s="1">
-        <v>5.4399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="1">
-        <v>5.4800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="1">
-        <v>5.5199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="1">
-        <v>5.5599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="1">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="1">
-        <v>5.6399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" s="1">
-        <v>5.6800000000000003E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" s="1">
-        <v>5.7200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" s="1">
-        <v>5.7599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B165" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B166" s="1">
-        <v>5.8400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B167" s="1">
-        <v>5.8799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B168" s="1">
-        <v>5.9200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" s="1">
-        <v>5.96E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B170" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="1">
-        <v>6.0400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B172" s="1">
-        <v>6.08E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B173" s="1">
-        <v>6.1199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B174" s="1">
-        <v>6.1600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B175" s="1">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B176" s="1">
-        <v>6.2399999999999997E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="1">
-        <v>6.2799999999999995E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="1">
-        <v>6.3200000000000006E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="1">
-        <v>6.3600000000000004E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" s="1">
-        <v>6.4399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" s="1">
-        <v>6.4799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" s="1">
-        <v>6.5199999999999994E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="1">
-        <v>6.5600000000000006E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="1">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" s="1">
-        <v>6.6400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" s="1">
-        <v>6.6799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" s="1">
-        <v>6.7199999999999996E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" s="1">
-        <v>6.7599999999999993E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" s="1">
-        <v>6.8400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" s="1">
-        <v>6.88E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" s="1">
-        <v>6.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="1">
-        <v>6.9599999999999995E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="B1:AB64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:K42"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13061,17 +12843,17 @@
     <col min="1" max="1" width="4.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="15"/>
     <col min="3" max="3" width="11.875" style="14" customWidth="1"/>
-    <col min="4" max="11" width="10.25" style="15" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="17" customWidth="1"/>
-    <col min="14" max="14" width="19.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.25" style="8" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="8" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="7"/>
+    <col min="4" max="12" width="10.25" style="15" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="19.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.25" style="8" customWidth="1"/>
+    <col min="17" max="17" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
       <c r="D1" s="8"/>
@@ -13084,8 +12866,9 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="8"/>
@@ -13098,8 +12881,9 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -13112,8 +12896,9 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>244</v>
       </c>
@@ -13126,15 +12911,16 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="P4" s="8" t="s">
+      <c r="N4" s="8"/>
+      <c r="Q4" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>246</v>
       </c>
@@ -13166,24 +12952,27 @@
         <v>281</v>
       </c>
       <c r="L5" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="2:19" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="2:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -13194,34 +12983,35 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="12"/>
-      <c r="P6" s="12" t="s">
+      <c r="L6" s="16"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="12"/>
+      <c r="Q6" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="R6" s="12">
         <v>4</v>
       </c>
-      <c r="R6" s="13">
-        <f>POWER(10,Q6)</f>
+      <c r="S6" s="13">
+        <f>POWER(10,R6)</f>
         <v>10000</v>
       </c>
-      <c r="S6" s="13" t="str">
-        <f>RIGHT(R6,Q6)</f>
+      <c r="T6" s="13" t="str">
+        <f>RIGHT(S6,R6)</f>
         <v>0000</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="21">
         <v>253</v>
       </c>
       <c r="C7" s="16">
-        <f t="shared" ref="C7:C19" si="0">L7*N7</f>
+        <f t="shared" ref="C7:C19" si="0">M7*O7</f>
         <v>1.4999999999999999E+102</v>
       </c>
       <c r="D7" s="16" t="str">
-        <f t="shared" ref="D7:D19" si="1">L7&amp;M7</f>
+        <f t="shared" ref="D7:D19" si="1">M7&amp;N7</f>
         <v>150언</v>
       </c>
       <c r="E7" s="16">
@@ -13245,35 +13035,35 @@
       <c r="K7" s="16">
         <v>60</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="16">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="M7" s="20">
         <v>150</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="N7" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" ref="N7:N19" si="2">VLOOKUP(M7,P:S,4,FALSE)</f>
+      <c r="O7" s="12" t="str">
+        <f t="shared" ref="O7:O38" si="2">VLOOKUP(N7,Q:T,4,FALSE)</f>
         <v>1E+100</v>
       </c>
-      <c r="O7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>8</v>
       </c>
-      <c r="R7" s="13">
-        <f t="shared" ref="R7:R29" si="3">POWER(10,Q7)</f>
+      <c r="S7" s="13">
+        <f t="shared" ref="S7:S29" si="3">POWER(10,R7)</f>
         <v>100000000</v>
       </c>
-      <c r="S7" s="13" t="str">
-        <f t="shared" ref="S7:S29" si="4">RIGHT(R7,Q7)</f>
+      <c r="T7" s="13" t="str">
+        <f t="shared" ref="T7:T29" si="4">RIGHT(S7,R7)</f>
         <v>00000000</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="21">
         <v>254</v>
       </c>
@@ -13289,6 +13079,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="16">
+        <f>F7+100000</f>
         <v>24400000</v>
       </c>
       <c r="G8" s="16">
@@ -13307,35 +13098,36 @@
       <c r="K8" s="16">
         <v>60</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="16">
+        <f>L7+0.004</f>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="M8" s="20">
         <v>200</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="N8" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="N8" s="12" t="str">
+      <c r="O8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
-      <c r="O8" t="s">
-        <v>289</v>
-      </c>
-      <c r="P8" s="12" t="s">
+      <c r="Q8" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="R8" s="12">
         <v>12</v>
       </c>
-      <c r="R8" s="13">
+      <c r="S8" s="13">
         <f t="shared" si="3"/>
         <v>1000000000000</v>
       </c>
-      <c r="S8" s="13" t="str">
+      <c r="T8" s="13" t="str">
         <f t="shared" si="4"/>
         <v>000000000000</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="21">
         <v>255</v>
       </c>
@@ -13351,6 +13143,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="16">
+        <f t="shared" ref="F9:F59" si="5">F8+100000</f>
         <v>24500000</v>
       </c>
       <c r="G9" s="16">
@@ -13369,35 +13162,36 @@
       <c r="K9" s="16">
         <v>60</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="16">
+        <f t="shared" ref="L9:L59" si="6">L8+0.004</f>
+        <v>0.62</v>
+      </c>
+      <c r="M9" s="20">
         <v>300</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="N9" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="N9" s="12" t="str">
+      <c r="O9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
-      <c r="O9" t="s">
-        <v>290</v>
-      </c>
-      <c r="P9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="R9" s="12">
         <v>16</v>
       </c>
-      <c r="R9" s="13">
+      <c r="S9" s="13">
         <f t="shared" si="3"/>
         <v>1E+16</v>
       </c>
-      <c r="S9" s="13" t="str">
+      <c r="T9" s="13" t="str">
         <f t="shared" si="4"/>
         <v>0000000000000000</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="21">
         <v>256</v>
       </c>
@@ -13413,13 +13207,14 @@
         <v>20</v>
       </c>
       <c r="F10" s="16">
+        <f t="shared" si="5"/>
         <v>24600000</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" ref="H10:H44" si="5">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
+        <f t="shared" ref="H10:H73" si="7">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
         <v>0.20800000000000005</v>
       </c>
       <c r="I10" s="16">
@@ -13431,35 +13226,36 @@
       <c r="K10" s="16">
         <v>60</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="16">
+        <f t="shared" si="6"/>
+        <v>0.624</v>
+      </c>
+      <c r="M10" s="20">
         <v>500</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="N10" s="12" t="str">
+      <c r="O10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
-      <c r="O10" t="s">
-        <v>292</v>
-      </c>
-      <c r="P10" s="12" t="s">
+      <c r="Q10" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="Q10" s="12">
-        <v>20</v>
-      </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
+        <v>20</v>
+      </c>
+      <c r="S10" s="13">
         <f t="shared" si="3"/>
         <v>1E+20</v>
       </c>
-      <c r="S10" s="13" t="str">
+      <c r="T10" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+20</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="21">
         <v>257</v>
       </c>
@@ -13475,13 +13271,14 @@
         <v>20</v>
       </c>
       <c r="F11" s="16">
+        <f t="shared" si="5"/>
         <v>24700000</v>
       </c>
       <c r="G11" s="16">
         <v>2</v>
       </c>
       <c r="H11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20840000000000006</v>
       </c>
       <c r="I11" s="16">
@@ -13493,35 +13290,36 @@
       <c r="K11" s="16">
         <v>60</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="16">
+        <f t="shared" si="6"/>
+        <v>0.628</v>
+      </c>
+      <c r="M11" s="20">
         <v>800</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="N11" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="N11" s="12" t="str">
+      <c r="O11" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
-      <c r="O11" t="s">
-        <v>294</v>
-      </c>
-      <c r="P11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="R11" s="12">
         <v>24</v>
       </c>
-      <c r="R11" s="13">
+      <c r="S11" s="13">
         <f t="shared" si="3"/>
         <v>9.9999999999999998E+23</v>
       </c>
-      <c r="S11" s="13" t="str">
+      <c r="T11" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+24</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="21">
         <v>258</v>
       </c>
@@ -13537,13 +13335,14 @@
         <v>20</v>
       </c>
       <c r="F12" s="16">
+        <f t="shared" si="5"/>
         <v>24800000</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
       </c>
       <c r="H12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20880000000000007</v>
       </c>
       <c r="I12" s="16">
@@ -13555,35 +13354,36 @@
       <c r="K12" s="16">
         <v>60</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="16">
+        <f t="shared" si="6"/>
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="M12" s="20">
         <v>1000</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="N12" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="N12" s="12" t="str">
+      <c r="O12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
-      <c r="O12" t="s">
-        <v>293</v>
-      </c>
-      <c r="P12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="R12" s="12">
         <v>28</v>
       </c>
-      <c r="R12" s="13">
+      <c r="S12" s="13">
         <f t="shared" si="3"/>
         <v>9.9999999999999996E+27</v>
       </c>
-      <c r="S12" s="13" t="str">
+      <c r="T12" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+28</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="21">
         <v>259</v>
       </c>
@@ -13599,13 +13399,14 @@
         <v>20</v>
       </c>
       <c r="F13" s="16">
+        <f t="shared" si="5"/>
         <v>24900000</v>
       </c>
       <c r="G13" s="16">
         <v>2</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20920000000000008</v>
       </c>
       <c r="I13" s="16">
@@ -13617,35 +13418,36 @@
       <c r="K13" s="16">
         <v>60</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="16">
+        <f t="shared" si="6"/>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M13" s="20">
         <v>2000</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="N13" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="N13" s="12" t="str">
+      <c r="O13" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
-      <c r="O13" t="s">
-        <v>295</v>
-      </c>
-      <c r="P13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="R13" s="12">
         <v>32</v>
       </c>
-      <c r="R13" s="13">
+      <c r="S13" s="13">
         <f t="shared" si="3"/>
         <v>1.0000000000000001E+32</v>
       </c>
-      <c r="S13" s="13" t="str">
+      <c r="T13" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+32</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="21">
         <v>260</v>
       </c>
@@ -13661,13 +13463,14 @@
         <v>20</v>
       </c>
       <c r="F14" s="16">
+        <f t="shared" si="5"/>
         <v>25000000</v>
       </c>
       <c r="G14" s="16">
         <v>2</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20960000000000009</v>
       </c>
       <c r="I14" s="16">
@@ -13679,35 +13482,36 @@
       <c r="K14" s="16">
         <v>60</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="16">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+      <c r="M14" s="20">
         <v>5000</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="N14" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="N14" s="12" t="str">
+      <c r="O14" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
-      <c r="O14" t="s">
-        <v>296</v>
-      </c>
-      <c r="P14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="R14" s="12">
         <v>36</v>
       </c>
-      <c r="R14" s="13">
+      <c r="S14" s="13">
         <f t="shared" si="3"/>
         <v>1E+36</v>
       </c>
-      <c r="S14" s="13" t="str">
+      <c r="T14" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+36</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="21">
         <v>261</v>
       </c>
@@ -13723,13 +13527,14 @@
         <v>20</v>
       </c>
       <c r="F15" s="16">
+        <f t="shared" si="5"/>
         <v>25100000</v>
       </c>
       <c r="G15" s="16">
         <v>2</v>
       </c>
       <c r="H15" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2100000000000001</v>
       </c>
       <c r="I15" s="16">
@@ -13741,32 +13546,36 @@
       <c r="K15" s="16">
         <v>60</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="16">
+        <f t="shared" si="6"/>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="M15" s="20">
         <v>1</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="N15" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N15" s="12" t="str">
+      <c r="O15" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="R15" s="12">
         <v>40</v>
       </c>
-      <c r="R15" s="13">
+      <c r="S15" s="13">
         <f t="shared" si="3"/>
         <v>1E+40</v>
       </c>
-      <c r="S15" s="13" t="str">
+      <c r="T15" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+40</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="21">
         <v>262</v>
       </c>
@@ -13782,13 +13591,14 @@
         <v>20</v>
       </c>
       <c r="F16" s="16">
+        <f t="shared" si="5"/>
         <v>25200000</v>
       </c>
       <c r="G16" s="16">
         <v>2</v>
       </c>
       <c r="H16" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21040000000000011</v>
       </c>
       <c r="I16" s="16">
@@ -13800,32 +13610,36 @@
       <c r="K16" s="16">
         <v>60</v>
       </c>
-      <c r="L16" s="20">
-        <v>2</v>
-      </c>
-      <c r="M16" s="19" t="s">
+      <c r="L16" s="16">
+        <f t="shared" si="6"/>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="M16" s="20">
+        <v>2</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N16" s="12" t="str">
+      <c r="O16" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="R16" s="12">
         <v>44</v>
       </c>
-      <c r="R16" s="13">
+      <c r="S16" s="13">
         <f t="shared" si="3"/>
         <v>1.0000000000000001E+44</v>
       </c>
-      <c r="S16" s="13" t="str">
+      <c r="T16" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+44</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
         <v>263</v>
       </c>
@@ -13841,13 +13655,14 @@
         <v>20</v>
       </c>
       <c r="F17" s="16">
+        <f t="shared" si="5"/>
         <v>25300000</v>
       </c>
       <c r="G17" s="16">
         <v>2</v>
       </c>
       <c r="H17" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21080000000000013</v>
       </c>
       <c r="I17" s="16">
@@ -13859,32 +13674,36 @@
       <c r="K17" s="16">
         <v>60</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="16">
+        <f t="shared" si="6"/>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="M17" s="20">
         <v>5</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="N17" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N17" s="12" t="str">
+      <c r="O17" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="R17" s="12">
         <v>48</v>
       </c>
-      <c r="R17" s="13">
+      <c r="S17" s="13">
         <f t="shared" si="3"/>
         <v>1E+48</v>
       </c>
-      <c r="S17" s="13" t="str">
+      <c r="T17" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+48</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B18" s="21">
         <v>264</v>
       </c>
@@ -13900,13 +13719,14 @@
         <v>20</v>
       </c>
       <c r="F18" s="16">
+        <f t="shared" si="5"/>
         <v>25400000</v>
       </c>
       <c r="G18" s="16">
         <v>2</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21120000000000014</v>
       </c>
       <c r="I18" s="16">
@@ -13918,32 +13738,36 @@
       <c r="K18" s="16">
         <v>60</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="16">
+        <f t="shared" si="6"/>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="M18" s="20">
         <v>10</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="N18" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N18" s="12" t="str">
+      <c r="O18" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="Q18" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="R18" s="12">
         <v>52</v>
       </c>
-      <c r="R18" s="13">
+      <c r="S18" s="13">
         <f t="shared" si="3"/>
         <v>9.9999999999999999E+51</v>
       </c>
-      <c r="S18" s="13" t="str">
+      <c r="T18" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+52</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B19" s="21">
         <v>265</v>
       </c>
@@ -13959,13 +13783,14 @@
         <v>20</v>
       </c>
       <c r="F19" s="16">
+        <f t="shared" si="5"/>
         <v>25500000</v>
       </c>
       <c r="G19" s="16">
         <v>2</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21160000000000015</v>
       </c>
       <c r="I19" s="16">
@@ -13977,54 +13802,59 @@
       <c r="K19" s="16">
         <v>60</v>
       </c>
-      <c r="L19" s="20">
-        <v>20</v>
-      </c>
-      <c r="M19" s="19" t="s">
+      <c r="L19" s="16">
+        <f t="shared" si="6"/>
+        <v>0.66</v>
+      </c>
+      <c r="M19" s="20">
+        <v>20</v>
+      </c>
+      <c r="N19" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N19" s="12" t="str">
+      <c r="O19" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="Q19" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="R19" s="12">
         <v>56</v>
       </c>
-      <c r="R19" s="13">
+      <c r="S19" s="13">
         <f t="shared" si="3"/>
         <v>1.0000000000000001E+56</v>
       </c>
-      <c r="S19" s="13" t="str">
+      <c r="T19" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+56</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20" s="21">
         <v>266</v>
       </c>
       <c r="C20" s="16">
-        <f t="shared" ref="C20:C21" si="6">L20*N20</f>
+        <f t="shared" ref="C20:C21" si="8">M20*O20</f>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="D20" s="16" t="str">
-        <f t="shared" ref="D20:D21" si="7">L20&amp;M20</f>
+        <f t="shared" ref="D20:D21" si="9">M20&amp;N20</f>
         <v>50승</v>
       </c>
       <c r="E20" s="16">
         <v>20</v>
       </c>
       <c r="F20" s="16">
+        <f t="shared" si="5"/>
         <v>25600000</v>
       </c>
       <c r="G20" s="16">
         <v>2</v>
       </c>
       <c r="H20" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21200000000000016</v>
       </c>
       <c r="I20" s="16">
@@ -14036,113 +13866,123 @@
       <c r="K20" s="16">
         <v>60</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="M20" s="20">
         <v>50</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="N20" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N20" s="12" t="str">
-        <f t="shared" ref="N20:N21" si="8">VLOOKUP(M20,P:S,4,FALSE)</f>
+      <c r="O20" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="Q20" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="Q20" s="12">
-        <v>60</v>
-      </c>
-      <c r="R20" s="13">
+      <c r="R20" s="12">
+        <v>60</v>
+      </c>
+      <c r="S20" s="13">
         <f t="shared" si="3"/>
         <v>9.9999999999999995E+59</v>
       </c>
-      <c r="S20" s="13" t="str">
+      <c r="T20" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+60</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B21" s="21">
         <v>267</v>
       </c>
       <c r="C21" s="16">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000001E+106</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>100승</v>
+      </c>
+      <c r="E21" s="16">
+        <v>20</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="5"/>
+        <v>25700000</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="7"/>
+        <v>0.21240000000000017</v>
+      </c>
+      <c r="I21" s="16">
+        <v>23</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>60</v>
+      </c>
+      <c r="L21" s="16">
         <f t="shared" si="6"/>
-        <v>1.0000000000000001E+106</v>
-      </c>
-      <c r="D21" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>100승</v>
-      </c>
-      <c r="E21" s="16">
-        <v>20</v>
-      </c>
-      <c r="F21" s="16">
-        <v>25700000</v>
-      </c>
-      <c r="G21" s="16">
-        <v>2</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="5"/>
-        <v>0.21240000000000017</v>
-      </c>
-      <c r="I21" s="16">
-        <v>23</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
-        <v>60</v>
-      </c>
-      <c r="L21" s="20">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="M21" s="20">
         <v>100</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="N21" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N21" s="12" t="str">
-        <f t="shared" si="8"/>
+      <c r="O21" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="Q21" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="R21" s="12">
         <v>64</v>
       </c>
-      <c r="R21" s="13">
+      <c r="S21" s="13">
         <f t="shared" si="3"/>
         <v>1E+64</v>
       </c>
-      <c r="S21" s="13" t="str">
+      <c r="T21" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+64</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22" s="21">
         <v>268</v>
       </c>
       <c r="C22" s="16">
-        <f t="shared" ref="C22:C40" si="9">L22*N22</f>
+        <f t="shared" ref="C22:C40" si="10">M22*O22</f>
         <v>1.5E+106</v>
       </c>
       <c r="D22" s="16" t="str">
-        <f t="shared" ref="D22:D40" si="10">L22&amp;M22</f>
+        <f t="shared" ref="D22:D40" si="11">M22&amp;N22</f>
         <v>150승</v>
       </c>
       <c r="E22" s="16">
         <v>20</v>
       </c>
       <c r="F22" s="16">
+        <f t="shared" si="5"/>
         <v>25800000</v>
       </c>
       <c r="G22" s="16">
         <v>2</v>
       </c>
       <c r="H22" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22000000000000017</v>
       </c>
       <c r="I22" s="16">
@@ -14154,54 +13994,59 @@
       <c r="K22" s="16">
         <v>60</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="16">
+        <f t="shared" si="6"/>
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="M22" s="20">
         <v>150</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="N22" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N22" s="12" t="str">
-        <f t="shared" ref="N22:N40" si="11">VLOOKUP(M22,P:S,4,FALSE)</f>
+      <c r="O22" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="R22" s="12">
         <v>68</v>
       </c>
-      <c r="R22" s="13">
+      <c r="S22" s="13">
         <f t="shared" si="3"/>
         <v>9.9999999999999995E+67</v>
       </c>
-      <c r="S22" s="13" t="str">
+      <c r="T22" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+68</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23" s="21">
         <v>269</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000000002E+106</v>
       </c>
       <c r="D23" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200승</v>
       </c>
       <c r="E23" s="16">
         <v>20</v>
       </c>
       <c r="F23" s="16">
+        <f t="shared" si="5"/>
         <v>25900000</v>
       </c>
       <c r="G23" s="16">
         <v>2</v>
       </c>
       <c r="H23" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22040000000000018</v>
       </c>
       <c r="I23" s="16">
@@ -14213,54 +14058,59 @@
       <c r="K23" s="16">
         <v>60</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="16">
+        <f t="shared" si="6"/>
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="M23" s="20">
         <v>200</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="N23" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N23" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O23" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="Q23" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="R23" s="12">
         <v>72</v>
       </c>
-      <c r="R23" s="13">
+      <c r="S23" s="13">
         <f t="shared" si="3"/>
         <v>9.9999999999999994E+71</v>
       </c>
-      <c r="S23" s="13" t="str">
+      <c r="T23" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+72</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B24" s="21">
         <v>270</v>
       </c>
       <c r="C24" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0000000000000001E+106</v>
       </c>
       <c r="D24" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300승</v>
       </c>
       <c r="E24" s="16">
         <v>20</v>
       </c>
       <c r="F24" s="16">
+        <f t="shared" si="5"/>
         <v>26000000</v>
       </c>
       <c r="G24" s="16">
         <v>2</v>
       </c>
       <c r="H24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22080000000000019</v>
       </c>
       <c r="I24" s="16">
@@ -14272,54 +14122,59 @@
       <c r="K24" s="16">
         <v>60</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="16">
+        <f t="shared" si="6"/>
+        <v>0.68</v>
+      </c>
+      <c r="M24" s="20">
         <v>300</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="N24" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N24" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O24" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="Q24" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="R24" s="12">
         <v>76</v>
       </c>
-      <c r="R24" s="13">
+      <c r="S24" s="13">
         <f t="shared" si="3"/>
         <v>1E+76</v>
       </c>
-      <c r="S24" s="13" t="str">
+      <c r="T24" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+76</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B25" s="21">
         <v>271</v>
       </c>
       <c r="C25" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="D25" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>500승</v>
       </c>
       <c r="E25" s="16">
         <v>20</v>
       </c>
       <c r="F25" s="16">
+        <f t="shared" si="5"/>
         <v>26100000</v>
       </c>
       <c r="G25" s="16">
         <v>2</v>
       </c>
       <c r="H25" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2212000000000002</v>
       </c>
       <c r="I25" s="16">
@@ -14331,54 +14186,59 @@
       <c r="K25" s="16">
         <v>60</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="16">
+        <f t="shared" si="6"/>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="M25" s="20">
         <v>500</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="N25" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N25" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O25" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="Q25" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="R25" s="12">
         <v>80</v>
       </c>
-      <c r="R25" s="13">
+      <c r="S25" s="13">
         <f t="shared" si="3"/>
         <v>1E+80</v>
       </c>
-      <c r="S25" s="13" t="str">
+      <c r="T25" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+80</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B26" s="21">
         <v>272</v>
       </c>
       <c r="C26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000000007E+106</v>
       </c>
       <c r="D26" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>800승</v>
       </c>
       <c r="E26" s="16">
         <v>20</v>
       </c>
       <c r="F26" s="16">
+        <f t="shared" si="5"/>
         <v>26200000</v>
       </c>
       <c r="G26" s="16">
         <v>2</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22160000000000021</v>
       </c>
       <c r="I26" s="16">
@@ -14390,54 +14250,59 @@
       <c r="K26" s="16">
         <v>60</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="16">
+        <f t="shared" si="6"/>
+        <v>0.68800000000000006</v>
+      </c>
+      <c r="M26" s="20">
         <v>800</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="N26" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N26" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O26" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="Q26" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="R26" s="12">
         <v>84</v>
       </c>
-      <c r="R26" s="13">
+      <c r="S26" s="13">
         <f t="shared" si="3"/>
         <v>1.0000000000000001E+84</v>
       </c>
-      <c r="S26" s="13" t="str">
+      <c r="T26" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+84</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B27" s="21">
         <v>273</v>
       </c>
       <c r="C27" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D27" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1000승</v>
       </c>
       <c r="E27" s="16">
         <v>20</v>
       </c>
       <c r="F27" s="16">
+        <f t="shared" si="5"/>
         <v>26300000</v>
       </c>
       <c r="G27" s="16">
         <v>2</v>
       </c>
       <c r="H27" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22200000000000022</v>
       </c>
       <c r="I27" s="16">
@@ -14449,54 +14314,59 @@
       <c r="K27" s="16">
         <v>60</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="16">
+        <f t="shared" si="6"/>
+        <v>0.69200000000000006</v>
+      </c>
+      <c r="M27" s="20">
         <v>1000</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="N27" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N27" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O27" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="Q27" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="R27" s="12">
         <v>88</v>
       </c>
-      <c r="R27" s="13">
+      <c r="S27" s="13">
         <f t="shared" si="3"/>
         <v>9.9999999999999996E+87</v>
       </c>
-      <c r="S27" s="13" t="str">
+      <c r="T27" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+88</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B28" s="21">
         <v>274</v>
       </c>
       <c r="C28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9999999999999999E+107</v>
       </c>
       <c r="D28" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2000승</v>
       </c>
       <c r="E28" s="16">
         <v>20</v>
       </c>
       <c r="F28" s="16">
+        <f t="shared" si="5"/>
         <v>26400000</v>
       </c>
       <c r="G28" s="16">
         <v>2</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22240000000000024</v>
       </c>
       <c r="I28" s="16">
@@ -14508,54 +14378,59 @@
       <c r="K28" s="16">
         <v>60</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="16">
+        <f t="shared" si="6"/>
+        <v>0.69600000000000006</v>
+      </c>
+      <c r="M28" s="20">
         <v>2000</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="N28" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N28" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O28" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="Q28" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="R28" s="12">
         <v>92</v>
       </c>
-      <c r="R28" s="13">
+      <c r="S28" s="13">
         <f t="shared" si="3"/>
         <v>1E+92</v>
       </c>
-      <c r="S28" s="13" t="str">
+      <c r="T28" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+92</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29" s="21">
         <v>275</v>
       </c>
       <c r="C29" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="D29" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5000승</v>
       </c>
       <c r="E29" s="16">
         <v>20</v>
       </c>
       <c r="F29" s="16">
+        <f t="shared" si="5"/>
         <v>26500000</v>
       </c>
       <c r="G29" s="16">
         <v>2</v>
       </c>
       <c r="H29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23000000000000023</v>
       </c>
       <c r="I29" s="16">
@@ -14567,54 +14442,59 @@
       <c r="K29" s="16">
         <v>60</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="M29" s="20">
         <v>5000</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="N29" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="N29" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O29" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="Q29" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="R29" s="12">
         <v>96</v>
       </c>
-      <c r="R29" s="13">
+      <c r="S29" s="13">
         <f t="shared" si="3"/>
         <v>1E+96</v>
       </c>
-      <c r="S29" s="13" t="str">
+      <c r="T29" s="13" t="str">
         <f t="shared" si="4"/>
         <v>1E+96</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B30" s="21">
         <v>276</v>
       </c>
       <c r="C30" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1E+108</v>
       </c>
       <c r="D30" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1마</v>
       </c>
       <c r="E30" s="16">
         <v>20</v>
       </c>
       <c r="F30" s="16">
+        <f t="shared" si="5"/>
         <v>26600000</v>
       </c>
       <c r="G30" s="16">
         <v>2</v>
       </c>
       <c r="H30" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23040000000000024</v>
       </c>
       <c r="I30" s="16">
@@ -14626,55 +14506,60 @@
       <c r="K30" s="16">
         <v>60</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="16">
+        <f t="shared" si="6"/>
+        <v>0.70400000000000007</v>
+      </c>
+      <c r="M30" s="20">
         <v>1</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="N30" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N30" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O30" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12" t="s">
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="R30" s="12">
         <v>100</v>
       </c>
-      <c r="R30" s="13">
-        <f t="shared" ref="R30:R32" si="12">POWER(10,Q30)</f>
+      <c r="S30" s="13">
+        <f t="shared" ref="S30:S32" si="12">POWER(10,R30)</f>
         <v>1E+100</v>
       </c>
-      <c r="S30" s="13" t="str">
-        <f t="shared" ref="S30:S32" si="13">RIGHT(R30,Q30)</f>
+      <c r="T30" s="13" t="str">
+        <f t="shared" ref="T30:T32" si="13">RIGHT(S30,R30)</f>
         <v>1E+100</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B31" s="21">
         <v>277</v>
       </c>
       <c r="C31" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000000001E+108</v>
       </c>
       <c r="D31" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2마</v>
       </c>
       <c r="E31" s="16">
         <v>20</v>
       </c>
       <c r="F31" s="16">
+        <f t="shared" si="5"/>
         <v>26700000</v>
       </c>
       <c r="G31" s="16">
         <v>2</v>
       </c>
       <c r="H31" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23080000000000025</v>
       </c>
       <c r="I31" s="16">
@@ -14686,32 +14571,35 @@
       <c r="K31" s="16">
         <v>60</v>
       </c>
-      <c r="L31" s="20">
-        <v>2</v>
-      </c>
-      <c r="M31" s="19" t="s">
+      <c r="L31" s="16">
+        <f t="shared" si="6"/>
+        <v>0.70800000000000007</v>
+      </c>
+      <c r="M31" s="20">
+        <v>2</v>
+      </c>
+      <c r="N31" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N31" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O31" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="10"/>
+      <c r="Q31" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="Q31" s="12">
+      <c r="R31" s="12">
         <v>104</v>
       </c>
-      <c r="R31" s="13">
+      <c r="S31" s="13">
         <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
-      <c r="S31" s="13" t="str">
+      <c r="T31" s="13" t="str">
         <f t="shared" si="13"/>
         <v>1E+104</v>
       </c>
-      <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -14720,30 +14608,32 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC31" s="8"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B32" s="21">
         <v>278</v>
       </c>
       <c r="C32" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="D32" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5마</v>
       </c>
       <c r="E32" s="16">
         <v>20</v>
       </c>
       <c r="F32" s="16">
+        <f t="shared" si="5"/>
         <v>26800000</v>
       </c>
       <c r="G32" s="16">
         <v>2</v>
       </c>
       <c r="H32" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23120000000000027</v>
       </c>
       <c r="I32" s="16">
@@ -14755,32 +14645,35 @@
       <c r="K32" s="16">
         <v>60</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="16">
+        <f t="shared" si="6"/>
+        <v>0.71200000000000008</v>
+      </c>
+      <c r="M32" s="20">
         <v>5</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="N32" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N32" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O32" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10" t="s">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="R32" s="12">
         <v>108</v>
       </c>
-      <c r="R32" s="13">
+      <c r="S32" s="13">
         <f t="shared" si="12"/>
         <v>1E+108</v>
       </c>
-      <c r="S32" s="13" t="str">
+      <c r="T32" s="13" t="str">
         <f t="shared" si="13"/>
         <v>1E+108</v>
       </c>
-      <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -14789,30 +14682,32 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC32" s="8"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B33" s="21">
         <v>279</v>
       </c>
       <c r="C33" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D33" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10마</v>
       </c>
       <c r="E33" s="16">
         <v>20</v>
       </c>
       <c r="F33" s="16">
+        <f t="shared" si="5"/>
         <v>26900000</v>
       </c>
       <c r="G33" s="16">
         <v>2</v>
       </c>
       <c r="H33" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23160000000000028</v>
       </c>
       <c r="I33" s="16">
@@ -14824,22 +14719,35 @@
       <c r="K33" s="16">
         <v>60</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="16">
+        <f t="shared" si="6"/>
+        <v>0.71600000000000008</v>
+      </c>
+      <c r="M33" s="20">
         <v>10</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="N33" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N33" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O33" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
-      <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="8"/>
+      <c r="Q33" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="R33" s="12">
+        <v>112</v>
+      </c>
+      <c r="S33" s="13">
+        <f t="shared" ref="S33:S34" si="14">POWER(10,R33)</f>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="T33" s="13" t="str">
+        <f t="shared" ref="T33:T34" si="15">RIGHT(S33,R33)</f>
+        <v>1E+112</v>
+      </c>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
@@ -14848,30 +14756,32 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC33" s="8"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B34" s="21">
         <v>280</v>
       </c>
       <c r="C34" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2E+109</v>
       </c>
       <c r="D34" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20마</v>
       </c>
       <c r="E34" s="16">
         <v>20</v>
       </c>
       <c r="F34" s="16">
+        <f t="shared" si="5"/>
         <v>27000000</v>
       </c>
       <c r="G34" s="16">
         <v>2</v>
       </c>
       <c r="H34" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23200000000000029</v>
       </c>
       <c r="I34" s="16">
@@ -14883,22 +14793,35 @@
       <c r="K34" s="16">
         <v>60</v>
       </c>
-      <c r="L34" s="20">
-        <v>20</v>
-      </c>
-      <c r="M34" s="19" t="s">
+      <c r="L34" s="16">
+        <f t="shared" si="6"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="M34" s="20">
+        <v>20</v>
+      </c>
+      <c r="N34" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N34" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O34" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
-      <c r="O34" s="10"/>
       <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="8"/>
+      <c r="Q34" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="R34" s="12">
+        <v>116</v>
+      </c>
+      <c r="S34" s="13">
+        <f t="shared" si="14"/>
+        <v>1E+116</v>
+      </c>
+      <c r="T34" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1E+116</v>
+      </c>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -14907,30 +14830,32 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC34" s="8"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B35" s="21">
         <v>281</v>
       </c>
       <c r="C35" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="D35" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50마</v>
       </c>
       <c r="E35" s="16">
         <v>20</v>
       </c>
       <c r="F35" s="16">
+        <f t="shared" si="5"/>
         <v>27100000</v>
       </c>
       <c r="G35" s="16">
         <v>2</v>
       </c>
       <c r="H35" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2324000000000003</v>
       </c>
       <c r="I35" s="16">
@@ -14942,22 +14867,25 @@
       <c r="K35" s="16">
         <v>60</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="16">
+        <f t="shared" si="6"/>
+        <v>0.72400000000000009</v>
+      </c>
+      <c r="M35" s="20">
         <v>50</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="N35" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N35" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O35" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
-      <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
-      <c r="T35" s="8"/>
+      <c r="T35" s="10"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -14966,30 +14894,32 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC35" s="8"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B36" s="21">
         <v>282</v>
       </c>
       <c r="C36" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1E+110</v>
       </c>
       <c r="D36" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100마</v>
       </c>
       <c r="E36" s="16">
         <v>20</v>
       </c>
       <c r="F36" s="16">
+        <f t="shared" si="5"/>
         <v>27200000</v>
       </c>
       <c r="G36" s="16">
         <v>2</v>
       </c>
       <c r="H36" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2400000000000003</v>
       </c>
       <c r="I36" s="16">
@@ -15001,22 +14931,25 @@
       <c r="K36" s="16">
         <v>60</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="16">
+        <f t="shared" si="6"/>
+        <v>0.72800000000000009</v>
+      </c>
+      <c r="M36" s="20">
         <v>100</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="N36" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N36" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O36" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
-      <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
-      <c r="T36" s="8"/>
+      <c r="T36" s="10"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -15025,30 +14958,32 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC36" s="8"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
         <v>283</v>
       </c>
       <c r="C37" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5E+110</v>
       </c>
       <c r="D37" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>150마</v>
       </c>
       <c r="E37" s="16">
         <v>20</v>
       </c>
       <c r="F37" s="16">
+        <f t="shared" si="5"/>
         <v>27300000</v>
       </c>
       <c r="G37" s="16">
         <v>2</v>
       </c>
       <c r="H37" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24760000000000029</v>
       </c>
       <c r="I37" s="16">
@@ -15060,22 +14995,25 @@
       <c r="K37" s="16">
         <v>60</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="16">
+        <f t="shared" si="6"/>
+        <v>0.7320000000000001</v>
+      </c>
+      <c r="M37" s="20">
         <v>150</v>
       </c>
-      <c r="M37" s="19" t="s">
+      <c r="N37" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N37" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O37" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
-      <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
-      <c r="T37" s="8"/>
+      <c r="T37" s="10"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
@@ -15084,30 +15022,32 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC37" s="8"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B38" s="21">
         <v>284</v>
       </c>
       <c r="C38" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2E+110</v>
       </c>
       <c r="D38" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200마</v>
       </c>
       <c r="E38" s="16">
         <v>20</v>
       </c>
       <c r="F38" s="16">
+        <f t="shared" si="5"/>
         <v>27400000</v>
       </c>
       <c r="G38" s="16">
         <v>2</v>
       </c>
       <c r="H38" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2480000000000003</v>
       </c>
       <c r="I38" s="16">
@@ -15119,17 +15059,20 @@
       <c r="K38" s="16">
         <v>60</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="16">
+        <f t="shared" si="6"/>
+        <v>0.7360000000000001</v>
+      </c>
+      <c r="M38" s="20">
         <v>200</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="N38" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N38" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O38" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
-      <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
@@ -15140,30 +15083,32 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC38" s="8"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B39" s="21">
         <v>285</v>
       </c>
       <c r="C39" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0000000000000001E+110</v>
       </c>
       <c r="D39" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300마</v>
       </c>
       <c r="E39" s="16">
         <v>20</v>
       </c>
       <c r="F39" s="16">
+        <f t="shared" si="5"/>
         <v>27500000</v>
       </c>
       <c r="G39" s="16">
         <v>2</v>
       </c>
       <c r="H39" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24840000000000031</v>
       </c>
       <c r="I39" s="16">
@@ -15175,17 +15120,20 @@
       <c r="K39" s="16">
         <v>60</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="16">
+        <f t="shared" si="6"/>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="M39" s="20">
         <v>300</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="N39" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N39" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O39" s="12" t="str">
+        <f t="shared" ref="O39:O70" si="16">VLOOKUP(N39,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
-      <c r="R39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
@@ -15196,30 +15144,32 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC39" s="8"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B40" s="21">
         <v>286</v>
       </c>
       <c r="C40" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="D40" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>500마</v>
       </c>
       <c r="E40" s="16">
         <v>20</v>
       </c>
       <c r="F40" s="16">
+        <f t="shared" si="5"/>
         <v>27600000</v>
       </c>
       <c r="G40" s="16">
         <v>2</v>
       </c>
       <c r="H40" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24880000000000033</v>
       </c>
       <c r="I40" s="16">
@@ -15231,17 +15181,20 @@
       <c r="K40" s="16">
         <v>60</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="16">
+        <f t="shared" si="6"/>
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="M40" s="20">
         <v>500</v>
       </c>
-      <c r="M40" s="19" t="s">
+      <c r="N40" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N40" s="12" t="str">
-        <f t="shared" si="11"/>
+      <c r="O40" s="12" t="str">
+        <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
-      <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
@@ -15252,30 +15205,32 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC40" s="8"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B41" s="21">
         <v>287</v>
       </c>
       <c r="C41" s="16">
-        <f t="shared" ref="C41:C44" si="14">L41*N41</f>
+        <f t="shared" ref="C41:C44" si="17">M41*O41</f>
         <v>8.0000000000000002E+110</v>
       </c>
       <c r="D41" s="16" t="str">
-        <f t="shared" ref="D41:D44" si="15">L41&amp;M41</f>
+        <f t="shared" ref="D41:D44" si="18">M41&amp;N41</f>
         <v>800마</v>
       </c>
       <c r="E41" s="16">
         <v>20</v>
       </c>
       <c r="F41" s="16">
+        <f t="shared" si="5"/>
         <v>27700000</v>
       </c>
       <c r="G41" s="16">
         <v>2</v>
       </c>
       <c r="H41" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24920000000000034</v>
       </c>
       <c r="I41" s="16">
@@ -15287,17 +15242,20 @@
       <c r="K41" s="16">
         <v>60</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="16">
+        <f t="shared" si="6"/>
+        <v>0.74800000000000011</v>
+      </c>
+      <c r="M41" s="20">
         <v>800</v>
       </c>
-      <c r="M41" s="19" t="s">
+      <c r="N41" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N41" s="12" t="str">
-        <f t="shared" ref="N41:N44" si="16">VLOOKUP(M41,P:S,4,FALSE)</f>
+      <c r="O41" s="12" t="str">
+        <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
-      <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
@@ -15308,30 +15266,32 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC41" s="8"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B42" s="21">
         <v>288</v>
       </c>
       <c r="C42" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D42" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1000마</v>
       </c>
       <c r="E42" s="16">
         <v>20</v>
       </c>
       <c r="F42" s="16">
+        <f t="shared" si="5"/>
         <v>27800000</v>
       </c>
       <c r="G42" s="16">
         <v>2</v>
       </c>
       <c r="H42" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24960000000000035</v>
       </c>
       <c r="I42" s="16">
@@ -15343,17 +15303,20 @@
       <c r="K42" s="16">
         <v>60</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="16">
+        <f t="shared" si="6"/>
+        <v>0.75200000000000011</v>
+      </c>
+      <c r="M42" s="20">
         <v>1000</v>
       </c>
-      <c r="M42" s="19" t="s">
+      <c r="N42" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N42" s="12" t="str">
+      <c r="O42" s="12" t="str">
         <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
-      <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
@@ -15364,30 +15327,32 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC42" s="8"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B43" s="21">
         <v>289</v>
       </c>
       <c r="C43" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.0000000000000002E+111</v>
       </c>
       <c r="D43" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2000마</v>
       </c>
       <c r="E43" s="16">
         <v>20</v>
       </c>
       <c r="F43" s="16">
+        <f t="shared" si="5"/>
         <v>27900000</v>
       </c>
       <c r="G43" s="16">
         <v>2</v>
       </c>
       <c r="H43" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.25000000000000033</v>
       </c>
       <c r="I43" s="16">
@@ -15399,17 +15364,20 @@
       <c r="K43" s="16">
         <v>60</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="16">
+        <f>L42+0.004</f>
+        <v>0.75600000000000012</v>
+      </c>
+      <c r="M43" s="20">
         <v>2000</v>
       </c>
-      <c r="M43" s="19" t="s">
+      <c r="N43" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N43" s="12" t="str">
+      <c r="O43" s="12" t="str">
         <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
-      <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
@@ -15420,30 +15388,32 @@
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC43" s="8"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B44" s="21">
         <v>290</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="D44" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5000마</v>
       </c>
       <c r="E44" s="16">
         <v>20</v>
       </c>
       <c r="F44" s="16">
+        <f t="shared" si="5"/>
         <v>28000000</v>
       </c>
       <c r="G44" s="16">
         <v>2</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.25040000000000034</v>
       </c>
       <c r="I44" s="16">
@@ -15455,17 +15425,20 @@
       <c r="K44" s="16">
         <v>60</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="16">
+        <f t="shared" si="6"/>
+        <v>0.76000000000000012</v>
+      </c>
+      <c r="M44" s="20">
         <v>5000</v>
       </c>
-      <c r="M44" s="19" t="s">
+      <c r="N44" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="N44" s="12" t="str">
+      <c r="O44" s="12" t="str">
         <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
-      <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
@@ -15476,22 +15449,57 @@
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="12"/>
-      <c r="R45" s="8"/>
+      <c r="AC44" s="8"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B45" s="21">
+        <v>291</v>
+      </c>
+      <c r="C45" s="16">
+        <f t="shared" ref="C45:C59" si="19">M45*O45</f>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="D45" s="16" t="str">
+        <f t="shared" ref="D45:D59" si="20">M45&amp;N45</f>
+        <v>1살</v>
+      </c>
+      <c r="E45" s="16">
+        <v>20</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="5"/>
+        <v>28100000</v>
+      </c>
+      <c r="G45" s="16">
+        <v>2</v>
+      </c>
+      <c r="H45" s="16">
+        <f t="shared" si="7"/>
+        <v>0.25080000000000036</v>
+      </c>
+      <c r="I45" s="16">
+        <v>23</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <v>60</v>
+      </c>
+      <c r="L45" s="16">
+        <f t="shared" si="6"/>
+        <v>0.76400000000000012</v>
+      </c>
+      <c r="M45" s="20">
+        <v>1</v>
+      </c>
+      <c r="N45" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O45" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
@@ -15502,22 +15510,57 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="12"/>
-      <c r="R46" s="8"/>
+      <c r="AC45" s="8"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B46" s="21">
+        <v>292</v>
+      </c>
+      <c r="C46" s="16">
+        <f t="shared" si="19"/>
+        <v>1.9999999999999999E+112</v>
+      </c>
+      <c r="D46" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>2살</v>
+      </c>
+      <c r="E46" s="16">
+        <v>20</v>
+      </c>
+      <c r="F46" s="16">
+        <f t="shared" si="5"/>
+        <v>28200000</v>
+      </c>
+      <c r="G46" s="16">
+        <v>2</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="shared" si="7"/>
+        <v>0.25120000000000037</v>
+      </c>
+      <c r="I46" s="16">
+        <v>23</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>60</v>
+      </c>
+      <c r="L46" s="16">
+        <f t="shared" si="6"/>
+        <v>0.76800000000000013</v>
+      </c>
+      <c r="M46" s="20">
+        <v>2</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O46" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
@@ -15528,22 +15571,57 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B47" s="21"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="12"/>
-      <c r="R47" s="8"/>
+      <c r="AC46" s="8"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B47" s="21">
+        <v>293</v>
+      </c>
+      <c r="C47" s="16">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E+112</v>
+      </c>
+      <c r="D47" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>5살</v>
+      </c>
+      <c r="E47" s="16">
+        <v>20</v>
+      </c>
+      <c r="F47" s="16">
+        <f t="shared" si="5"/>
+        <v>28300000</v>
+      </c>
+      <c r="G47" s="16">
+        <v>2</v>
+      </c>
+      <c r="H47" s="16">
+        <f t="shared" si="7"/>
+        <v>0.25160000000000038</v>
+      </c>
+      <c r="I47" s="16">
+        <v>23</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
+        <v>60</v>
+      </c>
+      <c r="L47" s="16">
+        <f t="shared" si="6"/>
+        <v>0.77200000000000013</v>
+      </c>
+      <c r="M47" s="20">
+        <v>5</v>
+      </c>
+      <c r="N47" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
@@ -15554,22 +15632,57 @@
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B48" s="21"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="12"/>
-      <c r="R48" s="8"/>
+      <c r="AC47" s="8"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B48" s="21">
+        <v>294</v>
+      </c>
+      <c r="C48" s="16">
+        <f t="shared" si="19"/>
+        <v>1E+113</v>
+      </c>
+      <c r="D48" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>10살</v>
+      </c>
+      <c r="E48" s="16">
+        <v>20</v>
+      </c>
+      <c r="F48" s="16">
+        <f t="shared" si="5"/>
+        <v>28400000</v>
+      </c>
+      <c r="G48" s="16">
+        <v>2</v>
+      </c>
+      <c r="H48" s="16">
+        <f t="shared" si="7"/>
+        <v>0.25200000000000039</v>
+      </c>
+      <c r="I48" s="16">
+        <v>23</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0</v>
+      </c>
+      <c r="K48" s="16">
+        <v>60</v>
+      </c>
+      <c r="L48" s="16">
+        <f t="shared" si="6"/>
+        <v>0.77600000000000013</v>
+      </c>
+      <c r="M48" s="20">
+        <v>10</v>
+      </c>
+      <c r="N48" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O48" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -15580,22 +15693,57 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B49" s="21"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="12"/>
-      <c r="R49" s="8"/>
+      <c r="AC48" s="8"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B49" s="21">
+        <v>295</v>
+      </c>
+      <c r="C49" s="16">
+        <f t="shared" si="19"/>
+        <v>2E+113</v>
+      </c>
+      <c r="D49" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>20살</v>
+      </c>
+      <c r="E49" s="16">
+        <v>20</v>
+      </c>
+      <c r="F49" s="16">
+        <f t="shared" si="5"/>
+        <v>28500000</v>
+      </c>
+      <c r="G49" s="16">
+        <v>2</v>
+      </c>
+      <c r="H49" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2524000000000004</v>
+      </c>
+      <c r="I49" s="16">
+        <v>23</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>60</v>
+      </c>
+      <c r="L49" s="16">
+        <f t="shared" si="6"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="M49" s="20">
+        <v>20</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O49" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
@@ -15606,22 +15754,57 @@
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B50" s="21"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="12"/>
-      <c r="R50" s="8"/>
+      <c r="AC49" s="8"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B50" s="21">
+        <v>296</v>
+      </c>
+      <c r="C50" s="16">
+        <f t="shared" si="19"/>
+        <v>4.9999999999999994E+113</v>
+      </c>
+      <c r="D50" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>50살</v>
+      </c>
+      <c r="E50" s="16">
+        <v>20</v>
+      </c>
+      <c r="F50" s="16">
+        <f t="shared" si="5"/>
+        <v>28600000</v>
+      </c>
+      <c r="G50" s="16">
+        <v>2</v>
+      </c>
+      <c r="H50" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2600000000000004</v>
+      </c>
+      <c r="I50" s="16">
+        <v>23</v>
+      </c>
+      <c r="J50" s="16">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16">
+        <v>60</v>
+      </c>
+      <c r="L50" s="16">
+        <f t="shared" si="6"/>
+        <v>0.78400000000000014</v>
+      </c>
+      <c r="M50" s="20">
+        <v>50</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O50" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
@@ -15632,22 +15815,57 @@
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
       <c r="AB50" s="8"/>
-    </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B51" s="21"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="12"/>
-      <c r="R51" s="8"/>
+      <c r="AC50" s="8"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B51" s="21">
+        <v>297</v>
+      </c>
+      <c r="C51" s="16">
+        <f t="shared" si="19"/>
+        <v>9.9999999999999988E+113</v>
+      </c>
+      <c r="D51" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>100살</v>
+      </c>
+      <c r="E51" s="16">
+        <v>20</v>
+      </c>
+      <c r="F51" s="16">
+        <f t="shared" si="5"/>
+        <v>28700000</v>
+      </c>
+      <c r="G51" s="16">
+        <v>2</v>
+      </c>
+      <c r="H51" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26040000000000041</v>
+      </c>
+      <c r="I51" s="16">
+        <v>23</v>
+      </c>
+      <c r="J51" s="16">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16">
+        <v>60</v>
+      </c>
+      <c r="L51" s="16">
+        <f t="shared" si="6"/>
+        <v>0.78800000000000014</v>
+      </c>
+      <c r="M51" s="20">
+        <v>100</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O51" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
@@ -15658,22 +15876,57 @@
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
-    </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B52" s="21"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="12"/>
-      <c r="R52" s="8"/>
+      <c r="AC51" s="8"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B52" s="21">
+        <v>298</v>
+      </c>
+      <c r="C52" s="16">
+        <f t="shared" si="19"/>
+        <v>1.5E+114</v>
+      </c>
+      <c r="D52" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>150살</v>
+      </c>
+      <c r="E52" s="16">
+        <v>20</v>
+      </c>
+      <c r="F52" s="16">
+        <f t="shared" si="5"/>
+        <v>28800000</v>
+      </c>
+      <c r="G52" s="16">
+        <v>2</v>
+      </c>
+      <c r="H52" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26080000000000042</v>
+      </c>
+      <c r="I52" s="16">
+        <v>23</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0</v>
+      </c>
+      <c r="K52" s="16">
+        <v>60</v>
+      </c>
+      <c r="L52" s="16">
+        <f t="shared" si="6"/>
+        <v>0.79200000000000015</v>
+      </c>
+      <c r="M52" s="20">
+        <v>150</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O52" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
@@ -15684,22 +15937,57 @@
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
-    </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B53" s="21"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="12"/>
-      <c r="R53" s="8"/>
+      <c r="AC52" s="8"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B53" s="21">
+        <v>299</v>
+      </c>
+      <c r="C53" s="16">
+        <f t="shared" si="19"/>
+        <v>1.9999999999999998E+114</v>
+      </c>
+      <c r="D53" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>200살</v>
+      </c>
+      <c r="E53" s="16">
+        <v>20</v>
+      </c>
+      <c r="F53" s="16">
+        <f t="shared" si="5"/>
+        <v>28900000</v>
+      </c>
+      <c r="G53" s="16">
+        <v>2</v>
+      </c>
+      <c r="H53" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26120000000000043</v>
+      </c>
+      <c r="I53" s="16">
+        <v>23</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
+        <v>60</v>
+      </c>
+      <c r="L53" s="16">
+        <f t="shared" si="6"/>
+        <v>0.79600000000000015</v>
+      </c>
+      <c r="M53" s="20">
+        <v>200</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O53" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
@@ -15710,22 +15998,57 @@
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
-    </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B54" s="21"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="12"/>
-      <c r="R54" s="8"/>
+      <c r="AC53" s="8"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B54" s="21">
+        <v>300</v>
+      </c>
+      <c r="C54" s="16">
+        <f t="shared" si="19"/>
+        <v>3E+114</v>
+      </c>
+      <c r="D54" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>300살</v>
+      </c>
+      <c r="E54" s="16">
+        <v>20</v>
+      </c>
+      <c r="F54" s="16">
+        <f t="shared" si="5"/>
+        <v>29000000</v>
+      </c>
+      <c r="G54" s="16">
+        <v>2</v>
+      </c>
+      <c r="H54" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26160000000000044</v>
+      </c>
+      <c r="I54" s="16">
+        <v>23</v>
+      </c>
+      <c r="J54" s="16">
+        <v>0</v>
+      </c>
+      <c r="K54" s="16">
+        <v>60</v>
+      </c>
+      <c r="L54" s="16">
+        <f t="shared" si="6"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="M54" s="20">
+        <v>300</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O54" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
@@ -15736,22 +16059,57 @@
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
       <c r="AB54" s="8"/>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B55" s="21"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="12"/>
-      <c r="R55" s="8"/>
+      <c r="AC54" s="8"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B55" s="21">
+        <v>301</v>
+      </c>
+      <c r="C55" s="16">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E+114</v>
+      </c>
+      <c r="D55" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>500살</v>
+      </c>
+      <c r="E55" s="16">
+        <v>20</v>
+      </c>
+      <c r="F55" s="16">
+        <f t="shared" si="5"/>
+        <v>29100000</v>
+      </c>
+      <c r="G55" s="16">
+        <v>2</v>
+      </c>
+      <c r="H55" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26200000000000045</v>
+      </c>
+      <c r="I55" s="16">
+        <v>23</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0</v>
+      </c>
+      <c r="K55" s="16">
+        <v>60</v>
+      </c>
+      <c r="L55" s="16">
+        <f t="shared" si="6"/>
+        <v>0.80400000000000016</v>
+      </c>
+      <c r="M55" s="20">
+        <v>500</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O55" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
@@ -15762,22 +16120,57 @@
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B56" s="21"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="12"/>
-      <c r="R56" s="8"/>
+      <c r="AC55" s="8"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B56" s="21">
+        <v>302</v>
+      </c>
+      <c r="C56" s="16">
+        <f t="shared" si="19"/>
+        <v>7.999999999999999E+114</v>
+      </c>
+      <c r="D56" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>800살</v>
+      </c>
+      <c r="E56" s="16">
+        <v>20</v>
+      </c>
+      <c r="F56" s="16">
+        <f t="shared" si="5"/>
+        <v>29200000</v>
+      </c>
+      <c r="G56" s="16">
+        <v>2</v>
+      </c>
+      <c r="H56" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26240000000000047</v>
+      </c>
+      <c r="I56" s="16">
+        <v>23</v>
+      </c>
+      <c r="J56" s="16">
+        <v>0</v>
+      </c>
+      <c r="K56" s="16">
+        <v>60</v>
+      </c>
+      <c r="L56" s="16">
+        <f t="shared" si="6"/>
+        <v>0.80800000000000016</v>
+      </c>
+      <c r="M56" s="20">
+        <v>800</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O56" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
@@ -15788,9 +16181,57 @@
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
       <c r="AB56" s="8"/>
-    </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="R57" s="8"/>
+      <c r="AC56" s="8"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B57" s="21">
+        <v>303</v>
+      </c>
+      <c r="C57" s="16">
+        <f t="shared" si="19"/>
+        <v>1E+115</v>
+      </c>
+      <c r="D57" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>1000살</v>
+      </c>
+      <c r="E57" s="16">
+        <v>20</v>
+      </c>
+      <c r="F57" s="16">
+        <f t="shared" si="5"/>
+        <v>29300000</v>
+      </c>
+      <c r="G57" s="16">
+        <v>2</v>
+      </c>
+      <c r="H57" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27000000000000046</v>
+      </c>
+      <c r="I57" s="16">
+        <v>23</v>
+      </c>
+      <c r="J57" s="16">
+        <v>0</v>
+      </c>
+      <c r="K57" s="16">
+        <v>60</v>
+      </c>
+      <c r="L57" s="16">
+        <f t="shared" si="6"/>
+        <v>0.81200000000000017</v>
+      </c>
+      <c r="M57" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O57" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
@@ -15801,9 +16242,57 @@
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
-    </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="R58" s="8"/>
+      <c r="AC57" s="8"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B58" s="21">
+        <v>304</v>
+      </c>
+      <c r="C58" s="16">
+        <f t="shared" si="19"/>
+        <v>2E+115</v>
+      </c>
+      <c r="D58" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>2000살</v>
+      </c>
+      <c r="E58" s="16">
+        <v>20</v>
+      </c>
+      <c r="F58" s="16">
+        <f t="shared" si="5"/>
+        <v>29400000</v>
+      </c>
+      <c r="G58" s="16">
+        <v>2</v>
+      </c>
+      <c r="H58" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27040000000000047</v>
+      </c>
+      <c r="I58" s="16">
+        <v>23</v>
+      </c>
+      <c r="J58" s="16">
+        <v>0</v>
+      </c>
+      <c r="K58" s="16">
+        <v>60</v>
+      </c>
+      <c r="L58" s="16">
+        <f t="shared" si="6"/>
+        <v>0.81600000000000017</v>
+      </c>
+      <c r="M58" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N58" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O58" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
@@ -15814,9 +16303,57 @@
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
-    </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="R59" s="8"/>
+      <c r="AC58" s="8"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B59" s="21">
+        <v>305</v>
+      </c>
+      <c r="C59" s="16">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E+115</v>
+      </c>
+      <c r="D59" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>5000살</v>
+      </c>
+      <c r="E59" s="16">
+        <v>20</v>
+      </c>
+      <c r="F59" s="16">
+        <f t="shared" si="5"/>
+        <v>29500000</v>
+      </c>
+      <c r="G59" s="16">
+        <v>2</v>
+      </c>
+      <c r="H59" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27080000000000048</v>
+      </c>
+      <c r="I59" s="16">
+        <v>23</v>
+      </c>
+      <c r="J59" s="16">
+        <v>0</v>
+      </c>
+      <c r="K59" s="16">
+        <v>60</v>
+      </c>
+      <c r="L59" s="16">
+        <f t="shared" si="6"/>
+        <v>0.82000000000000017</v>
+      </c>
+      <c r="M59" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O59" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+112</v>
+      </c>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
@@ -15827,9 +16364,57 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
-    </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="R60" s="8"/>
+      <c r="AC59" s="8"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B60" s="21">
+        <v>306</v>
+      </c>
+      <c r="C60" s="16">
+        <f t="shared" ref="C60:C74" si="21">M60*O60</f>
+        <v>1E+116</v>
+      </c>
+      <c r="D60" s="16" t="str">
+        <f t="shared" ref="D60:D74" si="22">M60&amp;N60</f>
+        <v>1섬</v>
+      </c>
+      <c r="E60" s="16">
+        <v>20</v>
+      </c>
+      <c r="F60" s="16">
+        <f t="shared" ref="F60:F74" si="23">F59+100000</f>
+        <v>29600000</v>
+      </c>
+      <c r="G60" s="16">
+        <v>2</v>
+      </c>
+      <c r="H60" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2712000000000005</v>
+      </c>
+      <c r="I60" s="16">
+        <v>23</v>
+      </c>
+      <c r="J60" s="16">
+        <v>0</v>
+      </c>
+      <c r="K60" s="16">
+        <v>60</v>
+      </c>
+      <c r="L60" s="16">
+        <f t="shared" ref="L60:L74" si="24">L59+0.004</f>
+        <v>0.82400000000000018</v>
+      </c>
+      <c r="M60" s="20">
+        <v>1</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O60" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+116</v>
+      </c>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
@@ -15840,9 +16425,57 @@
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
-    </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="R61" s="8"/>
+      <c r="AC60" s="8"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B61" s="21">
+        <v>307</v>
+      </c>
+      <c r="C61" s="16">
+        <f t="shared" si="21"/>
+        <v>2E+116</v>
+      </c>
+      <c r="D61" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>2섬</v>
+      </c>
+      <c r="E61" s="16">
+        <v>20</v>
+      </c>
+      <c r="F61" s="16">
+        <f t="shared" si="23"/>
+        <v>29700000</v>
+      </c>
+      <c r="G61" s="16">
+        <v>2</v>
+      </c>
+      <c r="H61" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27160000000000051</v>
+      </c>
+      <c r="I61" s="16">
+        <v>23</v>
+      </c>
+      <c r="J61" s="16">
+        <v>0</v>
+      </c>
+      <c r="K61" s="16">
+        <v>60</v>
+      </c>
+      <c r="L61" s="16">
+        <f t="shared" si="24"/>
+        <v>0.82800000000000018</v>
+      </c>
+      <c r="M61" s="20">
+        <v>2</v>
+      </c>
+      <c r="N61" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O61" s="12" t="str">
+        <f t="shared" ref="O61:O75" si="25">VLOOKUP(N61,Q:T,4,FALSE)</f>
+        <v>1E+116</v>
+      </c>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
@@ -15853,9 +16486,57 @@
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
-    </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="R62" s="8"/>
+      <c r="AC61" s="8"/>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B62" s="21">
+        <v>308</v>
+      </c>
+      <c r="C62" s="16">
+        <f t="shared" si="21"/>
+        <v>5.0000000000000003E+116</v>
+      </c>
+      <c r="D62" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>5섬</v>
+      </c>
+      <c r="E62" s="16">
+        <v>20</v>
+      </c>
+      <c r="F62" s="16">
+        <f t="shared" si="23"/>
+        <v>29800000</v>
+      </c>
+      <c r="G62" s="16">
+        <v>2</v>
+      </c>
+      <c r="H62" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27200000000000052</v>
+      </c>
+      <c r="I62" s="16">
+        <v>23</v>
+      </c>
+      <c r="J62" s="16">
+        <v>0</v>
+      </c>
+      <c r="K62" s="16">
+        <v>60</v>
+      </c>
+      <c r="L62" s="16">
+        <f t="shared" si="24"/>
+        <v>0.83200000000000018</v>
+      </c>
+      <c r="M62" s="20">
+        <v>5</v>
+      </c>
+      <c r="N62" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O62" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
@@ -15866,32 +16547,617 @@
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
       <c r="AB62" s="8"/>
-    </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-    </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
+      <c r="AC62" s="8"/>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B63" s="21">
+        <v>309</v>
+      </c>
+      <c r="C63" s="16">
+        <f t="shared" si="21"/>
+        <v>1.0000000000000001E+117</v>
+      </c>
+      <c r="D63" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>10섬</v>
+      </c>
+      <c r="E63" s="16">
+        <v>20</v>
+      </c>
+      <c r="F63" s="16">
+        <f t="shared" si="23"/>
+        <v>29900000</v>
+      </c>
+      <c r="G63" s="16">
+        <v>2</v>
+      </c>
+      <c r="H63" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27240000000000053</v>
+      </c>
+      <c r="I63" s="16">
+        <v>23</v>
+      </c>
+      <c r="J63" s="16">
+        <v>0</v>
+      </c>
+      <c r="K63" s="16">
+        <v>60</v>
+      </c>
+      <c r="L63" s="16">
+        <f t="shared" si="24"/>
+        <v>0.83600000000000019</v>
+      </c>
+      <c r="M63" s="20">
+        <v>10</v>
+      </c>
+      <c r="N63" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O63" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B64" s="21">
+        <v>310</v>
+      </c>
+      <c r="C64" s="16">
+        <f t="shared" si="21"/>
+        <v>2.0000000000000001E+117</v>
+      </c>
+      <c r="D64" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>20섬</v>
+      </c>
+      <c r="E64" s="16">
+        <v>20</v>
+      </c>
+      <c r="F64" s="16">
+        <f t="shared" si="23"/>
+        <v>30000000</v>
+      </c>
+      <c r="G64" s="16">
+        <v>2</v>
+      </c>
+      <c r="H64" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27280000000000054</v>
+      </c>
+      <c r="I64" s="16">
+        <v>23</v>
+      </c>
+      <c r="J64" s="16">
+        <v>0</v>
+      </c>
+      <c r="K64" s="16">
+        <v>60</v>
+      </c>
+      <c r="L64" s="16">
+        <f t="shared" si="24"/>
+        <v>0.84000000000000019</v>
+      </c>
+      <c r="M64" s="20">
+        <v>20</v>
+      </c>
+      <c r="N64" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O64" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B65" s="21">
+        <v>311</v>
+      </c>
+      <c r="C65" s="16">
+        <f t="shared" si="21"/>
+        <v>4.9999999999999998E+117</v>
+      </c>
+      <c r="D65" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>50섬</v>
+      </c>
+      <c r="E65" s="16">
+        <v>20</v>
+      </c>
+      <c r="F65" s="16">
+        <f t="shared" si="23"/>
+        <v>30100000</v>
+      </c>
+      <c r="G65" s="16">
+        <v>2</v>
+      </c>
+      <c r="H65" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27320000000000055</v>
+      </c>
+      <c r="I65" s="16">
+        <v>23</v>
+      </c>
+      <c r="J65" s="16">
+        <v>0</v>
+      </c>
+      <c r="K65" s="16">
+        <v>60</v>
+      </c>
+      <c r="L65" s="16">
+        <f t="shared" si="24"/>
+        <v>0.84400000000000019</v>
+      </c>
+      <c r="M65" s="20">
+        <v>50</v>
+      </c>
+      <c r="N65" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O65" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B66" s="21">
+        <v>312</v>
+      </c>
+      <c r="C66" s="16">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999997E+117</v>
+      </c>
+      <c r="D66" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>100섬</v>
+      </c>
+      <c r="E66" s="16">
+        <v>20</v>
+      </c>
+      <c r="F66" s="16">
+        <f t="shared" si="23"/>
+        <v>30200000</v>
+      </c>
+      <c r="G66" s="16">
+        <v>2</v>
+      </c>
+      <c r="H66" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27360000000000056</v>
+      </c>
+      <c r="I66" s="16">
+        <v>23</v>
+      </c>
+      <c r="J66" s="16">
+        <v>0</v>
+      </c>
+      <c r="K66" s="16">
+        <v>60</v>
+      </c>
+      <c r="L66" s="16">
+        <f t="shared" si="24"/>
+        <v>0.8480000000000002</v>
+      </c>
+      <c r="M66" s="20">
+        <v>100</v>
+      </c>
+      <c r="N66" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O66" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B67" s="21">
+        <v>313</v>
+      </c>
+      <c r="C67" s="16">
+        <f t="shared" si="21"/>
+        <v>1.5E+118</v>
+      </c>
+      <c r="D67" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>150섬</v>
+      </c>
+      <c r="E67" s="16">
+        <v>20</v>
+      </c>
+      <c r="F67" s="16">
+        <f t="shared" si="23"/>
+        <v>30300000</v>
+      </c>
+      <c r="G67" s="16">
+        <v>2</v>
+      </c>
+      <c r="H67" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27400000000000058</v>
+      </c>
+      <c r="I67" s="16">
+        <v>23</v>
+      </c>
+      <c r="J67" s="16">
+        <v>0</v>
+      </c>
+      <c r="K67" s="16">
+        <v>60</v>
+      </c>
+      <c r="L67" s="16">
+        <f t="shared" si="24"/>
+        <v>0.8520000000000002</v>
+      </c>
+      <c r="M67" s="20">
+        <v>150</v>
+      </c>
+      <c r="N67" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O67" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B68" s="21">
+        <v>314</v>
+      </c>
+      <c r="C68" s="16">
+        <f t="shared" si="21"/>
+        <v>1.9999999999999999E+118</v>
+      </c>
+      <c r="D68" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>200섬</v>
+      </c>
+      <c r="E68" s="16">
+        <v>20</v>
+      </c>
+      <c r="F68" s="16">
+        <f t="shared" si="23"/>
+        <v>30400000</v>
+      </c>
+      <c r="G68" s="16">
+        <v>2</v>
+      </c>
+      <c r="H68" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27440000000000059</v>
+      </c>
+      <c r="I68" s="16">
+        <v>23</v>
+      </c>
+      <c r="J68" s="16">
+        <v>0</v>
+      </c>
+      <c r="K68" s="16">
+        <v>60</v>
+      </c>
+      <c r="L68" s="16">
+        <f t="shared" si="24"/>
+        <v>0.85600000000000021</v>
+      </c>
+      <c r="M68" s="20">
+        <v>200</v>
+      </c>
+      <c r="N68" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O68" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B69" s="21">
+        <v>315</v>
+      </c>
+      <c r="C69" s="16">
+        <f t="shared" si="21"/>
+        <v>3E+118</v>
+      </c>
+      <c r="D69" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>300섬</v>
+      </c>
+      <c r="E69" s="16">
+        <v>20</v>
+      </c>
+      <c r="F69" s="16">
+        <f t="shared" si="23"/>
+        <v>30500000</v>
+      </c>
+      <c r="G69" s="16">
+        <v>2</v>
+      </c>
+      <c r="H69" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2748000000000006</v>
+      </c>
+      <c r="I69" s="16">
+        <v>23</v>
+      </c>
+      <c r="J69" s="16">
+        <v>0</v>
+      </c>
+      <c r="K69" s="16">
+        <v>60</v>
+      </c>
+      <c r="L69" s="16">
+        <f t="shared" si="24"/>
+        <v>0.86000000000000021</v>
+      </c>
+      <c r="M69" s="20">
+        <v>300</v>
+      </c>
+      <c r="N69" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O69" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B70" s="21">
+        <v>316</v>
+      </c>
+      <c r="C70" s="16">
+        <f t="shared" si="21"/>
+        <v>4.9999999999999997E+118</v>
+      </c>
+      <c r="D70" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>500섬</v>
+      </c>
+      <c r="E70" s="16">
+        <v>20</v>
+      </c>
+      <c r="F70" s="16">
+        <f t="shared" si="23"/>
+        <v>30600000</v>
+      </c>
+      <c r="G70" s="16">
+        <v>2</v>
+      </c>
+      <c r="H70" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27520000000000061</v>
+      </c>
+      <c r="I70" s="16">
+        <v>23</v>
+      </c>
+      <c r="J70" s="16">
+        <v>0</v>
+      </c>
+      <c r="K70" s="16">
+        <v>60</v>
+      </c>
+      <c r="L70" s="16">
+        <f t="shared" si="24"/>
+        <v>0.86400000000000021</v>
+      </c>
+      <c r="M70" s="20">
+        <v>500</v>
+      </c>
+      <c r="N70" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O70" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B71" s="21">
+        <v>317</v>
+      </c>
+      <c r="C71" s="16">
+        <f t="shared" si="21"/>
+        <v>7.9999999999999997E+118</v>
+      </c>
+      <c r="D71" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>800섬</v>
+      </c>
+      <c r="E71" s="16">
+        <v>20</v>
+      </c>
+      <c r="F71" s="16">
+        <f t="shared" si="23"/>
+        <v>30700000</v>
+      </c>
+      <c r="G71" s="16">
+        <v>2</v>
+      </c>
+      <c r="H71" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27560000000000062</v>
+      </c>
+      <c r="I71" s="16">
+        <v>23</v>
+      </c>
+      <c r="J71" s="16">
+        <v>0</v>
+      </c>
+      <c r="K71" s="16">
+        <v>60</v>
+      </c>
+      <c r="L71" s="16">
+        <f t="shared" si="24"/>
+        <v>0.86800000000000022</v>
+      </c>
+      <c r="M71" s="20">
+        <v>800</v>
+      </c>
+      <c r="N71" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O71" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B72" s="21">
+        <v>318</v>
+      </c>
+      <c r="C72" s="16">
+        <f t="shared" si="21"/>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="D72" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>1000섬</v>
+      </c>
+      <c r="E72" s="16">
+        <v>20</v>
+      </c>
+      <c r="F72" s="16">
+        <f t="shared" si="23"/>
+        <v>30800000</v>
+      </c>
+      <c r="G72" s="16">
+        <v>2</v>
+      </c>
+      <c r="H72" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27600000000000063</v>
+      </c>
+      <c r="I72" s="16">
+        <v>23</v>
+      </c>
+      <c r="J72" s="16">
+        <v>0</v>
+      </c>
+      <c r="K72" s="16">
+        <v>60</v>
+      </c>
+      <c r="L72" s="16">
+        <f t="shared" si="24"/>
+        <v>0.87200000000000022</v>
+      </c>
+      <c r="M72" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N72" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O72" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B73" s="21">
+        <v>319</v>
+      </c>
+      <c r="C73" s="16">
+        <f t="shared" si="21"/>
+        <v>1.9999999999999999E+119</v>
+      </c>
+      <c r="D73" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>2000섬</v>
+      </c>
+      <c r="E73" s="16">
+        <v>20</v>
+      </c>
+      <c r="F73" s="16">
+        <f t="shared" si="23"/>
+        <v>30900000</v>
+      </c>
+      <c r="G73" s="16">
+        <v>2</v>
+      </c>
+      <c r="H73" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27640000000000065</v>
+      </c>
+      <c r="I73" s="16">
+        <v>23</v>
+      </c>
+      <c r="J73" s="16">
+        <v>0</v>
+      </c>
+      <c r="K73" s="16">
+        <v>60</v>
+      </c>
+      <c r="L73" s="16">
+        <f t="shared" si="24"/>
+        <v>0.87600000000000022</v>
+      </c>
+      <c r="M73" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N73" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O73" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B74" s="21">
+        <v>320</v>
+      </c>
+      <c r="C74" s="16">
+        <f t="shared" si="21"/>
+        <v>4.9999999999999999E+119</v>
+      </c>
+      <c r="D74" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>5000섬</v>
+      </c>
+      <c r="E74" s="16">
+        <v>20</v>
+      </c>
+      <c r="F74" s="16">
+        <f t="shared" si="23"/>
+        <v>31000000</v>
+      </c>
+      <c r="G74" s="16">
+        <v>2</v>
+      </c>
+      <c r="H74" s="16">
+        <f t="shared" ref="H74" si="26">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
+        <v>0.27680000000000066</v>
+      </c>
+      <c r="I74" s="16">
+        <v>23</v>
+      </c>
+      <c r="J74" s="16">
+        <v>0</v>
+      </c>
+      <c r="K74" s="16">
+        <v>60</v>
+      </c>
+      <c r="L74" s="16">
+        <f t="shared" si="24"/>
+        <v>0.88000000000000023</v>
+      </c>
+      <c r="M74" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N74" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O74" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B75" s="21"/>
+      <c r="N75" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O75" s="12" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+116</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26506064-4DF8-46A6-951E-77ACCB5AE2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11E9DB-CD8D-4BEC-8639-39A01C3A422F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="335">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1327,6 +1327,14 @@
   </si>
   <si>
     <t>섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1852,11 +1860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K305"/>
+  <dimension ref="A1:K323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C298" sqref="C298"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12823,6 +12831,816 @@
         <v>0.81200000000000017</v>
       </c>
     </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <f>VLOOKUP(A306,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+115</v>
+      </c>
+      <c r="C306" t="str">
+        <f>VLOOKUP(A306,UnitChange!B:K,3,FALSE)</f>
+        <v>2000살</v>
+      </c>
+      <c r="D306">
+        <f>VLOOKUP(A306,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E306">
+        <f>VLOOKUP(A306,UnitChange!B:K,5,FALSE)</f>
+        <v>29400000</v>
+      </c>
+      <c r="F306">
+        <f>VLOOKUP(A306,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G306">
+        <f>VLOOKUP(A306,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27040000000000047</v>
+      </c>
+      <c r="H306">
+        <f>VLOOKUP(A306,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I306">
+        <f>VLOOKUP(A306,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <f>VLOOKUP(A306,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K306" s="1">
+        <f>VLOOKUP(A306,UnitChange!B:L,11,FALSE)</f>
+        <v>0.81600000000000017</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <f>VLOOKUP(A307,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000001E+115</v>
+      </c>
+      <c r="C307" t="str">
+        <f>VLOOKUP(A307,UnitChange!B:K,3,FALSE)</f>
+        <v>5000살</v>
+      </c>
+      <c r="D307">
+        <f>VLOOKUP(A307,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E307">
+        <f>VLOOKUP(A307,UnitChange!B:K,5,FALSE)</f>
+        <v>29500000</v>
+      </c>
+      <c r="F307">
+        <f>VLOOKUP(A307,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G307">
+        <f>VLOOKUP(A307,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27080000000000048</v>
+      </c>
+      <c r="H307">
+        <f>VLOOKUP(A307,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I307">
+        <f>VLOOKUP(A307,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <f>VLOOKUP(A307,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K307" s="1">
+        <f>VLOOKUP(A307,UnitChange!B:L,11,FALSE)</f>
+        <v>0.82000000000000017</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <f>VLOOKUP(A308,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+116</v>
+      </c>
+      <c r="C308" t="str">
+        <f>VLOOKUP(A308,UnitChange!B:K,3,FALSE)</f>
+        <v>1섬</v>
+      </c>
+      <c r="D308">
+        <f>VLOOKUP(A308,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E308">
+        <f>VLOOKUP(A308,UnitChange!B:K,5,FALSE)</f>
+        <v>29600000</v>
+      </c>
+      <c r="F308">
+        <f>VLOOKUP(A308,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G308">
+        <f>VLOOKUP(A308,UnitChange!B:K,7,FALSE)</f>
+        <v>0.2712000000000005</v>
+      </c>
+      <c r="H308">
+        <f>VLOOKUP(A308,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I308">
+        <f>VLOOKUP(A308,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <f>VLOOKUP(A308,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K308" s="1">
+        <f>VLOOKUP(A308,UnitChange!B:L,11,FALSE)</f>
+        <v>0.82400000000000018</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <f>VLOOKUP(A309,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+116</v>
+      </c>
+      <c r="C309" t="str">
+        <f>VLOOKUP(A309,UnitChange!B:K,3,FALSE)</f>
+        <v>2섬</v>
+      </c>
+      <c r="D309">
+        <f>VLOOKUP(A309,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E309">
+        <f>VLOOKUP(A309,UnitChange!B:K,5,FALSE)</f>
+        <v>29700000</v>
+      </c>
+      <c r="F309">
+        <f>VLOOKUP(A309,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G309">
+        <f>VLOOKUP(A309,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27160000000000051</v>
+      </c>
+      <c r="H309">
+        <f>VLOOKUP(A309,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I309">
+        <f>VLOOKUP(A309,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <f>VLOOKUP(A309,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K309" s="1">
+        <f>VLOOKUP(A309,UnitChange!B:L,11,FALSE)</f>
+        <v>0.82800000000000018</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <f>VLOOKUP(A310,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000003E+116</v>
+      </c>
+      <c r="C310" t="str">
+        <f>VLOOKUP(A310,UnitChange!B:K,3,FALSE)</f>
+        <v>5섬</v>
+      </c>
+      <c r="D310">
+        <f>VLOOKUP(A310,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E310">
+        <f>VLOOKUP(A310,UnitChange!B:K,5,FALSE)</f>
+        <v>29800000</v>
+      </c>
+      <c r="F310">
+        <f>VLOOKUP(A310,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G310">
+        <f>VLOOKUP(A310,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27200000000000052</v>
+      </c>
+      <c r="H310">
+        <f>VLOOKUP(A310,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I310">
+        <f>VLOOKUP(A310,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <f>VLOOKUP(A310,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K310" s="1">
+        <f>VLOOKUP(A310,UnitChange!B:L,11,FALSE)</f>
+        <v>0.83200000000000018</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <f>VLOOKUP(A311,UnitChange!B:K,2,FALSE)</f>
+        <v>1.0000000000000001E+117</v>
+      </c>
+      <c r="C311" t="str">
+        <f>VLOOKUP(A311,UnitChange!B:K,3,FALSE)</f>
+        <v>10섬</v>
+      </c>
+      <c r="D311">
+        <f>VLOOKUP(A311,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E311">
+        <f>VLOOKUP(A311,UnitChange!B:K,5,FALSE)</f>
+        <v>29900000</v>
+      </c>
+      <c r="F311">
+        <f>VLOOKUP(A311,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G311">
+        <f>VLOOKUP(A311,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27240000000000053</v>
+      </c>
+      <c r="H311">
+        <f>VLOOKUP(A311,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I311">
+        <f>VLOOKUP(A311,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <f>VLOOKUP(A311,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K311" s="1">
+        <f>VLOOKUP(A311,UnitChange!B:L,11,FALSE)</f>
+        <v>0.83600000000000019</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <f>VLOOKUP(A312,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+117</v>
+      </c>
+      <c r="C312" t="str">
+        <f>VLOOKUP(A312,UnitChange!B:K,3,FALSE)</f>
+        <v>20섬</v>
+      </c>
+      <c r="D312">
+        <f>VLOOKUP(A312,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E312">
+        <f>VLOOKUP(A312,UnitChange!B:K,5,FALSE)</f>
+        <v>30000000</v>
+      </c>
+      <c r="F312">
+        <f>VLOOKUP(A312,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G312">
+        <f>VLOOKUP(A312,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27280000000000054</v>
+      </c>
+      <c r="H312">
+        <f>VLOOKUP(A312,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I312">
+        <f>VLOOKUP(A312,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <f>VLOOKUP(A312,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K312" s="1">
+        <f>VLOOKUP(A312,UnitChange!B:L,11,FALSE)</f>
+        <v>0.84000000000000019</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <f>VLOOKUP(A313,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999998E+117</v>
+      </c>
+      <c r="C313" t="str">
+        <f>VLOOKUP(A313,UnitChange!B:K,3,FALSE)</f>
+        <v>50섬</v>
+      </c>
+      <c r="D313">
+        <f>VLOOKUP(A313,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E313">
+        <f>VLOOKUP(A313,UnitChange!B:K,5,FALSE)</f>
+        <v>30100000</v>
+      </c>
+      <c r="F313">
+        <f>VLOOKUP(A313,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G313">
+        <f>VLOOKUP(A313,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27320000000000055</v>
+      </c>
+      <c r="H313">
+        <f>VLOOKUP(A313,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I313">
+        <f>VLOOKUP(A313,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <f>VLOOKUP(A313,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K313" s="1">
+        <f>VLOOKUP(A313,UnitChange!B:L,11,FALSE)</f>
+        <v>0.84400000000000019</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <f>VLOOKUP(A314,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999997E+117</v>
+      </c>
+      <c r="C314" t="str">
+        <f>VLOOKUP(A314,UnitChange!B:K,3,FALSE)</f>
+        <v>100섬</v>
+      </c>
+      <c r="D314">
+        <f>VLOOKUP(A314,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E314">
+        <f>VLOOKUP(A314,UnitChange!B:K,5,FALSE)</f>
+        <v>30200000</v>
+      </c>
+      <c r="F314">
+        <f>VLOOKUP(A314,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G314">
+        <f>VLOOKUP(A314,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27360000000000056</v>
+      </c>
+      <c r="H314">
+        <f>VLOOKUP(A314,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I314">
+        <f>VLOOKUP(A314,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <f>VLOOKUP(A314,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K314" s="1">
+        <f>VLOOKUP(A314,UnitChange!B:L,11,FALSE)</f>
+        <v>0.8480000000000002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <f>VLOOKUP(A315,UnitChange!B:K,2,FALSE)</f>
+        <v>1.5E+118</v>
+      </c>
+      <c r="C315" t="str">
+        <f>VLOOKUP(A315,UnitChange!B:K,3,FALSE)</f>
+        <v>150섬</v>
+      </c>
+      <c r="D315">
+        <f>VLOOKUP(A315,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E315">
+        <f>VLOOKUP(A315,UnitChange!B:K,5,FALSE)</f>
+        <v>30300000</v>
+      </c>
+      <c r="F315">
+        <f>VLOOKUP(A315,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G315">
+        <f>VLOOKUP(A315,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27400000000000058</v>
+      </c>
+      <c r="H315">
+        <f>VLOOKUP(A315,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I315">
+        <f>VLOOKUP(A315,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <f>VLOOKUP(A315,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K315" s="1">
+        <f>VLOOKUP(A315,UnitChange!B:L,11,FALSE)</f>
+        <v>0.8520000000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <f>VLOOKUP(A316,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999999E+118</v>
+      </c>
+      <c r="C316" t="str">
+        <f>VLOOKUP(A316,UnitChange!B:K,3,FALSE)</f>
+        <v>200섬</v>
+      </c>
+      <c r="D316">
+        <f>VLOOKUP(A316,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E316">
+        <f>VLOOKUP(A316,UnitChange!B:K,5,FALSE)</f>
+        <v>30400000</v>
+      </c>
+      <c r="F316">
+        <f>VLOOKUP(A316,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G316">
+        <f>VLOOKUP(A316,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27440000000000059</v>
+      </c>
+      <c r="H316">
+        <f>VLOOKUP(A316,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I316">
+        <f>VLOOKUP(A316,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <f>VLOOKUP(A316,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K316" s="1">
+        <f>VLOOKUP(A316,UnitChange!B:L,11,FALSE)</f>
+        <v>0.85600000000000021</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <f>VLOOKUP(A317,UnitChange!B:K,2,FALSE)</f>
+        <v>3E+118</v>
+      </c>
+      <c r="C317" t="str">
+        <f>VLOOKUP(A317,UnitChange!B:K,3,FALSE)</f>
+        <v>300섬</v>
+      </c>
+      <c r="D317">
+        <f>VLOOKUP(A317,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E317">
+        <f>VLOOKUP(A317,UnitChange!B:K,5,FALSE)</f>
+        <v>30500000</v>
+      </c>
+      <c r="F317">
+        <f>VLOOKUP(A317,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G317">
+        <f>VLOOKUP(A317,UnitChange!B:K,7,FALSE)</f>
+        <v>0.2748000000000006</v>
+      </c>
+      <c r="H317">
+        <f>VLOOKUP(A317,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I317">
+        <f>VLOOKUP(A317,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <f>VLOOKUP(A317,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K317" s="1">
+        <f>VLOOKUP(A317,UnitChange!B:L,11,FALSE)</f>
+        <v>0.86000000000000021</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <f>VLOOKUP(A318,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999997E+118</v>
+      </c>
+      <c r="C318" t="str">
+        <f>VLOOKUP(A318,UnitChange!B:K,3,FALSE)</f>
+        <v>500섬</v>
+      </c>
+      <c r="D318">
+        <f>VLOOKUP(A318,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E318">
+        <f>VLOOKUP(A318,UnitChange!B:K,5,FALSE)</f>
+        <v>30600000</v>
+      </c>
+      <c r="F318">
+        <f>VLOOKUP(A318,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G318">
+        <f>VLOOKUP(A318,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27520000000000061</v>
+      </c>
+      <c r="H318">
+        <f>VLOOKUP(A318,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I318">
+        <f>VLOOKUP(A318,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <f>VLOOKUP(A318,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K318" s="1">
+        <f>VLOOKUP(A318,UnitChange!B:L,11,FALSE)</f>
+        <v>0.86400000000000021</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <f>VLOOKUP(A319,UnitChange!B:K,2,FALSE)</f>
+        <v>7.9999999999999997E+118</v>
+      </c>
+      <c r="C319" t="str">
+        <f>VLOOKUP(A319,UnitChange!B:K,3,FALSE)</f>
+        <v>800섬</v>
+      </c>
+      <c r="D319">
+        <f>VLOOKUP(A319,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E319">
+        <f>VLOOKUP(A319,UnitChange!B:K,5,FALSE)</f>
+        <v>30700000</v>
+      </c>
+      <c r="F319">
+        <f>VLOOKUP(A319,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G319">
+        <f>VLOOKUP(A319,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27560000000000062</v>
+      </c>
+      <c r="H319">
+        <f>VLOOKUP(A319,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I319">
+        <f>VLOOKUP(A319,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <f>VLOOKUP(A319,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K319" s="1">
+        <f>VLOOKUP(A319,UnitChange!B:L,11,FALSE)</f>
+        <v>0.86800000000000022</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <f>VLOOKUP(A320,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="C320" t="str">
+        <f>VLOOKUP(A320,UnitChange!B:K,3,FALSE)</f>
+        <v>1000섬</v>
+      </c>
+      <c r="D320">
+        <f>VLOOKUP(A320,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E320">
+        <f>VLOOKUP(A320,UnitChange!B:K,5,FALSE)</f>
+        <v>30800000</v>
+      </c>
+      <c r="F320">
+        <f>VLOOKUP(A320,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G320">
+        <f>VLOOKUP(A320,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27600000000000063</v>
+      </c>
+      <c r="H320">
+        <f>VLOOKUP(A320,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I320">
+        <f>VLOOKUP(A320,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <f>VLOOKUP(A320,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K320" s="1">
+        <f>VLOOKUP(A320,UnitChange!B:L,11,FALSE)</f>
+        <v>0.87200000000000022</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <f>VLOOKUP(A321,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999999E+119</v>
+      </c>
+      <c r="C321" t="str">
+        <f>VLOOKUP(A321,UnitChange!B:K,3,FALSE)</f>
+        <v>2000섬</v>
+      </c>
+      <c r="D321">
+        <f>VLOOKUP(A321,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E321">
+        <f>VLOOKUP(A321,UnitChange!B:K,5,FALSE)</f>
+        <v>30900000</v>
+      </c>
+      <c r="F321">
+        <f>VLOOKUP(A321,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G321">
+        <f>VLOOKUP(A321,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27640000000000065</v>
+      </c>
+      <c r="H321">
+        <f>VLOOKUP(A321,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I321">
+        <f>VLOOKUP(A321,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <f>VLOOKUP(A321,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K321" s="1">
+        <f>VLOOKUP(A321,UnitChange!B:L,11,FALSE)</f>
+        <v>0.87600000000000022</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <f>VLOOKUP(A322,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999999E+119</v>
+      </c>
+      <c r="C322" t="str">
+        <f>VLOOKUP(A322,UnitChange!B:K,3,FALSE)</f>
+        <v>5000섬</v>
+      </c>
+      <c r="D322">
+        <f>VLOOKUP(A322,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E322">
+        <f>VLOOKUP(A322,UnitChange!B:K,5,FALSE)</f>
+        <v>31000000</v>
+      </c>
+      <c r="F322">
+        <f>VLOOKUP(A322,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G322">
+        <f>VLOOKUP(A322,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27680000000000066</v>
+      </c>
+      <c r="H322">
+        <f>VLOOKUP(A322,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I322">
+        <f>VLOOKUP(A322,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <f>VLOOKUP(A322,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K322" s="1">
+        <f>VLOOKUP(A322,UnitChange!B:L,11,FALSE)</f>
+        <v>0.88000000000000023</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <f>VLOOKUP(A323,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="C323" t="str">
+        <f>VLOOKUP(A323,UnitChange!B:K,3,FALSE)</f>
+        <v>1찰</v>
+      </c>
+      <c r="D323">
+        <f>VLOOKUP(A323,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E323">
+        <f>VLOOKUP(A323,UnitChange!B:K,5,FALSE)</f>
+        <v>31100000</v>
+      </c>
+      <c r="F323">
+        <f>VLOOKUP(A323,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G323">
+        <f>VLOOKUP(A323,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27720000000000067</v>
+      </c>
+      <c r="H323">
+        <f>VLOOKUP(A323,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I323">
+        <f>VLOOKUP(A323,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <f>VLOOKUP(A323,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K323" s="1">
+        <f>VLOOKUP(A323,UnitChange!B:L,11,FALSE)</f>
+        <v>0.88400000000000023</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12832,10 +13650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="B1:AC75"/>
+  <dimension ref="B1:AC104"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13214,7 +14032,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" ref="H10:H73" si="7">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
+        <f t="shared" ref="H10:H75" si="7">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
         <v>0.20800000000000005</v>
       </c>
       <c r="I10" s="16">
@@ -14882,10 +15700,20 @@
         <v>1E+108</v>
       </c>
       <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
+      <c r="Q35" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="R35" s="12">
+        <v>120</v>
+      </c>
+      <c r="S35" s="13">
+        <f t="shared" ref="S35:S36" si="16">POWER(10,R35)</f>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="T35" s="13" t="str">
+        <f t="shared" ref="T35:T36" si="17">RIGHT(S35,R35)</f>
+        <v>1E+120</v>
+      </c>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -14946,10 +15774,20 @@
         <v>1E+108</v>
       </c>
       <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
+      <c r="Q36" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="R36" s="12">
+        <v>124</v>
+      </c>
+      <c r="S36" s="13">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="T36" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v>1E+124</v>
+      </c>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -15131,7 +15969,7 @@
         <v>307</v>
       </c>
       <c r="O39" s="12" t="str">
-        <f t="shared" ref="O39:O70" si="16">VLOOKUP(N39,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O39:O60" si="18">VLOOKUP(N39,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="S39" s="8"/>
@@ -15192,7 +16030,7 @@
         <v>307</v>
       </c>
       <c r="O40" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+108</v>
       </c>
       <c r="S40" s="8"/>
@@ -15212,11 +16050,11 @@
         <v>287</v>
       </c>
       <c r="C41" s="16">
-        <f t="shared" ref="C41:C44" si="17">M41*O41</f>
+        <f t="shared" ref="C41:C44" si="19">M41*O41</f>
         <v>8.0000000000000002E+110</v>
       </c>
       <c r="D41" s="16" t="str">
-        <f t="shared" ref="D41:D44" si="18">M41&amp;N41</f>
+        <f t="shared" ref="D41:D44" si="20">M41&amp;N41</f>
         <v>800마</v>
       </c>
       <c r="E41" s="16">
@@ -15253,7 +16091,7 @@
         <v>307</v>
       </c>
       <c r="O41" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+108</v>
       </c>
       <c r="S41" s="8"/>
@@ -15273,11 +16111,11 @@
         <v>288</v>
       </c>
       <c r="C42" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D42" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1000마</v>
       </c>
       <c r="E42" s="16">
@@ -15314,7 +16152,7 @@
         <v>307</v>
       </c>
       <c r="O42" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+108</v>
       </c>
       <c r="S42" s="8"/>
@@ -15334,11 +16172,11 @@
         <v>289</v>
       </c>
       <c r="C43" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.0000000000000002E+111</v>
       </c>
       <c r="D43" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2000마</v>
       </c>
       <c r="E43" s="16">
@@ -15375,7 +16213,7 @@
         <v>307</v>
       </c>
       <c r="O43" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+108</v>
       </c>
       <c r="S43" s="8"/>
@@ -15395,11 +16233,11 @@
         <v>290</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="D44" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5000마</v>
       </c>
       <c r="E44" s="16">
@@ -15436,7 +16274,7 @@
         <v>307</v>
       </c>
       <c r="O44" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+108</v>
       </c>
       <c r="S44" s="8"/>
@@ -15456,11 +16294,11 @@
         <v>291</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" ref="C45:C59" si="19">M45*O45</f>
+        <f t="shared" ref="C45:C59" si="21">M45*O45</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D45" s="16" t="str">
-        <f t="shared" ref="D45:D59" si="20">M45&amp;N45</f>
+        <f t="shared" ref="D45:D59" si="22">M45&amp;N45</f>
         <v>1살</v>
       </c>
       <c r="E45" s="16">
@@ -15497,7 +16335,7 @@
         <v>331</v>
       </c>
       <c r="O45" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S45" s="8"/>
@@ -15517,11 +16355,11 @@
         <v>292</v>
       </c>
       <c r="C46" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.9999999999999999E+112</v>
       </c>
       <c r="D46" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2살</v>
       </c>
       <c r="E46" s="16">
@@ -15558,7 +16396,7 @@
         <v>331</v>
       </c>
       <c r="O46" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S46" s="8"/>
@@ -15578,11 +16416,11 @@
         <v>293</v>
       </c>
       <c r="C47" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="D47" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5살</v>
       </c>
       <c r="E47" s="16">
@@ -15619,7 +16457,7 @@
         <v>331</v>
       </c>
       <c r="O47" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S47" s="8"/>
@@ -15639,11 +16477,11 @@
         <v>294</v>
       </c>
       <c r="C48" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+113</v>
       </c>
       <c r="D48" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10살</v>
       </c>
       <c r="E48" s="16">
@@ -15680,7 +16518,7 @@
         <v>331</v>
       </c>
       <c r="O48" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S48" s="8"/>
@@ -15700,11 +16538,11 @@
         <v>295</v>
       </c>
       <c r="C49" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2E+113</v>
       </c>
       <c r="D49" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20살</v>
       </c>
       <c r="E49" s="16">
@@ -15741,7 +16579,7 @@
         <v>331</v>
       </c>
       <c r="O49" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S49" s="8"/>
@@ -15761,11 +16599,11 @@
         <v>296</v>
       </c>
       <c r="C50" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="D50" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50살</v>
       </c>
       <c r="E50" s="16">
@@ -15802,7 +16640,7 @@
         <v>331</v>
       </c>
       <c r="O50" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S50" s="8"/>
@@ -15822,11 +16660,11 @@
         <v>297</v>
       </c>
       <c r="C51" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D51" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>100살</v>
       </c>
       <c r="E51" s="16">
@@ -15863,7 +16701,7 @@
         <v>331</v>
       </c>
       <c r="O51" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S51" s="8"/>
@@ -15883,11 +16721,11 @@
         <v>298</v>
       </c>
       <c r="C52" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.5E+114</v>
       </c>
       <c r="D52" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>150살</v>
       </c>
       <c r="E52" s="16">
@@ -15924,7 +16762,7 @@
         <v>331</v>
       </c>
       <c r="O52" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S52" s="8"/>
@@ -15944,11 +16782,11 @@
         <v>299</v>
       </c>
       <c r="C53" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.9999999999999998E+114</v>
       </c>
       <c r="D53" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>200살</v>
       </c>
       <c r="E53" s="16">
@@ -15985,7 +16823,7 @@
         <v>331</v>
       </c>
       <c r="O53" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S53" s="8"/>
@@ -16005,11 +16843,11 @@
         <v>300</v>
       </c>
       <c r="C54" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3E+114</v>
       </c>
       <c r="D54" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>300살</v>
       </c>
       <c r="E54" s="16">
@@ -16046,7 +16884,7 @@
         <v>331</v>
       </c>
       <c r="O54" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S54" s="8"/>
@@ -16066,11 +16904,11 @@
         <v>301</v>
       </c>
       <c r="C55" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="D55" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>500살</v>
       </c>
       <c r="E55" s="16">
@@ -16107,7 +16945,7 @@
         <v>331</v>
       </c>
       <c r="O55" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S55" s="8"/>
@@ -16127,11 +16965,11 @@
         <v>302</v>
       </c>
       <c r="C56" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.999999999999999E+114</v>
       </c>
       <c r="D56" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>800살</v>
       </c>
       <c r="E56" s="16">
@@ -16168,7 +17006,7 @@
         <v>331</v>
       </c>
       <c r="O56" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S56" s="8"/>
@@ -16188,11 +17026,11 @@
         <v>303</v>
       </c>
       <c r="C57" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+115</v>
       </c>
       <c r="D57" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000살</v>
       </c>
       <c r="E57" s="16">
@@ -16229,7 +17067,7 @@
         <v>331</v>
       </c>
       <c r="O57" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S57" s="8"/>
@@ -16249,11 +17087,11 @@
         <v>304</v>
       </c>
       <c r="C58" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2E+115</v>
       </c>
       <c r="D58" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2000살</v>
       </c>
       <c r="E58" s="16">
@@ -16290,7 +17128,7 @@
         <v>331</v>
       </c>
       <c r="O58" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S58" s="8"/>
@@ -16310,11 +17148,11 @@
         <v>305</v>
       </c>
       <c r="C59" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="D59" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000살</v>
       </c>
       <c r="E59" s="16">
@@ -16351,7 +17189,7 @@
         <v>331</v>
       </c>
       <c r="O59" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
       <c r="S59" s="8"/>
@@ -16371,18 +17209,18 @@
         <v>306</v>
       </c>
       <c r="C60" s="16">
-        <f t="shared" ref="C60:C74" si="21">M60*O60</f>
+        <f t="shared" ref="C60:C74" si="23">M60*O60</f>
         <v>1E+116</v>
       </c>
       <c r="D60" s="16" t="str">
-        <f t="shared" ref="D60:D74" si="22">M60&amp;N60</f>
+        <f t="shared" ref="D60:D74" si="24">M60&amp;N60</f>
         <v>1섬</v>
       </c>
       <c r="E60" s="16">
         <v>20</v>
       </c>
       <c r="F60" s="16">
-        <f t="shared" ref="F60:F74" si="23">F59+100000</f>
+        <f t="shared" ref="F60:F104" si="25">F59+100000</f>
         <v>29600000</v>
       </c>
       <c r="G60" s="16">
@@ -16402,7 +17240,7 @@
         <v>60</v>
       </c>
       <c r="L60" s="16">
-        <f t="shared" ref="L60:L74" si="24">L59+0.004</f>
+        <f t="shared" ref="L60:L104" si="26">L59+0.004</f>
         <v>0.82400000000000018</v>
       </c>
       <c r="M60" s="20">
@@ -16412,7 +17250,7 @@
         <v>332</v>
       </c>
       <c r="O60" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
       <c r="S60" s="8"/>
@@ -16432,18 +17270,18 @@
         <v>307</v>
       </c>
       <c r="C61" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2E+116</v>
       </c>
       <c r="D61" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2섬</v>
       </c>
       <c r="E61" s="16">
         <v>20</v>
       </c>
       <c r="F61" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29700000</v>
       </c>
       <c r="G61" s="16">
@@ -16463,7 +17301,7 @@
         <v>60</v>
       </c>
       <c r="L61" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.82800000000000018</v>
       </c>
       <c r="M61" s="20">
@@ -16473,7 +17311,7 @@
         <v>332</v>
       </c>
       <c r="O61" s="12" t="str">
-        <f t="shared" ref="O61:O75" si="25">VLOOKUP(N61,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O61:O75" si="27">VLOOKUP(N61,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="S61" s="8"/>
@@ -16493,18 +17331,18 @@
         <v>308</v>
       </c>
       <c r="C62" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="D62" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5섬</v>
       </c>
       <c r="E62" s="16">
         <v>20</v>
       </c>
       <c r="F62" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29800000</v>
       </c>
       <c r="G62" s="16">
@@ -16524,7 +17362,7 @@
         <v>60</v>
       </c>
       <c r="L62" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.83200000000000018</v>
       </c>
       <c r="M62" s="20">
@@ -16534,7 +17372,7 @@
         <v>332</v>
       </c>
       <c r="O62" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
       <c r="S62" s="8"/>
@@ -16554,18 +17392,18 @@
         <v>309</v>
       </c>
       <c r="C63" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D63" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10섬</v>
       </c>
       <c r="E63" s="16">
         <v>20</v>
       </c>
       <c r="F63" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29900000</v>
       </c>
       <c r="G63" s="16">
@@ -16585,7 +17423,7 @@
         <v>60</v>
       </c>
       <c r="L63" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.83600000000000019</v>
       </c>
       <c r="M63" s="20">
@@ -16595,7 +17433,7 @@
         <v>332</v>
       </c>
       <c r="O63" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -16604,18 +17442,18 @@
         <v>310</v>
       </c>
       <c r="C64" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000001E+117</v>
       </c>
       <c r="D64" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>20섬</v>
       </c>
       <c r="E64" s="16">
         <v>20</v>
       </c>
       <c r="F64" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30000000</v>
       </c>
       <c r="G64" s="16">
@@ -16635,7 +17473,7 @@
         <v>60</v>
       </c>
       <c r="L64" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.84000000000000019</v>
       </c>
       <c r="M64" s="20">
@@ -16645,7 +17483,7 @@
         <v>332</v>
       </c>
       <c r="O64" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -16654,18 +17492,18 @@
         <v>311</v>
       </c>
       <c r="C65" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="D65" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50섬</v>
       </c>
       <c r="E65" s="16">
         <v>20</v>
       </c>
       <c r="F65" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30100000</v>
       </c>
       <c r="G65" s="16">
@@ -16685,7 +17523,7 @@
         <v>60</v>
       </c>
       <c r="L65" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.84400000000000019</v>
       </c>
       <c r="M65" s="20">
@@ -16695,7 +17533,7 @@
         <v>332</v>
       </c>
       <c r="O65" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -16704,18 +17542,18 @@
         <v>312</v>
       </c>
       <c r="C66" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D66" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100섬</v>
       </c>
       <c r="E66" s="16">
         <v>20</v>
       </c>
       <c r="F66" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30200000</v>
       </c>
       <c r="G66" s="16">
@@ -16735,7 +17573,7 @@
         <v>60</v>
       </c>
       <c r="L66" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.8480000000000002</v>
       </c>
       <c r="M66" s="20">
@@ -16745,7 +17583,7 @@
         <v>332</v>
       </c>
       <c r="O66" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -16754,18 +17592,18 @@
         <v>313</v>
       </c>
       <c r="C67" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.5E+118</v>
       </c>
       <c r="D67" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>150섬</v>
       </c>
       <c r="E67" s="16">
         <v>20</v>
       </c>
       <c r="F67" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30300000</v>
       </c>
       <c r="G67" s="16">
@@ -16785,7 +17623,7 @@
         <v>60</v>
       </c>
       <c r="L67" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.8520000000000002</v>
       </c>
       <c r="M67" s="20">
@@ -16795,7 +17633,7 @@
         <v>332</v>
       </c>
       <c r="O67" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -16804,18 +17642,18 @@
         <v>314</v>
       </c>
       <c r="C68" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.9999999999999999E+118</v>
       </c>
       <c r="D68" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>200섬</v>
       </c>
       <c r="E68" s="16">
         <v>20</v>
       </c>
       <c r="F68" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30400000</v>
       </c>
       <c r="G68" s="16">
@@ -16835,7 +17673,7 @@
         <v>60</v>
       </c>
       <c r="L68" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.85600000000000021</v>
       </c>
       <c r="M68" s="20">
@@ -16845,7 +17683,7 @@
         <v>332</v>
       </c>
       <c r="O68" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -16854,18 +17692,18 @@
         <v>315</v>
       </c>
       <c r="C69" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3E+118</v>
       </c>
       <c r="D69" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300섬</v>
       </c>
       <c r="E69" s="16">
         <v>20</v>
       </c>
       <c r="F69" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30500000</v>
       </c>
       <c r="G69" s="16">
@@ -16885,7 +17723,7 @@
         <v>60</v>
       </c>
       <c r="L69" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.86000000000000021</v>
       </c>
       <c r="M69" s="20">
@@ -16895,7 +17733,7 @@
         <v>332</v>
       </c>
       <c r="O69" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -16904,18 +17742,18 @@
         <v>316</v>
       </c>
       <c r="C70" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="D70" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500섬</v>
       </c>
       <c r="E70" s="16">
         <v>20</v>
       </c>
       <c r="F70" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30600000</v>
       </c>
       <c r="G70" s="16">
@@ -16935,7 +17773,7 @@
         <v>60</v>
       </c>
       <c r="L70" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.86400000000000021</v>
       </c>
       <c r="M70" s="20">
@@ -16945,7 +17783,7 @@
         <v>332</v>
       </c>
       <c r="O70" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -16954,18 +17792,18 @@
         <v>317</v>
       </c>
       <c r="C71" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.9999999999999997E+118</v>
       </c>
       <c r="D71" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>800섬</v>
       </c>
       <c r="E71" s="16">
         <v>20</v>
       </c>
       <c r="F71" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30700000</v>
       </c>
       <c r="G71" s="16">
@@ -16985,7 +17823,7 @@
         <v>60</v>
       </c>
       <c r="L71" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.86800000000000022</v>
       </c>
       <c r="M71" s="20">
@@ -16995,7 +17833,7 @@
         <v>332</v>
       </c>
       <c r="O71" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -17004,18 +17842,18 @@
         <v>318</v>
       </c>
       <c r="C72" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D72" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000섬</v>
       </c>
       <c r="E72" s="16">
         <v>20</v>
       </c>
       <c r="F72" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30800000</v>
       </c>
       <c r="G72" s="16">
@@ -17035,7 +17873,7 @@
         <v>60</v>
       </c>
       <c r="L72" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.87200000000000022</v>
       </c>
       <c r="M72" s="20">
@@ -17045,7 +17883,7 @@
         <v>332</v>
       </c>
       <c r="O72" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -17054,18 +17892,18 @@
         <v>319</v>
       </c>
       <c r="C73" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.9999999999999999E+119</v>
       </c>
       <c r="D73" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2000섬</v>
       </c>
       <c r="E73" s="16">
         <v>20</v>
       </c>
       <c r="F73" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30900000</v>
       </c>
       <c r="G73" s="16">
@@ -17085,7 +17923,7 @@
         <v>60</v>
       </c>
       <c r="L73" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.87600000000000022</v>
       </c>
       <c r="M73" s="20">
@@ -17095,7 +17933,7 @@
         <v>332</v>
       </c>
       <c r="O73" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -17104,25 +17942,25 @@
         <v>320</v>
       </c>
       <c r="C74" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="D74" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000섬</v>
       </c>
       <c r="E74" s="16">
         <v>20</v>
       </c>
       <c r="F74" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>31000000</v>
       </c>
       <c r="G74" s="16">
         <v>2</v>
       </c>
       <c r="H74" s="16">
-        <f t="shared" ref="H74" si="26">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
+        <f t="shared" ref="H74:H104" si="28">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
         <v>0.27680000000000066</v>
       </c>
       <c r="I74" s="16">
@@ -17135,7 +17973,7 @@
         <v>60</v>
       </c>
       <c r="L74" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.88000000000000023</v>
       </c>
       <c r="M74" s="20">
@@ -17145,18 +17983,1508 @@
         <v>332</v>
       </c>
       <c r="O74" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+116</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B75" s="21">
+        <v>321</v>
+      </c>
+      <c r="C75" s="16">
+        <f t="shared" ref="C75:C79" si="29">M75*O75</f>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="D75" s="16" t="str">
+        <f t="shared" ref="D75:D79" si="30">M75&amp;N75</f>
+        <v>1찰</v>
+      </c>
+      <c r="E75" s="16">
+        <v>20</v>
+      </c>
+      <c r="F75" s="16">
         <f t="shared" si="25"/>
-        <v>1E+116</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B75" s="21"/>
+        <v>31100000</v>
+      </c>
+      <c r="G75" s="16">
+        <v>2</v>
+      </c>
+      <c r="H75" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27720000000000067</v>
+      </c>
+      <c r="I75" s="16">
+        <v>23</v>
+      </c>
+      <c r="J75" s="16">
+        <v>0</v>
+      </c>
+      <c r="K75" s="16">
+        <v>60</v>
+      </c>
+      <c r="L75" s="16">
+        <f t="shared" si="26"/>
+        <v>0.88400000000000023</v>
+      </c>
+      <c r="M75" s="20">
+        <v>1</v>
+      </c>
       <c r="N75" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O75" s="12" t="str">
+        <f t="shared" ref="O75:O104" si="31">VLOOKUP(N75,Q:T,4,FALSE)</f>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B76" s="21">
+        <v>322</v>
+      </c>
+      <c r="C76" s="16">
+        <f t="shared" si="29"/>
+        <v>2E+120</v>
+      </c>
+      <c r="D76" s="16" t="str">
+        <f t="shared" si="30"/>
+        <v>2찰</v>
+      </c>
+      <c r="E76" s="16">
+        <v>20</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" si="25"/>
+        <v>31200000</v>
+      </c>
+      <c r="G76" s="16">
+        <v>2</v>
+      </c>
+      <c r="H76" s="16">
+        <f t="shared" si="28"/>
+        <v>0.27760000000000068</v>
+      </c>
+      <c r="I76" s="16">
+        <v>23</v>
+      </c>
+      <c r="J76" s="16">
+        <v>0</v>
+      </c>
+      <c r="K76" s="16">
+        <v>60</v>
+      </c>
+      <c r="L76" s="16">
+        <f t="shared" si="26"/>
+        <v>0.88800000000000023</v>
+      </c>
+      <c r="M76" s="20">
+        <v>2</v>
+      </c>
+      <c r="N76" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O76" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B77" s="21">
+        <v>323</v>
+      </c>
+      <c r="C77" s="16">
+        <f t="shared" si="29"/>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="D77" s="16" t="str">
+        <f t="shared" si="30"/>
+        <v>5찰</v>
+      </c>
+      <c r="E77" s="16">
+        <v>20</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" si="25"/>
+        <v>31300000</v>
+      </c>
+      <c r="G77" s="16">
+        <v>2</v>
+      </c>
+      <c r="H77" s="16">
+        <f t="shared" si="28"/>
+        <v>0.27800000000000069</v>
+      </c>
+      <c r="I77" s="16">
+        <v>23</v>
+      </c>
+      <c r="J77" s="16">
+        <v>0</v>
+      </c>
+      <c r="K77" s="16">
+        <v>60</v>
+      </c>
+      <c r="L77" s="16">
+        <f t="shared" si="26"/>
+        <v>0.89200000000000024</v>
+      </c>
+      <c r="M77" s="20">
+        <v>5</v>
+      </c>
+      <c r="N77" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O77" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B78" s="21">
+        <v>324</v>
+      </c>
+      <c r="C78" s="16">
+        <f t="shared" si="29"/>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="D78" s="16" t="str">
+        <f t="shared" si="30"/>
+        <v>10찰</v>
+      </c>
+      <c r="E78" s="16">
+        <v>20</v>
+      </c>
+      <c r="F78" s="16">
+        <f t="shared" si="25"/>
+        <v>31400000</v>
+      </c>
+      <c r="G78" s="16">
+        <v>2</v>
+      </c>
+      <c r="H78" s="16">
+        <f t="shared" si="28"/>
+        <v>0.2784000000000007</v>
+      </c>
+      <c r="I78" s="16">
+        <v>23</v>
+      </c>
+      <c r="J78" s="16">
+        <v>0</v>
+      </c>
+      <c r="K78" s="16">
+        <v>60</v>
+      </c>
+      <c r="L78" s="16">
+        <f t="shared" si="26"/>
+        <v>0.89600000000000024</v>
+      </c>
+      <c r="M78" s="20">
+        <v>10</v>
+      </c>
+      <c r="N78" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O78" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B79" s="21">
+        <v>325</v>
+      </c>
+      <c r="C79" s="16">
+        <f t="shared" si="29"/>
+        <v>1.9999999999999998E+121</v>
+      </c>
+      <c r="D79" s="16" t="str">
+        <f t="shared" si="30"/>
+        <v>20찰</v>
+      </c>
+      <c r="E79" s="16">
+        <v>20</v>
+      </c>
+      <c r="F79" s="16">
+        <f t="shared" si="25"/>
+        <v>31500000</v>
+      </c>
+      <c r="G79" s="16">
+        <v>2</v>
+      </c>
+      <c r="H79" s="16">
+        <f t="shared" si="28"/>
+        <v>0.27880000000000071</v>
+      </c>
+      <c r="I79" s="16">
+        <v>23</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="16">
+        <v>60</v>
+      </c>
+      <c r="L79" s="16">
+        <f t="shared" si="26"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="M79" s="20">
+        <v>20</v>
+      </c>
+      <c r="N79" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O79" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B80" s="21">
+        <v>326</v>
+      </c>
+      <c r="C80" s="16">
+        <f t="shared" ref="C80:C104" si="32">M80*O80</f>
+        <v>5.0000000000000001E+121</v>
+      </c>
+      <c r="D80" s="16" t="str">
+        <f t="shared" ref="D80:D104" si="33">M80&amp;N80</f>
+        <v>50찰</v>
+      </c>
+      <c r="E80" s="16">
+        <v>20</v>
+      </c>
+      <c r="F80" s="16">
+        <f t="shared" si="25"/>
+        <v>31600000</v>
+      </c>
+      <c r="G80" s="16">
+        <v>2</v>
+      </c>
+      <c r="H80" s="16">
+        <f t="shared" si="28"/>
+        <v>0.27920000000000073</v>
+      </c>
+      <c r="I80" s="16">
+        <v>23</v>
+      </c>
+      <c r="J80" s="16">
+        <v>0</v>
+      </c>
+      <c r="K80" s="16">
+        <v>60</v>
+      </c>
+      <c r="L80" s="16">
+        <f t="shared" si="26"/>
+        <v>0.90400000000000025</v>
+      </c>
+      <c r="M80" s="20">
+        <v>50</v>
+      </c>
+      <c r="N80" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O80" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B81" s="21">
+        <v>327</v>
+      </c>
+      <c r="C81" s="16">
+        <f t="shared" si="32"/>
+        <v>1E+122</v>
+      </c>
+      <c r="D81" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>100찰</v>
+      </c>
+      <c r="E81" s="16">
+        <v>20</v>
+      </c>
+      <c r="F81" s="16">
+        <f t="shared" si="25"/>
+        <v>31700000</v>
+      </c>
+      <c r="G81" s="16">
+        <v>2</v>
+      </c>
+      <c r="H81" s="16">
+        <f t="shared" si="28"/>
+        <v>0.27960000000000074</v>
+      </c>
+      <c r="I81" s="16">
+        <v>23</v>
+      </c>
+      <c r="J81" s="16">
+        <v>0</v>
+      </c>
+      <c r="K81" s="16">
+        <v>60</v>
+      </c>
+      <c r="L81" s="16">
+        <f t="shared" si="26"/>
+        <v>0.90800000000000025</v>
+      </c>
+      <c r="M81" s="20">
+        <v>100</v>
+      </c>
+      <c r="N81" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O81" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B82" s="21">
+        <v>328</v>
+      </c>
+      <c r="C82" s="16">
+        <f t="shared" si="32"/>
+        <v>1.4999999999999999E+122</v>
+      </c>
+      <c r="D82" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>150찰</v>
+      </c>
+      <c r="E82" s="16">
+        <v>20</v>
+      </c>
+      <c r="F82" s="16">
+        <f t="shared" si="25"/>
+        <v>31800000</v>
+      </c>
+      <c r="G82" s="16">
+        <v>2</v>
+      </c>
+      <c r="H82" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28000000000000075</v>
+      </c>
+      <c r="I82" s="16">
+        <v>23</v>
+      </c>
+      <c r="J82" s="16">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16">
+        <v>60</v>
+      </c>
+      <c r="L82" s="16">
+        <f t="shared" si="26"/>
+        <v>0.91200000000000025</v>
+      </c>
+      <c r="M82" s="20">
+        <v>150</v>
+      </c>
+      <c r="N82" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O82" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B83" s="21">
+        <v>329</v>
+      </c>
+      <c r="C83" s="16">
+        <f t="shared" si="32"/>
+        <v>2E+122</v>
+      </c>
+      <c r="D83" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>200찰</v>
+      </c>
+      <c r="E83" s="16">
+        <v>20</v>
+      </c>
+      <c r="F83" s="16">
+        <f t="shared" si="25"/>
+        <v>31900000</v>
+      </c>
+      <c r="G83" s="16">
+        <v>2</v>
+      </c>
+      <c r="H83" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28040000000000076</v>
+      </c>
+      <c r="I83" s="16">
+        <v>23</v>
+      </c>
+      <c r="J83" s="16">
+        <v>0</v>
+      </c>
+      <c r="K83" s="16">
+        <v>60</v>
+      </c>
+      <c r="L83" s="16">
+        <f t="shared" si="26"/>
+        <v>0.91600000000000026</v>
+      </c>
+      <c r="M83" s="20">
+        <v>200</v>
+      </c>
+      <c r="N83" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O83" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B84" s="21">
+        <v>330</v>
+      </c>
+      <c r="C84" s="16">
+        <f t="shared" si="32"/>
+        <v>2.9999999999999999E+122</v>
+      </c>
+      <c r="D84" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>300찰</v>
+      </c>
+      <c r="E84" s="16">
+        <v>20</v>
+      </c>
+      <c r="F84" s="16">
+        <f t="shared" si="25"/>
+        <v>32000000</v>
+      </c>
+      <c r="G84" s="16">
+        <v>2</v>
+      </c>
+      <c r="H84" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28080000000000077</v>
+      </c>
+      <c r="I84" s="16">
+        <v>23</v>
+      </c>
+      <c r="J84" s="16">
+        <v>0</v>
+      </c>
+      <c r="K84" s="16">
+        <v>60</v>
+      </c>
+      <c r="L84" s="16">
+        <f t="shared" si="26"/>
+        <v>0.92000000000000026</v>
+      </c>
+      <c r="M84" s="20">
+        <v>300</v>
+      </c>
+      <c r="N84" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O84" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B85" s="21">
+        <v>331</v>
+      </c>
+      <c r="C85" s="16">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999999E+122</v>
+      </c>
+      <c r="D85" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>500찰</v>
+      </c>
+      <c r="E85" s="16">
+        <v>20</v>
+      </c>
+      <c r="F85" s="16">
+        <f t="shared" si="25"/>
+        <v>32100000</v>
+      </c>
+      <c r="G85" s="16">
+        <v>2</v>
+      </c>
+      <c r="H85" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28120000000000078</v>
+      </c>
+      <c r="I85" s="16">
+        <v>23</v>
+      </c>
+      <c r="J85" s="16">
+        <v>0</v>
+      </c>
+      <c r="K85" s="16">
+        <v>60</v>
+      </c>
+      <c r="L85" s="16">
+        <f t="shared" si="26"/>
+        <v>0.92400000000000027</v>
+      </c>
+      <c r="M85" s="20">
+        <v>500</v>
+      </c>
+      <c r="N85" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O85" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B86" s="21">
         <v>332</v>
       </c>
-      <c r="O75" s="12" t="str">
+      <c r="C86" s="16">
+        <f t="shared" si="32"/>
+        <v>8.0000000000000001E+122</v>
+      </c>
+      <c r="D86" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>800찰</v>
+      </c>
+      <c r="E86" s="16">
+        <v>20</v>
+      </c>
+      <c r="F86" s="16">
         <f t="shared" si="25"/>
-        <v>1E+116</v>
+        <v>32200000</v>
+      </c>
+      <c r="G86" s="16">
+        <v>2</v>
+      </c>
+      <c r="H86" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28160000000000079</v>
+      </c>
+      <c r="I86" s="16">
+        <v>23</v>
+      </c>
+      <c r="J86" s="16">
+        <v>0</v>
+      </c>
+      <c r="K86" s="16">
+        <v>60</v>
+      </c>
+      <c r="L86" s="16">
+        <f t="shared" si="26"/>
+        <v>0.92800000000000027</v>
+      </c>
+      <c r="M86" s="20">
+        <v>800</v>
+      </c>
+      <c r="N86" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O86" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B87" s="21">
+        <v>333</v>
+      </c>
+      <c r="C87" s="16">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999998E+122</v>
+      </c>
+      <c r="D87" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1000찰</v>
+      </c>
+      <c r="E87" s="16">
+        <v>20</v>
+      </c>
+      <c r="F87" s="16">
+        <f t="shared" si="25"/>
+        <v>32300000</v>
+      </c>
+      <c r="G87" s="16">
+        <v>2</v>
+      </c>
+      <c r="H87" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28200000000000081</v>
+      </c>
+      <c r="I87" s="16">
+        <v>23</v>
+      </c>
+      <c r="J87" s="16">
+        <v>0</v>
+      </c>
+      <c r="K87" s="16">
+        <v>60</v>
+      </c>
+      <c r="L87" s="16">
+        <f t="shared" si="26"/>
+        <v>0.93200000000000027</v>
+      </c>
+      <c r="M87" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N87" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O87" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B88" s="21">
+        <v>334</v>
+      </c>
+      <c r="C88" s="16">
+        <f t="shared" si="32"/>
+        <v>2E+123</v>
+      </c>
+      <c r="D88" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>2000찰</v>
+      </c>
+      <c r="E88" s="16">
+        <v>20</v>
+      </c>
+      <c r="F88" s="16">
+        <f t="shared" si="25"/>
+        <v>32400000</v>
+      </c>
+      <c r="G88" s="16">
+        <v>2</v>
+      </c>
+      <c r="H88" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28240000000000082</v>
+      </c>
+      <c r="I88" s="16">
+        <v>23</v>
+      </c>
+      <c r="J88" s="16">
+        <v>0</v>
+      </c>
+      <c r="K88" s="16">
+        <v>60</v>
+      </c>
+      <c r="L88" s="16">
+        <f t="shared" si="26"/>
+        <v>0.93600000000000028</v>
+      </c>
+      <c r="M88" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N88" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O88" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B89" s="21">
+        <v>335</v>
+      </c>
+      <c r="C89" s="16">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999997E+123</v>
+      </c>
+      <c r="D89" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>5000찰</v>
+      </c>
+      <c r="E89" s="16">
+        <v>20</v>
+      </c>
+      <c r="F89" s="16">
+        <f t="shared" si="25"/>
+        <v>32500000</v>
+      </c>
+      <c r="G89" s="16">
+        <v>2</v>
+      </c>
+      <c r="H89" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28280000000000083</v>
+      </c>
+      <c r="I89" s="16">
+        <v>23</v>
+      </c>
+      <c r="J89" s="16">
+        <v>0</v>
+      </c>
+      <c r="K89" s="16">
+        <v>60</v>
+      </c>
+      <c r="L89" s="16">
+        <f t="shared" si="26"/>
+        <v>0.94000000000000028</v>
+      </c>
+      <c r="M89" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N89" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O89" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+120</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B90" s="21">
+        <v>336</v>
+      </c>
+      <c r="C90" s="16">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="D90" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1교</v>
+      </c>
+      <c r="E90" s="16">
+        <v>20</v>
+      </c>
+      <c r="F90" s="16">
+        <f t="shared" si="25"/>
+        <v>32600000</v>
+      </c>
+      <c r="G90" s="16">
+        <v>2</v>
+      </c>
+      <c r="H90" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28320000000000084</v>
+      </c>
+      <c r="I90" s="16">
+        <v>23</v>
+      </c>
+      <c r="J90" s="16">
+        <v>0</v>
+      </c>
+      <c r="K90" s="16">
+        <v>60</v>
+      </c>
+      <c r="L90" s="16">
+        <f t="shared" si="26"/>
+        <v>0.94400000000000028</v>
+      </c>
+      <c r="M90" s="20">
+        <v>1</v>
+      </c>
+      <c r="N90" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O90" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B91" s="21">
+        <v>337</v>
+      </c>
+      <c r="C91" s="16">
+        <f t="shared" si="32"/>
+        <v>1.9999999999999999E+124</v>
+      </c>
+      <c r="D91" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>2교</v>
+      </c>
+      <c r="E91" s="16">
+        <v>20</v>
+      </c>
+      <c r="F91" s="16">
+        <f t="shared" si="25"/>
+        <v>32700000</v>
+      </c>
+      <c r="G91" s="16">
+        <v>2</v>
+      </c>
+      <c r="H91" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28360000000000085</v>
+      </c>
+      <c r="I91" s="16">
+        <v>23</v>
+      </c>
+      <c r="J91" s="16">
+        <v>0</v>
+      </c>
+      <c r="K91" s="16">
+        <v>60</v>
+      </c>
+      <c r="L91" s="16">
+        <f t="shared" si="26"/>
+        <v>0.94800000000000029</v>
+      </c>
+      <c r="M91" s="20">
+        <v>2</v>
+      </c>
+      <c r="N91" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O91" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B92" s="21">
+        <v>338</v>
+      </c>
+      <c r="C92" s="16">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999996E+124</v>
+      </c>
+      <c r="D92" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>5교</v>
+      </c>
+      <c r="E92" s="16">
+        <v>20</v>
+      </c>
+      <c r="F92" s="16">
+        <f t="shared" si="25"/>
+        <v>32800000</v>
+      </c>
+      <c r="G92" s="16">
+        <v>2</v>
+      </c>
+      <c r="H92" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28400000000000086</v>
+      </c>
+      <c r="I92" s="16">
+        <v>23</v>
+      </c>
+      <c r="J92" s="16">
+        <v>0</v>
+      </c>
+      <c r="K92" s="16">
+        <v>60</v>
+      </c>
+      <c r="L92" s="16">
+        <f t="shared" si="26"/>
+        <v>0.95200000000000029</v>
+      </c>
+      <c r="M92" s="20">
+        <v>5</v>
+      </c>
+      <c r="N92" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O92" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B93" s="21">
+        <v>339</v>
+      </c>
+      <c r="C93" s="16">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="D93" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>10교</v>
+      </c>
+      <c r="E93" s="16">
+        <v>20</v>
+      </c>
+      <c r="F93" s="16">
+        <f t="shared" si="25"/>
+        <v>32900000</v>
+      </c>
+      <c r="G93" s="16">
+        <v>2</v>
+      </c>
+      <c r="H93" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28440000000000087</v>
+      </c>
+      <c r="I93" s="16">
+        <v>23</v>
+      </c>
+      <c r="J93" s="16">
+        <v>0</v>
+      </c>
+      <c r="K93" s="16">
+        <v>60</v>
+      </c>
+      <c r="L93" s="16">
+        <f t="shared" si="26"/>
+        <v>0.95600000000000029</v>
+      </c>
+      <c r="M93" s="20">
+        <v>10</v>
+      </c>
+      <c r="N93" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O93" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B94" s="21">
+        <v>340</v>
+      </c>
+      <c r="C94" s="16">
+        <f t="shared" si="32"/>
+        <v>1.9999999999999998E+125</v>
+      </c>
+      <c r="D94" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>20교</v>
+      </c>
+      <c r="E94" s="16">
+        <v>20</v>
+      </c>
+      <c r="F94" s="16">
+        <f t="shared" si="25"/>
+        <v>33000000</v>
+      </c>
+      <c r="G94" s="16">
+        <v>2</v>
+      </c>
+      <c r="H94" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28480000000000089</v>
+      </c>
+      <c r="I94" s="16">
+        <v>23</v>
+      </c>
+      <c r="J94" s="16">
+        <v>0</v>
+      </c>
+      <c r="K94" s="16">
+        <v>60</v>
+      </c>
+      <c r="L94" s="16">
+        <f t="shared" si="26"/>
+        <v>0.9600000000000003</v>
+      </c>
+      <c r="M94" s="20">
+        <v>20</v>
+      </c>
+      <c r="N94" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O94" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B95" s="21">
+        <v>341</v>
+      </c>
+      <c r="C95" s="16">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="D95" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>50교</v>
+      </c>
+      <c r="E95" s="16">
+        <v>20</v>
+      </c>
+      <c r="F95" s="16">
+        <f t="shared" si="25"/>
+        <v>33100000</v>
+      </c>
+      <c r="G95" s="16">
+        <v>2</v>
+      </c>
+      <c r="H95" s="16">
+        <f t="shared" si="28"/>
+        <v>0.2852000000000009</v>
+      </c>
+      <c r="I95" s="16">
+        <v>23</v>
+      </c>
+      <c r="J95" s="16">
+        <v>0</v>
+      </c>
+      <c r="K95" s="16">
+        <v>60</v>
+      </c>
+      <c r="L95" s="16">
+        <f t="shared" si="26"/>
+        <v>0.9640000000000003</v>
+      </c>
+      <c r="M95" s="20">
+        <v>50</v>
+      </c>
+      <c r="N95" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O95" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B96" s="21">
+        <v>342</v>
+      </c>
+      <c r="C96" s="16">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="D96" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>100교</v>
+      </c>
+      <c r="E96" s="16">
+        <v>20</v>
+      </c>
+      <c r="F96" s="16">
+        <f t="shared" si="25"/>
+        <v>33200000</v>
+      </c>
+      <c r="G96" s="16">
+        <v>2</v>
+      </c>
+      <c r="H96" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28560000000000091</v>
+      </c>
+      <c r="I96" s="16">
+        <v>23</v>
+      </c>
+      <c r="J96" s="16">
+        <v>0</v>
+      </c>
+      <c r="K96" s="16">
+        <v>60</v>
+      </c>
+      <c r="L96" s="16">
+        <f t="shared" si="26"/>
+        <v>0.9680000000000003</v>
+      </c>
+      <c r="M96" s="20">
+        <v>100</v>
+      </c>
+      <c r="N96" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O96" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B97" s="21">
+        <v>343</v>
+      </c>
+      <c r="C97" s="16">
+        <f t="shared" si="32"/>
+        <v>1.4999999999999998E+126</v>
+      </c>
+      <c r="D97" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>150교</v>
+      </c>
+      <c r="E97" s="16">
+        <v>20</v>
+      </c>
+      <c r="F97" s="16">
+        <f t="shared" si="25"/>
+        <v>33300000</v>
+      </c>
+      <c r="G97" s="16">
+        <v>2</v>
+      </c>
+      <c r="H97" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28600000000000092</v>
+      </c>
+      <c r="I97" s="16">
+        <v>23</v>
+      </c>
+      <c r="J97" s="16">
+        <v>0</v>
+      </c>
+      <c r="K97" s="16">
+        <v>60</v>
+      </c>
+      <c r="L97" s="16">
+        <f t="shared" si="26"/>
+        <v>0.97200000000000031</v>
+      </c>
+      <c r="M97" s="20">
+        <v>150</v>
+      </c>
+      <c r="N97" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O97" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B98" s="21">
+        <v>344</v>
+      </c>
+      <c r="C98" s="16">
+        <f t="shared" si="32"/>
+        <v>1.9999999999999998E+126</v>
+      </c>
+      <c r="D98" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>200교</v>
+      </c>
+      <c r="E98" s="16">
+        <v>20</v>
+      </c>
+      <c r="F98" s="16">
+        <f t="shared" si="25"/>
+        <v>33400000</v>
+      </c>
+      <c r="G98" s="16">
+        <v>2</v>
+      </c>
+      <c r="H98" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28640000000000093</v>
+      </c>
+      <c r="I98" s="16">
+        <v>23</v>
+      </c>
+      <c r="J98" s="16">
+        <v>0</v>
+      </c>
+      <c r="K98" s="16">
+        <v>60</v>
+      </c>
+      <c r="L98" s="16">
+        <f t="shared" si="26"/>
+        <v>0.97600000000000031</v>
+      </c>
+      <c r="M98" s="20">
+        <v>200</v>
+      </c>
+      <c r="N98" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O98" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B99" s="21">
+        <v>345</v>
+      </c>
+      <c r="C99" s="16">
+        <f t="shared" si="32"/>
+        <v>2.9999999999999996E+126</v>
+      </c>
+      <c r="D99" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>300교</v>
+      </c>
+      <c r="E99" s="16">
+        <v>20</v>
+      </c>
+      <c r="F99" s="16">
+        <f t="shared" si="25"/>
+        <v>33500000</v>
+      </c>
+      <c r="G99" s="16">
+        <v>2</v>
+      </c>
+      <c r="H99" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28680000000000094</v>
+      </c>
+      <c r="I99" s="16">
+        <v>23</v>
+      </c>
+      <c r="J99" s="16">
+        <v>0</v>
+      </c>
+      <c r="K99" s="16">
+        <v>60</v>
+      </c>
+      <c r="L99" s="16">
+        <f t="shared" si="26"/>
+        <v>0.98000000000000032</v>
+      </c>
+      <c r="M99" s="20">
+        <v>300</v>
+      </c>
+      <c r="N99" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O99" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B100" s="21">
+        <v>346</v>
+      </c>
+      <c r="C100" s="16">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="D100" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>500교</v>
+      </c>
+      <c r="E100" s="16">
+        <v>20</v>
+      </c>
+      <c r="F100" s="16">
+        <f t="shared" si="25"/>
+        <v>33600000</v>
+      </c>
+      <c r="G100" s="16">
+        <v>2</v>
+      </c>
+      <c r="H100" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28720000000000095</v>
+      </c>
+      <c r="I100" s="16">
+        <v>23</v>
+      </c>
+      <c r="J100" s="16">
+        <v>0</v>
+      </c>
+      <c r="K100" s="16">
+        <v>60</v>
+      </c>
+      <c r="L100" s="16">
+        <f t="shared" si="26"/>
+        <v>0.98400000000000032</v>
+      </c>
+      <c r="M100" s="20">
+        <v>500</v>
+      </c>
+      <c r="N100" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O100" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B101" s="21">
+        <v>347</v>
+      </c>
+      <c r="C101" s="16">
+        <f t="shared" si="32"/>
+        <v>7.9999999999999994E+126</v>
+      </c>
+      <c r="D101" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>800교</v>
+      </c>
+      <c r="E101" s="16">
+        <v>20</v>
+      </c>
+      <c r="F101" s="16">
+        <f t="shared" si="25"/>
+        <v>33700000</v>
+      </c>
+      <c r="G101" s="16">
+        <v>2</v>
+      </c>
+      <c r="H101" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28760000000000097</v>
+      </c>
+      <c r="I101" s="16">
+        <v>23</v>
+      </c>
+      <c r="J101" s="16">
+        <v>0</v>
+      </c>
+      <c r="K101" s="16">
+        <v>60</v>
+      </c>
+      <c r="L101" s="16">
+        <f t="shared" si="26"/>
+        <v>0.98800000000000032</v>
+      </c>
+      <c r="M101" s="20">
+        <v>800</v>
+      </c>
+      <c r="N101" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O101" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B102" s="21">
+        <v>348</v>
+      </c>
+      <c r="C102" s="16">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="D102" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>1000교</v>
+      </c>
+      <c r="E102" s="16">
+        <v>20</v>
+      </c>
+      <c r="F102" s="16">
+        <f t="shared" si="25"/>
+        <v>33800000</v>
+      </c>
+      <c r="G102" s="16">
+        <v>2</v>
+      </c>
+      <c r="H102" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28800000000000098</v>
+      </c>
+      <c r="I102" s="16">
+        <v>23</v>
+      </c>
+      <c r="J102" s="16">
+        <v>0</v>
+      </c>
+      <c r="K102" s="16">
+        <v>60</v>
+      </c>
+      <c r="L102" s="16">
+        <f t="shared" si="26"/>
+        <v>0.99200000000000033</v>
+      </c>
+      <c r="M102" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N102" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O102" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B103" s="21">
+        <v>349</v>
+      </c>
+      <c r="C103" s="16">
+        <f t="shared" si="32"/>
+        <v>1.9999999999999999E+127</v>
+      </c>
+      <c r="D103" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>2000교</v>
+      </c>
+      <c r="E103" s="16">
+        <v>20</v>
+      </c>
+      <c r="F103" s="16">
+        <f t="shared" si="25"/>
+        <v>33900000</v>
+      </c>
+      <c r="G103" s="16">
+        <v>2</v>
+      </c>
+      <c r="H103" s="16">
+        <f t="shared" si="28"/>
+        <v>0.28840000000000099</v>
+      </c>
+      <c r="I103" s="16">
+        <v>23</v>
+      </c>
+      <c r="J103" s="16">
+        <v>0</v>
+      </c>
+      <c r="K103" s="16">
+        <v>60</v>
+      </c>
+      <c r="L103" s="16">
+        <f t="shared" si="26"/>
+        <v>0.99600000000000033</v>
+      </c>
+      <c r="M103" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N103" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O103" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B104" s="21">
+        <v>350</v>
+      </c>
+      <c r="C104" s="16">
+        <f t="shared" si="32"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="D104" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>5000교</v>
+      </c>
+      <c r="E104" s="16">
+        <v>20</v>
+      </c>
+      <c r="F104" s="16">
+        <f t="shared" si="25"/>
+        <v>34000000</v>
+      </c>
+      <c r="G104" s="16">
+        <v>2</v>
+      </c>
+      <c r="H104" s="16">
+        <f t="shared" si="28"/>
+        <v>0.288800000000001</v>
+      </c>
+      <c r="I104" s="16">
+        <v>23</v>
+      </c>
+      <c r="J104" s="16">
+        <v>0</v>
+      </c>
+      <c r="K104" s="16">
+        <v>60</v>
+      </c>
+      <c r="L104" s="16">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M104" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N104" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="O104" s="12" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+124</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11E9DB-CD8D-4BEC-8639-39A01C3A422F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5186753E-6661-40D0-A778-60B28A0D79F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="341">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1335,6 +1335,30 @@
   </si>
   <si>
     <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1860,11 +1884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K323"/>
+  <dimension ref="A1:K353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C326" sqref="C326"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M352" sqref="M352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13641,6 +13665,1356 @@
         <v>0.88400000000000023</v>
       </c>
     </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <f>VLOOKUP(A324,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+120</v>
+      </c>
+      <c r="C324" t="str">
+        <f>VLOOKUP(A324,UnitChange!B:K,3,FALSE)</f>
+        <v>2찰</v>
+      </c>
+      <c r="D324">
+        <f>VLOOKUP(A324,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E324">
+        <f>VLOOKUP(A324,UnitChange!B:K,5,FALSE)</f>
+        <v>31200000</v>
+      </c>
+      <c r="F324">
+        <f>VLOOKUP(A324,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G324">
+        <f>VLOOKUP(A324,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27760000000000068</v>
+      </c>
+      <c r="H324">
+        <f>VLOOKUP(A324,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I324">
+        <f>VLOOKUP(A324,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <f>VLOOKUP(A324,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K324" s="1">
+        <f>VLOOKUP(A324,UnitChange!B:L,11,FALSE)</f>
+        <v>0.88800000000000023</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <f>VLOOKUP(A325,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="C325" t="str">
+        <f>VLOOKUP(A325,UnitChange!B:K,3,FALSE)</f>
+        <v>5찰</v>
+      </c>
+      <c r="D325">
+        <f>VLOOKUP(A325,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E325">
+        <f>VLOOKUP(A325,UnitChange!B:K,5,FALSE)</f>
+        <v>31300000</v>
+      </c>
+      <c r="F325">
+        <f>VLOOKUP(A325,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G325">
+        <f>VLOOKUP(A325,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27800000000000069</v>
+      </c>
+      <c r="H325">
+        <f>VLOOKUP(A325,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I325">
+        <f>VLOOKUP(A325,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <f>VLOOKUP(A325,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K325" s="1">
+        <f>VLOOKUP(A325,UnitChange!B:L,11,FALSE)</f>
+        <v>0.89200000000000024</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <f>VLOOKUP(A326,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="C326" t="str">
+        <f>VLOOKUP(A326,UnitChange!B:K,3,FALSE)</f>
+        <v>10찰</v>
+      </c>
+      <c r="D326">
+        <f>VLOOKUP(A326,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E326">
+        <f>VLOOKUP(A326,UnitChange!B:K,5,FALSE)</f>
+        <v>31400000</v>
+      </c>
+      <c r="F326">
+        <f>VLOOKUP(A326,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G326">
+        <f>VLOOKUP(A326,UnitChange!B:K,7,FALSE)</f>
+        <v>0.2784000000000007</v>
+      </c>
+      <c r="H326">
+        <f>VLOOKUP(A326,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I326">
+        <f>VLOOKUP(A326,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <f>VLOOKUP(A326,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K326" s="1">
+        <f>VLOOKUP(A326,UnitChange!B:L,11,FALSE)</f>
+        <v>0.89600000000000024</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <f>VLOOKUP(A327,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999998E+121</v>
+      </c>
+      <c r="C327" t="str">
+        <f>VLOOKUP(A327,UnitChange!B:K,3,FALSE)</f>
+        <v>20찰</v>
+      </c>
+      <c r="D327">
+        <f>VLOOKUP(A327,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E327">
+        <f>VLOOKUP(A327,UnitChange!B:K,5,FALSE)</f>
+        <v>31500000</v>
+      </c>
+      <c r="F327">
+        <f>VLOOKUP(A327,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G327">
+        <f>VLOOKUP(A327,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27880000000000071</v>
+      </c>
+      <c r="H327">
+        <f>VLOOKUP(A327,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I327">
+        <f>VLOOKUP(A327,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <f>VLOOKUP(A327,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K327" s="1">
+        <f>VLOOKUP(A327,UnitChange!B:L,11,FALSE)</f>
+        <v>0.90000000000000024</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <f>VLOOKUP(A328,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000001E+121</v>
+      </c>
+      <c r="C328" t="str">
+        <f>VLOOKUP(A328,UnitChange!B:K,3,FALSE)</f>
+        <v>50찰</v>
+      </c>
+      <c r="D328">
+        <f>VLOOKUP(A328,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E328">
+        <f>VLOOKUP(A328,UnitChange!B:K,5,FALSE)</f>
+        <v>31600000</v>
+      </c>
+      <c r="F328">
+        <f>VLOOKUP(A328,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G328">
+        <f>VLOOKUP(A328,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27920000000000073</v>
+      </c>
+      <c r="H328">
+        <f>VLOOKUP(A328,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I328">
+        <f>VLOOKUP(A328,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <f>VLOOKUP(A328,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K328" s="1">
+        <f>VLOOKUP(A328,UnitChange!B:L,11,FALSE)</f>
+        <v>0.90400000000000025</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <f>VLOOKUP(A329,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+122</v>
+      </c>
+      <c r="C329" t="str">
+        <f>VLOOKUP(A329,UnitChange!B:K,3,FALSE)</f>
+        <v>100찰</v>
+      </c>
+      <c r="D329">
+        <f>VLOOKUP(A329,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E329">
+        <f>VLOOKUP(A329,UnitChange!B:K,5,FALSE)</f>
+        <v>31700000</v>
+      </c>
+      <c r="F329">
+        <f>VLOOKUP(A329,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G329">
+        <f>VLOOKUP(A329,UnitChange!B:K,7,FALSE)</f>
+        <v>0.27960000000000074</v>
+      </c>
+      <c r="H329">
+        <f>VLOOKUP(A329,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I329">
+        <f>VLOOKUP(A329,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <f>VLOOKUP(A329,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K329" s="1">
+        <f>VLOOKUP(A329,UnitChange!B:L,11,FALSE)</f>
+        <v>0.90800000000000025</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <f>VLOOKUP(A330,UnitChange!B:K,2,FALSE)</f>
+        <v>1.4999999999999999E+122</v>
+      </c>
+      <c r="C330" t="str">
+        <f>VLOOKUP(A330,UnitChange!B:K,3,FALSE)</f>
+        <v>150찰</v>
+      </c>
+      <c r="D330">
+        <f>VLOOKUP(A330,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E330">
+        <f>VLOOKUP(A330,UnitChange!B:K,5,FALSE)</f>
+        <v>31800000</v>
+      </c>
+      <c r="F330">
+        <f>VLOOKUP(A330,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G330">
+        <f>VLOOKUP(A330,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28000000000000075</v>
+      </c>
+      <c r="H330">
+        <f>VLOOKUP(A330,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I330">
+        <f>VLOOKUP(A330,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <f>VLOOKUP(A330,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K330" s="1">
+        <f>VLOOKUP(A330,UnitChange!B:L,11,FALSE)</f>
+        <v>0.91200000000000025</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <f>VLOOKUP(A331,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+122</v>
+      </c>
+      <c r="C331" t="str">
+        <f>VLOOKUP(A331,UnitChange!B:K,3,FALSE)</f>
+        <v>200찰</v>
+      </c>
+      <c r="D331">
+        <f>VLOOKUP(A331,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E331">
+        <f>VLOOKUP(A331,UnitChange!B:K,5,FALSE)</f>
+        <v>31900000</v>
+      </c>
+      <c r="F331">
+        <f>VLOOKUP(A331,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G331">
+        <f>VLOOKUP(A331,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28040000000000076</v>
+      </c>
+      <c r="H331">
+        <f>VLOOKUP(A331,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I331">
+        <f>VLOOKUP(A331,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <f>VLOOKUP(A331,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K331" s="1">
+        <f>VLOOKUP(A331,UnitChange!B:L,11,FALSE)</f>
+        <v>0.91600000000000026</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <f>VLOOKUP(A332,UnitChange!B:K,2,FALSE)</f>
+        <v>2.9999999999999999E+122</v>
+      </c>
+      <c r="C332" t="str">
+        <f>VLOOKUP(A332,UnitChange!B:K,3,FALSE)</f>
+        <v>300찰</v>
+      </c>
+      <c r="D332">
+        <f>VLOOKUP(A332,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E332">
+        <f>VLOOKUP(A332,UnitChange!B:K,5,FALSE)</f>
+        <v>32000000</v>
+      </c>
+      <c r="F332">
+        <f>VLOOKUP(A332,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G332">
+        <f>VLOOKUP(A332,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28080000000000077</v>
+      </c>
+      <c r="H332">
+        <f>VLOOKUP(A332,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I332">
+        <f>VLOOKUP(A332,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <f>VLOOKUP(A332,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K332" s="1">
+        <f>VLOOKUP(A332,UnitChange!B:L,11,FALSE)</f>
+        <v>0.92000000000000026</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <f>VLOOKUP(A333,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999999E+122</v>
+      </c>
+      <c r="C333" t="str">
+        <f>VLOOKUP(A333,UnitChange!B:K,3,FALSE)</f>
+        <v>500찰</v>
+      </c>
+      <c r="D333">
+        <f>VLOOKUP(A333,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E333">
+        <f>VLOOKUP(A333,UnitChange!B:K,5,FALSE)</f>
+        <v>32100000</v>
+      </c>
+      <c r="F333">
+        <f>VLOOKUP(A333,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G333">
+        <f>VLOOKUP(A333,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28120000000000078</v>
+      </c>
+      <c r="H333">
+        <f>VLOOKUP(A333,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I333">
+        <f>VLOOKUP(A333,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <f>VLOOKUP(A333,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K333" s="1">
+        <f>VLOOKUP(A333,UnitChange!B:L,11,FALSE)</f>
+        <v>0.92400000000000027</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <f>VLOOKUP(A334,UnitChange!B:K,2,FALSE)</f>
+        <v>8.0000000000000001E+122</v>
+      </c>
+      <c r="C334" t="str">
+        <f>VLOOKUP(A334,UnitChange!B:K,3,FALSE)</f>
+        <v>800찰</v>
+      </c>
+      <c r="D334">
+        <f>VLOOKUP(A334,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E334">
+        <f>VLOOKUP(A334,UnitChange!B:K,5,FALSE)</f>
+        <v>32200000</v>
+      </c>
+      <c r="F334">
+        <f>VLOOKUP(A334,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G334">
+        <f>VLOOKUP(A334,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28160000000000079</v>
+      </c>
+      <c r="H334">
+        <f>VLOOKUP(A334,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I334">
+        <f>VLOOKUP(A334,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <f>VLOOKUP(A334,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K334" s="1">
+        <f>VLOOKUP(A334,UnitChange!B:L,11,FALSE)</f>
+        <v>0.92800000000000027</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <f>VLOOKUP(A335,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999998E+122</v>
+      </c>
+      <c r="C335" t="str">
+        <f>VLOOKUP(A335,UnitChange!B:K,3,FALSE)</f>
+        <v>1000찰</v>
+      </c>
+      <c r="D335">
+        <f>VLOOKUP(A335,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E335">
+        <f>VLOOKUP(A335,UnitChange!B:K,5,FALSE)</f>
+        <v>32300000</v>
+      </c>
+      <c r="F335">
+        <f>VLOOKUP(A335,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G335">
+        <f>VLOOKUP(A335,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28200000000000081</v>
+      </c>
+      <c r="H335">
+        <f>VLOOKUP(A335,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I335">
+        <f>VLOOKUP(A335,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <f>VLOOKUP(A335,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K335" s="1">
+        <f>VLOOKUP(A335,UnitChange!B:L,11,FALSE)</f>
+        <v>0.93200000000000027</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <f>VLOOKUP(A336,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+123</v>
+      </c>
+      <c r="C336" t="str">
+        <f>VLOOKUP(A336,UnitChange!B:K,3,FALSE)</f>
+        <v>2000찰</v>
+      </c>
+      <c r="D336">
+        <f>VLOOKUP(A336,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E336">
+        <f>VLOOKUP(A336,UnitChange!B:K,5,FALSE)</f>
+        <v>32400000</v>
+      </c>
+      <c r="F336">
+        <f>VLOOKUP(A336,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G336">
+        <f>VLOOKUP(A336,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28240000000000082</v>
+      </c>
+      <c r="H336">
+        <f>VLOOKUP(A336,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I336">
+        <f>VLOOKUP(A336,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <f>VLOOKUP(A336,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K336" s="1">
+        <f>VLOOKUP(A336,UnitChange!B:L,11,FALSE)</f>
+        <v>0.93600000000000028</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <f>VLOOKUP(A337,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999997E+123</v>
+      </c>
+      <c r="C337" t="str">
+        <f>VLOOKUP(A337,UnitChange!B:K,3,FALSE)</f>
+        <v>5000찰</v>
+      </c>
+      <c r="D337">
+        <f>VLOOKUP(A337,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E337">
+        <f>VLOOKUP(A337,UnitChange!B:K,5,FALSE)</f>
+        <v>32500000</v>
+      </c>
+      <c r="F337">
+        <f>VLOOKUP(A337,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G337">
+        <f>VLOOKUP(A337,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28280000000000083</v>
+      </c>
+      <c r="H337">
+        <f>VLOOKUP(A337,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I337">
+        <f>VLOOKUP(A337,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <f>VLOOKUP(A337,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K337" s="1">
+        <f>VLOOKUP(A337,UnitChange!B:L,11,FALSE)</f>
+        <v>0.94000000000000028</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <f>VLOOKUP(A338,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="C338" t="str">
+        <f>VLOOKUP(A338,UnitChange!B:K,3,FALSE)</f>
+        <v>1교</v>
+      </c>
+      <c r="D338">
+        <f>VLOOKUP(A338,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E338">
+        <f>VLOOKUP(A338,UnitChange!B:K,5,FALSE)</f>
+        <v>32600000</v>
+      </c>
+      <c r="F338">
+        <f>VLOOKUP(A338,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G338">
+        <f>VLOOKUP(A338,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28320000000000084</v>
+      </c>
+      <c r="H338">
+        <f>VLOOKUP(A338,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I338">
+        <f>VLOOKUP(A338,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <f>VLOOKUP(A338,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K338" s="1">
+        <f>VLOOKUP(A338,UnitChange!B:L,11,FALSE)</f>
+        <v>0.94400000000000028</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <f>VLOOKUP(A339,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999999E+124</v>
+      </c>
+      <c r="C339" t="str">
+        <f>VLOOKUP(A339,UnitChange!B:K,3,FALSE)</f>
+        <v>2교</v>
+      </c>
+      <c r="D339">
+        <f>VLOOKUP(A339,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E339">
+        <f>VLOOKUP(A339,UnitChange!B:K,5,FALSE)</f>
+        <v>32700000</v>
+      </c>
+      <c r="F339">
+        <f>VLOOKUP(A339,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G339">
+        <f>VLOOKUP(A339,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28360000000000085</v>
+      </c>
+      <c r="H339">
+        <f>VLOOKUP(A339,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I339">
+        <f>VLOOKUP(A339,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <f>VLOOKUP(A339,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K339" s="1">
+        <f>VLOOKUP(A339,UnitChange!B:L,11,FALSE)</f>
+        <v>0.94800000000000029</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <f>VLOOKUP(A340,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999996E+124</v>
+      </c>
+      <c r="C340" t="str">
+        <f>VLOOKUP(A340,UnitChange!B:K,3,FALSE)</f>
+        <v>5교</v>
+      </c>
+      <c r="D340">
+        <f>VLOOKUP(A340,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E340">
+        <f>VLOOKUP(A340,UnitChange!B:K,5,FALSE)</f>
+        <v>32800000</v>
+      </c>
+      <c r="F340">
+        <f>VLOOKUP(A340,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G340">
+        <f>VLOOKUP(A340,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28400000000000086</v>
+      </c>
+      <c r="H340">
+        <f>VLOOKUP(A340,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I340">
+        <f>VLOOKUP(A340,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <f>VLOOKUP(A340,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K340" s="1">
+        <f>VLOOKUP(A340,UnitChange!B:L,11,FALSE)</f>
+        <v>0.95200000000000029</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <f>VLOOKUP(A341,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="C341" t="str">
+        <f>VLOOKUP(A341,UnitChange!B:K,3,FALSE)</f>
+        <v>10교</v>
+      </c>
+      <c r="D341">
+        <f>VLOOKUP(A341,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E341">
+        <f>VLOOKUP(A341,UnitChange!B:K,5,FALSE)</f>
+        <v>32900000</v>
+      </c>
+      <c r="F341">
+        <f>VLOOKUP(A341,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G341">
+        <f>VLOOKUP(A341,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28440000000000087</v>
+      </c>
+      <c r="H341">
+        <f>VLOOKUP(A341,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I341">
+        <f>VLOOKUP(A341,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <f>VLOOKUP(A341,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K341" s="1">
+        <f>VLOOKUP(A341,UnitChange!B:L,11,FALSE)</f>
+        <v>0.95600000000000029</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <f>VLOOKUP(A342,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999998E+125</v>
+      </c>
+      <c r="C342" t="str">
+        <f>VLOOKUP(A342,UnitChange!B:K,3,FALSE)</f>
+        <v>20교</v>
+      </c>
+      <c r="D342">
+        <f>VLOOKUP(A342,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E342">
+        <f>VLOOKUP(A342,UnitChange!B:K,5,FALSE)</f>
+        <v>33000000</v>
+      </c>
+      <c r="F342">
+        <f>VLOOKUP(A342,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G342">
+        <f>VLOOKUP(A342,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28480000000000089</v>
+      </c>
+      <c r="H342">
+        <f>VLOOKUP(A342,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I342">
+        <f>VLOOKUP(A342,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <f>VLOOKUP(A342,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K342" s="1">
+        <f>VLOOKUP(A342,UnitChange!B:L,11,FALSE)</f>
+        <v>0.9600000000000003</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <f>VLOOKUP(A343,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="C343" t="str">
+        <f>VLOOKUP(A343,UnitChange!B:K,3,FALSE)</f>
+        <v>50교</v>
+      </c>
+      <c r="D343">
+        <f>VLOOKUP(A343,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E343">
+        <f>VLOOKUP(A343,UnitChange!B:K,5,FALSE)</f>
+        <v>33100000</v>
+      </c>
+      <c r="F343">
+        <f>VLOOKUP(A343,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G343">
+        <f>VLOOKUP(A343,UnitChange!B:K,7,FALSE)</f>
+        <v>0.2852000000000009</v>
+      </c>
+      <c r="H343">
+        <f>VLOOKUP(A343,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I343">
+        <f>VLOOKUP(A343,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <f>VLOOKUP(A343,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K343" s="1">
+        <f>VLOOKUP(A343,UnitChange!B:L,11,FALSE)</f>
+        <v>0.9640000000000003</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <f>VLOOKUP(A344,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="C344" t="str">
+        <f>VLOOKUP(A344,UnitChange!B:K,3,FALSE)</f>
+        <v>100교</v>
+      </c>
+      <c r="D344">
+        <f>VLOOKUP(A344,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E344">
+        <f>VLOOKUP(A344,UnitChange!B:K,5,FALSE)</f>
+        <v>33200000</v>
+      </c>
+      <c r="F344">
+        <f>VLOOKUP(A344,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G344">
+        <f>VLOOKUP(A344,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28560000000000091</v>
+      </c>
+      <c r="H344">
+        <f>VLOOKUP(A344,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I344">
+        <f>VLOOKUP(A344,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <f>VLOOKUP(A344,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K344" s="1">
+        <f>VLOOKUP(A344,UnitChange!B:L,11,FALSE)</f>
+        <v>0.9680000000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <f>VLOOKUP(A345,UnitChange!B:K,2,FALSE)</f>
+        <v>1.4999999999999998E+126</v>
+      </c>
+      <c r="C345" t="str">
+        <f>VLOOKUP(A345,UnitChange!B:K,3,FALSE)</f>
+        <v>150교</v>
+      </c>
+      <c r="D345">
+        <f>VLOOKUP(A345,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E345">
+        <f>VLOOKUP(A345,UnitChange!B:K,5,FALSE)</f>
+        <v>33300000</v>
+      </c>
+      <c r="F345">
+        <f>VLOOKUP(A345,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G345">
+        <f>VLOOKUP(A345,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28600000000000092</v>
+      </c>
+      <c r="H345">
+        <f>VLOOKUP(A345,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I345">
+        <f>VLOOKUP(A345,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <f>VLOOKUP(A345,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K345" s="1">
+        <f>VLOOKUP(A345,UnitChange!B:L,11,FALSE)</f>
+        <v>0.97200000000000031</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <f>VLOOKUP(A346,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999998E+126</v>
+      </c>
+      <c r="C346" t="str">
+        <f>VLOOKUP(A346,UnitChange!B:K,3,FALSE)</f>
+        <v>200교</v>
+      </c>
+      <c r="D346">
+        <f>VLOOKUP(A346,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E346">
+        <f>VLOOKUP(A346,UnitChange!B:K,5,FALSE)</f>
+        <v>33400000</v>
+      </c>
+      <c r="F346">
+        <f>VLOOKUP(A346,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G346">
+        <f>VLOOKUP(A346,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28640000000000093</v>
+      </c>
+      <c r="H346">
+        <f>VLOOKUP(A346,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I346">
+        <f>VLOOKUP(A346,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <f>VLOOKUP(A346,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K346" s="1">
+        <f>VLOOKUP(A346,UnitChange!B:L,11,FALSE)</f>
+        <v>0.97600000000000031</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <f>VLOOKUP(A347,UnitChange!B:K,2,FALSE)</f>
+        <v>2.9999999999999996E+126</v>
+      </c>
+      <c r="C347" t="str">
+        <f>VLOOKUP(A347,UnitChange!B:K,3,FALSE)</f>
+        <v>300교</v>
+      </c>
+      <c r="D347">
+        <f>VLOOKUP(A347,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E347">
+        <f>VLOOKUP(A347,UnitChange!B:K,5,FALSE)</f>
+        <v>33500000</v>
+      </c>
+      <c r="F347">
+        <f>VLOOKUP(A347,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G347">
+        <f>VLOOKUP(A347,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28680000000000094</v>
+      </c>
+      <c r="H347">
+        <f>VLOOKUP(A347,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I347">
+        <f>VLOOKUP(A347,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <f>VLOOKUP(A347,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K347" s="1">
+        <f>VLOOKUP(A347,UnitChange!B:L,11,FALSE)</f>
+        <v>0.98000000000000032</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <f>VLOOKUP(A348,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="C348" t="str">
+        <f>VLOOKUP(A348,UnitChange!B:K,3,FALSE)</f>
+        <v>500교</v>
+      </c>
+      <c r="D348">
+        <f>VLOOKUP(A348,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E348">
+        <f>VLOOKUP(A348,UnitChange!B:K,5,FALSE)</f>
+        <v>33600000</v>
+      </c>
+      <c r="F348">
+        <f>VLOOKUP(A348,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G348">
+        <f>VLOOKUP(A348,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28720000000000095</v>
+      </c>
+      <c r="H348">
+        <f>VLOOKUP(A348,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I348">
+        <f>VLOOKUP(A348,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <f>VLOOKUP(A348,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K348" s="1">
+        <f>VLOOKUP(A348,UnitChange!B:L,11,FALSE)</f>
+        <v>0.98400000000000032</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <f>VLOOKUP(A349,UnitChange!B:K,2,FALSE)</f>
+        <v>7.9999999999999994E+126</v>
+      </c>
+      <c r="C349" t="str">
+        <f>VLOOKUP(A349,UnitChange!B:K,3,FALSE)</f>
+        <v>800교</v>
+      </c>
+      <c r="D349">
+        <f>VLOOKUP(A349,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E349">
+        <f>VLOOKUP(A349,UnitChange!B:K,5,FALSE)</f>
+        <v>33700000</v>
+      </c>
+      <c r="F349">
+        <f>VLOOKUP(A349,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G349">
+        <f>VLOOKUP(A349,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28760000000000097</v>
+      </c>
+      <c r="H349">
+        <f>VLOOKUP(A349,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I349">
+        <f>VLOOKUP(A349,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <f>VLOOKUP(A349,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K349" s="1">
+        <f>VLOOKUP(A349,UnitChange!B:L,11,FALSE)</f>
+        <v>0.98800000000000032</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <f>VLOOKUP(A350,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="C350" t="str">
+        <f>VLOOKUP(A350,UnitChange!B:K,3,FALSE)</f>
+        <v>1000교</v>
+      </c>
+      <c r="D350">
+        <f>VLOOKUP(A350,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E350">
+        <f>VLOOKUP(A350,UnitChange!B:K,5,FALSE)</f>
+        <v>33800000</v>
+      </c>
+      <c r="F350">
+        <f>VLOOKUP(A350,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G350">
+        <f>VLOOKUP(A350,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28800000000000098</v>
+      </c>
+      <c r="H350">
+        <f>VLOOKUP(A350,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I350">
+        <f>VLOOKUP(A350,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <f>VLOOKUP(A350,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K350" s="1">
+        <f>VLOOKUP(A350,UnitChange!B:L,11,FALSE)</f>
+        <v>0.99200000000000033</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <f>VLOOKUP(A351,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999999E+127</v>
+      </c>
+      <c r="C351" t="str">
+        <f>VLOOKUP(A351,UnitChange!B:K,3,FALSE)</f>
+        <v>2000교</v>
+      </c>
+      <c r="D351">
+        <f>VLOOKUP(A351,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E351">
+        <f>VLOOKUP(A351,UnitChange!B:K,5,FALSE)</f>
+        <v>33900000</v>
+      </c>
+      <c r="F351">
+        <f>VLOOKUP(A351,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G351">
+        <f>VLOOKUP(A351,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28840000000000099</v>
+      </c>
+      <c r="H351">
+        <f>VLOOKUP(A351,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I351">
+        <f>VLOOKUP(A351,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <f>VLOOKUP(A351,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K351" s="1">
+        <f>VLOOKUP(A351,UnitChange!B:L,11,FALSE)</f>
+        <v>0.99600000000000033</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <f>VLOOKUP(A352,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="C352" t="str">
+        <f>VLOOKUP(A352,UnitChange!B:K,3,FALSE)</f>
+        <v>5000교</v>
+      </c>
+      <c r="D352">
+        <f>VLOOKUP(A352,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E352">
+        <f>VLOOKUP(A352,UnitChange!B:K,5,FALSE)</f>
+        <v>34000000</v>
+      </c>
+      <c r="F352">
+        <f>VLOOKUP(A352,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G352">
+        <f>VLOOKUP(A352,UnitChange!B:K,7,FALSE)</f>
+        <v>0.288800000000001</v>
+      </c>
+      <c r="H352">
+        <f>VLOOKUP(A352,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I352">
+        <f>VLOOKUP(A352,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <f>VLOOKUP(A352,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K352" s="1">
+        <f>VLOOKUP(A352,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <f>VLOOKUP(A353,UnitChange!B:K,2,FALSE)</f>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="C353" t="str">
+        <f>VLOOKUP(A353,UnitChange!B:K,3,FALSE)</f>
+        <v>1위</v>
+      </c>
+      <c r="D353">
+        <f>VLOOKUP(A353,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E353">
+        <f>VLOOKUP(A353,UnitChange!B:K,5,FALSE)</f>
+        <v>34100000</v>
+      </c>
+      <c r="F353">
+        <f>VLOOKUP(A353,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G353">
+        <f>VLOOKUP(A353,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28920000000000101</v>
+      </c>
+      <c r="H353">
+        <f>VLOOKUP(A353,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I353">
+        <f>VLOOKUP(A353,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <f>VLOOKUP(A353,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K353" s="1">
+        <f>VLOOKUP(A353,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0040000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13650,10 +15024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="B1:AC104"/>
+  <dimension ref="B1:AC119"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13863,7 +15237,7 @@
         <v>306</v>
       </c>
       <c r="O7" s="12" t="str">
-        <f t="shared" ref="O7:O38" si="2">VLOOKUP(N7,Q:T,4,FALSE)</f>
+        <f>VLOOKUP(N7,Q:T,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="Q7" s="12" t="s">
@@ -13873,11 +15247,11 @@
         <v>8</v>
       </c>
       <c r="S7" s="13">
-        <f t="shared" ref="S7:S29" si="3">POWER(10,R7)</f>
+        <f t="shared" ref="S7:S29" si="2">POWER(10,R7)</f>
         <v>100000000</v>
       </c>
       <c r="T7" s="13" t="str">
-        <f t="shared" ref="T7:T29" si="4">RIGHT(S7,R7)</f>
+        <f t="shared" ref="T7:T29" si="3">RIGHT(S7,R7)</f>
         <v>00000000</v>
       </c>
     </row>
@@ -13927,7 +15301,7 @@
         <v>306</v>
       </c>
       <c r="O8" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N8,Q:T,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="Q8" s="12" t="s">
@@ -13937,11 +15311,11 @@
         <v>12</v>
       </c>
       <c r="S8" s="13">
+        <f t="shared" si="2"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="T8" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="T8" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>000000000000</v>
       </c>
     </row>
@@ -13961,7 +15335,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="16">
-        <f t="shared" ref="F9:F59" si="5">F8+100000</f>
+        <f t="shared" ref="F9:F59" si="4">F8+100000</f>
         <v>24500000</v>
       </c>
       <c r="G9" s="16">
@@ -13981,7 +15355,7 @@
         <v>60</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" ref="L9:L59" si="6">L8+0.004</f>
+        <f t="shared" ref="L9:L59" si="5">L8+0.004</f>
         <v>0.62</v>
       </c>
       <c r="M9" s="20">
@@ -13991,7 +15365,7 @@
         <v>306</v>
       </c>
       <c r="O9" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N9,Q:T,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="Q9" s="12" t="s">
@@ -14001,11 +15375,11 @@
         <v>16</v>
       </c>
       <c r="S9" s="13">
+        <f t="shared" si="2"/>
+        <v>1E+16</v>
+      </c>
+      <c r="T9" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1E+16</v>
-      </c>
-      <c r="T9" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>0000000000000000</v>
       </c>
     </row>
@@ -14025,27 +15399,27 @@
         <v>20</v>
       </c>
       <c r="F10" s="16">
+        <f t="shared" si="4"/>
+        <v>24600000</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" ref="H10:H75" si="6">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
+        <v>0.20800000000000005</v>
+      </c>
+      <c r="I10" s="16">
+        <v>23</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>60</v>
+      </c>
+      <c r="L10" s="16">
         <f t="shared" si="5"/>
-        <v>24600000</v>
-      </c>
-      <c r="G10" s="16">
-        <v>2</v>
-      </c>
-      <c r="H10" s="16">
-        <f t="shared" ref="H10:H75" si="7">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
-        <v>0.20800000000000005</v>
-      </c>
-      <c r="I10" s="16">
-        <v>23</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>60</v>
-      </c>
-      <c r="L10" s="16">
-        <f t="shared" si="6"/>
         <v>0.624</v>
       </c>
       <c r="M10" s="20">
@@ -14055,7 +15429,7 @@
         <v>306</v>
       </c>
       <c r="O10" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N10,Q:T,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="Q10" s="12" t="s">
@@ -14065,11 +15439,11 @@
         <v>20</v>
       </c>
       <c r="S10" s="13">
+        <f t="shared" si="2"/>
+        <v>1E+20</v>
+      </c>
+      <c r="T10" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1E+20</v>
-      </c>
-      <c r="T10" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+20</v>
       </c>
     </row>
@@ -14089,27 +15463,27 @@
         <v>20</v>
       </c>
       <c r="F11" s="16">
+        <f t="shared" si="4"/>
+        <v>24700000</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="6"/>
+        <v>0.20840000000000006</v>
+      </c>
+      <c r="I11" s="16">
+        <v>23</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>60</v>
+      </c>
+      <c r="L11" s="16">
         <f t="shared" si="5"/>
-        <v>24700000</v>
-      </c>
-      <c r="G11" s="16">
-        <v>2</v>
-      </c>
-      <c r="H11" s="16">
-        <f t="shared" si="7"/>
-        <v>0.20840000000000006</v>
-      </c>
-      <c r="I11" s="16">
-        <v>23</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>60</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="6"/>
         <v>0.628</v>
       </c>
       <c r="M11" s="20">
@@ -14119,7 +15493,7 @@
         <v>306</v>
       </c>
       <c r="O11" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N11,Q:T,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="Q11" s="12" t="s">
@@ -14129,11 +15503,11 @@
         <v>24</v>
       </c>
       <c r="S11" s="13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999998E+23</v>
+      </c>
+      <c r="T11" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>9.9999999999999998E+23</v>
-      </c>
-      <c r="T11" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -14153,27 +15527,27 @@
         <v>20</v>
       </c>
       <c r="F12" s="16">
+        <f t="shared" si="4"/>
+        <v>24800000</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="6"/>
+        <v>0.20880000000000007</v>
+      </c>
+      <c r="I12" s="16">
+        <v>23</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>60</v>
+      </c>
+      <c r="L12" s="16">
         <f t="shared" si="5"/>
-        <v>24800000</v>
-      </c>
-      <c r="G12" s="16">
-        <v>2</v>
-      </c>
-      <c r="H12" s="16">
-        <f t="shared" si="7"/>
-        <v>0.20880000000000007</v>
-      </c>
-      <c r="I12" s="16">
-        <v>23</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <v>60</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" si="6"/>
         <v>0.63200000000000001</v>
       </c>
       <c r="M12" s="20">
@@ -14183,7 +15557,7 @@
         <v>306</v>
       </c>
       <c r="O12" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N12,Q:T,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="Q12" s="12" t="s">
@@ -14193,11 +15567,11 @@
         <v>28</v>
       </c>
       <c r="S12" s="13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999996E+27</v>
+      </c>
+      <c r="T12" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>9.9999999999999996E+27</v>
-      </c>
-      <c r="T12" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -14217,27 +15591,27 @@
         <v>20</v>
       </c>
       <c r="F13" s="16">
+        <f t="shared" si="4"/>
+        <v>24900000</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="6"/>
+        <v>0.20920000000000008</v>
+      </c>
+      <c r="I13" s="16">
+        <v>23</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>60</v>
+      </c>
+      <c r="L13" s="16">
         <f t="shared" si="5"/>
-        <v>24900000</v>
-      </c>
-      <c r="G13" s="16">
-        <v>2</v>
-      </c>
-      <c r="H13" s="16">
-        <f t="shared" si="7"/>
-        <v>0.20920000000000008</v>
-      </c>
-      <c r="I13" s="16">
-        <v>23</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>60</v>
-      </c>
-      <c r="L13" s="16">
-        <f t="shared" si="6"/>
         <v>0.63600000000000001</v>
       </c>
       <c r="M13" s="20">
@@ -14247,7 +15621,7 @@
         <v>306</v>
       </c>
       <c r="O13" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N13,Q:T,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="Q13" s="12" t="s">
@@ -14257,11 +15631,11 @@
         <v>32</v>
       </c>
       <c r="S13" s="13">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+32</v>
+      </c>
+      <c r="T13" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1.0000000000000001E+32</v>
-      </c>
-      <c r="T13" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -14281,27 +15655,27 @@
         <v>20</v>
       </c>
       <c r="F14" s="16">
+        <f t="shared" si="4"/>
+        <v>25000000</v>
+      </c>
+      <c r="G14" s="16">
+        <v>2</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="6"/>
+        <v>0.20960000000000009</v>
+      </c>
+      <c r="I14" s="16">
+        <v>23</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>60</v>
+      </c>
+      <c r="L14" s="16">
         <f t="shared" si="5"/>
-        <v>25000000</v>
-      </c>
-      <c r="G14" s="16">
-        <v>2</v>
-      </c>
-      <c r="H14" s="16">
-        <f t="shared" si="7"/>
-        <v>0.20960000000000009</v>
-      </c>
-      <c r="I14" s="16">
-        <v>23</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>60</v>
-      </c>
-      <c r="L14" s="16">
-        <f t="shared" si="6"/>
         <v>0.64</v>
       </c>
       <c r="M14" s="20">
@@ -14311,7 +15685,7 @@
         <v>306</v>
       </c>
       <c r="O14" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N14,Q:T,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="Q14" s="12" t="s">
@@ -14321,11 +15695,11 @@
         <v>36</v>
       </c>
       <c r="S14" s="13">
+        <f t="shared" si="2"/>
+        <v>1E+36</v>
+      </c>
+      <c r="T14" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1E+36</v>
-      </c>
-      <c r="T14" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -14345,27 +15719,27 @@
         <v>20</v>
       </c>
       <c r="F15" s="16">
+        <f t="shared" si="4"/>
+        <v>25100000</v>
+      </c>
+      <c r="G15" s="16">
+        <v>2</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="6"/>
+        <v>0.2100000000000001</v>
+      </c>
+      <c r="I15" s="16">
+        <v>23</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>60</v>
+      </c>
+      <c r="L15" s="16">
         <f t="shared" si="5"/>
-        <v>25100000</v>
-      </c>
-      <c r="G15" s="16">
-        <v>2</v>
-      </c>
-      <c r="H15" s="16">
-        <f t="shared" si="7"/>
-        <v>0.2100000000000001</v>
-      </c>
-      <c r="I15" s="16">
-        <v>23</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0</v>
-      </c>
-      <c r="K15" s="16">
-        <v>60</v>
-      </c>
-      <c r="L15" s="16">
-        <f t="shared" si="6"/>
         <v>0.64400000000000002</v>
       </c>
       <c r="M15" s="20">
@@ -14375,7 +15749,7 @@
         <v>305</v>
       </c>
       <c r="O15" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N15,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q15" s="12" t="s">
@@ -14385,11 +15759,11 @@
         <v>40</v>
       </c>
       <c r="S15" s="13">
+        <f t="shared" si="2"/>
+        <v>1E+40</v>
+      </c>
+      <c r="T15" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1E+40</v>
-      </c>
-      <c r="T15" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -14409,27 +15783,27 @@
         <v>20</v>
       </c>
       <c r="F16" s="16">
+        <f t="shared" si="4"/>
+        <v>25200000</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="6"/>
+        <v>0.21040000000000011</v>
+      </c>
+      <c r="I16" s="16">
+        <v>23</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>60</v>
+      </c>
+      <c r="L16" s="16">
         <f t="shared" si="5"/>
-        <v>25200000</v>
-      </c>
-      <c r="G16" s="16">
-        <v>2</v>
-      </c>
-      <c r="H16" s="16">
-        <f t="shared" si="7"/>
-        <v>0.21040000000000011</v>
-      </c>
-      <c r="I16" s="16">
-        <v>23</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="16">
-        <v>60</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="6"/>
         <v>0.64800000000000002</v>
       </c>
       <c r="M16" s="20">
@@ -14439,7 +15813,7 @@
         <v>305</v>
       </c>
       <c r="O16" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N16,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q16" s="12" t="s">
@@ -14449,11 +15823,11 @@
         <v>44</v>
       </c>
       <c r="S16" s="13">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+44</v>
+      </c>
+      <c r="T16" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1.0000000000000001E+44</v>
-      </c>
-      <c r="T16" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -14473,27 +15847,27 @@
         <v>20</v>
       </c>
       <c r="F17" s="16">
+        <f t="shared" si="4"/>
+        <v>25300000</v>
+      </c>
+      <c r="G17" s="16">
+        <v>2</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="6"/>
+        <v>0.21080000000000013</v>
+      </c>
+      <c r="I17" s="16">
+        <v>23</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>60</v>
+      </c>
+      <c r="L17" s="16">
         <f t="shared" si="5"/>
-        <v>25300000</v>
-      </c>
-      <c r="G17" s="16">
-        <v>2</v>
-      </c>
-      <c r="H17" s="16">
-        <f t="shared" si="7"/>
-        <v>0.21080000000000013</v>
-      </c>
-      <c r="I17" s="16">
-        <v>23</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16">
-        <v>60</v>
-      </c>
-      <c r="L17" s="16">
-        <f t="shared" si="6"/>
         <v>0.65200000000000002</v>
       </c>
       <c r="M17" s="20">
@@ -14503,7 +15877,7 @@
         <v>305</v>
       </c>
       <c r="O17" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N17,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q17" s="12" t="s">
@@ -14513,11 +15887,11 @@
         <v>48</v>
       </c>
       <c r="S17" s="13">
+        <f t="shared" si="2"/>
+        <v>1E+48</v>
+      </c>
+      <c r="T17" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1E+48</v>
-      </c>
-      <c r="T17" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -14537,27 +15911,27 @@
         <v>20</v>
       </c>
       <c r="F18" s="16">
+        <f t="shared" si="4"/>
+        <v>25400000</v>
+      </c>
+      <c r="G18" s="16">
+        <v>2</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="6"/>
+        <v>0.21120000000000014</v>
+      </c>
+      <c r="I18" s="16">
+        <v>23</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>60</v>
+      </c>
+      <c r="L18" s="16">
         <f t="shared" si="5"/>
-        <v>25400000</v>
-      </c>
-      <c r="G18" s="16">
-        <v>2</v>
-      </c>
-      <c r="H18" s="16">
-        <f t="shared" si="7"/>
-        <v>0.21120000000000014</v>
-      </c>
-      <c r="I18" s="16">
-        <v>23</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0</v>
-      </c>
-      <c r="K18" s="16">
-        <v>60</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="6"/>
         <v>0.65600000000000003</v>
       </c>
       <c r="M18" s="20">
@@ -14567,7 +15941,7 @@
         <v>305</v>
       </c>
       <c r="O18" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N18,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q18" s="12" t="s">
@@ -14577,11 +15951,11 @@
         <v>52</v>
       </c>
       <c r="S18" s="13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999999E+51</v>
+      </c>
+      <c r="T18" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>9.9999999999999999E+51</v>
-      </c>
-      <c r="T18" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -14601,27 +15975,27 @@
         <v>20</v>
       </c>
       <c r="F19" s="16">
+        <f t="shared" si="4"/>
+        <v>25500000</v>
+      </c>
+      <c r="G19" s="16">
+        <v>2</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="6"/>
+        <v>0.21160000000000015</v>
+      </c>
+      <c r="I19" s="16">
+        <v>23</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>60</v>
+      </c>
+      <c r="L19" s="16">
         <f t="shared" si="5"/>
-        <v>25500000</v>
-      </c>
-      <c r="G19" s="16">
-        <v>2</v>
-      </c>
-      <c r="H19" s="16">
-        <f t="shared" si="7"/>
-        <v>0.21160000000000015</v>
-      </c>
-      <c r="I19" s="16">
-        <v>23</v>
-      </c>
-      <c r="J19" s="16">
-        <v>0</v>
-      </c>
-      <c r="K19" s="16">
-        <v>60</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="6"/>
         <v>0.66</v>
       </c>
       <c r="M19" s="20">
@@ -14631,7 +16005,7 @@
         <v>305</v>
       </c>
       <c r="O19" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N19,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q19" s="12" t="s">
@@ -14641,11 +16015,11 @@
         <v>56</v>
       </c>
       <c r="S19" s="13">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+56</v>
+      </c>
+      <c r="T19" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1.0000000000000001E+56</v>
-      </c>
-      <c r="T19" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -14654,38 +16028,38 @@
         <v>266</v>
       </c>
       <c r="C20" s="16">
-        <f t="shared" ref="C20:C21" si="8">M20*O20</f>
+        <f t="shared" ref="C20:C21" si="7">M20*O20</f>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="D20" s="16" t="str">
-        <f t="shared" ref="D20:D21" si="9">M20&amp;N20</f>
+        <f t="shared" ref="D20:D21" si="8">M20&amp;N20</f>
         <v>50승</v>
       </c>
       <c r="E20" s="16">
         <v>20</v>
       </c>
       <c r="F20" s="16">
+        <f t="shared" si="4"/>
+        <v>25600000</v>
+      </c>
+      <c r="G20" s="16">
+        <v>2</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="6"/>
+        <v>0.21200000000000016</v>
+      </c>
+      <c r="I20" s="16">
+        <v>23</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>60</v>
+      </c>
+      <c r="L20" s="16">
         <f t="shared" si="5"/>
-        <v>25600000</v>
-      </c>
-      <c r="G20" s="16">
-        <v>2</v>
-      </c>
-      <c r="H20" s="16">
-        <f t="shared" si="7"/>
-        <v>0.21200000000000016</v>
-      </c>
-      <c r="I20" s="16">
-        <v>23</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0</v>
-      </c>
-      <c r="K20" s="16">
-        <v>60</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="6"/>
         <v>0.66400000000000003</v>
       </c>
       <c r="M20" s="20">
@@ -14695,7 +16069,7 @@
         <v>305</v>
       </c>
       <c r="O20" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N20,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q20" s="12" t="s">
@@ -14705,11 +16079,11 @@
         <v>60</v>
       </c>
       <c r="S20" s="13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E+59</v>
+      </c>
+      <c r="T20" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>9.9999999999999995E+59</v>
-      </c>
-      <c r="T20" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -14718,38 +16092,38 @@
         <v>267</v>
       </c>
       <c r="C21" s="16">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+106</v>
+      </c>
+      <c r="D21" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>1.0000000000000001E+106</v>
-      </c>
-      <c r="D21" s="16" t="str">
-        <f t="shared" si="9"/>
         <v>100승</v>
       </c>
       <c r="E21" s="16">
         <v>20</v>
       </c>
       <c r="F21" s="16">
+        <f t="shared" si="4"/>
+        <v>25700000</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="6"/>
+        <v>0.21240000000000017</v>
+      </c>
+      <c r="I21" s="16">
+        <v>23</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>60</v>
+      </c>
+      <c r="L21" s="16">
         <f t="shared" si="5"/>
-        <v>25700000</v>
-      </c>
-      <c r="G21" s="16">
-        <v>2</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="7"/>
-        <v>0.21240000000000017</v>
-      </c>
-      <c r="I21" s="16">
-        <v>23</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
-        <v>60</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" si="6"/>
         <v>0.66800000000000004</v>
       </c>
       <c r="M21" s="20">
@@ -14759,7 +16133,7 @@
         <v>305</v>
       </c>
       <c r="O21" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N21,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q21" s="12" t="s">
@@ -14769,11 +16143,11 @@
         <v>64</v>
       </c>
       <c r="S21" s="13">
+        <f t="shared" si="2"/>
+        <v>1E+64</v>
+      </c>
+      <c r="T21" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1E+64</v>
-      </c>
-      <c r="T21" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -14782,38 +16156,38 @@
         <v>268</v>
       </c>
       <c r="C22" s="16">
-        <f t="shared" ref="C22:C40" si="10">M22*O22</f>
+        <f t="shared" ref="C22:C40" si="9">M22*O22</f>
         <v>1.5E+106</v>
       </c>
       <c r="D22" s="16" t="str">
-        <f t="shared" ref="D22:D40" si="11">M22&amp;N22</f>
+        <f t="shared" ref="D22:D40" si="10">M22&amp;N22</f>
         <v>150승</v>
       </c>
       <c r="E22" s="16">
         <v>20</v>
       </c>
       <c r="F22" s="16">
+        <f t="shared" si="4"/>
+        <v>25800000</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="6"/>
+        <v>0.22000000000000017</v>
+      </c>
+      <c r="I22" s="16">
+        <v>23</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>60</v>
+      </c>
+      <c r="L22" s="16">
         <f t="shared" si="5"/>
-        <v>25800000</v>
-      </c>
-      <c r="G22" s="16">
-        <v>2</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" si="7"/>
-        <v>0.22000000000000017</v>
-      </c>
-      <c r="I22" s="16">
-        <v>23</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <v>60</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="6"/>
         <v>0.67200000000000004</v>
       </c>
       <c r="M22" s="20">
@@ -14823,7 +16197,7 @@
         <v>305</v>
       </c>
       <c r="O22" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N22,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q22" s="12" t="s">
@@ -14833,11 +16207,11 @@
         <v>68</v>
       </c>
       <c r="S22" s="13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="T22" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>9.9999999999999995E+67</v>
-      </c>
-      <c r="T22" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -14846,38 +16220,38 @@
         <v>269</v>
       </c>
       <c r="C23" s="16">
+        <f t="shared" si="9"/>
+        <v>2.0000000000000002E+106</v>
+      </c>
+      <c r="D23" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>2.0000000000000002E+106</v>
-      </c>
-      <c r="D23" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>200승</v>
       </c>
       <c r="E23" s="16">
         <v>20</v>
       </c>
       <c r="F23" s="16">
+        <f t="shared" si="4"/>
+        <v>25900000</v>
+      </c>
+      <c r="G23" s="16">
+        <v>2</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="6"/>
+        <v>0.22040000000000018</v>
+      </c>
+      <c r="I23" s="16">
+        <v>23</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>60</v>
+      </c>
+      <c r="L23" s="16">
         <f t="shared" si="5"/>
-        <v>25900000</v>
-      </c>
-      <c r="G23" s="16">
-        <v>2</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="7"/>
-        <v>0.22040000000000018</v>
-      </c>
-      <c r="I23" s="16">
-        <v>23</v>
-      </c>
-      <c r="J23" s="16">
-        <v>0</v>
-      </c>
-      <c r="K23" s="16">
-        <v>60</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="6"/>
         <v>0.67600000000000005</v>
       </c>
       <c r="M23" s="20">
@@ -14887,7 +16261,7 @@
         <v>305</v>
       </c>
       <c r="O23" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N23,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q23" s="12" t="s">
@@ -14897,11 +16271,11 @@
         <v>72</v>
       </c>
       <c r="S23" s="13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="T23" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>9.9999999999999994E+71</v>
-      </c>
-      <c r="T23" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -14910,38 +16284,38 @@
         <v>270</v>
       </c>
       <c r="C24" s="16">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000001E+106</v>
+      </c>
+      <c r="D24" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>3.0000000000000001E+106</v>
-      </c>
-      <c r="D24" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>300승</v>
       </c>
       <c r="E24" s="16">
         <v>20</v>
       </c>
       <c r="F24" s="16">
+        <f t="shared" si="4"/>
+        <v>26000000</v>
+      </c>
+      <c r="G24" s="16">
+        <v>2</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="6"/>
+        <v>0.22080000000000019</v>
+      </c>
+      <c r="I24" s="16">
+        <v>23</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>60</v>
+      </c>
+      <c r="L24" s="16">
         <f t="shared" si="5"/>
-        <v>26000000</v>
-      </c>
-      <c r="G24" s="16">
-        <v>2</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="7"/>
-        <v>0.22080000000000019</v>
-      </c>
-      <c r="I24" s="16">
-        <v>23</v>
-      </c>
-      <c r="J24" s="16">
-        <v>0</v>
-      </c>
-      <c r="K24" s="16">
-        <v>60</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="M24" s="20">
@@ -14951,7 +16325,7 @@
         <v>305</v>
       </c>
       <c r="O24" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N24,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q24" s="12" t="s">
@@ -14961,11 +16335,11 @@
         <v>76</v>
       </c>
       <c r="S24" s="13">
+        <f t="shared" si="2"/>
+        <v>1E+76</v>
+      </c>
+      <c r="T24" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1E+76</v>
-      </c>
-      <c r="T24" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -14974,38 +16348,38 @@
         <v>271</v>
       </c>
       <c r="C25" s="16">
+        <f t="shared" si="9"/>
+        <v>4.9999999999999998E+106</v>
+      </c>
+      <c r="D25" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>4.9999999999999998E+106</v>
-      </c>
-      <c r="D25" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>500승</v>
       </c>
       <c r="E25" s="16">
         <v>20</v>
       </c>
       <c r="F25" s="16">
+        <f t="shared" si="4"/>
+        <v>26100000</v>
+      </c>
+      <c r="G25" s="16">
+        <v>2</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="6"/>
+        <v>0.2212000000000002</v>
+      </c>
+      <c r="I25" s="16">
+        <v>23</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
+        <v>60</v>
+      </c>
+      <c r="L25" s="16">
         <f t="shared" si="5"/>
-        <v>26100000</v>
-      </c>
-      <c r="G25" s="16">
-        <v>2</v>
-      </c>
-      <c r="H25" s="16">
-        <f t="shared" si="7"/>
-        <v>0.2212000000000002</v>
-      </c>
-      <c r="I25" s="16">
-        <v>23</v>
-      </c>
-      <c r="J25" s="16">
-        <v>0</v>
-      </c>
-      <c r="K25" s="16">
-        <v>60</v>
-      </c>
-      <c r="L25" s="16">
-        <f t="shared" si="6"/>
         <v>0.68400000000000005</v>
       </c>
       <c r="M25" s="20">
@@ -15015,7 +16389,7 @@
         <v>305</v>
       </c>
       <c r="O25" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N25,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q25" s="12" t="s">
@@ -15025,11 +16399,11 @@
         <v>80</v>
       </c>
       <c r="S25" s="13">
+        <f t="shared" si="2"/>
+        <v>1E+80</v>
+      </c>
+      <c r="T25" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1E+80</v>
-      </c>
-      <c r="T25" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -15038,38 +16412,38 @@
         <v>272</v>
       </c>
       <c r="C26" s="16">
+        <f t="shared" si="9"/>
+        <v>8.0000000000000007E+106</v>
+      </c>
+      <c r="D26" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>8.0000000000000007E+106</v>
-      </c>
-      <c r="D26" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>800승</v>
       </c>
       <c r="E26" s="16">
         <v>20</v>
       </c>
       <c r="F26" s="16">
+        <f t="shared" si="4"/>
+        <v>26200000</v>
+      </c>
+      <c r="G26" s="16">
+        <v>2</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="6"/>
+        <v>0.22160000000000021</v>
+      </c>
+      <c r="I26" s="16">
+        <v>23</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>60</v>
+      </c>
+      <c r="L26" s="16">
         <f t="shared" si="5"/>
-        <v>26200000</v>
-      </c>
-      <c r="G26" s="16">
-        <v>2</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="7"/>
-        <v>0.22160000000000021</v>
-      </c>
-      <c r="I26" s="16">
-        <v>23</v>
-      </c>
-      <c r="J26" s="16">
-        <v>0</v>
-      </c>
-      <c r="K26" s="16">
-        <v>60</v>
-      </c>
-      <c r="L26" s="16">
-        <f t="shared" si="6"/>
         <v>0.68800000000000006</v>
       </c>
       <c r="M26" s="20">
@@ -15079,7 +16453,7 @@
         <v>305</v>
       </c>
       <c r="O26" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N26,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q26" s="12" t="s">
@@ -15089,11 +16463,11 @@
         <v>84</v>
       </c>
       <c r="S26" s="13">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="T26" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1.0000000000000001E+84</v>
-      </c>
-      <c r="T26" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -15102,38 +16476,38 @@
         <v>273</v>
       </c>
       <c r="C27" s="16">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999997E+106</v>
+      </c>
+      <c r="D27" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>9.9999999999999997E+106</v>
-      </c>
-      <c r="D27" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>1000승</v>
       </c>
       <c r="E27" s="16">
         <v>20</v>
       </c>
       <c r="F27" s="16">
+        <f t="shared" si="4"/>
+        <v>26300000</v>
+      </c>
+      <c r="G27" s="16">
+        <v>2</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="6"/>
+        <v>0.22200000000000022</v>
+      </c>
+      <c r="I27" s="16">
+        <v>23</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>60</v>
+      </c>
+      <c r="L27" s="16">
         <f t="shared" si="5"/>
-        <v>26300000</v>
-      </c>
-      <c r="G27" s="16">
-        <v>2</v>
-      </c>
-      <c r="H27" s="16">
-        <f t="shared" si="7"/>
-        <v>0.22200000000000022</v>
-      </c>
-      <c r="I27" s="16">
-        <v>23</v>
-      </c>
-      <c r="J27" s="16">
-        <v>0</v>
-      </c>
-      <c r="K27" s="16">
-        <v>60</v>
-      </c>
-      <c r="L27" s="16">
-        <f t="shared" si="6"/>
         <v>0.69200000000000006</v>
       </c>
       <c r="M27" s="20">
@@ -15143,7 +16517,7 @@
         <v>305</v>
       </c>
       <c r="O27" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N27,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q27" s="12" t="s">
@@ -15153,11 +16527,11 @@
         <v>88</v>
       </c>
       <c r="S27" s="13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="T27" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>9.9999999999999996E+87</v>
-      </c>
-      <c r="T27" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -15166,38 +16540,38 @@
         <v>274</v>
       </c>
       <c r="C28" s="16">
+        <f t="shared" si="9"/>
+        <v>1.9999999999999999E+107</v>
+      </c>
+      <c r="D28" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>1.9999999999999999E+107</v>
-      </c>
-      <c r="D28" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>2000승</v>
       </c>
       <c r="E28" s="16">
         <v>20</v>
       </c>
       <c r="F28" s="16">
+        <f t="shared" si="4"/>
+        <v>26400000</v>
+      </c>
+      <c r="G28" s="16">
+        <v>2</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="6"/>
+        <v>0.22240000000000024</v>
+      </c>
+      <c r="I28" s="16">
+        <v>23</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>60</v>
+      </c>
+      <c r="L28" s="16">
         <f t="shared" si="5"/>
-        <v>26400000</v>
-      </c>
-      <c r="G28" s="16">
-        <v>2</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="7"/>
-        <v>0.22240000000000024</v>
-      </c>
-      <c r="I28" s="16">
-        <v>23</v>
-      </c>
-      <c r="J28" s="16">
-        <v>0</v>
-      </c>
-      <c r="K28" s="16">
-        <v>60</v>
-      </c>
-      <c r="L28" s="16">
-        <f t="shared" si="6"/>
         <v>0.69600000000000006</v>
       </c>
       <c r="M28" s="20">
@@ -15207,7 +16581,7 @@
         <v>305</v>
       </c>
       <c r="O28" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N28,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q28" s="12" t="s">
@@ -15217,11 +16591,11 @@
         <v>92</v>
       </c>
       <c r="S28" s="13">
+        <f t="shared" si="2"/>
+        <v>1E+92</v>
+      </c>
+      <c r="T28" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1E+92</v>
-      </c>
-      <c r="T28" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -15230,38 +16604,38 @@
         <v>275</v>
       </c>
       <c r="C29" s="16">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000002E+107</v>
+      </c>
+      <c r="D29" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>5.0000000000000002E+107</v>
-      </c>
-      <c r="D29" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>5000승</v>
       </c>
       <c r="E29" s="16">
         <v>20</v>
       </c>
       <c r="F29" s="16">
+        <f t="shared" si="4"/>
+        <v>26500000</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="6"/>
+        <v>0.23000000000000023</v>
+      </c>
+      <c r="I29" s="16">
+        <v>23</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>60</v>
+      </c>
+      <c r="L29" s="16">
         <f t="shared" si="5"/>
-        <v>26500000</v>
-      </c>
-      <c r="G29" s="16">
-        <v>2</v>
-      </c>
-      <c r="H29" s="16">
-        <f t="shared" si="7"/>
-        <v>0.23000000000000023</v>
-      </c>
-      <c r="I29" s="16">
-        <v>23</v>
-      </c>
-      <c r="J29" s="16">
-        <v>0</v>
-      </c>
-      <c r="K29" s="16">
-        <v>60</v>
-      </c>
-      <c r="L29" s="16">
-        <f t="shared" si="6"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="M29" s="20">
@@ -15271,7 +16645,7 @@
         <v>305</v>
       </c>
       <c r="O29" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N29,Q:T,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="Q29" s="12" t="s">
@@ -15281,11 +16655,11 @@
         <v>96</v>
       </c>
       <c r="S29" s="13">
+        <f t="shared" si="2"/>
+        <v>1E+96</v>
+      </c>
+      <c r="T29" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1E+96</v>
-      </c>
-      <c r="T29" s="13" t="str">
-        <f t="shared" si="4"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -15294,38 +16668,38 @@
         <v>276</v>
       </c>
       <c r="C30" s="16">
+        <f t="shared" si="9"/>
+        <v>1E+108</v>
+      </c>
+      <c r="D30" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>1E+108</v>
-      </c>
-      <c r="D30" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>1마</v>
       </c>
       <c r="E30" s="16">
         <v>20</v>
       </c>
       <c r="F30" s="16">
+        <f t="shared" si="4"/>
+        <v>26600000</v>
+      </c>
+      <c r="G30" s="16">
+        <v>2</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="6"/>
+        <v>0.23040000000000024</v>
+      </c>
+      <c r="I30" s="16">
+        <v>23</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>60</v>
+      </c>
+      <c r="L30" s="16">
         <f t="shared" si="5"/>
-        <v>26600000</v>
-      </c>
-      <c r="G30" s="16">
-        <v>2</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" si="7"/>
-        <v>0.23040000000000024</v>
-      </c>
-      <c r="I30" s="16">
-        <v>23</v>
-      </c>
-      <c r="J30" s="16">
-        <v>0</v>
-      </c>
-      <c r="K30" s="16">
-        <v>60</v>
-      </c>
-      <c r="L30" s="16">
-        <f t="shared" si="6"/>
         <v>0.70400000000000007</v>
       </c>
       <c r="M30" s="20">
@@ -15335,7 +16709,7 @@
         <v>307</v>
       </c>
       <c r="O30" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N30,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="P30" s="12"/>
@@ -15346,11 +16720,11 @@
         <v>100</v>
       </c>
       <c r="S30" s="13">
-        <f t="shared" ref="S30:S32" si="12">POWER(10,R30)</f>
+        <f t="shared" ref="S30:S32" si="11">POWER(10,R30)</f>
         <v>1E+100</v>
       </c>
       <c r="T30" s="13" t="str">
-        <f t="shared" ref="T30:T32" si="13">RIGHT(S30,R30)</f>
+        <f t="shared" ref="T30:T32" si="12">RIGHT(S30,R30)</f>
         <v>1E+100</v>
       </c>
     </row>
@@ -15359,38 +16733,38 @@
         <v>277</v>
       </c>
       <c r="C31" s="16">
+        <f t="shared" si="9"/>
+        <v>2.0000000000000001E+108</v>
+      </c>
+      <c r="D31" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>2.0000000000000001E+108</v>
-      </c>
-      <c r="D31" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>2마</v>
       </c>
       <c r="E31" s="16">
         <v>20</v>
       </c>
       <c r="F31" s="16">
+        <f t="shared" si="4"/>
+        <v>26700000</v>
+      </c>
+      <c r="G31" s="16">
+        <v>2</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="6"/>
+        <v>0.23080000000000025</v>
+      </c>
+      <c r="I31" s="16">
+        <v>23</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>60</v>
+      </c>
+      <c r="L31" s="16">
         <f t="shared" si="5"/>
-        <v>26700000</v>
-      </c>
-      <c r="G31" s="16">
-        <v>2</v>
-      </c>
-      <c r="H31" s="16">
-        <f t="shared" si="7"/>
-        <v>0.23080000000000025</v>
-      </c>
-      <c r="I31" s="16">
-        <v>23</v>
-      </c>
-      <c r="J31" s="16">
-        <v>0</v>
-      </c>
-      <c r="K31" s="16">
-        <v>60</v>
-      </c>
-      <c r="L31" s="16">
-        <f t="shared" si="6"/>
         <v>0.70800000000000007</v>
       </c>
       <c r="M31" s="20">
@@ -15400,7 +16774,7 @@
         <v>307</v>
       </c>
       <c r="O31" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N31,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="P31" s="10"/>
@@ -15411,11 +16785,11 @@
         <v>104</v>
       </c>
       <c r="S31" s="13">
+        <f t="shared" si="11"/>
+        <v>1E+104</v>
+      </c>
+      <c r="T31" s="13" t="str">
         <f t="shared" si="12"/>
-        <v>1E+104</v>
-      </c>
-      <c r="T31" s="13" t="str">
-        <f t="shared" si="13"/>
         <v>1E+104</v>
       </c>
       <c r="U31" s="8"/>
@@ -15433,38 +16807,38 @@
         <v>278</v>
       </c>
       <c r="C32" s="16">
+        <f t="shared" si="9"/>
+        <v>4.9999999999999999E+108</v>
+      </c>
+      <c r="D32" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>4.9999999999999999E+108</v>
-      </c>
-      <c r="D32" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>5마</v>
       </c>
       <c r="E32" s="16">
         <v>20</v>
       </c>
       <c r="F32" s="16">
+        <f t="shared" si="4"/>
+        <v>26800000</v>
+      </c>
+      <c r="G32" s="16">
+        <v>2</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="6"/>
+        <v>0.23120000000000027</v>
+      </c>
+      <c r="I32" s="16">
+        <v>23</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>60</v>
+      </c>
+      <c r="L32" s="16">
         <f t="shared" si="5"/>
-        <v>26800000</v>
-      </c>
-      <c r="G32" s="16">
-        <v>2</v>
-      </c>
-      <c r="H32" s="16">
-        <f t="shared" si="7"/>
-        <v>0.23120000000000027</v>
-      </c>
-      <c r="I32" s="16">
-        <v>23</v>
-      </c>
-      <c r="J32" s="16">
-        <v>0</v>
-      </c>
-      <c r="K32" s="16">
-        <v>60</v>
-      </c>
-      <c r="L32" s="16">
-        <f t="shared" si="6"/>
         <v>0.71200000000000008</v>
       </c>
       <c r="M32" s="20">
@@ -15474,7 +16848,7 @@
         <v>307</v>
       </c>
       <c r="O32" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N32,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="P32" s="10"/>
@@ -15485,11 +16859,11 @@
         <v>108</v>
       </c>
       <c r="S32" s="13">
+        <f t="shared" si="11"/>
+        <v>1E+108</v>
+      </c>
+      <c r="T32" s="13" t="str">
         <f t="shared" si="12"/>
-        <v>1E+108</v>
-      </c>
-      <c r="T32" s="13" t="str">
-        <f t="shared" si="13"/>
         <v>1E+108</v>
       </c>
       <c r="U32" s="8"/>
@@ -15507,38 +16881,38 @@
         <v>279</v>
       </c>
       <c r="C33" s="16">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="D33" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>9.9999999999999998E+108</v>
-      </c>
-      <c r="D33" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>10마</v>
       </c>
       <c r="E33" s="16">
         <v>20</v>
       </c>
       <c r="F33" s="16">
+        <f t="shared" si="4"/>
+        <v>26900000</v>
+      </c>
+      <c r="G33" s="16">
+        <v>2</v>
+      </c>
+      <c r="H33" s="16">
+        <f t="shared" si="6"/>
+        <v>0.23160000000000028</v>
+      </c>
+      <c r="I33" s="16">
+        <v>23</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>60</v>
+      </c>
+      <c r="L33" s="16">
         <f t="shared" si="5"/>
-        <v>26900000</v>
-      </c>
-      <c r="G33" s="16">
-        <v>2</v>
-      </c>
-      <c r="H33" s="16">
-        <f t="shared" si="7"/>
-        <v>0.23160000000000028</v>
-      </c>
-      <c r="I33" s="16">
-        <v>23</v>
-      </c>
-      <c r="J33" s="16">
-        <v>0</v>
-      </c>
-      <c r="K33" s="16">
-        <v>60</v>
-      </c>
-      <c r="L33" s="16">
-        <f t="shared" si="6"/>
         <v>0.71600000000000008</v>
       </c>
       <c r="M33" s="20">
@@ -15548,7 +16922,7 @@
         <v>307</v>
       </c>
       <c r="O33" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N33,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="P33" s="10"/>
@@ -15559,11 +16933,11 @@
         <v>112</v>
       </c>
       <c r="S33" s="13">
-        <f t="shared" ref="S33:S34" si="14">POWER(10,R33)</f>
+        <f t="shared" ref="S33:S34" si="13">POWER(10,R33)</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="T33" s="13" t="str">
-        <f t="shared" ref="T33:T34" si="15">RIGHT(S33,R33)</f>
+        <f t="shared" ref="T33:T34" si="14">RIGHT(S33,R33)</f>
         <v>1E+112</v>
       </c>
       <c r="U33" s="8"/>
@@ -15581,38 +16955,38 @@
         <v>280</v>
       </c>
       <c r="C34" s="16">
+        <f t="shared" si="9"/>
+        <v>2E+109</v>
+      </c>
+      <c r="D34" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>2E+109</v>
-      </c>
-      <c r="D34" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>20마</v>
       </c>
       <c r="E34" s="16">
         <v>20</v>
       </c>
       <c r="F34" s="16">
+        <f t="shared" si="4"/>
+        <v>27000000</v>
+      </c>
+      <c r="G34" s="16">
+        <v>2</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="6"/>
+        <v>0.23200000000000029</v>
+      </c>
+      <c r="I34" s="16">
+        <v>23</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>60</v>
+      </c>
+      <c r="L34" s="16">
         <f t="shared" si="5"/>
-        <v>27000000</v>
-      </c>
-      <c r="G34" s="16">
-        <v>2</v>
-      </c>
-      <c r="H34" s="16">
-        <f t="shared" si="7"/>
-        <v>0.23200000000000029</v>
-      </c>
-      <c r="I34" s="16">
-        <v>23</v>
-      </c>
-      <c r="J34" s="16">
-        <v>0</v>
-      </c>
-      <c r="K34" s="16">
-        <v>60</v>
-      </c>
-      <c r="L34" s="16">
-        <f t="shared" si="6"/>
         <v>0.72000000000000008</v>
       </c>
       <c r="M34" s="20">
@@ -15622,7 +16996,7 @@
         <v>307</v>
       </c>
       <c r="O34" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N34,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="P34" s="10"/>
@@ -15633,11 +17007,11 @@
         <v>116</v>
       </c>
       <c r="S34" s="13">
+        <f t="shared" si="13"/>
+        <v>1E+116</v>
+      </c>
+      <c r="T34" s="13" t="str">
         <f t="shared" si="14"/>
-        <v>1E+116</v>
-      </c>
-      <c r="T34" s="13" t="str">
-        <f t="shared" si="15"/>
         <v>1E+116</v>
       </c>
       <c r="U34" s="8"/>
@@ -15655,38 +17029,38 @@
         <v>281</v>
       </c>
       <c r="C35" s="16">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E+109</v>
+      </c>
+      <c r="D35" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>5.0000000000000001E+109</v>
-      </c>
-      <c r="D35" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>50마</v>
       </c>
       <c r="E35" s="16">
         <v>20</v>
       </c>
       <c r="F35" s="16">
+        <f t="shared" si="4"/>
+        <v>27100000</v>
+      </c>
+      <c r="G35" s="16">
+        <v>2</v>
+      </c>
+      <c r="H35" s="16">
+        <f t="shared" si="6"/>
+        <v>0.2324000000000003</v>
+      </c>
+      <c r="I35" s="16">
+        <v>23</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>60</v>
+      </c>
+      <c r="L35" s="16">
         <f t="shared" si="5"/>
-        <v>27100000</v>
-      </c>
-      <c r="G35" s="16">
-        <v>2</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="7"/>
-        <v>0.2324000000000003</v>
-      </c>
-      <c r="I35" s="16">
-        <v>23</v>
-      </c>
-      <c r="J35" s="16">
-        <v>0</v>
-      </c>
-      <c r="K35" s="16">
-        <v>60</v>
-      </c>
-      <c r="L35" s="16">
-        <f t="shared" si="6"/>
         <v>0.72400000000000009</v>
       </c>
       <c r="M35" s="20">
@@ -15696,7 +17070,7 @@
         <v>307</v>
       </c>
       <c r="O35" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N35,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="P35" s="10"/>
@@ -15707,11 +17081,11 @@
         <v>120</v>
       </c>
       <c r="S35" s="13">
-        <f t="shared" ref="S35:S36" si="16">POWER(10,R35)</f>
+        <f t="shared" ref="S35:S36" si="15">POWER(10,R35)</f>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="T35" s="13" t="str">
-        <f t="shared" ref="T35:T36" si="17">RIGHT(S35,R35)</f>
+        <f t="shared" ref="T35:T36" si="16">RIGHT(S35,R35)</f>
         <v>1E+120</v>
       </c>
       <c r="U35" s="8"/>
@@ -15729,38 +17103,38 @@
         <v>282</v>
       </c>
       <c r="C36" s="16">
+        <f t="shared" si="9"/>
+        <v>1E+110</v>
+      </c>
+      <c r="D36" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>1E+110</v>
-      </c>
-      <c r="D36" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>100마</v>
       </c>
       <c r="E36" s="16">
         <v>20</v>
       </c>
       <c r="F36" s="16">
+        <f t="shared" si="4"/>
+        <v>27200000</v>
+      </c>
+      <c r="G36" s="16">
+        <v>2</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="6"/>
+        <v>0.2400000000000003</v>
+      </c>
+      <c r="I36" s="16">
+        <v>23</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>60</v>
+      </c>
+      <c r="L36" s="16">
         <f t="shared" si="5"/>
-        <v>27200000</v>
-      </c>
-      <c r="G36" s="16">
-        <v>2</v>
-      </c>
-      <c r="H36" s="16">
-        <f t="shared" si="7"/>
-        <v>0.2400000000000003</v>
-      </c>
-      <c r="I36" s="16">
-        <v>23</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0</v>
-      </c>
-      <c r="K36" s="16">
-        <v>60</v>
-      </c>
-      <c r="L36" s="16">
-        <f t="shared" si="6"/>
         <v>0.72800000000000009</v>
       </c>
       <c r="M36" s="20">
@@ -15770,7 +17144,7 @@
         <v>307</v>
       </c>
       <c r="O36" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N36,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="P36" s="10"/>
@@ -15781,11 +17155,11 @@
         <v>124</v>
       </c>
       <c r="S36" s="13">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="T36" s="13" t="str">
         <f t="shared" si="16"/>
-        <v>9.9999999999999995E+123</v>
-      </c>
-      <c r="T36" s="13" t="str">
-        <f t="shared" si="17"/>
         <v>1E+124</v>
       </c>
       <c r="U36" s="8"/>
@@ -15803,38 +17177,38 @@
         <v>283</v>
       </c>
       <c r="C37" s="16">
+        <f t="shared" si="9"/>
+        <v>1.5E+110</v>
+      </c>
+      <c r="D37" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>1.5E+110</v>
-      </c>
-      <c r="D37" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>150마</v>
       </c>
       <c r="E37" s="16">
         <v>20</v>
       </c>
       <c r="F37" s="16">
+        <f t="shared" si="4"/>
+        <v>27300000</v>
+      </c>
+      <c r="G37" s="16">
+        <v>2</v>
+      </c>
+      <c r="H37" s="16">
+        <f t="shared" si="6"/>
+        <v>0.24760000000000029</v>
+      </c>
+      <c r="I37" s="16">
+        <v>23</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>60</v>
+      </c>
+      <c r="L37" s="16">
         <f t="shared" si="5"/>
-        <v>27300000</v>
-      </c>
-      <c r="G37" s="16">
-        <v>2</v>
-      </c>
-      <c r="H37" s="16">
-        <f t="shared" si="7"/>
-        <v>0.24760000000000029</v>
-      </c>
-      <c r="I37" s="16">
-        <v>23</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0</v>
-      </c>
-      <c r="K37" s="16">
-        <v>60</v>
-      </c>
-      <c r="L37" s="16">
-        <f t="shared" si="6"/>
         <v>0.7320000000000001</v>
       </c>
       <c r="M37" s="20">
@@ -15844,14 +17218,24 @@
         <v>307</v>
       </c>
       <c r="O37" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N37,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
+      <c r="Q37" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="R37" s="12">
+        <v>128</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" ref="S37:S38" si="17">POWER(10,R37)</f>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="T37" s="13" t="str">
+        <f t="shared" ref="T37:T38" si="18">RIGHT(S37,R37)</f>
+        <v>1E+128</v>
+      </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
@@ -15867,38 +17251,38 @@
         <v>284</v>
       </c>
       <c r="C38" s="16">
+        <f t="shared" si="9"/>
+        <v>2E+110</v>
+      </c>
+      <c r="D38" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>2E+110</v>
-      </c>
-      <c r="D38" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>200마</v>
       </c>
       <c r="E38" s="16">
         <v>20</v>
       </c>
       <c r="F38" s="16">
+        <f t="shared" si="4"/>
+        <v>27400000</v>
+      </c>
+      <c r="G38" s="16">
+        <v>2</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" si="6"/>
+        <v>0.2480000000000003</v>
+      </c>
+      <c r="I38" s="16">
+        <v>23</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <v>60</v>
+      </c>
+      <c r="L38" s="16">
         <f t="shared" si="5"/>
-        <v>27400000</v>
-      </c>
-      <c r="G38" s="16">
-        <v>2</v>
-      </c>
-      <c r="H38" s="16">
-        <f t="shared" si="7"/>
-        <v>0.2480000000000003</v>
-      </c>
-      <c r="I38" s="16">
-        <v>23</v>
-      </c>
-      <c r="J38" s="16">
-        <v>0</v>
-      </c>
-      <c r="K38" s="16">
-        <v>60</v>
-      </c>
-      <c r="L38" s="16">
-        <f t="shared" si="6"/>
         <v>0.7360000000000001</v>
       </c>
       <c r="M38" s="20">
@@ -15908,11 +17292,23 @@
         <v>307</v>
       </c>
       <c r="O38" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(N38,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
+      <c r="Q38" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="R38" s="12">
+        <v>132</v>
+      </c>
+      <c r="S38" s="13">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="T38" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>1E+132</v>
+      </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
@@ -15928,38 +17324,38 @@
         <v>285</v>
       </c>
       <c r="C39" s="16">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000001E+110</v>
+      </c>
+      <c r="D39" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>3.0000000000000001E+110</v>
-      </c>
-      <c r="D39" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>300마</v>
       </c>
       <c r="E39" s="16">
         <v>20</v>
       </c>
       <c r="F39" s="16">
+        <f t="shared" si="4"/>
+        <v>27500000</v>
+      </c>
+      <c r="G39" s="16">
+        <v>2</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="6"/>
+        <v>0.24840000000000031</v>
+      </c>
+      <c r="I39" s="16">
+        <v>23</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
+        <v>60</v>
+      </c>
+      <c r="L39" s="16">
         <f t="shared" si="5"/>
-        <v>27500000</v>
-      </c>
-      <c r="G39" s="16">
-        <v>2</v>
-      </c>
-      <c r="H39" s="16">
-        <f t="shared" si="7"/>
-        <v>0.24840000000000031</v>
-      </c>
-      <c r="I39" s="16">
-        <v>23</v>
-      </c>
-      <c r="J39" s="16">
-        <v>0</v>
-      </c>
-      <c r="K39" s="16">
-        <v>60</v>
-      </c>
-      <c r="L39" s="16">
-        <f t="shared" si="6"/>
         <v>0.7400000000000001</v>
       </c>
       <c r="M39" s="20">
@@ -15969,11 +17365,23 @@
         <v>307</v>
       </c>
       <c r="O39" s="12" t="str">
-        <f t="shared" ref="O39:O60" si="18">VLOOKUP(N39,Q:T,4,FALSE)</f>
+        <f>VLOOKUP(N39,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
+      <c r="Q39" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="R39" s="12">
+        <v>136</v>
+      </c>
+      <c r="S39" s="13">
+        <f t="shared" ref="S39:S42" si="19">POWER(10,R39)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="T39" s="13" t="str">
+        <f t="shared" ref="T39:T42" si="20">RIGHT(S39,R39)</f>
+        <v>1E+136</v>
+      </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
@@ -15989,38 +17397,38 @@
         <v>286</v>
       </c>
       <c r="C40" s="16">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000005E+110</v>
+      </c>
+      <c r="D40" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>5.0000000000000005E+110</v>
-      </c>
-      <c r="D40" s="16" t="str">
-        <f t="shared" si="11"/>
         <v>500마</v>
       </c>
       <c r="E40" s="16">
         <v>20</v>
       </c>
       <c r="F40" s="16">
+        <f t="shared" si="4"/>
+        <v>27600000</v>
+      </c>
+      <c r="G40" s="16">
+        <v>2</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="6"/>
+        <v>0.24880000000000033</v>
+      </c>
+      <c r="I40" s="16">
+        <v>23</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <v>60</v>
+      </c>
+      <c r="L40" s="16">
         <f t="shared" si="5"/>
-        <v>27600000</v>
-      </c>
-      <c r="G40" s="16">
-        <v>2</v>
-      </c>
-      <c r="H40" s="16">
-        <f t="shared" si="7"/>
-        <v>0.24880000000000033</v>
-      </c>
-      <c r="I40" s="16">
-        <v>23</v>
-      </c>
-      <c r="J40" s="16">
-        <v>0</v>
-      </c>
-      <c r="K40" s="16">
-        <v>60</v>
-      </c>
-      <c r="L40" s="16">
-        <f t="shared" si="6"/>
         <v>0.74400000000000011</v>
       </c>
       <c r="M40" s="20">
@@ -16030,11 +17438,23 @@
         <v>307</v>
       </c>
       <c r="O40" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N40,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
+      <c r="Q40" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="R40" s="12">
+        <v>140</v>
+      </c>
+      <c r="S40" s="13">
+        <f t="shared" si="19"/>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="T40" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+140</v>
+      </c>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="8"/>
@@ -16050,38 +17470,38 @@
         <v>287</v>
       </c>
       <c r="C41" s="16">
-        <f t="shared" ref="C41:C44" si="19">M41*O41</f>
+        <f t="shared" ref="C41:C44" si="21">M41*O41</f>
         <v>8.0000000000000002E+110</v>
       </c>
       <c r="D41" s="16" t="str">
-        <f t="shared" ref="D41:D44" si="20">M41&amp;N41</f>
+        <f t="shared" ref="D41:D44" si="22">M41&amp;N41</f>
         <v>800마</v>
       </c>
       <c r="E41" s="16">
         <v>20</v>
       </c>
       <c r="F41" s="16">
+        <f t="shared" si="4"/>
+        <v>27700000</v>
+      </c>
+      <c r="G41" s="16">
+        <v>2</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="6"/>
+        <v>0.24920000000000034</v>
+      </c>
+      <c r="I41" s="16">
+        <v>23</v>
+      </c>
+      <c r="J41" s="16">
+        <v>0</v>
+      </c>
+      <c r="K41" s="16">
+        <v>60</v>
+      </c>
+      <c r="L41" s="16">
         <f t="shared" si="5"/>
-        <v>27700000</v>
-      </c>
-      <c r="G41" s="16">
-        <v>2</v>
-      </c>
-      <c r="H41" s="16">
-        <f t="shared" si="7"/>
-        <v>0.24920000000000034</v>
-      </c>
-      <c r="I41" s="16">
-        <v>23</v>
-      </c>
-      <c r="J41" s="16">
-        <v>0</v>
-      </c>
-      <c r="K41" s="16">
-        <v>60</v>
-      </c>
-      <c r="L41" s="16">
-        <f t="shared" si="6"/>
         <v>0.74800000000000011</v>
       </c>
       <c r="M41" s="20">
@@ -16091,11 +17511,23 @@
         <v>307</v>
       </c>
       <c r="O41" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N41,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
+      <c r="Q41" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="R41" s="12">
+        <v>144</v>
+      </c>
+      <c r="S41" s="13">
+        <f t="shared" si="19"/>
+        <v>1E+144</v>
+      </c>
+      <c r="T41" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+144</v>
+      </c>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
@@ -16111,38 +17543,38 @@
         <v>288</v>
       </c>
       <c r="C42" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D42" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1000마</v>
       </c>
       <c r="E42" s="16">
         <v>20</v>
       </c>
       <c r="F42" s="16">
+        <f t="shared" si="4"/>
+        <v>27800000</v>
+      </c>
+      <c r="G42" s="16">
+        <v>2</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="6"/>
+        <v>0.24960000000000035</v>
+      </c>
+      <c r="I42" s="16">
+        <v>23</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K42" s="16">
+        <v>60</v>
+      </c>
+      <c r="L42" s="16">
         <f t="shared" si="5"/>
-        <v>27800000</v>
-      </c>
-      <c r="G42" s="16">
-        <v>2</v>
-      </c>
-      <c r="H42" s="16">
-        <f t="shared" si="7"/>
-        <v>0.24960000000000035</v>
-      </c>
-      <c r="I42" s="16">
-        <v>23</v>
-      </c>
-      <c r="J42" s="16">
-        <v>0</v>
-      </c>
-      <c r="K42" s="16">
-        <v>60</v>
-      </c>
-      <c r="L42" s="16">
-        <f t="shared" si="6"/>
         <v>0.75200000000000011</v>
       </c>
       <c r="M42" s="20">
@@ -16152,11 +17584,23 @@
         <v>307</v>
       </c>
       <c r="O42" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N42,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
+      <c r="Q42" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="R42" s="12">
+        <v>148</v>
+      </c>
+      <c r="S42" s="13">
+        <f t="shared" si="19"/>
+        <v>1E+148</v>
+      </c>
+      <c r="T42" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+148</v>
+      </c>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="8"/>
@@ -16172,25 +17616,25 @@
         <v>289</v>
       </c>
       <c r="C43" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.0000000000000002E+111</v>
       </c>
       <c r="D43" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2000마</v>
       </c>
       <c r="E43" s="16">
         <v>20</v>
       </c>
       <c r="F43" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27900000</v>
       </c>
       <c r="G43" s="16">
         <v>2</v>
       </c>
       <c r="H43" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.25000000000000033</v>
       </c>
       <c r="I43" s="16">
@@ -16213,7 +17657,7 @@
         <v>307</v>
       </c>
       <c r="O43" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N43,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="S43" s="8"/>
@@ -16233,38 +17677,38 @@
         <v>290</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="D44" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5000마</v>
       </c>
       <c r="E44" s="16">
         <v>20</v>
       </c>
       <c r="F44" s="16">
+        <f t="shared" si="4"/>
+        <v>28000000</v>
+      </c>
+      <c r="G44" s="16">
+        <v>2</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25040000000000034</v>
+      </c>
+      <c r="I44" s="16">
+        <v>23</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <v>60</v>
+      </c>
+      <c r="L44" s="16">
         <f t="shared" si="5"/>
-        <v>28000000</v>
-      </c>
-      <c r="G44" s="16">
-        <v>2</v>
-      </c>
-      <c r="H44" s="16">
-        <f t="shared" si="7"/>
-        <v>0.25040000000000034</v>
-      </c>
-      <c r="I44" s="16">
-        <v>23</v>
-      </c>
-      <c r="J44" s="16">
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <v>60</v>
-      </c>
-      <c r="L44" s="16">
-        <f t="shared" si="6"/>
         <v>0.76000000000000012</v>
       </c>
       <c r="M44" s="20">
@@ -16274,7 +17718,7 @@
         <v>307</v>
       </c>
       <c r="O44" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N44,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="S44" s="8"/>
@@ -16294,38 +17738,38 @@
         <v>291</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" ref="C45:C59" si="21">M45*O45</f>
+        <f t="shared" ref="C45:C59" si="23">M45*O45</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D45" s="16" t="str">
-        <f t="shared" ref="D45:D59" si="22">M45&amp;N45</f>
+        <f t="shared" ref="D45:D59" si="24">M45&amp;N45</f>
         <v>1살</v>
       </c>
       <c r="E45" s="16">
         <v>20</v>
       </c>
       <c r="F45" s="16">
+        <f t="shared" si="4"/>
+        <v>28100000</v>
+      </c>
+      <c r="G45" s="16">
+        <v>2</v>
+      </c>
+      <c r="H45" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25080000000000036</v>
+      </c>
+      <c r="I45" s="16">
+        <v>23</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <v>60</v>
+      </c>
+      <c r="L45" s="16">
         <f t="shared" si="5"/>
-        <v>28100000</v>
-      </c>
-      <c r="G45" s="16">
-        <v>2</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="7"/>
-        <v>0.25080000000000036</v>
-      </c>
-      <c r="I45" s="16">
-        <v>23</v>
-      </c>
-      <c r="J45" s="16">
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <v>60</v>
-      </c>
-      <c r="L45" s="16">
-        <f t="shared" si="6"/>
         <v>0.76400000000000012</v>
       </c>
       <c r="M45" s="20">
@@ -16335,7 +17779,7 @@
         <v>331</v>
       </c>
       <c r="O45" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N45,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S45" s="8"/>
@@ -16355,38 +17799,38 @@
         <v>292</v>
       </c>
       <c r="C46" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.9999999999999999E+112</v>
       </c>
       <c r="D46" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2살</v>
       </c>
       <c r="E46" s="16">
         <v>20</v>
       </c>
       <c r="F46" s="16">
+        <f t="shared" si="4"/>
+        <v>28200000</v>
+      </c>
+      <c r="G46" s="16">
+        <v>2</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25120000000000037</v>
+      </c>
+      <c r="I46" s="16">
+        <v>23</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>60</v>
+      </c>
+      <c r="L46" s="16">
         <f t="shared" si="5"/>
-        <v>28200000</v>
-      </c>
-      <c r="G46" s="16">
-        <v>2</v>
-      </c>
-      <c r="H46" s="16">
-        <f t="shared" si="7"/>
-        <v>0.25120000000000037</v>
-      </c>
-      <c r="I46" s="16">
-        <v>23</v>
-      </c>
-      <c r="J46" s="16">
-        <v>0</v>
-      </c>
-      <c r="K46" s="16">
-        <v>60</v>
-      </c>
-      <c r="L46" s="16">
-        <f t="shared" si="6"/>
         <v>0.76800000000000013</v>
       </c>
       <c r="M46" s="20">
@@ -16396,7 +17840,7 @@
         <v>331</v>
       </c>
       <c r="O46" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N46,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S46" s="8"/>
@@ -16416,38 +17860,38 @@
         <v>293</v>
       </c>
       <c r="C47" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="D47" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5살</v>
       </c>
       <c r="E47" s="16">
         <v>20</v>
       </c>
       <c r="F47" s="16">
+        <f t="shared" si="4"/>
+        <v>28300000</v>
+      </c>
+      <c r="G47" s="16">
+        <v>2</v>
+      </c>
+      <c r="H47" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25160000000000038</v>
+      </c>
+      <c r="I47" s="16">
+        <v>23</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
+        <v>60</v>
+      </c>
+      <c r="L47" s="16">
         <f t="shared" si="5"/>
-        <v>28300000</v>
-      </c>
-      <c r="G47" s="16">
-        <v>2</v>
-      </c>
-      <c r="H47" s="16">
-        <f t="shared" si="7"/>
-        <v>0.25160000000000038</v>
-      </c>
-      <c r="I47" s="16">
-        <v>23</v>
-      </c>
-      <c r="J47" s="16">
-        <v>0</v>
-      </c>
-      <c r="K47" s="16">
-        <v>60</v>
-      </c>
-      <c r="L47" s="16">
-        <f t="shared" si="6"/>
         <v>0.77200000000000013</v>
       </c>
       <c r="M47" s="20">
@@ -16457,7 +17901,7 @@
         <v>331</v>
       </c>
       <c r="O47" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N47,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S47" s="8"/>
@@ -16477,38 +17921,38 @@
         <v>294</v>
       </c>
       <c r="C48" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+113</v>
       </c>
       <c r="D48" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>10살</v>
       </c>
       <c r="E48" s="16">
         <v>20</v>
       </c>
       <c r="F48" s="16">
+        <f t="shared" si="4"/>
+        <v>28400000</v>
+      </c>
+      <c r="G48" s="16">
+        <v>2</v>
+      </c>
+      <c r="H48" s="16">
+        <f t="shared" si="6"/>
+        <v>0.25200000000000039</v>
+      </c>
+      <c r="I48" s="16">
+        <v>23</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0</v>
+      </c>
+      <c r="K48" s="16">
+        <v>60</v>
+      </c>
+      <c r="L48" s="16">
         <f t="shared" si="5"/>
-        <v>28400000</v>
-      </c>
-      <c r="G48" s="16">
-        <v>2</v>
-      </c>
-      <c r="H48" s="16">
-        <f t="shared" si="7"/>
-        <v>0.25200000000000039</v>
-      </c>
-      <c r="I48" s="16">
-        <v>23</v>
-      </c>
-      <c r="J48" s="16">
-        <v>0</v>
-      </c>
-      <c r="K48" s="16">
-        <v>60</v>
-      </c>
-      <c r="L48" s="16">
-        <f t="shared" si="6"/>
         <v>0.77600000000000013</v>
       </c>
       <c r="M48" s="20">
@@ -16518,7 +17962,7 @@
         <v>331</v>
       </c>
       <c r="O48" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N48,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S48" s="8"/>
@@ -16538,38 +17982,38 @@
         <v>295</v>
       </c>
       <c r="C49" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2E+113</v>
       </c>
       <c r="D49" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>20살</v>
       </c>
       <c r="E49" s="16">
         <v>20</v>
       </c>
       <c r="F49" s="16">
+        <f t="shared" si="4"/>
+        <v>28500000</v>
+      </c>
+      <c r="G49" s="16">
+        <v>2</v>
+      </c>
+      <c r="H49" s="16">
+        <f t="shared" si="6"/>
+        <v>0.2524000000000004</v>
+      </c>
+      <c r="I49" s="16">
+        <v>23</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>60</v>
+      </c>
+      <c r="L49" s="16">
         <f t="shared" si="5"/>
-        <v>28500000</v>
-      </c>
-      <c r="G49" s="16">
-        <v>2</v>
-      </c>
-      <c r="H49" s="16">
-        <f t="shared" si="7"/>
-        <v>0.2524000000000004</v>
-      </c>
-      <c r="I49" s="16">
-        <v>23</v>
-      </c>
-      <c r="J49" s="16">
-        <v>0</v>
-      </c>
-      <c r="K49" s="16">
-        <v>60</v>
-      </c>
-      <c r="L49" s="16">
-        <f t="shared" si="6"/>
         <v>0.78000000000000014</v>
       </c>
       <c r="M49" s="20">
@@ -16579,7 +18023,7 @@
         <v>331</v>
       </c>
       <c r="O49" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N49,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S49" s="8"/>
@@ -16599,38 +18043,38 @@
         <v>296</v>
       </c>
       <c r="C50" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="D50" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50살</v>
       </c>
       <c r="E50" s="16">
         <v>20</v>
       </c>
       <c r="F50" s="16">
+        <f t="shared" si="4"/>
+        <v>28600000</v>
+      </c>
+      <c r="G50" s="16">
+        <v>2</v>
+      </c>
+      <c r="H50" s="16">
+        <f t="shared" si="6"/>
+        <v>0.2600000000000004</v>
+      </c>
+      <c r="I50" s="16">
+        <v>23</v>
+      </c>
+      <c r="J50" s="16">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16">
+        <v>60</v>
+      </c>
+      <c r="L50" s="16">
         <f t="shared" si="5"/>
-        <v>28600000</v>
-      </c>
-      <c r="G50" s="16">
-        <v>2</v>
-      </c>
-      <c r="H50" s="16">
-        <f t="shared" si="7"/>
-        <v>0.2600000000000004</v>
-      </c>
-      <c r="I50" s="16">
-        <v>23</v>
-      </c>
-      <c r="J50" s="16">
-        <v>0</v>
-      </c>
-      <c r="K50" s="16">
-        <v>60</v>
-      </c>
-      <c r="L50" s="16">
-        <f t="shared" si="6"/>
         <v>0.78400000000000014</v>
       </c>
       <c r="M50" s="20">
@@ -16640,7 +18084,7 @@
         <v>331</v>
       </c>
       <c r="O50" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N50,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S50" s="8"/>
@@ -16660,38 +18104,38 @@
         <v>297</v>
       </c>
       <c r="C51" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D51" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>100살</v>
       </c>
       <c r="E51" s="16">
         <v>20</v>
       </c>
       <c r="F51" s="16">
+        <f t="shared" si="4"/>
+        <v>28700000</v>
+      </c>
+      <c r="G51" s="16">
+        <v>2</v>
+      </c>
+      <c r="H51" s="16">
+        <f t="shared" si="6"/>
+        <v>0.26040000000000041</v>
+      </c>
+      <c r="I51" s="16">
+        <v>23</v>
+      </c>
+      <c r="J51" s="16">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16">
+        <v>60</v>
+      </c>
+      <c r="L51" s="16">
         <f t="shared" si="5"/>
-        <v>28700000</v>
-      </c>
-      <c r="G51" s="16">
-        <v>2</v>
-      </c>
-      <c r="H51" s="16">
-        <f t="shared" si="7"/>
-        <v>0.26040000000000041</v>
-      </c>
-      <c r="I51" s="16">
-        <v>23</v>
-      </c>
-      <c r="J51" s="16">
-        <v>0</v>
-      </c>
-      <c r="K51" s="16">
-        <v>60</v>
-      </c>
-      <c r="L51" s="16">
-        <f t="shared" si="6"/>
         <v>0.78800000000000014</v>
       </c>
       <c r="M51" s="20">
@@ -16701,7 +18145,7 @@
         <v>331</v>
       </c>
       <c r="O51" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N51,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S51" s="8"/>
@@ -16721,38 +18165,38 @@
         <v>298</v>
       </c>
       <c r="C52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.5E+114</v>
       </c>
       <c r="D52" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>150살</v>
       </c>
       <c r="E52" s="16">
         <v>20</v>
       </c>
       <c r="F52" s="16">
+        <f t="shared" si="4"/>
+        <v>28800000</v>
+      </c>
+      <c r="G52" s="16">
+        <v>2</v>
+      </c>
+      <c r="H52" s="16">
+        <f t="shared" si="6"/>
+        <v>0.26080000000000042</v>
+      </c>
+      <c r="I52" s="16">
+        <v>23</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0</v>
+      </c>
+      <c r="K52" s="16">
+        <v>60</v>
+      </c>
+      <c r="L52" s="16">
         <f t="shared" si="5"/>
-        <v>28800000</v>
-      </c>
-      <c r="G52" s="16">
-        <v>2</v>
-      </c>
-      <c r="H52" s="16">
-        <f t="shared" si="7"/>
-        <v>0.26080000000000042</v>
-      </c>
-      <c r="I52" s="16">
-        <v>23</v>
-      </c>
-      <c r="J52" s="16">
-        <v>0</v>
-      </c>
-      <c r="K52" s="16">
-        <v>60</v>
-      </c>
-      <c r="L52" s="16">
-        <f t="shared" si="6"/>
         <v>0.79200000000000015</v>
       </c>
       <c r="M52" s="20">
@@ -16762,7 +18206,7 @@
         <v>331</v>
       </c>
       <c r="O52" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N52,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S52" s="8"/>
@@ -16782,38 +18226,38 @@
         <v>299</v>
       </c>
       <c r="C53" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.9999999999999998E+114</v>
       </c>
       <c r="D53" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>200살</v>
       </c>
       <c r="E53" s="16">
         <v>20</v>
       </c>
       <c r="F53" s="16">
+        <f t="shared" si="4"/>
+        <v>28900000</v>
+      </c>
+      <c r="G53" s="16">
+        <v>2</v>
+      </c>
+      <c r="H53" s="16">
+        <f t="shared" si="6"/>
+        <v>0.26120000000000043</v>
+      </c>
+      <c r="I53" s="16">
+        <v>23</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
+        <v>60</v>
+      </c>
+      <c r="L53" s="16">
         <f t="shared" si="5"/>
-        <v>28900000</v>
-      </c>
-      <c r="G53" s="16">
-        <v>2</v>
-      </c>
-      <c r="H53" s="16">
-        <f t="shared" si="7"/>
-        <v>0.26120000000000043</v>
-      </c>
-      <c r="I53" s="16">
-        <v>23</v>
-      </c>
-      <c r="J53" s="16">
-        <v>0</v>
-      </c>
-      <c r="K53" s="16">
-        <v>60</v>
-      </c>
-      <c r="L53" s="16">
-        <f t="shared" si="6"/>
         <v>0.79600000000000015</v>
       </c>
       <c r="M53" s="20">
@@ -16823,7 +18267,7 @@
         <v>331</v>
       </c>
       <c r="O53" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N53,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S53" s="8"/>
@@ -16843,38 +18287,38 @@
         <v>300</v>
       </c>
       <c r="C54" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3E+114</v>
       </c>
       <c r="D54" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>300살</v>
       </c>
       <c r="E54" s="16">
         <v>20</v>
       </c>
       <c r="F54" s="16">
+        <f t="shared" si="4"/>
+        <v>29000000</v>
+      </c>
+      <c r="G54" s="16">
+        <v>2</v>
+      </c>
+      <c r="H54" s="16">
+        <f t="shared" si="6"/>
+        <v>0.26160000000000044</v>
+      </c>
+      <c r="I54" s="16">
+        <v>23</v>
+      </c>
+      <c r="J54" s="16">
+        <v>0</v>
+      </c>
+      <c r="K54" s="16">
+        <v>60</v>
+      </c>
+      <c r="L54" s="16">
         <f t="shared" si="5"/>
-        <v>29000000</v>
-      </c>
-      <c r="G54" s="16">
-        <v>2</v>
-      </c>
-      <c r="H54" s="16">
-        <f t="shared" si="7"/>
-        <v>0.26160000000000044</v>
-      </c>
-      <c r="I54" s="16">
-        <v>23</v>
-      </c>
-      <c r="J54" s="16">
-        <v>0</v>
-      </c>
-      <c r="K54" s="16">
-        <v>60</v>
-      </c>
-      <c r="L54" s="16">
-        <f t="shared" si="6"/>
         <v>0.80000000000000016</v>
       </c>
       <c r="M54" s="20">
@@ -16884,7 +18328,7 @@
         <v>331</v>
       </c>
       <c r="O54" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N54,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S54" s="8"/>
@@ -16904,38 +18348,38 @@
         <v>301</v>
       </c>
       <c r="C55" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="D55" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500살</v>
       </c>
       <c r="E55" s="16">
         <v>20</v>
       </c>
       <c r="F55" s="16">
+        <f t="shared" si="4"/>
+        <v>29100000</v>
+      </c>
+      <c r="G55" s="16">
+        <v>2</v>
+      </c>
+      <c r="H55" s="16">
+        <f t="shared" si="6"/>
+        <v>0.26200000000000045</v>
+      </c>
+      <c r="I55" s="16">
+        <v>23</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0</v>
+      </c>
+      <c r="K55" s="16">
+        <v>60</v>
+      </c>
+      <c r="L55" s="16">
         <f t="shared" si="5"/>
-        <v>29100000</v>
-      </c>
-      <c r="G55" s="16">
-        <v>2</v>
-      </c>
-      <c r="H55" s="16">
-        <f t="shared" si="7"/>
-        <v>0.26200000000000045</v>
-      </c>
-      <c r="I55" s="16">
-        <v>23</v>
-      </c>
-      <c r="J55" s="16">
-        <v>0</v>
-      </c>
-      <c r="K55" s="16">
-        <v>60</v>
-      </c>
-      <c r="L55" s="16">
-        <f t="shared" si="6"/>
         <v>0.80400000000000016</v>
       </c>
       <c r="M55" s="20">
@@ -16945,7 +18389,7 @@
         <v>331</v>
       </c>
       <c r="O55" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N55,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S55" s="8"/>
@@ -16965,38 +18409,38 @@
         <v>302</v>
       </c>
       <c r="C56" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.999999999999999E+114</v>
       </c>
       <c r="D56" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>800살</v>
       </c>
       <c r="E56" s="16">
         <v>20</v>
       </c>
       <c r="F56" s="16">
+        <f t="shared" si="4"/>
+        <v>29200000</v>
+      </c>
+      <c r="G56" s="16">
+        <v>2</v>
+      </c>
+      <c r="H56" s="16">
+        <f t="shared" si="6"/>
+        <v>0.26240000000000047</v>
+      </c>
+      <c r="I56" s="16">
+        <v>23</v>
+      </c>
+      <c r="J56" s="16">
+        <v>0</v>
+      </c>
+      <c r="K56" s="16">
+        <v>60</v>
+      </c>
+      <c r="L56" s="16">
         <f t="shared" si="5"/>
-        <v>29200000</v>
-      </c>
-      <c r="G56" s="16">
-        <v>2</v>
-      </c>
-      <c r="H56" s="16">
-        <f t="shared" si="7"/>
-        <v>0.26240000000000047</v>
-      </c>
-      <c r="I56" s="16">
-        <v>23</v>
-      </c>
-      <c r="J56" s="16">
-        <v>0</v>
-      </c>
-      <c r="K56" s="16">
-        <v>60</v>
-      </c>
-      <c r="L56" s="16">
-        <f t="shared" si="6"/>
         <v>0.80800000000000016</v>
       </c>
       <c r="M56" s="20">
@@ -17006,7 +18450,7 @@
         <v>331</v>
       </c>
       <c r="O56" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N56,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S56" s="8"/>
@@ -17026,38 +18470,38 @@
         <v>303</v>
       </c>
       <c r="C57" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+115</v>
       </c>
       <c r="D57" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000살</v>
       </c>
       <c r="E57" s="16">
         <v>20</v>
       </c>
       <c r="F57" s="16">
+        <f t="shared" si="4"/>
+        <v>29300000</v>
+      </c>
+      <c r="G57" s="16">
+        <v>2</v>
+      </c>
+      <c r="H57" s="16">
+        <f t="shared" si="6"/>
+        <v>0.27000000000000046</v>
+      </c>
+      <c r="I57" s="16">
+        <v>23</v>
+      </c>
+      <c r="J57" s="16">
+        <v>0</v>
+      </c>
+      <c r="K57" s="16">
+        <v>60</v>
+      </c>
+      <c r="L57" s="16">
         <f t="shared" si="5"/>
-        <v>29300000</v>
-      </c>
-      <c r="G57" s="16">
-        <v>2</v>
-      </c>
-      <c r="H57" s="16">
-        <f t="shared" si="7"/>
-        <v>0.27000000000000046</v>
-      </c>
-      <c r="I57" s="16">
-        <v>23</v>
-      </c>
-      <c r="J57" s="16">
-        <v>0</v>
-      </c>
-      <c r="K57" s="16">
-        <v>60</v>
-      </c>
-      <c r="L57" s="16">
-        <f t="shared" si="6"/>
         <v>0.81200000000000017</v>
       </c>
       <c r="M57" s="20">
@@ -17067,7 +18511,7 @@
         <v>331</v>
       </c>
       <c r="O57" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N57,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S57" s="8"/>
@@ -17087,38 +18531,38 @@
         <v>304</v>
       </c>
       <c r="C58" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2E+115</v>
       </c>
       <c r="D58" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2000살</v>
       </c>
       <c r="E58" s="16">
         <v>20</v>
       </c>
       <c r="F58" s="16">
+        <f t="shared" si="4"/>
+        <v>29400000</v>
+      </c>
+      <c r="G58" s="16">
+        <v>2</v>
+      </c>
+      <c r="H58" s="16">
+        <f t="shared" si="6"/>
+        <v>0.27040000000000047</v>
+      </c>
+      <c r="I58" s="16">
+        <v>23</v>
+      </c>
+      <c r="J58" s="16">
+        <v>0</v>
+      </c>
+      <c r="K58" s="16">
+        <v>60</v>
+      </c>
+      <c r="L58" s="16">
         <f t="shared" si="5"/>
-        <v>29400000</v>
-      </c>
-      <c r="G58" s="16">
-        <v>2</v>
-      </c>
-      <c r="H58" s="16">
-        <f t="shared" si="7"/>
-        <v>0.27040000000000047</v>
-      </c>
-      <c r="I58" s="16">
-        <v>23</v>
-      </c>
-      <c r="J58" s="16">
-        <v>0</v>
-      </c>
-      <c r="K58" s="16">
-        <v>60</v>
-      </c>
-      <c r="L58" s="16">
-        <f t="shared" si="6"/>
         <v>0.81600000000000017</v>
       </c>
       <c r="M58" s="20">
@@ -17128,7 +18572,7 @@
         <v>331</v>
       </c>
       <c r="O58" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N58,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S58" s="8"/>
@@ -17148,38 +18592,38 @@
         <v>305</v>
       </c>
       <c r="C59" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="D59" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000살</v>
       </c>
       <c r="E59" s="16">
         <v>20</v>
       </c>
       <c r="F59" s="16">
+        <f t="shared" si="4"/>
+        <v>29500000</v>
+      </c>
+      <c r="G59" s="16">
+        <v>2</v>
+      </c>
+      <c r="H59" s="16">
+        <f t="shared" si="6"/>
+        <v>0.27080000000000048</v>
+      </c>
+      <c r="I59" s="16">
+        <v>23</v>
+      </c>
+      <c r="J59" s="16">
+        <v>0</v>
+      </c>
+      <c r="K59" s="16">
+        <v>60</v>
+      </c>
+      <c r="L59" s="16">
         <f t="shared" si="5"/>
-        <v>29500000</v>
-      </c>
-      <c r="G59" s="16">
-        <v>2</v>
-      </c>
-      <c r="H59" s="16">
-        <f t="shared" si="7"/>
-        <v>0.27080000000000048</v>
-      </c>
-      <c r="I59" s="16">
-        <v>23</v>
-      </c>
-      <c r="J59" s="16">
-        <v>0</v>
-      </c>
-      <c r="K59" s="16">
-        <v>60</v>
-      </c>
-      <c r="L59" s="16">
-        <f t="shared" si="6"/>
         <v>0.82000000000000017</v>
       </c>
       <c r="M59" s="20">
@@ -17189,7 +18633,7 @@
         <v>331</v>
       </c>
       <c r="O59" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N59,Q:T,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="S59" s="8"/>
@@ -17209,25 +18653,25 @@
         <v>306</v>
       </c>
       <c r="C60" s="16">
-        <f t="shared" ref="C60:C74" si="23">M60*O60</f>
+        <f t="shared" ref="C60:C74" si="25">M60*O60</f>
         <v>1E+116</v>
       </c>
       <c r="D60" s="16" t="str">
-        <f t="shared" ref="D60:D74" si="24">M60&amp;N60</f>
+        <f t="shared" ref="D60:D74" si="26">M60&amp;N60</f>
         <v>1섬</v>
       </c>
       <c r="E60" s="16">
         <v>20</v>
       </c>
       <c r="F60" s="16">
-        <f t="shared" ref="F60:F104" si="25">F59+100000</f>
+        <f t="shared" ref="F60:F119" si="27">F59+100000</f>
         <v>29600000</v>
       </c>
       <c r="G60" s="16">
         <v>2</v>
       </c>
       <c r="H60" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.2712000000000005</v>
       </c>
       <c r="I60" s="16">
@@ -17240,7 +18684,7 @@
         <v>60</v>
       </c>
       <c r="L60" s="16">
-        <f t="shared" ref="L60:L104" si="26">L59+0.004</f>
+        <f t="shared" ref="L60:L119" si="28">L59+0.004</f>
         <v>0.82400000000000018</v>
       </c>
       <c r="M60" s="20">
@@ -17250,7 +18694,7 @@
         <v>332</v>
       </c>
       <c r="O60" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(N60,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="S60" s="8"/>
@@ -17270,25 +18714,25 @@
         <v>307</v>
       </c>
       <c r="C61" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2E+116</v>
       </c>
       <c r="D61" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2섬</v>
       </c>
       <c r="E61" s="16">
         <v>20</v>
       </c>
       <c r="F61" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>29700000</v>
       </c>
       <c r="G61" s="16">
         <v>2</v>
       </c>
       <c r="H61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27160000000000051</v>
       </c>
       <c r="I61" s="16">
@@ -17301,7 +18745,7 @@
         <v>60</v>
       </c>
       <c r="L61" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.82800000000000018</v>
       </c>
       <c r="M61" s="20">
@@ -17311,7 +18755,7 @@
         <v>332</v>
       </c>
       <c r="O61" s="12" t="str">
-        <f t="shared" ref="O61:O75" si="27">VLOOKUP(N61,Q:T,4,FALSE)</f>
+        <f>VLOOKUP(N61,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="S61" s="8"/>
@@ -17331,25 +18775,25 @@
         <v>308</v>
       </c>
       <c r="C62" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="D62" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5섬</v>
       </c>
       <c r="E62" s="16">
         <v>20</v>
       </c>
       <c r="F62" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>29800000</v>
       </c>
       <c r="G62" s="16">
         <v>2</v>
       </c>
       <c r="H62" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27200000000000052</v>
       </c>
       <c r="I62" s="16">
@@ -17362,7 +18806,7 @@
         <v>60</v>
       </c>
       <c r="L62" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.83200000000000018</v>
       </c>
       <c r="M62" s="20">
@@ -17372,7 +18816,7 @@
         <v>332</v>
       </c>
       <c r="O62" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N62,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="S62" s="8"/>
@@ -17392,25 +18836,25 @@
         <v>309</v>
       </c>
       <c r="C63" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D63" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10섬</v>
       </c>
       <c r="E63" s="16">
         <v>20</v>
       </c>
       <c r="F63" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>29900000</v>
       </c>
       <c r="G63" s="16">
         <v>2</v>
       </c>
       <c r="H63" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27240000000000053</v>
       </c>
       <c r="I63" s="16">
@@ -17423,7 +18867,7 @@
         <v>60</v>
       </c>
       <c r="L63" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.83600000000000019</v>
       </c>
       <c r="M63" s="20">
@@ -17433,7 +18877,7 @@
         <v>332</v>
       </c>
       <c r="O63" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N63,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17442,25 +18886,25 @@
         <v>310</v>
       </c>
       <c r="C64" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.0000000000000001E+117</v>
       </c>
       <c r="D64" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>20섬</v>
       </c>
       <c r="E64" s="16">
         <v>20</v>
       </c>
       <c r="F64" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30000000</v>
       </c>
       <c r="G64" s="16">
         <v>2</v>
       </c>
       <c r="H64" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27280000000000054</v>
       </c>
       <c r="I64" s="16">
@@ -17473,7 +18917,7 @@
         <v>60</v>
       </c>
       <c r="L64" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.84000000000000019</v>
       </c>
       <c r="M64" s="20">
@@ -17483,7 +18927,7 @@
         <v>332</v>
       </c>
       <c r="O64" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N64,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17492,25 +18936,25 @@
         <v>311</v>
       </c>
       <c r="C65" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="D65" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50섬</v>
       </c>
       <c r="E65" s="16">
         <v>20</v>
       </c>
       <c r="F65" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30100000</v>
       </c>
       <c r="G65" s="16">
         <v>2</v>
       </c>
       <c r="H65" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27320000000000055</v>
       </c>
       <c r="I65" s="16">
@@ -17523,7 +18967,7 @@
         <v>60</v>
       </c>
       <c r="L65" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.84400000000000019</v>
       </c>
       <c r="M65" s="20">
@@ -17533,7 +18977,7 @@
         <v>332</v>
       </c>
       <c r="O65" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N65,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17542,25 +18986,25 @@
         <v>312</v>
       </c>
       <c r="C66" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D66" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100섬</v>
       </c>
       <c r="E66" s="16">
         <v>20</v>
       </c>
       <c r="F66" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30200000</v>
       </c>
       <c r="G66" s="16">
         <v>2</v>
       </c>
       <c r="H66" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27360000000000056</v>
       </c>
       <c r="I66" s="16">
@@ -17573,7 +19017,7 @@
         <v>60</v>
       </c>
       <c r="L66" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.8480000000000002</v>
       </c>
       <c r="M66" s="20">
@@ -17583,7 +19027,7 @@
         <v>332</v>
       </c>
       <c r="O66" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N66,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17592,25 +19036,25 @@
         <v>313</v>
       </c>
       <c r="C67" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.5E+118</v>
       </c>
       <c r="D67" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>150섬</v>
       </c>
       <c r="E67" s="16">
         <v>20</v>
       </c>
       <c r="F67" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30300000</v>
       </c>
       <c r="G67" s="16">
         <v>2</v>
       </c>
       <c r="H67" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27400000000000058</v>
       </c>
       <c r="I67" s="16">
@@ -17623,7 +19067,7 @@
         <v>60</v>
       </c>
       <c r="L67" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.8520000000000002</v>
       </c>
       <c r="M67" s="20">
@@ -17633,7 +19077,7 @@
         <v>332</v>
       </c>
       <c r="O67" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N67,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17642,25 +19086,25 @@
         <v>314</v>
       </c>
       <c r="C68" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.9999999999999999E+118</v>
       </c>
       <c r="D68" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>200섬</v>
       </c>
       <c r="E68" s="16">
         <v>20</v>
       </c>
       <c r="F68" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30400000</v>
       </c>
       <c r="G68" s="16">
         <v>2</v>
       </c>
       <c r="H68" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27440000000000059</v>
       </c>
       <c r="I68" s="16">
@@ -17673,7 +19117,7 @@
         <v>60</v>
       </c>
       <c r="L68" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.85600000000000021</v>
       </c>
       <c r="M68" s="20">
@@ -17683,7 +19127,7 @@
         <v>332</v>
       </c>
       <c r="O68" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N68,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17692,25 +19136,25 @@
         <v>315</v>
       </c>
       <c r="C69" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3E+118</v>
       </c>
       <c r="D69" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>300섬</v>
       </c>
       <c r="E69" s="16">
         <v>20</v>
       </c>
       <c r="F69" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30500000</v>
       </c>
       <c r="G69" s="16">
         <v>2</v>
       </c>
       <c r="H69" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.2748000000000006</v>
       </c>
       <c r="I69" s="16">
@@ -17723,7 +19167,7 @@
         <v>60</v>
       </c>
       <c r="L69" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.86000000000000021</v>
       </c>
       <c r="M69" s="20">
@@ -17733,7 +19177,7 @@
         <v>332</v>
       </c>
       <c r="O69" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N69,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17742,25 +19186,25 @@
         <v>316</v>
       </c>
       <c r="C70" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="D70" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500섬</v>
       </c>
       <c r="E70" s="16">
         <v>20</v>
       </c>
       <c r="F70" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30600000</v>
       </c>
       <c r="G70" s="16">
         <v>2</v>
       </c>
       <c r="H70" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27520000000000061</v>
       </c>
       <c r="I70" s="16">
@@ -17773,7 +19217,7 @@
         <v>60</v>
       </c>
       <c r="L70" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.86400000000000021</v>
       </c>
       <c r="M70" s="20">
@@ -17783,7 +19227,7 @@
         <v>332</v>
       </c>
       <c r="O70" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N70,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17792,25 +19236,25 @@
         <v>317</v>
       </c>
       <c r="C71" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.9999999999999997E+118</v>
       </c>
       <c r="D71" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>800섬</v>
       </c>
       <c r="E71" s="16">
         <v>20</v>
       </c>
       <c r="F71" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30700000</v>
       </c>
       <c r="G71" s="16">
         <v>2</v>
       </c>
       <c r="H71" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27560000000000062</v>
       </c>
       <c r="I71" s="16">
@@ -17823,7 +19267,7 @@
         <v>60</v>
       </c>
       <c r="L71" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.86800000000000022</v>
       </c>
       <c r="M71" s="20">
@@ -17833,7 +19277,7 @@
         <v>332</v>
       </c>
       <c r="O71" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N71,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17842,25 +19286,25 @@
         <v>318</v>
       </c>
       <c r="C72" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D72" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000섬</v>
       </c>
       <c r="E72" s="16">
         <v>20</v>
       </c>
       <c r="F72" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30800000</v>
       </c>
       <c r="G72" s="16">
         <v>2</v>
       </c>
       <c r="H72" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27600000000000063</v>
       </c>
       <c r="I72" s="16">
@@ -17873,7 +19317,7 @@
         <v>60</v>
       </c>
       <c r="L72" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.87200000000000022</v>
       </c>
       <c r="M72" s="20">
@@ -17883,7 +19327,7 @@
         <v>332</v>
       </c>
       <c r="O72" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N72,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17892,25 +19336,25 @@
         <v>319</v>
       </c>
       <c r="C73" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.9999999999999999E+119</v>
       </c>
       <c r="D73" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2000섬</v>
       </c>
       <c r="E73" s="16">
         <v>20</v>
       </c>
       <c r="F73" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>30900000</v>
       </c>
       <c r="G73" s="16">
         <v>2</v>
       </c>
       <c r="H73" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27640000000000065</v>
       </c>
       <c r="I73" s="16">
@@ -17923,7 +19367,7 @@
         <v>60</v>
       </c>
       <c r="L73" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.87600000000000022</v>
       </c>
       <c r="M73" s="20">
@@ -17933,7 +19377,7 @@
         <v>332</v>
       </c>
       <c r="O73" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N73,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17942,25 +19386,25 @@
         <v>320</v>
       </c>
       <c r="C74" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="D74" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000섬</v>
       </c>
       <c r="E74" s="16">
         <v>20</v>
       </c>
       <c r="F74" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>31000000</v>
       </c>
       <c r="G74" s="16">
         <v>2</v>
       </c>
       <c r="H74" s="16">
-        <f t="shared" ref="H74:H104" si="28">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
+        <f t="shared" ref="H74:H119" si="29">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
         <v>0.27680000000000066</v>
       </c>
       <c r="I74" s="16">
@@ -17973,7 +19417,7 @@
         <v>60</v>
       </c>
       <c r="L74" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.88000000000000023</v>
       </c>
       <c r="M74" s="20">
@@ -17983,7 +19427,7 @@
         <v>332</v>
       </c>
       <c r="O74" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(N74,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -17992,25 +19436,25 @@
         <v>321</v>
       </c>
       <c r="C75" s="16">
-        <f t="shared" ref="C75:C79" si="29">M75*O75</f>
+        <f t="shared" ref="C75:C79" si="30">M75*O75</f>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D75" s="16" t="str">
-        <f t="shared" ref="D75:D79" si="30">M75&amp;N75</f>
+        <f t="shared" ref="D75:D79" si="31">M75&amp;N75</f>
         <v>1찰</v>
       </c>
       <c r="E75" s="16">
         <v>20</v>
       </c>
       <c r="F75" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>31100000</v>
       </c>
       <c r="G75" s="16">
         <v>2</v>
       </c>
       <c r="H75" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.27720000000000067</v>
       </c>
       <c r="I75" s="16">
@@ -18023,7 +19467,7 @@
         <v>60</v>
       </c>
       <c r="L75" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.88400000000000023</v>
       </c>
       <c r="M75" s="20">
@@ -18033,7 +19477,7 @@
         <v>333</v>
       </c>
       <c r="O75" s="12" t="str">
-        <f t="shared" ref="O75:O104" si="31">VLOOKUP(N75,Q:T,4,FALSE)</f>
+        <f>VLOOKUP(N75,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18042,38 +19486,38 @@
         <v>322</v>
       </c>
       <c r="C76" s="16">
+        <f t="shared" si="30"/>
+        <v>2E+120</v>
+      </c>
+      <c r="D76" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>2찰</v>
+      </c>
+      <c r="E76" s="16">
+        <v>20</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" si="27"/>
+        <v>31200000</v>
+      </c>
+      <c r="G76" s="16">
+        <v>2</v>
+      </c>
+      <c r="H76" s="16">
         <f t="shared" si="29"/>
-        <v>2E+120</v>
-      </c>
-      <c r="D76" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v>2찰</v>
-      </c>
-      <c r="E76" s="16">
-        <v>20</v>
-      </c>
-      <c r="F76" s="16">
-        <f t="shared" si="25"/>
-        <v>31200000</v>
-      </c>
-      <c r="G76" s="16">
-        <v>2</v>
-      </c>
-      <c r="H76" s="16">
+        <v>0.27760000000000068</v>
+      </c>
+      <c r="I76" s="16">
+        <v>23</v>
+      </c>
+      <c r="J76" s="16">
+        <v>0</v>
+      </c>
+      <c r="K76" s="16">
+        <v>60</v>
+      </c>
+      <c r="L76" s="16">
         <f t="shared" si="28"/>
-        <v>0.27760000000000068</v>
-      </c>
-      <c r="I76" s="16">
-        <v>23</v>
-      </c>
-      <c r="J76" s="16">
-        <v>0</v>
-      </c>
-      <c r="K76" s="16">
-        <v>60</v>
-      </c>
-      <c r="L76" s="16">
-        <f t="shared" si="26"/>
         <v>0.88800000000000023</v>
       </c>
       <c r="M76" s="20">
@@ -18083,7 +19527,7 @@
         <v>333</v>
       </c>
       <c r="O76" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N76,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18092,38 +19536,38 @@
         <v>323</v>
       </c>
       <c r="C77" s="16">
+        <f t="shared" si="30"/>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="D77" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>5찰</v>
+      </c>
+      <c r="E77" s="16">
+        <v>20</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" si="27"/>
+        <v>31300000</v>
+      </c>
+      <c r="G77" s="16">
+        <v>2</v>
+      </c>
+      <c r="H77" s="16">
         <f t="shared" si="29"/>
-        <v>4.9999999999999996E+120</v>
-      </c>
-      <c r="D77" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v>5찰</v>
-      </c>
-      <c r="E77" s="16">
-        <v>20</v>
-      </c>
-      <c r="F77" s="16">
-        <f t="shared" si="25"/>
-        <v>31300000</v>
-      </c>
-      <c r="G77" s="16">
-        <v>2</v>
-      </c>
-      <c r="H77" s="16">
+        <v>0.27800000000000069</v>
+      </c>
+      <c r="I77" s="16">
+        <v>23</v>
+      </c>
+      <c r="J77" s="16">
+        <v>0</v>
+      </c>
+      <c r="K77" s="16">
+        <v>60</v>
+      </c>
+      <c r="L77" s="16">
         <f t="shared" si="28"/>
-        <v>0.27800000000000069</v>
-      </c>
-      <c r="I77" s="16">
-        <v>23</v>
-      </c>
-      <c r="J77" s="16">
-        <v>0</v>
-      </c>
-      <c r="K77" s="16">
-        <v>60</v>
-      </c>
-      <c r="L77" s="16">
-        <f t="shared" si="26"/>
         <v>0.89200000000000024</v>
       </c>
       <c r="M77" s="20">
@@ -18133,7 +19577,7 @@
         <v>333</v>
       </c>
       <c r="O77" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N77,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18142,38 +19586,38 @@
         <v>324</v>
       </c>
       <c r="C78" s="16">
+        <f t="shared" si="30"/>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="D78" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>10찰</v>
+      </c>
+      <c r="E78" s="16">
+        <v>20</v>
+      </c>
+      <c r="F78" s="16">
+        <f t="shared" si="27"/>
+        <v>31400000</v>
+      </c>
+      <c r="G78" s="16">
+        <v>2</v>
+      </c>
+      <c r="H78" s="16">
         <f t="shared" si="29"/>
-        <v>9.9999999999999992E+120</v>
-      </c>
-      <c r="D78" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v>10찰</v>
-      </c>
-      <c r="E78" s="16">
-        <v>20</v>
-      </c>
-      <c r="F78" s="16">
-        <f t="shared" si="25"/>
-        <v>31400000</v>
-      </c>
-      <c r="G78" s="16">
-        <v>2</v>
-      </c>
-      <c r="H78" s="16">
+        <v>0.2784000000000007</v>
+      </c>
+      <c r="I78" s="16">
+        <v>23</v>
+      </c>
+      <c r="J78" s="16">
+        <v>0</v>
+      </c>
+      <c r="K78" s="16">
+        <v>60</v>
+      </c>
+      <c r="L78" s="16">
         <f t="shared" si="28"/>
-        <v>0.2784000000000007</v>
-      </c>
-      <c r="I78" s="16">
-        <v>23</v>
-      </c>
-      <c r="J78" s="16">
-        <v>0</v>
-      </c>
-      <c r="K78" s="16">
-        <v>60</v>
-      </c>
-      <c r="L78" s="16">
-        <f t="shared" si="26"/>
         <v>0.89600000000000024</v>
       </c>
       <c r="M78" s="20">
@@ -18183,7 +19627,7 @@
         <v>333</v>
       </c>
       <c r="O78" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N78,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18192,38 +19636,38 @@
         <v>325</v>
       </c>
       <c r="C79" s="16">
+        <f t="shared" si="30"/>
+        <v>1.9999999999999998E+121</v>
+      </c>
+      <c r="D79" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>20찰</v>
+      </c>
+      <c r="E79" s="16">
+        <v>20</v>
+      </c>
+      <c r="F79" s="16">
+        <f t="shared" si="27"/>
+        <v>31500000</v>
+      </c>
+      <c r="G79" s="16">
+        <v>2</v>
+      </c>
+      <c r="H79" s="16">
         <f t="shared" si="29"/>
-        <v>1.9999999999999998E+121</v>
-      </c>
-      <c r="D79" s="16" t="str">
-        <f t="shared" si="30"/>
-        <v>20찰</v>
-      </c>
-      <c r="E79" s="16">
-        <v>20</v>
-      </c>
-      <c r="F79" s="16">
-        <f t="shared" si="25"/>
-        <v>31500000</v>
-      </c>
-      <c r="G79" s="16">
-        <v>2</v>
-      </c>
-      <c r="H79" s="16">
+        <v>0.27880000000000071</v>
+      </c>
+      <c r="I79" s="16">
+        <v>23</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="16">
+        <v>60</v>
+      </c>
+      <c r="L79" s="16">
         <f t="shared" si="28"/>
-        <v>0.27880000000000071</v>
-      </c>
-      <c r="I79" s="16">
-        <v>23</v>
-      </c>
-      <c r="J79" s="16">
-        <v>0</v>
-      </c>
-      <c r="K79" s="16">
-        <v>60</v>
-      </c>
-      <c r="L79" s="16">
-        <f t="shared" si="26"/>
         <v>0.90000000000000024</v>
       </c>
       <c r="M79" s="20">
@@ -18233,7 +19677,7 @@
         <v>333</v>
       </c>
       <c r="O79" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N79,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18253,27 +19697,27 @@
         <v>20</v>
       </c>
       <c r="F80" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>31600000</v>
       </c>
       <c r="G80" s="16">
         <v>2</v>
       </c>
       <c r="H80" s="16">
+        <f t="shared" si="29"/>
+        <v>0.27920000000000073</v>
+      </c>
+      <c r="I80" s="16">
+        <v>23</v>
+      </c>
+      <c r="J80" s="16">
+        <v>0</v>
+      </c>
+      <c r="K80" s="16">
+        <v>60</v>
+      </c>
+      <c r="L80" s="16">
         <f t="shared" si="28"/>
-        <v>0.27920000000000073</v>
-      </c>
-      <c r="I80" s="16">
-        <v>23</v>
-      </c>
-      <c r="J80" s="16">
-        <v>0</v>
-      </c>
-      <c r="K80" s="16">
-        <v>60</v>
-      </c>
-      <c r="L80" s="16">
-        <f t="shared" si="26"/>
         <v>0.90400000000000025</v>
       </c>
       <c r="M80" s="20">
@@ -18283,7 +19727,7 @@
         <v>333</v>
       </c>
       <c r="O80" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N80,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18303,27 +19747,27 @@
         <v>20</v>
       </c>
       <c r="F81" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>31700000</v>
       </c>
       <c r="G81" s="16">
         <v>2</v>
       </c>
       <c r="H81" s="16">
+        <f t="shared" si="29"/>
+        <v>0.27960000000000074</v>
+      </c>
+      <c r="I81" s="16">
+        <v>23</v>
+      </c>
+      <c r="J81" s="16">
+        <v>0</v>
+      </c>
+      <c r="K81" s="16">
+        <v>60</v>
+      </c>
+      <c r="L81" s="16">
         <f t="shared" si="28"/>
-        <v>0.27960000000000074</v>
-      </c>
-      <c r="I81" s="16">
-        <v>23</v>
-      </c>
-      <c r="J81" s="16">
-        <v>0</v>
-      </c>
-      <c r="K81" s="16">
-        <v>60</v>
-      </c>
-      <c r="L81" s="16">
-        <f t="shared" si="26"/>
         <v>0.90800000000000025</v>
       </c>
       <c r="M81" s="20">
@@ -18333,7 +19777,7 @@
         <v>333</v>
       </c>
       <c r="O81" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N81,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18353,27 +19797,27 @@
         <v>20</v>
       </c>
       <c r="F82" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>31800000</v>
       </c>
       <c r="G82" s="16">
         <v>2</v>
       </c>
       <c r="H82" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28000000000000075</v>
+      </c>
+      <c r="I82" s="16">
+        <v>23</v>
+      </c>
+      <c r="J82" s="16">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16">
+        <v>60</v>
+      </c>
+      <c r="L82" s="16">
         <f t="shared" si="28"/>
-        <v>0.28000000000000075</v>
-      </c>
-      <c r="I82" s="16">
-        <v>23</v>
-      </c>
-      <c r="J82" s="16">
-        <v>0</v>
-      </c>
-      <c r="K82" s="16">
-        <v>60</v>
-      </c>
-      <c r="L82" s="16">
-        <f t="shared" si="26"/>
         <v>0.91200000000000025</v>
       </c>
       <c r="M82" s="20">
@@ -18383,7 +19827,7 @@
         <v>333</v>
       </c>
       <c r="O82" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N82,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18403,27 +19847,27 @@
         <v>20</v>
       </c>
       <c r="F83" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>31900000</v>
       </c>
       <c r="G83" s="16">
         <v>2</v>
       </c>
       <c r="H83" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28040000000000076</v>
+      </c>
+      <c r="I83" s="16">
+        <v>23</v>
+      </c>
+      <c r="J83" s="16">
+        <v>0</v>
+      </c>
+      <c r="K83" s="16">
+        <v>60</v>
+      </c>
+      <c r="L83" s="16">
         <f t="shared" si="28"/>
-        <v>0.28040000000000076</v>
-      </c>
-      <c r="I83" s="16">
-        <v>23</v>
-      </c>
-      <c r="J83" s="16">
-        <v>0</v>
-      </c>
-      <c r="K83" s="16">
-        <v>60</v>
-      </c>
-      <c r="L83" s="16">
-        <f t="shared" si="26"/>
         <v>0.91600000000000026</v>
       </c>
       <c r="M83" s="20">
@@ -18433,7 +19877,7 @@
         <v>333</v>
       </c>
       <c r="O83" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N83,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18453,27 +19897,27 @@
         <v>20</v>
       </c>
       <c r="F84" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32000000</v>
       </c>
       <c r="G84" s="16">
         <v>2</v>
       </c>
       <c r="H84" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28080000000000077</v>
+      </c>
+      <c r="I84" s="16">
+        <v>23</v>
+      </c>
+      <c r="J84" s="16">
+        <v>0</v>
+      </c>
+      <c r="K84" s="16">
+        <v>60</v>
+      </c>
+      <c r="L84" s="16">
         <f t="shared" si="28"/>
-        <v>0.28080000000000077</v>
-      </c>
-      <c r="I84" s="16">
-        <v>23</v>
-      </c>
-      <c r="J84" s="16">
-        <v>0</v>
-      </c>
-      <c r="K84" s="16">
-        <v>60</v>
-      </c>
-      <c r="L84" s="16">
-        <f t="shared" si="26"/>
         <v>0.92000000000000026</v>
       </c>
       <c r="M84" s="20">
@@ -18483,7 +19927,7 @@
         <v>333</v>
       </c>
       <c r="O84" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N84,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18503,27 +19947,27 @@
         <v>20</v>
       </c>
       <c r="F85" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32100000</v>
       </c>
       <c r="G85" s="16">
         <v>2</v>
       </c>
       <c r="H85" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28120000000000078</v>
+      </c>
+      <c r="I85" s="16">
+        <v>23</v>
+      </c>
+      <c r="J85" s="16">
+        <v>0</v>
+      </c>
+      <c r="K85" s="16">
+        <v>60</v>
+      </c>
+      <c r="L85" s="16">
         <f t="shared" si="28"/>
-        <v>0.28120000000000078</v>
-      </c>
-      <c r="I85" s="16">
-        <v>23</v>
-      </c>
-      <c r="J85" s="16">
-        <v>0</v>
-      </c>
-      <c r="K85" s="16">
-        <v>60</v>
-      </c>
-      <c r="L85" s="16">
-        <f t="shared" si="26"/>
         <v>0.92400000000000027</v>
       </c>
       <c r="M85" s="20">
@@ -18533,7 +19977,7 @@
         <v>333</v>
       </c>
       <c r="O85" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N85,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18553,27 +19997,27 @@
         <v>20</v>
       </c>
       <c r="F86" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32200000</v>
       </c>
       <c r="G86" s="16">
         <v>2</v>
       </c>
       <c r="H86" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28160000000000079</v>
+      </c>
+      <c r="I86" s="16">
+        <v>23</v>
+      </c>
+      <c r="J86" s="16">
+        <v>0</v>
+      </c>
+      <c r="K86" s="16">
+        <v>60</v>
+      </c>
+      <c r="L86" s="16">
         <f t="shared" si="28"/>
-        <v>0.28160000000000079</v>
-      </c>
-      <c r="I86" s="16">
-        <v>23</v>
-      </c>
-      <c r="J86" s="16">
-        <v>0</v>
-      </c>
-      <c r="K86" s="16">
-        <v>60</v>
-      </c>
-      <c r="L86" s="16">
-        <f t="shared" si="26"/>
         <v>0.92800000000000027</v>
       </c>
       <c r="M86" s="20">
@@ -18583,7 +20027,7 @@
         <v>333</v>
       </c>
       <c r="O86" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N86,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18603,27 +20047,27 @@
         <v>20</v>
       </c>
       <c r="F87" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32300000</v>
       </c>
       <c r="G87" s="16">
         <v>2</v>
       </c>
       <c r="H87" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28200000000000081</v>
+      </c>
+      <c r="I87" s="16">
+        <v>23</v>
+      </c>
+      <c r="J87" s="16">
+        <v>0</v>
+      </c>
+      <c r="K87" s="16">
+        <v>60</v>
+      </c>
+      <c r="L87" s="16">
         <f t="shared" si="28"/>
-        <v>0.28200000000000081</v>
-      </c>
-      <c r="I87" s="16">
-        <v>23</v>
-      </c>
-      <c r="J87" s="16">
-        <v>0</v>
-      </c>
-      <c r="K87" s="16">
-        <v>60</v>
-      </c>
-      <c r="L87" s="16">
-        <f t="shared" si="26"/>
         <v>0.93200000000000027</v>
       </c>
       <c r="M87" s="20">
@@ -18633,7 +20077,7 @@
         <v>333</v>
       </c>
       <c r="O87" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N87,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18653,27 +20097,27 @@
         <v>20</v>
       </c>
       <c r="F88" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32400000</v>
       </c>
       <c r="G88" s="16">
         <v>2</v>
       </c>
       <c r="H88" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28240000000000082</v>
+      </c>
+      <c r="I88" s="16">
+        <v>23</v>
+      </c>
+      <c r="J88" s="16">
+        <v>0</v>
+      </c>
+      <c r="K88" s="16">
+        <v>60</v>
+      </c>
+      <c r="L88" s="16">
         <f t="shared" si="28"/>
-        <v>0.28240000000000082</v>
-      </c>
-      <c r="I88" s="16">
-        <v>23</v>
-      </c>
-      <c r="J88" s="16">
-        <v>0</v>
-      </c>
-      <c r="K88" s="16">
-        <v>60</v>
-      </c>
-      <c r="L88" s="16">
-        <f t="shared" si="26"/>
         <v>0.93600000000000028</v>
       </c>
       <c r="M88" s="20">
@@ -18683,7 +20127,7 @@
         <v>333</v>
       </c>
       <c r="O88" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N88,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18703,27 +20147,27 @@
         <v>20</v>
       </c>
       <c r="F89" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32500000</v>
       </c>
       <c r="G89" s="16">
         <v>2</v>
       </c>
       <c r="H89" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28280000000000083</v>
+      </c>
+      <c r="I89" s="16">
+        <v>23</v>
+      </c>
+      <c r="J89" s="16">
+        <v>0</v>
+      </c>
+      <c r="K89" s="16">
+        <v>60</v>
+      </c>
+      <c r="L89" s="16">
         <f t="shared" si="28"/>
-        <v>0.28280000000000083</v>
-      </c>
-      <c r="I89" s="16">
-        <v>23</v>
-      </c>
-      <c r="J89" s="16">
-        <v>0</v>
-      </c>
-      <c r="K89" s="16">
-        <v>60</v>
-      </c>
-      <c r="L89" s="16">
-        <f t="shared" si="26"/>
         <v>0.94000000000000028</v>
       </c>
       <c r="M89" s="20">
@@ -18733,7 +20177,7 @@
         <v>333</v>
       </c>
       <c r="O89" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N89,Q:T,4,FALSE)</f>
         <v>1E+120</v>
       </c>
     </row>
@@ -18753,27 +20197,27 @@
         <v>20</v>
       </c>
       <c r="F90" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32600000</v>
       </c>
       <c r="G90" s="16">
         <v>2</v>
       </c>
       <c r="H90" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28320000000000084</v>
+      </c>
+      <c r="I90" s="16">
+        <v>23</v>
+      </c>
+      <c r="J90" s="16">
+        <v>0</v>
+      </c>
+      <c r="K90" s="16">
+        <v>60</v>
+      </c>
+      <c r="L90" s="16">
         <f t="shared" si="28"/>
-        <v>0.28320000000000084</v>
-      </c>
-      <c r="I90" s="16">
-        <v>23</v>
-      </c>
-      <c r="J90" s="16">
-        <v>0</v>
-      </c>
-      <c r="K90" s="16">
-        <v>60</v>
-      </c>
-      <c r="L90" s="16">
-        <f t="shared" si="26"/>
         <v>0.94400000000000028</v>
       </c>
       <c r="M90" s="20">
@@ -18783,7 +20227,7 @@
         <v>334</v>
       </c>
       <c r="O90" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N90,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -18803,27 +20247,27 @@
         <v>20</v>
       </c>
       <c r="F91" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32700000</v>
       </c>
       <c r="G91" s="16">
         <v>2</v>
       </c>
       <c r="H91" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28360000000000085</v>
+      </c>
+      <c r="I91" s="16">
+        <v>23</v>
+      </c>
+      <c r="J91" s="16">
+        <v>0</v>
+      </c>
+      <c r="K91" s="16">
+        <v>60</v>
+      </c>
+      <c r="L91" s="16">
         <f t="shared" si="28"/>
-        <v>0.28360000000000085</v>
-      </c>
-      <c r="I91" s="16">
-        <v>23</v>
-      </c>
-      <c r="J91" s="16">
-        <v>0</v>
-      </c>
-      <c r="K91" s="16">
-        <v>60</v>
-      </c>
-      <c r="L91" s="16">
-        <f t="shared" si="26"/>
         <v>0.94800000000000029</v>
       </c>
       <c r="M91" s="20">
@@ -18833,7 +20277,7 @@
         <v>334</v>
       </c>
       <c r="O91" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N91,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -18853,27 +20297,27 @@
         <v>20</v>
       </c>
       <c r="F92" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32800000</v>
       </c>
       <c r="G92" s="16">
         <v>2</v>
       </c>
       <c r="H92" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28400000000000086</v>
+      </c>
+      <c r="I92" s="16">
+        <v>23</v>
+      </c>
+      <c r="J92" s="16">
+        <v>0</v>
+      </c>
+      <c r="K92" s="16">
+        <v>60</v>
+      </c>
+      <c r="L92" s="16">
         <f t="shared" si="28"/>
-        <v>0.28400000000000086</v>
-      </c>
-      <c r="I92" s="16">
-        <v>23</v>
-      </c>
-      <c r="J92" s="16">
-        <v>0</v>
-      </c>
-      <c r="K92" s="16">
-        <v>60</v>
-      </c>
-      <c r="L92" s="16">
-        <f t="shared" si="26"/>
         <v>0.95200000000000029</v>
       </c>
       <c r="M92" s="20">
@@ -18883,7 +20327,7 @@
         <v>334</v>
       </c>
       <c r="O92" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N92,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -18903,27 +20347,27 @@
         <v>20</v>
       </c>
       <c r="F93" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>32900000</v>
       </c>
       <c r="G93" s="16">
         <v>2</v>
       </c>
       <c r="H93" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28440000000000087</v>
+      </c>
+      <c r="I93" s="16">
+        <v>23</v>
+      </c>
+      <c r="J93" s="16">
+        <v>0</v>
+      </c>
+      <c r="K93" s="16">
+        <v>60</v>
+      </c>
+      <c r="L93" s="16">
         <f t="shared" si="28"/>
-        <v>0.28440000000000087</v>
-      </c>
-      <c r="I93" s="16">
-        <v>23</v>
-      </c>
-      <c r="J93" s="16">
-        <v>0</v>
-      </c>
-      <c r="K93" s="16">
-        <v>60</v>
-      </c>
-      <c r="L93" s="16">
-        <f t="shared" si="26"/>
         <v>0.95600000000000029</v>
       </c>
       <c r="M93" s="20">
@@ -18933,7 +20377,7 @@
         <v>334</v>
       </c>
       <c r="O93" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N93,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -18953,27 +20397,27 @@
         <v>20</v>
       </c>
       <c r="F94" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33000000</v>
       </c>
       <c r="G94" s="16">
         <v>2</v>
       </c>
       <c r="H94" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28480000000000089</v>
+      </c>
+      <c r="I94" s="16">
+        <v>23</v>
+      </c>
+      <c r="J94" s="16">
+        <v>0</v>
+      </c>
+      <c r="K94" s="16">
+        <v>60</v>
+      </c>
+      <c r="L94" s="16">
         <f t="shared" si="28"/>
-        <v>0.28480000000000089</v>
-      </c>
-      <c r="I94" s="16">
-        <v>23</v>
-      </c>
-      <c r="J94" s="16">
-        <v>0</v>
-      </c>
-      <c r="K94" s="16">
-        <v>60</v>
-      </c>
-      <c r="L94" s="16">
-        <f t="shared" si="26"/>
         <v>0.9600000000000003</v>
       </c>
       <c r="M94" s="20">
@@ -18983,7 +20427,7 @@
         <v>334</v>
       </c>
       <c r="O94" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N94,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -19003,27 +20447,27 @@
         <v>20</v>
       </c>
       <c r="F95" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33100000</v>
       </c>
       <c r="G95" s="16">
         <v>2</v>
       </c>
       <c r="H95" s="16">
+        <f t="shared" si="29"/>
+        <v>0.2852000000000009</v>
+      </c>
+      <c r="I95" s="16">
+        <v>23</v>
+      </c>
+      <c r="J95" s="16">
+        <v>0</v>
+      </c>
+      <c r="K95" s="16">
+        <v>60</v>
+      </c>
+      <c r="L95" s="16">
         <f t="shared" si="28"/>
-        <v>0.2852000000000009</v>
-      </c>
-      <c r="I95" s="16">
-        <v>23</v>
-      </c>
-      <c r="J95" s="16">
-        <v>0</v>
-      </c>
-      <c r="K95" s="16">
-        <v>60</v>
-      </c>
-      <c r="L95" s="16">
-        <f t="shared" si="26"/>
         <v>0.9640000000000003</v>
       </c>
       <c r="M95" s="20">
@@ -19033,7 +20477,7 @@
         <v>334</v>
       </c>
       <c r="O95" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N95,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -19053,27 +20497,27 @@
         <v>20</v>
       </c>
       <c r="F96" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33200000</v>
       </c>
       <c r="G96" s="16">
         <v>2</v>
       </c>
       <c r="H96" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28560000000000091</v>
+      </c>
+      <c r="I96" s="16">
+        <v>23</v>
+      </c>
+      <c r="J96" s="16">
+        <v>0</v>
+      </c>
+      <c r="K96" s="16">
+        <v>60</v>
+      </c>
+      <c r="L96" s="16">
         <f t="shared" si="28"/>
-        <v>0.28560000000000091</v>
-      </c>
-      <c r="I96" s="16">
-        <v>23</v>
-      </c>
-      <c r="J96" s="16">
-        <v>0</v>
-      </c>
-      <c r="K96" s="16">
-        <v>60</v>
-      </c>
-      <c r="L96" s="16">
-        <f t="shared" si="26"/>
         <v>0.9680000000000003</v>
       </c>
       <c r="M96" s="20">
@@ -19083,7 +20527,7 @@
         <v>334</v>
       </c>
       <c r="O96" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N96,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -19103,27 +20547,27 @@
         <v>20</v>
       </c>
       <c r="F97" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33300000</v>
       </c>
       <c r="G97" s="16">
         <v>2</v>
       </c>
       <c r="H97" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28600000000000092</v>
+      </c>
+      <c r="I97" s="16">
+        <v>23</v>
+      </c>
+      <c r="J97" s="16">
+        <v>0</v>
+      </c>
+      <c r="K97" s="16">
+        <v>60</v>
+      </c>
+      <c r="L97" s="16">
         <f t="shared" si="28"/>
-        <v>0.28600000000000092</v>
-      </c>
-      <c r="I97" s="16">
-        <v>23</v>
-      </c>
-      <c r="J97" s="16">
-        <v>0</v>
-      </c>
-      <c r="K97" s="16">
-        <v>60</v>
-      </c>
-      <c r="L97" s="16">
-        <f t="shared" si="26"/>
         <v>0.97200000000000031</v>
       </c>
       <c r="M97" s="20">
@@ -19133,7 +20577,7 @@
         <v>334</v>
       </c>
       <c r="O97" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N97,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -19153,27 +20597,27 @@
         <v>20</v>
       </c>
       <c r="F98" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33400000</v>
       </c>
       <c r="G98" s="16">
         <v>2</v>
       </c>
       <c r="H98" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28640000000000093</v>
+      </c>
+      <c r="I98" s="16">
+        <v>23</v>
+      </c>
+      <c r="J98" s="16">
+        <v>0</v>
+      </c>
+      <c r="K98" s="16">
+        <v>60</v>
+      </c>
+      <c r="L98" s="16">
         <f t="shared" si="28"/>
-        <v>0.28640000000000093</v>
-      </c>
-      <c r="I98" s="16">
-        <v>23</v>
-      </c>
-      <c r="J98" s="16">
-        <v>0</v>
-      </c>
-      <c r="K98" s="16">
-        <v>60</v>
-      </c>
-      <c r="L98" s="16">
-        <f t="shared" si="26"/>
         <v>0.97600000000000031</v>
       </c>
       <c r="M98" s="20">
@@ -19183,7 +20627,7 @@
         <v>334</v>
       </c>
       <c r="O98" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N98,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -19203,27 +20647,27 @@
         <v>20</v>
       </c>
       <c r="F99" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33500000</v>
       </c>
       <c r="G99" s="16">
         <v>2</v>
       </c>
       <c r="H99" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28680000000000094</v>
+      </c>
+      <c r="I99" s="16">
+        <v>23</v>
+      </c>
+      <c r="J99" s="16">
+        <v>0</v>
+      </c>
+      <c r="K99" s="16">
+        <v>60</v>
+      </c>
+      <c r="L99" s="16">
         <f t="shared" si="28"/>
-        <v>0.28680000000000094</v>
-      </c>
-      <c r="I99" s="16">
-        <v>23</v>
-      </c>
-      <c r="J99" s="16">
-        <v>0</v>
-      </c>
-      <c r="K99" s="16">
-        <v>60</v>
-      </c>
-      <c r="L99" s="16">
-        <f t="shared" si="26"/>
         <v>0.98000000000000032</v>
       </c>
       <c r="M99" s="20">
@@ -19233,7 +20677,7 @@
         <v>334</v>
       </c>
       <c r="O99" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N99,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -19253,27 +20697,27 @@
         <v>20</v>
       </c>
       <c r="F100" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33600000</v>
       </c>
       <c r="G100" s="16">
         <v>2</v>
       </c>
       <c r="H100" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28720000000000095</v>
+      </c>
+      <c r="I100" s="16">
+        <v>23</v>
+      </c>
+      <c r="J100" s="16">
+        <v>0</v>
+      </c>
+      <c r="K100" s="16">
+        <v>60</v>
+      </c>
+      <c r="L100" s="16">
         <f t="shared" si="28"/>
-        <v>0.28720000000000095</v>
-      </c>
-      <c r="I100" s="16">
-        <v>23</v>
-      </c>
-      <c r="J100" s="16">
-        <v>0</v>
-      </c>
-      <c r="K100" s="16">
-        <v>60</v>
-      </c>
-      <c r="L100" s="16">
-        <f t="shared" si="26"/>
         <v>0.98400000000000032</v>
       </c>
       <c r="M100" s="20">
@@ -19283,7 +20727,7 @@
         <v>334</v>
       </c>
       <c r="O100" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N100,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -19303,27 +20747,27 @@
         <v>20</v>
       </c>
       <c r="F101" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33700000</v>
       </c>
       <c r="G101" s="16">
         <v>2</v>
       </c>
       <c r="H101" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28760000000000097</v>
+      </c>
+      <c r="I101" s="16">
+        <v>23</v>
+      </c>
+      <c r="J101" s="16">
+        <v>0</v>
+      </c>
+      <c r="K101" s="16">
+        <v>60</v>
+      </c>
+      <c r="L101" s="16">
         <f t="shared" si="28"/>
-        <v>0.28760000000000097</v>
-      </c>
-      <c r="I101" s="16">
-        <v>23</v>
-      </c>
-      <c r="J101" s="16">
-        <v>0</v>
-      </c>
-      <c r="K101" s="16">
-        <v>60</v>
-      </c>
-      <c r="L101" s="16">
-        <f t="shared" si="26"/>
         <v>0.98800000000000032</v>
       </c>
       <c r="M101" s="20">
@@ -19333,7 +20777,7 @@
         <v>334</v>
       </c>
       <c r="O101" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N101,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -19353,27 +20797,27 @@
         <v>20</v>
       </c>
       <c r="F102" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33800000</v>
       </c>
       <c r="G102" s="16">
         <v>2</v>
       </c>
       <c r="H102" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28800000000000098</v>
+      </c>
+      <c r="I102" s="16">
+        <v>23</v>
+      </c>
+      <c r="J102" s="16">
+        <v>0</v>
+      </c>
+      <c r="K102" s="16">
+        <v>60</v>
+      </c>
+      <c r="L102" s="16">
         <f t="shared" si="28"/>
-        <v>0.28800000000000098</v>
-      </c>
-      <c r="I102" s="16">
-        <v>23</v>
-      </c>
-      <c r="J102" s="16">
-        <v>0</v>
-      </c>
-      <c r="K102" s="16">
-        <v>60</v>
-      </c>
-      <c r="L102" s="16">
-        <f t="shared" si="26"/>
         <v>0.99200000000000033</v>
       </c>
       <c r="M102" s="20">
@@ -19383,7 +20827,7 @@
         <v>334</v>
       </c>
       <c r="O102" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N102,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -19403,27 +20847,27 @@
         <v>20</v>
       </c>
       <c r="F103" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>33900000</v>
       </c>
       <c r="G103" s="16">
         <v>2</v>
       </c>
       <c r="H103" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28840000000000099</v>
+      </c>
+      <c r="I103" s="16">
+        <v>23</v>
+      </c>
+      <c r="J103" s="16">
+        <v>0</v>
+      </c>
+      <c r="K103" s="16">
+        <v>60</v>
+      </c>
+      <c r="L103" s="16">
         <f t="shared" si="28"/>
-        <v>0.28840000000000099</v>
-      </c>
-      <c r="I103" s="16">
-        <v>23</v>
-      </c>
-      <c r="J103" s="16">
-        <v>0</v>
-      </c>
-      <c r="K103" s="16">
-        <v>60</v>
-      </c>
-      <c r="L103" s="16">
-        <f t="shared" si="26"/>
         <v>0.99600000000000033</v>
       </c>
       <c r="M103" s="20">
@@ -19433,7 +20877,7 @@
         <v>334</v>
       </c>
       <c r="O103" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N103,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -19453,27 +20897,27 @@
         <v>20</v>
       </c>
       <c r="F104" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>34000000</v>
       </c>
       <c r="G104" s="16">
         <v>2</v>
       </c>
       <c r="H104" s="16">
+        <f t="shared" si="29"/>
+        <v>0.288800000000001</v>
+      </c>
+      <c r="I104" s="16">
+        <v>23</v>
+      </c>
+      <c r="J104" s="16">
+        <v>0</v>
+      </c>
+      <c r="K104" s="16">
+        <v>60</v>
+      </c>
+      <c r="L104" s="16">
         <f t="shared" si="28"/>
-        <v>0.288800000000001</v>
-      </c>
-      <c r="I104" s="16">
-        <v>23</v>
-      </c>
-      <c r="J104" s="16">
-        <v>0</v>
-      </c>
-      <c r="K104" s="16">
-        <v>60</v>
-      </c>
-      <c r="L104" s="16">
-        <f t="shared" si="26"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="M104" s="20">
@@ -19483,8 +20927,758 @@
         <v>334</v>
       </c>
       <c r="O104" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f>VLOOKUP(N104,Q:T,4,FALSE)</f>
         <v>1E+124</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B105" s="21">
+        <v>351</v>
+      </c>
+      <c r="C105" s="16">
+        <f t="shared" ref="C105:C119" si="34">M105*O105</f>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="D105" s="16" t="str">
+        <f t="shared" ref="D105:D119" si="35">M105&amp;N105</f>
+        <v>1위</v>
+      </c>
+      <c r="E105" s="16">
+        <v>20</v>
+      </c>
+      <c r="F105" s="16">
+        <f t="shared" si="27"/>
+        <v>34100000</v>
+      </c>
+      <c r="G105" s="16">
+        <v>2</v>
+      </c>
+      <c r="H105" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28920000000000101</v>
+      </c>
+      <c r="I105" s="16">
+        <v>23</v>
+      </c>
+      <c r="J105" s="16">
+        <v>0</v>
+      </c>
+      <c r="K105" s="16">
+        <v>60</v>
+      </c>
+      <c r="L105" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0040000000000002</v>
+      </c>
+      <c r="M105" s="20">
+        <v>1</v>
+      </c>
+      <c r="N105" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O105" s="12" t="str">
+        <f>VLOOKUP(N105,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B106" s="21">
+        <v>352</v>
+      </c>
+      <c r="C106" s="16">
+        <f t="shared" si="34"/>
+        <v>2.0000000000000002E+128</v>
+      </c>
+      <c r="D106" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>2위</v>
+      </c>
+      <c r="E106" s="16">
+        <v>20</v>
+      </c>
+      <c r="F106" s="16">
+        <f t="shared" si="27"/>
+        <v>34200000</v>
+      </c>
+      <c r="G106" s="16">
+        <v>2</v>
+      </c>
+      <c r="H106" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28960000000000102</v>
+      </c>
+      <c r="I106" s="16">
+        <v>23</v>
+      </c>
+      <c r="J106" s="16">
+        <v>0</v>
+      </c>
+      <c r="K106" s="16">
+        <v>60</v>
+      </c>
+      <c r="L106" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0080000000000002</v>
+      </c>
+      <c r="M106" s="20">
+        <v>2</v>
+      </c>
+      <c r="N106" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O106" s="12" t="str">
+        <f>VLOOKUP(N106,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B107" s="21">
+        <v>353</v>
+      </c>
+      <c r="C107" s="16">
+        <f t="shared" si="34"/>
+        <v>5E+128</v>
+      </c>
+      <c r="D107" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>5위</v>
+      </c>
+      <c r="E107" s="16">
+        <v>20</v>
+      </c>
+      <c r="F107" s="16">
+        <f t="shared" si="27"/>
+        <v>34300000</v>
+      </c>
+      <c r="G107" s="16">
+        <v>2</v>
+      </c>
+      <c r="H107" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29000000000000103</v>
+      </c>
+      <c r="I107" s="16">
+        <v>23</v>
+      </c>
+      <c r="J107" s="16">
+        <v>0</v>
+      </c>
+      <c r="K107" s="16">
+        <v>60</v>
+      </c>
+      <c r="L107" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0120000000000002</v>
+      </c>
+      <c r="M107" s="20">
+        <v>5</v>
+      </c>
+      <c r="N107" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O107" s="12" t="str">
+        <f>VLOOKUP(N107,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B108" s="21">
+        <v>354</v>
+      </c>
+      <c r="C108" s="16">
+        <f t="shared" si="34"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D108" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>10위</v>
+      </c>
+      <c r="E108" s="16">
+        <v>20</v>
+      </c>
+      <c r="F108" s="16">
+        <f t="shared" si="27"/>
+        <v>34400000</v>
+      </c>
+      <c r="G108" s="16">
+        <v>2</v>
+      </c>
+      <c r="H108" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29040000000000105</v>
+      </c>
+      <c r="I108" s="16">
+        <v>23</v>
+      </c>
+      <c r="J108" s="16">
+        <v>0</v>
+      </c>
+      <c r="K108" s="16">
+        <v>60</v>
+      </c>
+      <c r="L108" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0160000000000002</v>
+      </c>
+      <c r="M108" s="20">
+        <v>10</v>
+      </c>
+      <c r="N108" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O108" s="12" t="str">
+        <f>VLOOKUP(N108,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B109" s="21">
+        <v>355</v>
+      </c>
+      <c r="C109" s="16">
+        <f t="shared" si="34"/>
+        <v>2E+129</v>
+      </c>
+      <c r="D109" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>20위</v>
+      </c>
+      <c r="E109" s="16">
+        <v>20</v>
+      </c>
+      <c r="F109" s="16">
+        <f t="shared" si="27"/>
+        <v>34500000</v>
+      </c>
+      <c r="G109" s="16">
+        <v>2</v>
+      </c>
+      <c r="H109" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29080000000000106</v>
+      </c>
+      <c r="I109" s="16">
+        <v>23</v>
+      </c>
+      <c r="J109" s="16">
+        <v>0</v>
+      </c>
+      <c r="K109" s="16">
+        <v>60</v>
+      </c>
+      <c r="L109" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0200000000000002</v>
+      </c>
+      <c r="M109" s="20">
+        <v>20</v>
+      </c>
+      <c r="N109" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O109" s="12" t="str">
+        <f>VLOOKUP(N109,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B110" s="21">
+        <v>356</v>
+      </c>
+      <c r="C110" s="16">
+        <f t="shared" si="34"/>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="D110" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>50위</v>
+      </c>
+      <c r="E110" s="16">
+        <v>20</v>
+      </c>
+      <c r="F110" s="16">
+        <f t="shared" si="27"/>
+        <v>34600000</v>
+      </c>
+      <c r="G110" s="16">
+        <v>2</v>
+      </c>
+      <c r="H110" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29120000000000107</v>
+      </c>
+      <c r="I110" s="16">
+        <v>23</v>
+      </c>
+      <c r="J110" s="16">
+        <v>0</v>
+      </c>
+      <c r="K110" s="16">
+        <v>60</v>
+      </c>
+      <c r="L110" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0240000000000002</v>
+      </c>
+      <c r="M110" s="20">
+        <v>50</v>
+      </c>
+      <c r="N110" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O110" s="12" t="str">
+        <f>VLOOKUP(N110,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B111" s="21">
+        <v>357</v>
+      </c>
+      <c r="C111" s="16">
+        <f t="shared" si="34"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D111" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>100위</v>
+      </c>
+      <c r="E111" s="16">
+        <v>20</v>
+      </c>
+      <c r="F111" s="16">
+        <f t="shared" si="27"/>
+        <v>34700000</v>
+      </c>
+      <c r="G111" s="16">
+        <v>2</v>
+      </c>
+      <c r="H111" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29160000000000108</v>
+      </c>
+      <c r="I111" s="16">
+        <v>23</v>
+      </c>
+      <c r="J111" s="16">
+        <v>0</v>
+      </c>
+      <c r="K111" s="16">
+        <v>60</v>
+      </c>
+      <c r="L111" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0280000000000002</v>
+      </c>
+      <c r="M111" s="20">
+        <v>100</v>
+      </c>
+      <c r="N111" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O111" s="12" t="str">
+        <f>VLOOKUP(N111,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B112" s="21">
+        <v>358</v>
+      </c>
+      <c r="C112" s="16">
+        <f t="shared" si="34"/>
+        <v>1.5000000000000002E+130</v>
+      </c>
+      <c r="D112" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>150위</v>
+      </c>
+      <c r="E112" s="16">
+        <v>20</v>
+      </c>
+      <c r="F112" s="16">
+        <f t="shared" si="27"/>
+        <v>34800000</v>
+      </c>
+      <c r="G112" s="16">
+        <v>2</v>
+      </c>
+      <c r="H112" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29200000000000109</v>
+      </c>
+      <c r="I112" s="16">
+        <v>23</v>
+      </c>
+      <c r="J112" s="16">
+        <v>0</v>
+      </c>
+      <c r="K112" s="16">
+        <v>60</v>
+      </c>
+      <c r="L112" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0320000000000003</v>
+      </c>
+      <c r="M112" s="20">
+        <v>150</v>
+      </c>
+      <c r="N112" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O112" s="12" t="str">
+        <f>VLOOKUP(N112,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B113" s="21">
+        <v>359</v>
+      </c>
+      <c r="C113" s="16">
+        <f t="shared" si="34"/>
+        <v>2.0000000000000001E+130</v>
+      </c>
+      <c r="D113" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>200위</v>
+      </c>
+      <c r="E113" s="16">
+        <v>20</v>
+      </c>
+      <c r="F113" s="16">
+        <f t="shared" si="27"/>
+        <v>34900000</v>
+      </c>
+      <c r="G113" s="16">
+        <v>2</v>
+      </c>
+      <c r="H113" s="16">
+        <f t="shared" si="29"/>
+        <v>0.2924000000000011</v>
+      </c>
+      <c r="I113" s="16">
+        <v>23</v>
+      </c>
+      <c r="J113" s="16">
+        <v>0</v>
+      </c>
+      <c r="K113" s="16">
+        <v>60</v>
+      </c>
+      <c r="L113" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0360000000000003</v>
+      </c>
+      <c r="M113" s="20">
+        <v>200</v>
+      </c>
+      <c r="N113" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O113" s="12" t="str">
+        <f>VLOOKUP(N113,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B114" s="21">
+        <v>360</v>
+      </c>
+      <c r="C114" s="16">
+        <f t="shared" si="34"/>
+        <v>3.0000000000000004E+130</v>
+      </c>
+      <c r="D114" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>300위</v>
+      </c>
+      <c r="E114" s="16">
+        <v>20</v>
+      </c>
+      <c r="F114" s="16">
+        <f t="shared" si="27"/>
+        <v>35000000</v>
+      </c>
+      <c r="G114" s="16">
+        <v>2</v>
+      </c>
+      <c r="H114" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29280000000000111</v>
+      </c>
+      <c r="I114" s="16">
+        <v>23</v>
+      </c>
+      <c r="J114" s="16">
+        <v>0</v>
+      </c>
+      <c r="K114" s="16">
+        <v>60</v>
+      </c>
+      <c r="L114" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0400000000000003</v>
+      </c>
+      <c r="M114" s="20">
+        <v>300</v>
+      </c>
+      <c r="N114" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O114" s="12" t="str">
+        <f>VLOOKUP(N114,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B115" s="21">
+        <v>361</v>
+      </c>
+      <c r="C115" s="16">
+        <f t="shared" si="34"/>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="D115" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>500위</v>
+      </c>
+      <c r="E115" s="16">
+        <v>20</v>
+      </c>
+      <c r="F115" s="16">
+        <f t="shared" si="27"/>
+        <v>35100000</v>
+      </c>
+      <c r="G115" s="16">
+        <v>2</v>
+      </c>
+      <c r="H115" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29320000000000113</v>
+      </c>
+      <c r="I115" s="16">
+        <v>23</v>
+      </c>
+      <c r="J115" s="16">
+        <v>0</v>
+      </c>
+      <c r="K115" s="16">
+        <v>60</v>
+      </c>
+      <c r="L115" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0440000000000003</v>
+      </c>
+      <c r="M115" s="20">
+        <v>500</v>
+      </c>
+      <c r="N115" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O115" s="12" t="str">
+        <f>VLOOKUP(N115,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B116" s="21">
+        <v>362</v>
+      </c>
+      <c r="C116" s="16">
+        <f t="shared" si="34"/>
+        <v>8.0000000000000005E+130</v>
+      </c>
+      <c r="D116" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>800위</v>
+      </c>
+      <c r="E116" s="16">
+        <v>20</v>
+      </c>
+      <c r="F116" s="16">
+        <f t="shared" si="27"/>
+        <v>35200000</v>
+      </c>
+      <c r="G116" s="16">
+        <v>2</v>
+      </c>
+      <c r="H116" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29360000000000114</v>
+      </c>
+      <c r="I116" s="16">
+        <v>23</v>
+      </c>
+      <c r="J116" s="16">
+        <v>0</v>
+      </c>
+      <c r="K116" s="16">
+        <v>60</v>
+      </c>
+      <c r="L116" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0480000000000003</v>
+      </c>
+      <c r="M116" s="20">
+        <v>800</v>
+      </c>
+      <c r="N116" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O116" s="12" t="str">
+        <f>VLOOKUP(N116,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B117" s="21">
+        <v>363</v>
+      </c>
+      <c r="C117" s="16">
+        <f t="shared" si="34"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D117" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>1000위</v>
+      </c>
+      <c r="E117" s="16">
+        <v>20</v>
+      </c>
+      <c r="F117" s="16">
+        <f t="shared" si="27"/>
+        <v>35300000</v>
+      </c>
+      <c r="G117" s="16">
+        <v>2</v>
+      </c>
+      <c r="H117" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29400000000000115</v>
+      </c>
+      <c r="I117" s="16">
+        <v>23</v>
+      </c>
+      <c r="J117" s="16">
+        <v>0</v>
+      </c>
+      <c r="K117" s="16">
+        <v>60</v>
+      </c>
+      <c r="L117" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0520000000000003</v>
+      </c>
+      <c r="M117" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N117" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O117" s="12" t="str">
+        <f>VLOOKUP(N117,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B118" s="21">
+        <v>364</v>
+      </c>
+      <c r="C118" s="16">
+        <f t="shared" si="34"/>
+        <v>2.0000000000000002E+131</v>
+      </c>
+      <c r="D118" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>2000위</v>
+      </c>
+      <c r="E118" s="16">
+        <v>20</v>
+      </c>
+      <c r="F118" s="16">
+        <f t="shared" si="27"/>
+        <v>35400000</v>
+      </c>
+      <c r="G118" s="16">
+        <v>2</v>
+      </c>
+      <c r="H118" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29440000000000116</v>
+      </c>
+      <c r="I118" s="16">
+        <v>23</v>
+      </c>
+      <c r="J118" s="16">
+        <v>0</v>
+      </c>
+      <c r="K118" s="16">
+        <v>60</v>
+      </c>
+      <c r="L118" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0560000000000003</v>
+      </c>
+      <c r="M118" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N118" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O118" s="12" t="str">
+        <f>VLOOKUP(N118,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B119" s="21">
+        <v>365</v>
+      </c>
+      <c r="C119" s="16">
+        <f t="shared" si="34"/>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="D119" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>5000위</v>
+      </c>
+      <c r="E119" s="16">
+        <v>20</v>
+      </c>
+      <c r="F119" s="16">
+        <f t="shared" si="27"/>
+        <v>35500000</v>
+      </c>
+      <c r="G119" s="16">
+        <v>2</v>
+      </c>
+      <c r="H119" s="16">
+        <f t="shared" si="29"/>
+        <v>0.29480000000000117</v>
+      </c>
+      <c r="I119" s="16">
+        <v>23</v>
+      </c>
+      <c r="J119" s="16">
+        <v>0</v>
+      </c>
+      <c r="K119" s="16">
+        <v>60</v>
+      </c>
+      <c r="L119" s="16">
+        <f t="shared" si="28"/>
+        <v>1.0600000000000003</v>
+      </c>
+      <c r="M119" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N119" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O119" s="12" t="str">
+        <f>VLOOKUP(N119,Q:T,4,FALSE)</f>
+        <v>1E+128</v>
       </c>
     </row>
   </sheetData>
